--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -1,75 +1,173 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B4E77-2E9E-42C1-B0EC-13E430531E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="8220" yWindow="6000" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#结果事件配置" r:id="rId3" sheetId="1"/>
+    <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>PBJSON</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="1">
-      <text>
-        <t>resultId
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>resultId
 int64</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1">
-      <text>
-        <t>name
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>name
 string</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="1">
-      <text>
-        <t>description1
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>description1
 string</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1">
-      <text>
-        <t>description2
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>description2
 string</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1">
-      <text>
-        <t>btnText
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>btnText
 string</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="1">
-      <text>
-        <t>recordId
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>recordId
 int64</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="1">
-      <text>
-        <t>effects
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>effects
 int64</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="1">
-      <text>
-        <t>effects
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>effects
 int64</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="1">
-      <text>
-        <t>effects
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>effects
 int64</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -77,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>事件编号</t>
   </si>
@@ -104,31 +202,77 @@
   </si>
   <si>
     <t>效果@2</t>
+  </si>
+  <si>
+    <t>猫咪监视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪陪伴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪入住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,41 +280,370 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.0" customWidth="true"/>
-    <col min="2" max="2" style="1" width="9.0" customWidth="true"/>
-    <col min="3" max="3" style="1" width="10.0" customWidth="true"/>
-    <col min="4" max="4" style="1" width="10.0" customWidth="true"/>
-    <col min="5" max="5" style="1" width="9.0" customWidth="true"/>
-    <col min="6" max="6" style="1" width="9.0" customWidth="true"/>
-    <col min="7" max="7" style="1" width="8.0" customWidth="false"/>
-    <col min="8" max="8" style="1" width="8.0" customWidth="false"/>
-    <col min="9" max="9" style="1" width="8.0" customWidth="false"/>
+    <col min="1" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -199,9 +672,116 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>31000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>31001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>31002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>31003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>31004</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>51004</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B4E77-2E9E-42C1-B0EC-13E430531E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E93FB-E87A-4776-9F4D-EA85EF130793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="6000" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="5790" windowWidth="22800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +690,9 @@
       <c r="G2" s="4">
         <v>50000</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4">
+        <v>51000</v>
+      </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -711,7 +713,9 @@
       <c r="G3" s="4">
         <v>50000</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>51000</v>
+      </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -732,7 +736,9 @@
       <c r="G4" s="4">
         <v>50000</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>51000</v>
+      </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -753,7 +759,9 @@
       <c r="G5" s="4">
         <v>50000</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>51001</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -775,9 +783,11 @@
         <v>50000</v>
       </c>
       <c r="H6" s="4">
+        <v>51002</v>
+      </c>
+      <c r="I6" s="4">
         <v>51004</v>
       </c>
-      <c r="I6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E93FB-E87A-4776-9F4D-EA85EF130793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA605267-B357-4456-BE3A-4ACBBB775419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="5790" windowWidth="22800" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10950" yWindow="5520" windowWidth="21465" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -136,38 +136,14 @@
             <scheme val="minor"/>
           </rPr>
           <t>effects
-int64</t>
+array of (int64)</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>effects
-int64</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>effects
-int64</t>
-        </r>
+        <t>picture
+string</t>
       </text>
     </comment>
   </commentList>
@@ -175,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>事件编号</t>
   </si>
@@ -193,15 +169,6 @@
   </si>
   <si>
     <t>结果记录</t>
-  </si>
-  <si>
-    <t>效果@0</t>
-  </si>
-  <si>
-    <t>效果@1</t>
-  </si>
-  <si>
-    <t>效果@2</t>
   </si>
   <si>
     <t>猫咪监视</t>
@@ -218,12 +185,30 @@
   <si>
     <t>猫咪入住</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>50000, 51000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000, 51001</t>
+  </si>
+  <si>
+    <t>50000, 51002,51004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +247,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79967650379955446"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,9 +291,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -330,6 +308,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,21 +611,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8" style="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="3" max="4" customWidth="true" style="1" width="10.0" collapsed="false"/>
+    <col min="5" max="6" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="4" width="37.625" collapsed="false"/>
+    <col min="8" max="8" style="5" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,135 +646,111 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>31000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>50000</v>
-      </c>
-      <c r="H2" s="4">
-        <v>51000</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>31001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
-        <v>50000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>51000</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>31002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
-        <v>50000</v>
-      </c>
-      <c r="H4" s="4">
-        <v>51000</v>
-      </c>
-      <c r="I4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>31003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>50000</v>
-      </c>
-      <c r="H5" s="4">
-        <v>51001</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>31004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
-        <v>50000</v>
-      </c>
-      <c r="H6" s="4">
-        <v>51002</v>
-      </c>
-      <c r="I6" s="4">
-        <v>51004</v>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA605267-B357-4456-BE3A-4ACBBB775419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD288C5-5775-41CB-B9FB-4BF5160CC590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="5520" windowWidth="21465" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14025" yWindow="4935" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t>picture
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>picture
 string</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -151,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>事件编号</t>
   </si>
@@ -202,13 +211,24 @@
   </si>
   <si>
     <t>图片</t>
+  </si>
+  <si>
+    <t>猫咪洗脑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510020,510040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510000,510001,510002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +267,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,7 +318,16 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -308,10 +343,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,22 +642,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" style="1" width="10.0" collapsed="false"/>
-    <col min="5" max="6" customWidth="true" style="1" width="9.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="4" width="37.625" collapsed="false"/>
-    <col min="8" max="8" style="5" width="8.0" customWidth="false"/>
+    <col min="1" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,14 +676,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>31000</v>
       </c>
@@ -667,11 +698,11 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>31001</v>
       </c>
@@ -686,11 +717,11 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>31002</v>
       </c>
@@ -705,11 +736,11 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>31003</v>
       </c>
@@ -724,11 +755,11 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>31004</v>
       </c>
@@ -743,14 +774,127 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>310000</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>310010</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>310020</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>310030</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>510010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>310040</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>310050</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>510030</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD288C5-5775-41CB-B9FB-4BF5160CC590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714BAC52-C61E-482D-BEFD-956504ED7165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="4935" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="3945" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>事件编号</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>510000,510001,510002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511020,510040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511000,511001,511002,511003,511004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -892,6 +904,120 @@
         <v>510030</v>
       </c>
     </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>311000</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>311010</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>311020</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>511000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>311030</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>511010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>311040</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>311050</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>511030</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714BAC52-C61E-482D-BEFD-956504ED7165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A907FA-F2E3-4E71-9F4D-8FF82AE3A2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="3945" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="5115" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>事件编号</t>
   </si>
@@ -234,6 +234,20 @@
   </si>
   <si>
     <t>511000,511001,511002,511003,511004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag测试0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag测试1</t>
+  </si>
+  <si>
+    <t>flag测试2</t>
+  </si>
+  <si>
+    <t>flag测试3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +352,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -654,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1018,6 +1035,82 @@
         <v>511030</v>
       </c>
     </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>316100</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>516100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>316110</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>516110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>316120</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>516120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>316130</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>516130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A907FA-F2E3-4E71-9F4D-8FF82AE3A2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5685539-3822-46CB-A18D-0C0278547A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="5115" windowWidth="24225" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14055" yWindow="5085" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>事件编号</t>
   </si>
@@ -248,6 +248,22 @@
   </si>
   <si>
     <t>flag测试3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选了分支0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认分支1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选了第一个分支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认分支</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,6 +1127,48 @@
         <v>516130</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>311700</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>311701</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5685539-3822-46CB-A18D-0C0278547A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF27E1-BFA9-420F-9FD1-C4BA24477115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14055" yWindow="5085" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
   <si>
     <t>事件编号</t>
   </si>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>默认分支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Main/4刺探事件卡片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +694,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,6 +750,9 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -765,6 +772,9 @@
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -784,6 +794,9 @@
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -803,6 +816,9 @@
       <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -822,6 +838,9 @@
       <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -841,6 +860,9 @@
       <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -860,6 +882,9 @@
       <c r="G8" s="6">
         <v>510000</v>
       </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -879,6 +904,9 @@
       <c r="G9" s="6">
         <v>510000</v>
       </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -898,6 +926,9 @@
       <c r="G10" s="6">
         <v>510010</v>
       </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -917,6 +948,9 @@
       <c r="G11" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -936,6 +970,9 @@
       <c r="G12" s="6">
         <v>510030</v>
       </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -955,6 +992,9 @@
       <c r="G13" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -974,6 +1014,9 @@
       <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -993,6 +1036,9 @@
       <c r="G15" s="6">
         <v>511000</v>
       </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1012,8 +1058,11 @@
       <c r="G16" s="6">
         <v>511010</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>311040</v>
       </c>
@@ -1031,8 +1080,11 @@
       <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>311050</v>
       </c>
@@ -1050,8 +1102,11 @@
       <c r="G18" s="6">
         <v>511030</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>316100</v>
       </c>
@@ -1069,8 +1124,11 @@
       <c r="G19" s="9">
         <v>516100</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>316110</v>
       </c>
@@ -1088,8 +1146,11 @@
       <c r="G20" s="9">
         <v>516110</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>316120</v>
       </c>
@@ -1107,8 +1168,11 @@
       <c r="G21" s="9">
         <v>516120</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>316130</v>
       </c>
@@ -1126,8 +1190,11 @@
       <c r="G22" s="9">
         <v>516130</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>311700</v>
       </c>
@@ -1147,8 +1214,11 @@
       <c r="G23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>311701</v>
       </c>
@@ -1167,6 +1237,9 @@
       </c>
       <c r="G24" s="9">
         <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF27E1-BFA9-420F-9FD1-C4BA24477115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA77E2E-AF76-4192-BAF5-7480498D94E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="3885" windowWidth="29835" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="263">
   <si>
     <t>事件编号</t>
   </si>
@@ -199,17 +199,6 @@
     <t>效果</t>
   </si>
   <si>
-    <t>50000, 51000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000, 51001</t>
-  </si>
-  <si>
-    <t>50000, 51002,51004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>图片</t>
   </si>
   <si>
@@ -217,57 +206,921 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>510000,510001,510002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511000,511001,511002,511003,511004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Main/4刺探事件卡片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫的秘药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫语者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500010,550000</t>
+  </si>
+  <si>
+    <t>逃亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500020,550000</t>
+  </si>
+  <si>
+    <t>求援</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当隐匿度降为0后，猫咪组织将因人类打击而被毁。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500030,550000</t>
+  </si>
+  <si>
+    <t>500031,550000</t>
+  </si>
+  <si>
+    <t>互不亏欠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500040,550000</t>
+  </si>
+  <si>
+    <t>绝望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500050,550000</t>
+  </si>
+  <si>
+    <t>寝食难安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500060,550000</t>
+  </si>
+  <si>
+    <t>月下之盟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500070,550000, 500074,500075,500076</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>510020,510040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510000,510001,510002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>511020,510040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>511000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>511000,511001,511002,511003,511004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag测试0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag测试1</t>
-  </si>
-  <si>
-    <t>flag测试2</t>
-  </si>
-  <si>
-    <t>flag测试3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选了分支0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认分支1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选了第一个分支</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认分支</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Main/4刺探事件卡片</t>
+  </si>
+  <si>
+    <t>512000,512001,512002,512003,512004,512005,512006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512020,510040</t>
+  </si>
+  <si>
+    <t>513000,513001,513002,513003,513004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513020,510040</t>
+  </si>
+  <si>
+    <t>514000,514001,514002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>514020,510040</t>
+  </si>
+  <si>
+    <t>515000,515001,515002,515003,515004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515020,510040</t>
+  </si>
+  <si>
+    <t>516000,516001,516002,516003,516004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516020,510040</t>
+  </si>
+  <si>
+    <t>517000,517001,517002,517003,517004,517005,517006,517007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517020,510040</t>
+  </si>
+  <si>
+    <t>518000,518001,518002,518003,518004,518005,518006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518020,510040</t>
+  </si>
+  <si>
+    <t>519000,519001,519002,519003,519004,519005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519020,510040</t>
+  </si>
+  <si>
+    <t>520000,520001,520002,520003,520004,520005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520020,510040</t>
+  </si>
+  <si>
+    <t>521000,521001,521002,521003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521020,510040</t>
+  </si>
+  <si>
+    <t>猫咪盛宴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然袭击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪救援</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急会议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将计就计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典开幕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪渗透</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王的罪行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神的使节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清水变美酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平息风暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死者复生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢庆吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣杯的传言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣杯的痕迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣杯的线索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火刑场遗迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠倒的酒杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣杯的力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿庭幽会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的吻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一的朋友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不安的传言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘员集会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术审判团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫审判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牺牲者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿恩人安息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传闻打探</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鼠行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播询问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大军压境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金支援</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反间谍活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教施压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老朋友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强健药方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄人物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒戈相向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>往昔之情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪嚎叫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪潜入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪投毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再退缩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终幕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗杀危机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510100,550000</t>
+  </si>
+  <si>
+    <t>510110,550000</t>
+  </si>
+  <si>
+    <t>510120,550000</t>
+  </si>
+  <si>
+    <t>猫咪联络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升影响，寻找新成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511060,511061</t>
+  </si>
+  <si>
+    <t>武器置备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512100,550000</t>
+  </si>
+  <si>
+    <t>兵力运输</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512110,550000</t>
+  </si>
+  <si>
+    <t>贵族安抚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512120,550000</t>
+  </si>
+  <si>
+    <t>宗教支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512130,550000</t>
+  </si>
+  <si>
+    <t>意外失火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512140,550002</t>
+  </si>
+  <si>
+    <t>伪造笔迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513100,550000</t>
+  </si>
+  <si>
+    <t>寄送遗书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513110,550000</t>
+  </si>
+  <si>
+    <t>葬礼仪式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513120,550000</t>
+  </si>
+  <si>
+    <t>宁静</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513130,550000</t>
+  </si>
+  <si>
+    <t>天谴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513140,550000</t>
+  </si>
+  <si>
+    <t>哀怨之影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513150,550000</t>
+  </si>
+  <si>
+    <t>救赎的使徒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513160,550000,513161</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫的凝视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513200,550000</t>
+  </si>
+  <si>
+    <t>观察日记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513210,550000</t>
+  </si>
+  <si>
+    <t>猫的研究</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513220,550000</t>
+  </si>
+  <si>
+    <t>神的使徒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513230,550000,513231</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点石成金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515100,550000</t>
+  </si>
+  <si>
+    <t>石头戏法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515110,550000</t>
+  </si>
+  <si>
+    <t>穷酸的钻研</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515120,550000,515121,515122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不懈的钻研</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515130,550000,515131,515132</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“赃物”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515140,550000</t>
+  </si>
+  <si>
+    <t>暴政的争论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515150,550000</t>
+  </si>
+  <si>
+    <t>滥杀的不满</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515160,550000</t>
+  </si>
+  <si>
+    <t>苹果的启明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515170,550000,515171</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干点脏活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515180,550000,515181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐猫人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516100,550000</t>
+  </si>
+  <si>
+    <t>光荣的挑衅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516110,550000</t>
+  </si>
+  <si>
+    <t>重拾荣耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516120,550000</t>
+  </si>
+  <si>
+    <t>重拾荣耀</t>
+  </si>
+  <si>
+    <t>516121,550000</t>
+  </si>
+  <si>
+    <t>借酒消愁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516130,550000</t>
+  </si>
+  <si>
+    <t>事业或爱情？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517100,550000</t>
+  </si>
+  <si>
+    <t>不忠之人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517110,550000</t>
+  </si>
+  <si>
+    <t>约会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517120,550000</t>
+  </si>
+  <si>
+    <t>奉命行事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517130,550000</t>
+  </si>
+  <si>
+    <t>捉奸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517140,550000</t>
+  </si>
+  <si>
+    <t>他的抉择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517150,550000,517151</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生开心的消息传为美谈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517150,550000,517152,517153,517154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪疗伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪圣草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见到了神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518110,518113</t>
+  </si>
+  <si>
+    <t>看到了水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518110,518114</t>
+  </si>
+  <si>
+    <t>看到了火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了好梦</t>
+  </si>
+  <si>
+    <t>518110,518116</t>
+  </si>
+  <si>
+    <t>鼠患烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519100,550000</t>
+  </si>
+  <si>
+    <t>519101,550000</t>
+  </si>
+  <si>
+    <t>不惜代价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519110,550000</t>
+  </si>
+  <si>
+    <t>519111,550000</t>
+  </si>
+  <si>
+    <t>猫的降世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519120,550000</t>
+  </si>
+  <si>
+    <t>519121,550000,519122,519123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠患四起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519130,519131</t>
+  </si>
+  <si>
+    <t>519140,519141</t>
+  </si>
+  <si>
+    <t>519150,519151</t>
+  </si>
+  <si>
+    <t>建言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520100,550000</t>
+  </si>
+  <si>
+    <t>奇怪的作息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520110,550000</t>
+  </si>
+  <si>
+    <t>拦截密函</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520120,550000,520121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520120,550000</t>
+  </si>
+  <si>
+    <t>逮捕叛徒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520130,550000</t>
+  </si>
+  <si>
+    <t>复仇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520140,550000</t>
+  </si>
+  <si>
+    <t>“偷狱”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520150,550000</t>
+  </si>
+  <si>
+    <t>放弃追债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521110,550000</t>
+  </si>
+  <si>
+    <t>铤而走险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521120,550000</t>
+  </si>
+  <si>
+    <t>赎金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521130,550000</t>
+  </si>
+  <si>
+    <t>救赎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521140,550000</t>
+  </si>
+  <si>
+    <t>难兄难弟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521150,550000</t>
+  </si>
+  <si>
+    <t>寒酸的款待</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521160,550000</t>
+  </si>
+  <si>
+    <t>自保措施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521170,550000</t>
+  </si>
+  <si>
+    <t>破屋保卫战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521180,550000</t>
+  </si>
+  <si>
+    <t>虚惊一场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521190,550000</t>
+  </si>
+  <si>
+    <t>猫咪审判</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530010,530011</t>
+  </si>
+  <si>
+    <t>530020,530021</t>
+  </si>
+  <si>
+    <t>猫咪巡游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪仪式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪集会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿梭特训</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530120,530121,530122,530123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥想特训</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530130,530131,530132,530133</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怜爱特训</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530140,530141,530142,530143</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530150,530151,530152,530153</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530160,530161,530162,530163</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530170,530171,530172,530173</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类警觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,550000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +1150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +1172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,12 +1230,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -691,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="L303" sqref="L303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,15 +1586,15 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>31000</v>
+        <v>300000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -747,19 +1604,19 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
+      <c r="G2" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>31001</v>
+        <v>300010</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -769,19 +1626,19 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>31002</v>
+        <v>300020</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -791,63 +1648,67 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>31003</v>
+        <v>300030</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>12</v>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>31004</v>
+        <v>300031</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>13</v>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>310000</v>
+        <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -858,18 +1719,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>310010</v>
+        <v>300050</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -879,19 +1740,19 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="6">
-        <v>510000</v>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>310020</v>
+        <v>300060</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -901,19 +1762,19 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
-        <v>510000</v>
+      <c r="G9" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>310030</v>
+        <v>300070</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -923,41 +1784,23 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
-        <v>510010</v>
+      <c r="G10" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>310040</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>310050</v>
+        <v>310000</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -967,16 +1810,16 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="6">
-        <v>510030</v>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>311000</v>
+        <v>310010</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -989,16 +1832,16 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
+      <c r="G13" s="8">
+        <v>510000</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>311010</v>
+        <v>310020</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>6</v>
@@ -1011,19 +1854,19 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>19</v>
+      <c r="G14" s="8">
+        <v>510000</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>311020</v>
+        <v>310030</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1033,19 +1876,19 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="6">
-        <v>511000</v>
+      <c r="G15" s="8">
+        <v>510010</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>311030</v>
+        <v>310040</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1055,19 +1898,19 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="6">
-        <v>511010</v>
+      <c r="G16" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>311040</v>
+        <v>310050</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1077,19 +1920,19 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>18</v>
+      <c r="G17" s="8">
+        <v>510030</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>311050</v>
+        <v>311000</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1099,19 +1942,19 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="6">
-        <v>511030</v>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>316100</v>
+        <v>311010</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1121,19 +1964,19 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="9">
-        <v>516100</v>
+      <c r="G19" s="8">
+        <v>511000</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>316110</v>
+        <v>311020</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1143,19 +1986,19 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="9">
-        <v>516110</v>
+      <c r="G20" s="8">
+        <v>511000</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>316120</v>
+        <v>311030</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1165,19 +2008,19 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
-        <v>516120</v>
+      <c r="G21" s="8">
+        <v>511010</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>316130</v>
+        <v>311040</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1187,23 +2030,21 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
-        <v>516130</v>
+      <c r="G22" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>311700</v>
+        <v>311050</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -1211,23 +2052,21 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="9">
-        <v>0</v>
+      <c r="G23" s="6">
+        <v>511030</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>311701</v>
+        <v>312000</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -1235,11 +2074,6009 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <v>0</v>
+      <c r="G24" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>312010</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>512000</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>312020</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>512000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>312030</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>512010</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>312040</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>312050</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>512030</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>313000</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>313010</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>513000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>313020</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>513000</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>313030</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>513010</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>313040</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>313050</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>513030</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>314000</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>314010</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <v>514000</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>314020</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>514000</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>314030</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>514010</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>314040</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>314050</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>514030</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>315000</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>315010</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>515000</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>315020</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <v>515000</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>315030</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>515010</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>315040</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>315050</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
+        <v>515030</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>316000</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>316010</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
+        <v>516000</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>316020</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <v>516000</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>316030</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
+        <v>516010</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>316040</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>316050</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
+        <v>516030</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>317000</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>317010</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8">
+        <v>517000</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>317020</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
+        <v>517000</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>317030</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="8">
+        <v>517010</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>317040</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>317050</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
+        <v>517030</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>318000</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>318010</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8">
+        <v>518000</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>318020</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8">
+        <v>518000</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>318030</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="8">
+        <v>518010</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>318040</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>318050</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="8">
+        <v>518030</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>319000</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>319010</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>519000</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>319020</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8">
+        <v>519000</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>319030</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8">
+        <v>519010</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>319040</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>319050</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8">
+        <v>519030</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>320000</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>320010</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="6">
+        <v>520000</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>320020</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="6">
+        <v>520000</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>320030</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
+        <v>520010</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>320040</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>320050</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
+        <v>520030</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>321000</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>321010</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="8">
+        <v>521000</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>321020</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="8">
+        <v>521000</v>
+      </c>
+      <c r="H80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>321030</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="8">
+        <v>521010</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>321040</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>321050</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="8">
+        <v>521030</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>300100</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="8">
+        <v>500100</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>300110</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="8">
+        <v>500110</v>
+      </c>
+      <c r="H86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>300120</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="8">
+        <v>500120</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>300130</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="8">
+        <v>500130</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>300140</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="8">
+        <v>500140</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>300150</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="8">
+        <v>500150</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>300160</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="8">
+        <v>500160</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>300170</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
+        <v>500170</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>300180</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="8">
+        <v>500180</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>300200</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="8">
+        <v>500200</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>300210</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="8">
+        <v>500210</v>
+      </c>
+      <c r="H96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>300220</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="8">
+        <v>500220</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>300230</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="8">
+        <v>500230</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>300240</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="8">
+        <v>500240</v>
+      </c>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>300250</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
+        <v>500250</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>300260</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="8">
+        <v>500260</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>300270</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
+        <v>500270</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>300280</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103" s="8">
+        <v>500280</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>300290</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="8">
+        <v>500290</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>300300</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G105" s="8">
+        <v>500300</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>300310</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106" s="8">
+        <v>500310</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>300320</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="8">
+        <v>500320</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>300330</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="8">
+        <v>500330</v>
+      </c>
+      <c r="H108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>300340</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="8">
+        <v>500340</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>300350</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
+        <v>500350</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>301000</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
+        <v>501000</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>301010</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
+        <v>501010</v>
+      </c>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>301020</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
+        <v>501020</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>301030</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
+        <v>501030</v>
+      </c>
+      <c r="H115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>301040</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
+        <v>501040</v>
+      </c>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>301050</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
+        <v>501050</v>
+      </c>
+      <c r="H117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>302000</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="8">
+        <v>502000</v>
+      </c>
+      <c r="H119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>302010</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
+        <v>502010</v>
+      </c>
+      <c r="H120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>302020</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
+        <v>502020</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>302030</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
+        <v>502030</v>
+      </c>
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>303000</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0</v>
+      </c>
+      <c r="G124" s="8">
+        <v>503000</v>
+      </c>
+      <c r="H124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>303010</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
+        <v>503010</v>
+      </c>
+      <c r="H125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>303020</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
+        <v>503020</v>
+      </c>
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>303030</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127" s="8">
+        <v>503030</v>
+      </c>
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>303040</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
+        <v>503040</v>
+      </c>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>303100</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="8">
+        <v>503100</v>
+      </c>
+      <c r="H129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>303110</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0</v>
+      </c>
+      <c r="G130" s="8">
+        <v>503110</v>
+      </c>
+      <c r="H130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>303120</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="8">
+        <v>503120</v>
+      </c>
+      <c r="H131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>303130</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="8">
+        <v>503130</v>
+      </c>
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>303140</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="8">
+        <v>503140</v>
+      </c>
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>303150</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="8">
+        <v>503150</v>
+      </c>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>303160</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0</v>
+      </c>
+      <c r="G135" s="8">
+        <v>503160</v>
+      </c>
+      <c r="H135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>303170</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="8">
+        <v>503170</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>303180</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+      <c r="G137" s="8">
+        <v>503180</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>303190</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="8">
+        <v>503190</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>303200</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="8">
+        <v>503200</v>
+      </c>
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>303210</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="8">
+        <v>503210</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>303220</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="8">
+        <v>503220</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>303300</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0</v>
+      </c>
+      <c r="G143" s="8">
+        <v>503300</v>
+      </c>
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>303310</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0</v>
+      </c>
+      <c r="G144" s="8">
+        <v>503310</v>
+      </c>
+      <c r="H144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>303320</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="8">
+        <v>503320</v>
+      </c>
+      <c r="H145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>303330</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146" s="8">
+        <v>503330</v>
+      </c>
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>303340</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="8">
+        <v>503340</v>
+      </c>
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>303350</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="3">
+        <v>0</v>
+      </c>
+      <c r="G148" s="8">
+        <v>503350</v>
+      </c>
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>303360</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="3">
+        <v>0</v>
+      </c>
+      <c r="G149" s="8">
+        <v>503360</v>
+      </c>
+      <c r="H149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>303370</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150" s="8">
+        <v>503370</v>
+      </c>
+      <c r="H150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>303380</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0</v>
+      </c>
+      <c r="G151" s="8">
+        <v>503380</v>
+      </c>
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>303390</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="3">
+        <v>0</v>
+      </c>
+      <c r="G152" s="8">
+        <v>503390</v>
+      </c>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>303400</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="3">
+        <v>0</v>
+      </c>
+      <c r="G153" s="8">
+        <v>503400</v>
+      </c>
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>303410</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="3">
+        <v>0</v>
+      </c>
+      <c r="G154" s="8">
+        <v>503410</v>
+      </c>
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>303500</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0</v>
+      </c>
+      <c r="G155" s="8">
+        <v>503500</v>
+      </c>
+      <c r="H155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>303510</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="3">
+        <v>0</v>
+      </c>
+      <c r="G156" s="8">
+        <v>503510</v>
+      </c>
+      <c r="H156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>303520</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0</v>
+      </c>
+      <c r="G157" s="8">
+        <v>503520</v>
+      </c>
+      <c r="H157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>303530</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0</v>
+      </c>
+      <c r="G158" s="8">
+        <v>503530</v>
+      </c>
+      <c r="H158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>303540</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
+      <c r="G159" s="8">
+        <v>503540</v>
+      </c>
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>303550</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+      <c r="G160" s="8">
+        <v>503550</v>
+      </c>
+      <c r="H160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>303560</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161" s="8">
+        <v>503560</v>
+      </c>
+      <c r="H161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>303570</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="8">
+        <v>503570</v>
+      </c>
+      <c r="H162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>303580</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163" s="8">
+        <v>503580</v>
+      </c>
+      <c r="H163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>303590</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0</v>
+      </c>
+      <c r="G164" s="8">
+        <v>503590</v>
+      </c>
+      <c r="H164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>303600</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+      <c r="G165" s="8">
+        <v>503600</v>
+      </c>
+      <c r="H165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>303610</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166" s="8">
+        <v>503610</v>
+      </c>
+      <c r="H166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>303700</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0</v>
+      </c>
+      <c r="G167" s="8">
+        <v>503700</v>
+      </c>
+      <c r="H167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>303710</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0</v>
+      </c>
+      <c r="G168" s="8">
+        <v>503710</v>
+      </c>
+      <c r="H168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>303720</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G169" s="8">
+        <v>503720</v>
+      </c>
+      <c r="H169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>303730</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="8">
+        <v>503730</v>
+      </c>
+      <c r="H170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>303740</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="8">
+        <v>503740</v>
+      </c>
+      <c r="H171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>303750</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="8">
+        <v>503750</v>
+      </c>
+      <c r="H172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>303760</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="8">
+        <v>503760</v>
+      </c>
+      <c r="H173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>303770</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="8">
+        <v>503770</v>
+      </c>
+      <c r="H174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>303780</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="8">
+        <v>503780</v>
+      </c>
+      <c r="H175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>303790</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0</v>
+      </c>
+      <c r="G176" s="8">
+        <v>503790</v>
+      </c>
+      <c r="H176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>303800</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0</v>
+      </c>
+      <c r="G177" s="8">
+        <v>503800</v>
+      </c>
+      <c r="H177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>303810</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+      <c r="G178" s="8">
+        <v>503810</v>
+      </c>
+      <c r="H178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>303900</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179" s="8">
+        <v>503900</v>
+      </c>
+      <c r="H179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>303910</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180" s="8">
+        <v>503910</v>
+      </c>
+      <c r="H180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>303920</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="8">
+        <v>503920</v>
+      </c>
+      <c r="H181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>304000</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183" s="8">
+        <v>504000</v>
+      </c>
+      <c r="H183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>304010</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+      <c r="G184" s="8">
+        <v>504010</v>
+      </c>
+      <c r="H184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>304020</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="8">
+        <v>504020</v>
+      </c>
+      <c r="H185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>304030</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="8">
+        <v>504030</v>
+      </c>
+      <c r="H186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>304040</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
+      </c>
+      <c r="G187" s="8">
+        <v>504040</v>
+      </c>
+      <c r="H187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>304050</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0</v>
+      </c>
+      <c r="G188" s="8">
+        <v>504050</v>
+      </c>
+      <c r="H188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>304060</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0</v>
+      </c>
+      <c r="G189" s="8">
+        <v>504060</v>
+      </c>
+      <c r="H189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>304070</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190" s="3">
+        <v>0</v>
+      </c>
+      <c r="G190" s="8">
+        <v>504070</v>
+      </c>
+      <c r="H190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>304080</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0</v>
+      </c>
+      <c r="G191" s="8">
+        <v>504080</v>
+      </c>
+      <c r="H191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>304090</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0</v>
+      </c>
+      <c r="G192" s="8">
+        <v>504090</v>
+      </c>
+      <c r="H192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>304100</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0</v>
+      </c>
+      <c r="G193" s="8">
+        <v>504100</v>
+      </c>
+      <c r="H193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>304110</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0</v>
+      </c>
+      <c r="G194" s="8">
+        <v>504110</v>
+      </c>
+      <c r="H194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>304120</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0</v>
+      </c>
+      <c r="G195" s="8">
+        <v>504120</v>
+      </c>
+      <c r="H195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>304130</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="3">
+        <v>0</v>
+      </c>
+      <c r="G196" s="8">
+        <v>504130</v>
+      </c>
+      <c r="H196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>304200</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0</v>
+      </c>
+      <c r="G197" s="8">
+        <v>504200</v>
+      </c>
+      <c r="H197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>304210</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0</v>
+      </c>
+      <c r="G198" s="8">
+        <v>504210</v>
+      </c>
+      <c r="H198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>304220</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0</v>
+      </c>
+      <c r="G199" s="8">
+        <v>504220</v>
+      </c>
+      <c r="H199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>304230</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0</v>
+      </c>
+      <c r="G200" s="8">
+        <v>504230</v>
+      </c>
+      <c r="H200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>309000</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0</v>
+      </c>
+      <c r="G202" s="8">
+        <v>509000</v>
+      </c>
+      <c r="H202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>309010</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0</v>
+      </c>
+      <c r="G203" s="8">
+        <v>509010</v>
+      </c>
+      <c r="H203" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>309020</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0</v>
+      </c>
+      <c r="G204" s="8">
+        <v>509020</v>
+      </c>
+      <c r="H204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>309030</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0</v>
+      </c>
+      <c r="G205" s="8">
+        <v>509030</v>
+      </c>
+      <c r="H205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>310100</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>310110</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H209" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>310120</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H210" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>311060</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H212" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>312100</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>312110</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>312120</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>312130</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217" s="3">
+        <v>0</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>312140</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218" s="3">
+        <v>0</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>313100</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220" s="3">
+        <v>0</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>313110</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221" s="3">
+        <v>0</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>313120</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222" s="3">
+        <v>0</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>313130</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>313140</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224" s="3">
+        <v>0</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>313150</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F225" s="3">
+        <v>0</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>313160</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>313200</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="3">
+        <v>0</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>313210</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228" s="3">
+        <v>0</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>313220</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229" s="3">
+        <v>0</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H229" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>313230</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F230" s="3">
+        <v>0</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H230" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>315100</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233" s="3">
+        <v>0</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>315110</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234" s="3">
+        <v>0</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>315120</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="3">
+        <v>0</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>315130</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236" s="3">
+        <v>0</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H236" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>315140</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F237" s="3">
+        <v>0</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>315150</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F238" s="3">
+        <v>0</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>315160</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239" s="3">
+        <v>0</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H239" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>315170</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F240" s="3">
+        <v>0</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>315180</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F241" s="3">
+        <v>0</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>316100</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" s="3">
+        <v>0</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>316110</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F244" s="3">
+        <v>0</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>316120</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>316121</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246" s="3">
+        <v>0</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>316130</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F247" s="3">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>317100</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>317110</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F250" s="3">
+        <v>0</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>317120</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F251" s="3">
+        <v>0</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>317130</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F252" s="3">
+        <v>0</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>317140</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F253" s="3">
+        <v>0</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>317150</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F254" s="3">
+        <v>0</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>317151</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>318100</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" s="3">
+        <v>0</v>
+      </c>
+      <c r="G257" s="8">
+        <v>518100</v>
+      </c>
+      <c r="H257" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>318110</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F258" s="3">
+        <v>0</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>318111</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" s="3">
+        <v>0</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>318112</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F260" s="3">
+        <v>0</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>318113</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261" s="3">
+        <v>0</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>319100</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263" s="3">
+        <v>0</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>319101</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>319110</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F265" s="3">
+        <v>0</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>319111</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>319120</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F267" s="3">
+        <v>0</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H267" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>319121</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F268" s="3">
+        <v>0</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>319130</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269" s="3">
+        <v>0</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>319140</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H270" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>319150</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271" s="3">
+        <v>0</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>320100</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F273" s="3">
+        <v>0</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H273" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>320110</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274" s="3">
+        <v>0</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>320120</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275" s="3">
+        <v>0</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>320121</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F276" s="3">
+        <v>0</v>
+      </c>
+      <c r="G276" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H276" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>320130</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F277" s="3">
+        <v>0</v>
+      </c>
+      <c r="G277" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H277" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>320140</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>320150</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F279" s="3">
+        <v>0</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>320160</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F280" s="3">
+        <v>0</v>
+      </c>
+      <c r="G280" s="8">
+        <v>520160</v>
+      </c>
+      <c r="H280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>321100</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F282" s="3">
+        <v>0</v>
+      </c>
+      <c r="G282" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H282" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>321110</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" s="3">
+        <v>0</v>
+      </c>
+      <c r="G283" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>321120</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F284" s="3">
+        <v>0</v>
+      </c>
+      <c r="G284" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>321130</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F285" s="3">
+        <v>0</v>
+      </c>
+      <c r="G285" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>321140</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F286" s="3">
+        <v>0</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>321150</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F287" s="3">
+        <v>0</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>321160</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F288" s="3">
+        <v>0</v>
+      </c>
+      <c r="G288" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>321170</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" s="3">
+        <v>0</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H289" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
+        <v>321180</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" s="3">
+        <v>0</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>330000</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" s="3">
+        <v>0</v>
+      </c>
+      <c r="G292" s="8">
+        <v>530000</v>
+      </c>
+      <c r="H292" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>330010</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293" s="3">
+        <v>0</v>
+      </c>
+      <c r="G293" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H293" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="2">
+        <v>330020</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F294" s="3">
+        <v>0</v>
+      </c>
+      <c r="G294" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H294" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>330030</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F295" s="3">
+        <v>0</v>
+      </c>
+      <c r="G295" s="8">
+        <v>530030</v>
+      </c>
+      <c r="H295" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>330040</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F296" s="3">
+        <v>0</v>
+      </c>
+      <c r="G296" s="8">
+        <v>530040</v>
+      </c>
+      <c r="H296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>330050</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F297" s="3">
+        <v>0</v>
+      </c>
+      <c r="G297" s="8">
+        <v>530050</v>
+      </c>
+      <c r="H297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>330060</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F298" s="3">
+        <v>0</v>
+      </c>
+      <c r="G298" s="8">
+        <v>530060</v>
+      </c>
+      <c r="H298" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>330070</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F299" s="3">
+        <v>0</v>
+      </c>
+      <c r="G299" s="8">
+        <v>530070</v>
+      </c>
+      <c r="H299" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>330080</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F300" s="3">
+        <v>0</v>
+      </c>
+      <c r="G300" s="8">
+        <v>530080</v>
+      </c>
+      <c r="H300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>330090</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F301" s="3">
+        <v>0</v>
+      </c>
+      <c r="G301" s="8">
+        <v>530090</v>
+      </c>
+      <c r="H301" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>330100</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F302" s="3">
+        <v>0</v>
+      </c>
+      <c r="G302" s="8">
+        <v>530100</v>
+      </c>
+      <c r="H302" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>330110</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C303" s="3"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F303" s="3">
+        <v>0</v>
+      </c>
+      <c r="G303" s="8">
+        <v>530110</v>
+      </c>
+      <c r="H303" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>330120</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F304" s="3">
+        <v>0</v>
+      </c>
+      <c r="G304" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H304" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>330130</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" s="3">
+        <v>0</v>
+      </c>
+      <c r="G305" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>330140</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F306" s="3">
+        <v>0</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H306" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>330150</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F307" s="3">
+        <v>0</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H307" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>330160</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F308" s="3">
+        <v>0</v>
+      </c>
+      <c r="G308" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>330170</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309" s="3">
+        <v>0</v>
+      </c>
+      <c r="G309" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>330180</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F310" s="3">
+        <v>0</v>
+      </c>
+      <c r="G310" s="8">
+        <v>530180</v>
+      </c>
+      <c r="H310" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA77E2E-AF76-4192-BAF5-7480498D94E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4331C3B-8AF0-4443-8647-CF19C9CF78E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="3885" windowWidth="29835" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14955" yWindow="4680" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="262">
   <si>
     <t>事件编号</t>
   </si>
@@ -572,10 +572,6 @@
   </si>
   <si>
     <t>终幕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事事件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1150,7 +1146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,12 +1168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,7 +1223,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1548,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="L303" sqref="L303"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1605,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5960,21 +5949,33 @@
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="2">
+        <v>310100</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H207" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>310100</v>
+        <v>310110</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -5993,10 +5994,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>310110</v>
+        <v>310120</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -6014,73 +6015,73 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="2">
-        <v>310120</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F210" s="3">
-        <v>0</v>
-      </c>
-      <c r="G210" s="6" t="s">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>311060</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H210" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H211" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>311060</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F212" s="3">
-        <v>0</v>
-      </c>
-      <c r="G212" s="6" t="s">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>312100</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H212" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F213" s="3">
+        <v>0</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H213" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>312100</v>
+        <v>312110</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -6091,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H214" t="s">
         <v>15</v>
@@ -6099,10 +6100,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>312110</v>
+        <v>312120</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -6113,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H215" t="s">
         <v>15</v>
@@ -6121,10 +6122,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>312120</v>
+        <v>312130</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -6135,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H216" t="s">
         <v>15</v>
@@ -6143,10 +6144,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>312130</v>
+        <v>312140</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -6157,48 +6158,48 @@
         <v>0</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H217" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="2">
-        <v>312140</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F218" s="3">
-        <v>0</v>
-      </c>
-      <c r="G218" s="6" t="s">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>313100</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H218" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F219" s="3">
+        <v>0</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H219" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>313100</v>
+        <v>313110</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -6209,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H220" t="s">
         <v>15</v>
@@ -6217,10 +6218,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>313110</v>
+        <v>313120</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -6231,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H221" t="s">
         <v>15</v>
@@ -6239,10 +6240,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>313120</v>
+        <v>313130</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -6253,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H222" t="s">
         <v>15</v>
@@ -6261,10 +6262,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>313130</v>
+        <v>313140</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -6275,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H223" t="s">
         <v>15</v>
@@ -6283,10 +6284,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>313140</v>
+        <v>313150</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -6297,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H224" t="s">
         <v>15</v>
@@ -6305,10 +6306,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>313150</v>
+        <v>313160</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -6319,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H225" t="s">
         <v>15</v>
@@ -6327,10 +6328,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>313160</v>
+        <v>313200</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -6341,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H226" t="s">
         <v>15</v>
@@ -6349,10 +6350,10 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>313200</v>
+        <v>313210</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -6363,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H227" t="s">
         <v>15</v>
@@ -6371,10 +6372,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>313210</v>
+        <v>313220</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -6385,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H228" t="s">
         <v>15</v>
@@ -6393,10 +6394,10 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>313220</v>
+        <v>313230</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -6407,33 +6408,19 @@
         <v>0</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H229" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>313230</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F230" s="3">
-        <v>0</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H230" t="s">
-        <v>15</v>
-      </c>
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
@@ -6444,19 +6431,33 @@
       <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
+      <c r="A232" s="2">
+        <v>315100</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" s="3">
+        <v>0</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H232" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>315100</v>
+        <v>315110</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -6467,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H233" t="s">
         <v>15</v>
@@ -6475,10 +6476,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>315110</v>
+        <v>315120</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -6489,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H234" t="s">
         <v>15</v>
@@ -6497,10 +6498,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>315120</v>
+        <v>315130</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -6511,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H235" t="s">
         <v>15</v>
@@ -6519,10 +6520,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>315130</v>
+        <v>315140</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -6533,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H236" t="s">
         <v>15</v>
@@ -6541,10 +6542,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>315140</v>
+        <v>315150</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -6555,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H237" t="s">
         <v>15</v>
@@ -6563,10 +6564,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>315150</v>
+        <v>315160</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -6577,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H238" t="s">
         <v>15</v>
@@ -6585,10 +6586,10 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>315160</v>
+        <v>315170</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -6599,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H239" t="s">
         <v>15</v>
@@ -6607,10 +6608,10 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>315170</v>
+        <v>315180</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -6621,48 +6622,48 @@
         <v>0</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H240" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="2">
-        <v>315180</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F241" s="3">
-        <v>0</v>
-      </c>
-      <c r="G241" s="6" t="s">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>316100</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H241" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F242" s="3">
+        <v>0</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H242" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>316100</v>
+        <v>316110</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -6673,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H243" t="s">
         <v>15</v>
@@ -6681,10 +6682,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>316110</v>
+        <v>316120</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -6695,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H244" t="s">
         <v>15</v>
@@ -6703,10 +6704,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>316120</v>
+        <v>316121</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -6717,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H245" t="s">
         <v>15</v>
@@ -6725,10 +6726,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>316121</v>
+        <v>316130</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -6739,48 +6740,48 @@
         <v>0</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H246" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>316130</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F247" s="3">
-        <v>0</v>
-      </c>
-      <c r="G247" s="6" t="s">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>317100</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H247" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H248" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>317100</v>
+        <v>317110</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -6791,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H249" t="s">
         <v>15</v>
@@ -6799,10 +6800,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>317110</v>
+        <v>317120</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -6813,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H250" t="s">
         <v>15</v>
@@ -6821,10 +6822,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>317120</v>
+        <v>317130</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -6835,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H251" t="s">
         <v>15</v>
@@ -6843,10 +6844,10 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>317130</v>
+        <v>317140</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -6857,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H252" t="s">
         <v>15</v>
@@ -6865,10 +6866,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>317140</v>
+        <v>317150</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -6879,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H253" t="s">
         <v>15</v>
@@ -6887,13 +6888,15 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>317150</v>
+        <v>317151</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E254" s="3" t="s">
         <v>7</v>
       </c>
@@ -6901,61 +6904,61 @@
         <v>0</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H254" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>317151</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F255" s="3">
-        <v>0</v>
-      </c>
-      <c r="G255" s="6" t="s">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>318100</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H255" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256" s="3">
+        <v>0</v>
+      </c>
+      <c r="G256" s="8">
+        <v>518100</v>
+      </c>
+      <c r="H256" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>318100</v>
+        <v>318110</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="E257" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F257" s="3">
         <v>0</v>
       </c>
-      <c r="G257" s="8">
-        <v>518100</v>
+      <c r="G257" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="H257" t="s">
         <v>15</v>
@@ -6963,14 +6966,14 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>318110</v>
+        <v>318111</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>7</v>
@@ -6979,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H258" t="s">
         <v>15</v>
@@ -6987,14 +6990,14 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>318111</v>
+        <v>318112</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>7</v>
@@ -7003,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H259" t="s">
         <v>15</v>
@@ -7011,10 +7014,10 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>318112</v>
+        <v>318113</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
@@ -7027,50 +7030,48 @@
         <v>0</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H260" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>318113</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F261" s="3">
-        <v>0</v>
-      </c>
-      <c r="G261" s="6" t="s">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>319100</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H261" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="3">
+        <v>0</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H262" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>319100</v>
+        <v>319101</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -7089,10 +7090,10 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>319101</v>
+        <v>319110</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -7103,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H264" t="s">
         <v>15</v>
@@ -7111,10 +7112,10 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>319110</v>
+        <v>319111</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -7133,10 +7134,10 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>319111</v>
+        <v>319120</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -7147,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H266" t="s">
         <v>15</v>
@@ -7155,10 +7156,10 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>319120</v>
+        <v>319121</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -7177,10 +7178,10 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>319121</v>
+        <v>319130</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -7191,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H268" t="s">
         <v>15</v>
@@ -7199,10 +7200,10 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>319130</v>
+        <v>319140</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -7221,10 +7222,10 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>319140</v>
+        <v>319150</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -7242,41 +7243,41 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="2">
-        <v>319150</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F271" s="3">
-        <v>0</v>
-      </c>
-      <c r="G271" s="6" t="s">
+      <c r="A271" s="5"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>320100</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H271" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="5"/>
-      <c r="B272" s="5"/>
-      <c r="C272" s="5"/>
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F272" s="3">
+        <v>0</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H272" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>320100</v>
+        <v>320110</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -7287,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H273" t="s">
         <v>15</v>
@@ -7295,10 +7296,10 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>320110</v>
+        <v>320120</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -7309,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H274" t="s">
         <v>15</v>
@@ -7317,10 +7318,10 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>320120</v>
+        <v>320121</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -7339,10 +7340,10 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>320121</v>
+        <v>320130</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -7353,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H276" t="s">
         <v>15</v>
@@ -7361,10 +7362,10 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>320130</v>
+        <v>320140</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -7375,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H277" t="s">
         <v>15</v>
@@ -7383,10 +7384,10 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>320140</v>
+        <v>320150</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -7397,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H278" t="s">
         <v>15</v>
@@ -7405,10 +7406,10 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>320150</v>
+        <v>320160</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -7418,49 +7419,49 @@
       <c r="F279" s="3">
         <v>0</v>
       </c>
-      <c r="G279" s="6" t="s">
-        <v>226</v>
+      <c r="G279" s="8">
+        <v>520160</v>
       </c>
       <c r="H279" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="2">
-        <v>320160</v>
-      </c>
-      <c r="B280" s="3" t="s">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>321100</v>
+      </c>
+      <c r="B281" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F280" s="3">
-        <v>0</v>
-      </c>
-      <c r="G280" s="8">
-        <v>520160</v>
-      </c>
-      <c r="H280" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
-      <c r="C281" s="5"/>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-      <c r="F281" s="5"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" s="3">
+        <v>0</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H281" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>321100</v>
+        <v>321110</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -7471,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H282" t="s">
         <v>15</v>
@@ -7479,10 +7480,10 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>321110</v>
+        <v>321120</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -7493,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H283" t="s">
         <v>15</v>
@@ -7501,10 +7502,10 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>321120</v>
+        <v>321130</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -7515,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H284" t="s">
         <v>15</v>
@@ -7523,10 +7524,10 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>321130</v>
+        <v>321140</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -7537,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H285" t="s">
         <v>15</v>
@@ -7545,10 +7546,10 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>321140</v>
+        <v>321150</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -7559,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H286" t="s">
         <v>15</v>
@@ -7567,10 +7568,10 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>321150</v>
+        <v>321160</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -7581,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H287" t="s">
         <v>15</v>
@@ -7589,10 +7590,10 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>321160</v>
+        <v>321170</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -7603,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H288" t="s">
         <v>15</v>
@@ -7611,10 +7612,10 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>321170</v>
+        <v>321180</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -7625,48 +7626,48 @@
         <v>0</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H289" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="2">
-        <v>321180</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F290" s="3">
-        <v>0</v>
-      </c>
-      <c r="G290" s="6" t="s">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>330000</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="H290" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="5"/>
-      <c r="B291" s="5"/>
-      <c r="C291" s="5"/>
-      <c r="D291" s="5"/>
-      <c r="E291" s="5"/>
-      <c r="F291" s="5"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F291" s="3">
+        <v>0</v>
+      </c>
+      <c r="G291" s="8">
+        <v>530000</v>
+      </c>
+      <c r="H291" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>330000</v>
+        <v>330010</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -7676,8 +7677,8 @@
       <c r="F292" s="3">
         <v>0</v>
       </c>
-      <c r="G292" s="8">
-        <v>530000</v>
+      <c r="G292" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H292" t="s">
         <v>15</v>
@@ -7685,10 +7686,10 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>330010</v>
+        <v>330020</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -7707,10 +7708,10 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>330020</v>
+        <v>330030</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -7720,8 +7721,8 @@
       <c r="F294" s="3">
         <v>0</v>
       </c>
-      <c r="G294" s="6" t="s">
-        <v>248</v>
+      <c r="G294" s="8">
+        <v>530030</v>
       </c>
       <c r="H294" t="s">
         <v>15</v>
@@ -7729,10 +7730,10 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>330030</v>
+        <v>330040</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -7743,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="G295" s="8">
-        <v>530030</v>
+        <v>530040</v>
       </c>
       <c r="H295" t="s">
         <v>15</v>
@@ -7751,10 +7752,10 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>330040</v>
+        <v>330050</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -7765,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="G296" s="8">
-        <v>530040</v>
+        <v>530050</v>
       </c>
       <c r="H296" t="s">
         <v>15</v>
@@ -7773,7 +7774,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>330050</v>
+        <v>330060</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>249</v>
@@ -7787,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="G297" s="8">
-        <v>530050</v>
+        <v>530060</v>
       </c>
       <c r="H297" t="s">
         <v>15</v>
@@ -7795,10 +7796,10 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>330060</v>
+        <v>330070</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -7809,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="G298" s="8">
-        <v>530060</v>
+        <v>530070</v>
       </c>
       <c r="H298" t="s">
         <v>15</v>
@@ -7817,10 +7818,10 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>330070</v>
+        <v>330080</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -7831,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="G299" s="8">
-        <v>530070</v>
+        <v>530080</v>
       </c>
       <c r="H299" t="s">
         <v>15</v>
@@ -7839,7 +7840,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>330080</v>
+        <v>330090</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>250</v>
@@ -7853,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="G300" s="8">
-        <v>530080</v>
+        <v>530090</v>
       </c>
       <c r="H300" t="s">
         <v>15</v>
@@ -7861,10 +7862,10 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>330090</v>
+        <v>330100</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -7875,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="G301" s="8">
-        <v>530090</v>
+        <v>530100</v>
       </c>
       <c r="H301" t="s">
         <v>15</v>
@@ -7883,10 +7884,10 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>330100</v>
+        <v>330110</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -7897,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="G302" s="8">
-        <v>530100</v>
+        <v>530110</v>
       </c>
       <c r="H302" t="s">
         <v>15</v>
@@ -7905,7 +7906,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>330110</v>
+        <v>330120</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>251</v>
@@ -7918,8 +7919,8 @@
       <c r="F303" s="3">
         <v>0</v>
       </c>
-      <c r="G303" s="8">
-        <v>530110</v>
+      <c r="G303" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="H303" t="s">
         <v>15</v>
@@ -7927,10 +7928,10 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>330120</v>
+        <v>330130</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -7941,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H304" t="s">
         <v>15</v>
@@ -7949,10 +7950,10 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>330130</v>
+        <v>330140</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -7963,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H305" t="s">
         <v>15</v>
@@ -7971,10 +7972,10 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>330140</v>
+        <v>330150</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -7993,10 +7994,10 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>330150</v>
+        <v>330160</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -8015,10 +8016,10 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>330160</v>
+        <v>330170</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -8037,10 +8038,10 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>330170</v>
+        <v>330180</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -8050,32 +8051,10 @@
       <c r="F309" s="3">
         <v>0</v>
       </c>
-      <c r="G309" s="6" t="s">
-        <v>260</v>
+      <c r="G309" s="8">
+        <v>530180</v>
       </c>
       <c r="H309" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" s="2">
-        <v>330180</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F310" s="3">
-        <v>0</v>
-      </c>
-      <c r="G310" s="8">
-        <v>530180</v>
-      </c>
-      <c r="H310" t="s">
         <v>15</v>
       </c>
     </row>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4331C3B-8AF0-4443-8647-CF19C9CF78E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090BD8C4-B9A6-4643-AFA9-B9FDE6E07F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="4680" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="4515" windowWidth="22455" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="262">
   <si>
     <t>事件编号</t>
   </si>
@@ -784,9 +784,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>516100,550000</t>
-  </si>
-  <si>
     <t>光荣的挑衅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1117,6 +1114,10 @@
   </si>
   <si>
     <t>500000,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[516100,550000]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1537,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="G251" sqref="G251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6652,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="H242" t="s">
         <v>15</v>
@@ -6660,10 +6661,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>316110</v>
+        <v>316101</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -6674,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="H243" t="s">
         <v>15</v>
@@ -6682,10 +6683,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>316120</v>
+        <v>316110</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -6696,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H244" t="s">
         <v>15</v>
@@ -6704,10 +6705,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>316121</v>
+        <v>316120</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -6718,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H245" t="s">
         <v>15</v>
@@ -6726,10 +6727,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>316130</v>
+        <v>316121</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -6740,48 +6741,48 @@
         <v>0</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H246" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
+      <c r="A247" s="2">
+        <v>316130</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F247" s="3">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H247" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="2">
-        <v>317100</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F248" s="3">
-        <v>0</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H248" t="s">
-        <v>15</v>
-      </c>
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>317110</v>
+        <v>317100</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -6792,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H249" t="s">
         <v>15</v>
@@ -6800,10 +6801,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>317120</v>
+        <v>317110</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -6814,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H250" t="s">
         <v>15</v>
@@ -6822,10 +6823,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>317130</v>
+        <v>317120</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -6836,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H251" t="s">
         <v>15</v>
@@ -6844,10 +6845,10 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>317140</v>
+        <v>317130</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -6858,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H252" t="s">
         <v>15</v>
@@ -6866,10 +6867,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>317150</v>
+        <v>317140</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -6880,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H253" t="s">
         <v>15</v>
@@ -6888,77 +6889,75 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
+        <v>317150</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F254" s="3">
+        <v>0</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
         <v>317151</v>
       </c>
-      <c r="B254" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3" t="s">
+      <c r="B255" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E254" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F254" s="3">
-        <v>0</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H254" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
+      <c r="H255" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>318100</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F256" s="3">
-        <v>0</v>
-      </c>
-      <c r="G256" s="8">
-        <v>518100</v>
-      </c>
-      <c r="H256" t="s">
-        <v>15</v>
-      </c>
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>318110</v>
+        <v>318100</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C257" s="3"/>
-      <c r="D257" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="D257" s="3"/>
       <c r="E257" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F257" s="3">
         <v>0</v>
       </c>
-      <c r="G257" s="6" t="s">
-        <v>194</v>
+      <c r="G257" s="8">
+        <v>518100</v>
       </c>
       <c r="H257" t="s">
         <v>15</v>
@@ -6966,14 +6965,14 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>318111</v>
+        <v>318110</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>7</v>
@@ -6982,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H258" t="s">
         <v>15</v>
@@ -6990,14 +6989,14 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>318112</v>
+        <v>318111</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>7</v>
@@ -7006,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H259" t="s">
         <v>15</v>
@@ -7014,64 +7013,66 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>318113</v>
+        <v>318112</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F260" s="3">
+        <v>0</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>318113</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261" s="3">
+        <v>0</v>
+      </c>
+      <c r="G261" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E260" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F260" s="3">
-        <v>0</v>
-      </c>
-      <c r="G260" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H260" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="5"/>
-      <c r="B261" s="5"/>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
-      <c r="F261" s="5"/>
+      <c r="H261" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>319100</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F262" s="3">
-        <v>0</v>
-      </c>
-      <c r="G262" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H262" t="s">
-        <v>15</v>
-      </c>
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>319101</v>
+        <v>319100</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -7082,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H263" t="s">
         <v>15</v>
@@ -7090,10 +7091,10 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>319110</v>
+        <v>319101</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -7104,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H264" t="s">
         <v>15</v>
@@ -7112,10 +7113,10 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>319111</v>
+        <v>319110</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -7126,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H265" t="s">
         <v>15</v>
@@ -7134,10 +7135,10 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>319120</v>
+        <v>319111</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -7148,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H266" t="s">
         <v>15</v>
@@ -7156,10 +7157,10 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>319121</v>
+        <v>319120</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -7170,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H267" t="s">
         <v>15</v>
@@ -7178,10 +7179,10 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>319130</v>
+        <v>319121</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -7192,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H268" t="s">
         <v>15</v>
@@ -7200,10 +7201,10 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>319140</v>
+        <v>319130</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -7214,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H269" t="s">
         <v>15</v>
@@ -7222,10 +7223,10 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>319150</v>
+        <v>319140</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -7236,48 +7237,48 @@
         <v>0</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H270" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="5"/>
-      <c r="B271" s="5"/>
-      <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="5"/>
+      <c r="A271" s="2">
+        <v>319150</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271" s="3">
+        <v>0</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H271" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="2">
-        <v>320100</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F272" s="3">
-        <v>0</v>
-      </c>
-      <c r="G272" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H272" t="s">
-        <v>15</v>
-      </c>
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>320110</v>
+        <v>320100</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -7288,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H273" t="s">
         <v>15</v>
@@ -7296,10 +7297,10 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>320120</v>
+        <v>320110</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -7310,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H274" t="s">
         <v>15</v>
@@ -7318,10 +7319,10 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>320121</v>
+        <v>320120</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -7332,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H275" t="s">
         <v>15</v>
@@ -7340,10 +7341,10 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>320130</v>
+        <v>320121</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -7354,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H276" t="s">
         <v>15</v>
@@ -7362,10 +7363,10 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>320140</v>
+        <v>320130</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -7376,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H277" t="s">
         <v>15</v>
@@ -7384,10 +7385,10 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>320150</v>
+        <v>320140</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -7398,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H278" t="s">
         <v>15</v>
@@ -7406,10 +7407,10 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>320160</v>
+        <v>320150</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -7419,49 +7420,49 @@
       <c r="F279" s="3">
         <v>0</v>
       </c>
-      <c r="G279" s="8">
+      <c r="G279" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>320160</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F280" s="3">
+        <v>0</v>
+      </c>
+      <c r="G280" s="8">
         <v>520160</v>
       </c>
-      <c r="H279" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="5"/>
-      <c r="B280" s="5"/>
-      <c r="C280" s="5"/>
-      <c r="D280" s="5"/>
-      <c r="E280" s="5"/>
-      <c r="F280" s="5"/>
+      <c r="H280" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="2">
-        <v>321100</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F281" s="3">
-        <v>0</v>
-      </c>
-      <c r="G281" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H281" t="s">
-        <v>15</v>
-      </c>
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>321110</v>
+        <v>321100</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -7472,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H282" t="s">
         <v>15</v>
@@ -7480,10 +7481,10 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>321120</v>
+        <v>321110</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -7494,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H283" t="s">
         <v>15</v>
@@ -7502,10 +7503,10 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>321130</v>
+        <v>321120</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -7516,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H284" t="s">
         <v>15</v>
@@ -7524,10 +7525,10 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>321140</v>
+        <v>321130</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -7538,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H285" t="s">
         <v>15</v>
@@ -7546,10 +7547,10 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>321150</v>
+        <v>321140</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -7560,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H286" t="s">
         <v>15</v>
@@ -7568,10 +7569,10 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>321160</v>
+        <v>321150</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -7582,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H287" t="s">
         <v>15</v>
@@ -7590,10 +7591,10 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>321170</v>
+        <v>321160</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -7604,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H288" t="s">
         <v>15</v>
@@ -7612,10 +7613,10 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>321180</v>
+        <v>321170</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -7626,48 +7627,48 @@
         <v>0</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H289" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="5"/>
-      <c r="B290" s="5"/>
-      <c r="C290" s="5"/>
-      <c r="D290" s="5"/>
-      <c r="E290" s="5"/>
-      <c r="F290" s="5"/>
+      <c r="A290" s="2">
+        <v>321180</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" s="3">
+        <v>0</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H290" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="2">
-        <v>330000</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F291" s="3">
-        <v>0</v>
-      </c>
-      <c r="G291" s="8">
-        <v>530000</v>
-      </c>
-      <c r="H291" t="s">
-        <v>15</v>
-      </c>
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>330010</v>
+        <v>330000</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -7677,8 +7678,8 @@
       <c r="F292" s="3">
         <v>0</v>
       </c>
-      <c r="G292" s="6" t="s">
-        <v>246</v>
+      <c r="G292" s="8">
+        <v>530000</v>
       </c>
       <c r="H292" t="s">
         <v>15</v>
@@ -7686,7 +7687,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>330020</v>
+        <v>330010</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>114</v>
@@ -7700,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H293" t="s">
         <v>15</v>
@@ -7708,10 +7709,10 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>330030</v>
+        <v>330020</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -7721,8 +7722,8 @@
       <c r="F294" s="3">
         <v>0</v>
       </c>
-      <c r="G294" s="8">
-        <v>530030</v>
+      <c r="G294" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H294" t="s">
         <v>15</v>
@@ -7730,10 +7731,10 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>330040</v>
+        <v>330030</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -7744,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="G295" s="8">
-        <v>530040</v>
+        <v>530030</v>
       </c>
       <c r="H295" t="s">
         <v>15</v>
@@ -7752,10 +7753,10 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>330050</v>
+        <v>330040</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -7766,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="G296" s="8">
-        <v>530050</v>
+        <v>530040</v>
       </c>
       <c r="H296" t="s">
         <v>15</v>
@@ -7774,10 +7775,10 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>330060</v>
+        <v>330050</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -7788,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G297" s="8">
-        <v>530060</v>
+        <v>530050</v>
       </c>
       <c r="H297" t="s">
         <v>15</v>
@@ -7796,10 +7797,10 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>330070</v>
+        <v>330060</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -7810,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="G298" s="8">
-        <v>530070</v>
+        <v>530060</v>
       </c>
       <c r="H298" t="s">
         <v>15</v>
@@ -7818,10 +7819,10 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>330080</v>
+        <v>330070</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -7832,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="G299" s="8">
-        <v>530080</v>
+        <v>530070</v>
       </c>
       <c r="H299" t="s">
         <v>15</v>
@@ -7840,10 +7841,10 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>330090</v>
+        <v>330080</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -7854,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="G300" s="8">
-        <v>530090</v>
+        <v>530080</v>
       </c>
       <c r="H300" t="s">
         <v>15</v>
@@ -7862,10 +7863,10 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>330100</v>
+        <v>330090</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -7876,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="G301" s="8">
-        <v>530100</v>
+        <v>530090</v>
       </c>
       <c r="H301" t="s">
         <v>15</v>
@@ -7884,10 +7885,10 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>330110</v>
+        <v>330100</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -7898,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="G302" s="8">
-        <v>530110</v>
+        <v>530100</v>
       </c>
       <c r="H302" t="s">
         <v>15</v>
@@ -7906,10 +7907,10 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>330120</v>
+        <v>330110</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -7919,8 +7920,8 @@
       <c r="F303" s="3">
         <v>0</v>
       </c>
-      <c r="G303" s="6" t="s">
-        <v>252</v>
+      <c r="G303" s="8">
+        <v>530110</v>
       </c>
       <c r="H303" t="s">
         <v>15</v>
@@ -7928,10 +7929,10 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>330130</v>
+        <v>330120</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -7942,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H304" t="s">
         <v>15</v>
@@ -7950,10 +7951,10 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>330140</v>
+        <v>330130</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -7964,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H305" t="s">
         <v>15</v>
@@ -7972,10 +7973,10 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>330150</v>
+        <v>330140</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -7986,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H306" t="s">
         <v>15</v>
@@ -7994,10 +7995,10 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>330160</v>
+        <v>330150</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -8008,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H307" t="s">
         <v>15</v>
@@ -8016,10 +8017,10 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>330170</v>
+        <v>330160</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -8030,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H308" t="s">
         <v>15</v>
@@ -8038,10 +8039,10 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>330180</v>
+        <v>330170</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -8051,10 +8052,32 @@
       <c r="F309" s="3">
         <v>0</v>
       </c>
-      <c r="G309" s="8">
+      <c r="G309" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>330180</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F310" s="3">
+        <v>0</v>
+      </c>
+      <c r="G310" s="8">
         <v>530180</v>
       </c>
-      <c r="H309" t="s">
+      <c r="H310" t="s">
         <v>15</v>
       </c>
     </row>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090BD8C4-B9A6-4643-AFA9-B9FDE6E07F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677F495-E55F-40C2-8B5C-63517B4B1BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="4515" windowWidth="22455" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="4590" windowWidth="24060" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="266">
   <si>
     <t>事件编号</t>
   </si>
@@ -1118,6 +1118,22 @@
   </si>
   <si>
     <t>[516100,550000]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540000,540001,540002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540010,540011,540012</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1538,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:R314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="G251" sqref="G251"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="G321" sqref="G321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6305,7 +6321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>313160</v>
       </c>
@@ -6327,7 +6343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>313200</v>
       </c>
@@ -6349,7 +6365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>313210</v>
       </c>
@@ -6371,7 +6387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>313220</v>
       </c>
@@ -6393,7 +6409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>313230</v>
       </c>
@@ -6415,7 +6431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6423,7 +6439,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6431,7 +6447,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>315100</v>
       </c>
@@ -6453,7 +6469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>315110</v>
       </c>
@@ -6475,12 +6491,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>315120</v>
+        <v>315111</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -6491,18 +6507,28 @@
         <v>0</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H234" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234"/>
+      <c r="J234"/>
+      <c r="K234"/>
+      <c r="L234"/>
+      <c r="M234"/>
+      <c r="N234"/>
+      <c r="O234"/>
+      <c r="P234"/>
+      <c r="Q234"/>
+      <c r="R234"/>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>315130</v>
+        <v>315120</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -6513,18 +6539,18 @@
         <v>0</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H235" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>315140</v>
+        <v>315130</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -6535,18 +6561,18 @@
         <v>0</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H236" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>315150</v>
+        <v>315140</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -6557,18 +6583,18 @@
         <v>0</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H237" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>315160</v>
+        <v>315150</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -6579,18 +6605,18 @@
         <v>0</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H238" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>315170</v>
+        <v>315160</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -6601,18 +6627,18 @@
         <v>0</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H239" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>315180</v>
+        <v>315170</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -6623,45 +6649,45 @@
         <v>0</v>
       </c>
       <c r="G240" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>315180</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F241" s="3">
+        <v>0</v>
+      </c>
+      <c r="G241" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H240" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="5"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
+      <c r="H241" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>316100</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F242" s="3">
-        <v>0</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H242" t="s">
-        <v>15</v>
-      </c>
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>316101</v>
+        <v>316100</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>167</v>
@@ -6683,10 +6709,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>316110</v>
+        <v>316101</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -6697,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="H244" t="s">
         <v>15</v>
@@ -6705,10 +6731,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>316120</v>
+        <v>316110</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -6719,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H245" t="s">
         <v>15</v>
@@ -6727,10 +6753,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>316121</v>
+        <v>316120</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -6741,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H246" t="s">
         <v>15</v>
@@ -6749,10 +6775,10 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>316130</v>
+        <v>316121</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -6763,48 +6789,48 @@
         <v>0</v>
       </c>
       <c r="G247" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>316130</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H247" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
+      <c r="H248" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="2">
-        <v>317100</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F249" s="3">
-        <v>0</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H249" t="s">
-        <v>15</v>
-      </c>
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>317110</v>
+        <v>317100</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -6815,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H250" t="s">
         <v>15</v>
@@ -6823,10 +6849,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>317120</v>
+        <v>317110</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -6837,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H251" t="s">
         <v>15</v>
@@ -6845,10 +6871,10 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>317130</v>
+        <v>317120</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -6859,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H252" t="s">
         <v>15</v>
@@ -6867,10 +6893,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>317140</v>
+        <v>317130</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -6881,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H253" t="s">
         <v>15</v>
@@ -6889,10 +6915,10 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>317150</v>
+        <v>317140</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -6903,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H254" t="s">
         <v>15</v>
@@ -6911,77 +6937,75 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>317151</v>
+        <v>317150</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C255" s="3"/>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="3"/>
+      <c r="E255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>317151</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E255" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F255" s="3">
-        <v>0</v>
-      </c>
-      <c r="G255" s="6" t="s">
+      <c r="E256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256" s="3">
+        <v>0</v>
+      </c>
+      <c r="G256" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H255" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
+      <c r="H256" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="2">
-        <v>318100</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F257" s="3">
-        <v>0</v>
-      </c>
-      <c r="G257" s="8">
-        <v>518100</v>
-      </c>
-      <c r="H257" t="s">
-        <v>15</v>
-      </c>
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>318110</v>
+        <v>318100</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C258" s="3"/>
-      <c r="D258" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="D258" s="3"/>
       <c r="E258" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F258" s="3">
         <v>0</v>
       </c>
-      <c r="G258" s="6" t="s">
-        <v>193</v>
+      <c r="G258" s="8">
+        <v>518100</v>
       </c>
       <c r="H258" t="s">
         <v>15</v>
@@ -6989,14 +7013,14 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>318111</v>
+        <v>318110</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>7</v>
@@ -7005,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H259" t="s">
         <v>15</v>
@@ -7013,14 +7037,14 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>318112</v>
+        <v>318111</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>7</v>
@@ -7029,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H260" t="s">
         <v>15</v>
@@ -7037,61 +7061,63 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>318113</v>
+        <v>318112</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261" s="3">
+        <v>0</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>318113</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E261" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F261" s="3">
-        <v>0</v>
-      </c>
-      <c r="G261" s="6" t="s">
+      <c r="E262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="3">
+        <v>0</v>
+      </c>
+      <c r="G262" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H261" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
+      <c r="H262" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>319100</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F263" s="3">
-        <v>0</v>
-      </c>
-      <c r="G263" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H263" t="s">
-        <v>15</v>
-      </c>
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>319101</v>
+        <v>319100</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>199</v>
@@ -7105,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H264" t="s">
         <v>15</v>
@@ -7113,10 +7139,10 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>319110</v>
+        <v>319101</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -7127,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H265" t="s">
         <v>15</v>
@@ -7135,7 +7161,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>319111</v>
+        <v>319110</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>202</v>
@@ -7149,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H266" t="s">
         <v>15</v>
@@ -7157,10 +7183,10 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>319120</v>
+        <v>319111</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -7171,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H267" t="s">
         <v>15</v>
@@ -7179,7 +7205,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>319121</v>
+        <v>319120</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>205</v>
@@ -7193,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H268" t="s">
         <v>15</v>
@@ -7201,10 +7227,10 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>319130</v>
+        <v>319121</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -7215,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H269" t="s">
         <v>15</v>
@@ -7223,7 +7249,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>319140</v>
+        <v>319130</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>208</v>
@@ -7237,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H270" t="s">
         <v>15</v>
@@ -7245,7 +7271,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>319150</v>
+        <v>319140</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>208</v>
@@ -7259,48 +7285,48 @@
         <v>0</v>
       </c>
       <c r="G271" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>319150</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F272" s="3">
+        <v>0</v>
+      </c>
+      <c r="G272" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H271" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="5"/>
-      <c r="B272" s="5"/>
-      <c r="C272" s="5"/>
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
+      <c r="H272" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="2">
-        <v>320100</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F273" s="3">
-        <v>0</v>
-      </c>
-      <c r="G273" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H273" t="s">
-        <v>15</v>
-      </c>
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>320110</v>
+        <v>320100</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -7311,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H274" t="s">
         <v>15</v>
@@ -7319,10 +7345,10 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>320120</v>
+        <v>320110</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -7333,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H275" t="s">
         <v>15</v>
@@ -7341,7 +7367,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>320121</v>
+        <v>320120</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>216</v>
@@ -7355,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H276" t="s">
         <v>15</v>
@@ -7363,10 +7389,10 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>320130</v>
+        <v>320121</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -7377,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H277" t="s">
         <v>15</v>
@@ -7385,10 +7411,10 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>320140</v>
+        <v>320130</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -7399,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H278" t="s">
         <v>15</v>
@@ -7407,10 +7433,10 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>320150</v>
+        <v>320140</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -7421,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H279" t="s">
         <v>15</v>
@@ -7429,10 +7455,10 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>320160</v>
+        <v>320150</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -7442,49 +7468,49 @@
       <c r="F280" s="3">
         <v>0</v>
       </c>
-      <c r="G280" s="8">
+      <c r="G280" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>320160</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" s="3">
+        <v>0</v>
+      </c>
+      <c r="G281" s="8">
         <v>520160</v>
       </c>
-      <c r="H280" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
-      <c r="C281" s="5"/>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-      <c r="F281" s="5"/>
+      <c r="H281" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>321100</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F282" s="3">
-        <v>0</v>
-      </c>
-      <c r="G282" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H282" t="s">
-        <v>15</v>
-      </c>
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>321110</v>
+        <v>321100</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -7495,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H283" t="s">
         <v>15</v>
@@ -7503,10 +7529,10 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>321120</v>
+        <v>321110</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -7517,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H284" t="s">
         <v>15</v>
@@ -7525,10 +7551,10 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>321130</v>
+        <v>321120</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -7539,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H285" t="s">
         <v>15</v>
@@ -7547,10 +7573,10 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>321140</v>
+        <v>321130</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -7561,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H286" t="s">
         <v>15</v>
@@ -7569,10 +7595,10 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>321150</v>
+        <v>321140</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -7583,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H287" t="s">
         <v>15</v>
@@ -7591,10 +7617,10 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>321160</v>
+        <v>321150</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -7605,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H288" t="s">
         <v>15</v>
@@ -7613,10 +7639,10 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>321170</v>
+        <v>321160</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -7627,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H289" t="s">
         <v>15</v>
@@ -7635,10 +7661,10 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>321180</v>
+        <v>321170</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -7649,48 +7675,48 @@
         <v>0</v>
       </c>
       <c r="G290" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>321180</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F291" s="3">
+        <v>0</v>
+      </c>
+      <c r="G291" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="H290" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="5"/>
-      <c r="B291" s="5"/>
-      <c r="C291" s="5"/>
-      <c r="D291" s="5"/>
-      <c r="E291" s="5"/>
-      <c r="F291" s="5"/>
+      <c r="H291" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
-        <v>330000</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F292" s="3">
-        <v>0</v>
-      </c>
-      <c r="G292" s="8">
-        <v>530000</v>
-      </c>
-      <c r="H292" t="s">
-        <v>15</v>
-      </c>
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>330010</v>
+        <v>330000</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -7700,8 +7726,8 @@
       <c r="F293" s="3">
         <v>0</v>
       </c>
-      <c r="G293" s="6" t="s">
-        <v>245</v>
+      <c r="G293" s="8">
+        <v>530000</v>
       </c>
       <c r="H293" t="s">
         <v>15</v>
@@ -7709,7 +7735,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>330020</v>
+        <v>330010</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>114</v>
@@ -7723,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G294" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H294" t="s">
         <v>15</v>
@@ -7731,10 +7757,10 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>330030</v>
+        <v>330020</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -7744,8 +7770,8 @@
       <c r="F295" s="3">
         <v>0</v>
       </c>
-      <c r="G295" s="8">
-        <v>530030</v>
+      <c r="G295" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H295" t="s">
         <v>15</v>
@@ -7753,7 +7779,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>330040</v>
+        <v>330030</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>247</v>
@@ -7767,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="G296" s="8">
-        <v>530040</v>
+        <v>530030</v>
       </c>
       <c r="H296" t="s">
         <v>15</v>
@@ -7775,7 +7801,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>330050</v>
+        <v>330040</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>247</v>
@@ -7789,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="G297" s="8">
-        <v>530050</v>
+        <v>530040</v>
       </c>
       <c r="H297" t="s">
         <v>15</v>
@@ -7797,10 +7823,10 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>330060</v>
+        <v>330050</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -7811,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="G298" s="8">
-        <v>530060</v>
+        <v>530050</v>
       </c>
       <c r="H298" t="s">
         <v>15</v>
@@ -7819,7 +7845,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>330070</v>
+        <v>330060</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>248</v>
@@ -7833,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="G299" s="8">
-        <v>530070</v>
+        <v>530060</v>
       </c>
       <c r="H299" t="s">
         <v>15</v>
@@ -7841,7 +7867,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>330080</v>
+        <v>330070</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>248</v>
@@ -7855,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="G300" s="8">
-        <v>530080</v>
+        <v>530070</v>
       </c>
       <c r="H300" t="s">
         <v>15</v>
@@ -7863,10 +7889,10 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>330090</v>
+        <v>330080</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -7877,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="G301" s="8">
-        <v>530090</v>
+        <v>530080</v>
       </c>
       <c r="H301" t="s">
         <v>15</v>
@@ -7885,7 +7911,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>330100</v>
+        <v>330090</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>249</v>
@@ -7899,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="G302" s="8">
-        <v>530100</v>
+        <v>530090</v>
       </c>
       <c r="H302" t="s">
         <v>15</v>
@@ -7907,7 +7933,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>330110</v>
+        <v>330100</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>249</v>
@@ -7921,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="G303" s="8">
-        <v>530110</v>
+        <v>530100</v>
       </c>
       <c r="H303" t="s">
         <v>15</v>
@@ -7929,10 +7955,10 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>330120</v>
+        <v>330110</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -7942,8 +7968,8 @@
       <c r="F304" s="3">
         <v>0</v>
       </c>
-      <c r="G304" s="6" t="s">
-        <v>251</v>
+      <c r="G304" s="8">
+        <v>530110</v>
       </c>
       <c r="H304" t="s">
         <v>15</v>
@@ -7951,10 +7977,10 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>330130</v>
+        <v>330120</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -7965,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H305" t="s">
         <v>15</v>
@@ -7973,10 +7999,10 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>330140</v>
+        <v>330130</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -7987,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H306" t="s">
         <v>15</v>
@@ -7995,10 +8021,10 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>330150</v>
+        <v>330140</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -8009,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H307" t="s">
         <v>15</v>
@@ -8017,10 +8043,10 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>330160</v>
+        <v>330150</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -8031,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H308" t="s">
         <v>15</v>
@@ -8039,10 +8065,10 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>330170</v>
+        <v>330160</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -8053,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="G309" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H309" t="s">
         <v>15</v>
@@ -8061,10 +8087,10 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>330180</v>
+        <v>330170</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -8074,10 +8100,76 @@
       <c r="F310" s="3">
         <v>0</v>
       </c>
-      <c r="G310" s="8">
+      <c r="G310" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>330180</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F311" s="3">
+        <v>0</v>
+      </c>
+      <c r="G311" s="8">
         <v>530180</v>
       </c>
-      <c r="H310" t="s">
+      <c r="H311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>340000</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F313" s="3">
+        <v>0</v>
+      </c>
+      <c r="G313" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>340010</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F314" s="3">
+        <v>0</v>
+      </c>
+      <c r="G314" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H314" t="s">
         <v>15</v>
       </c>
     </row>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677F495-E55F-40C2-8B5C-63517B4B1BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85593F87-2F7D-4D83-B2CA-3743BDFB466C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="4590" windowWidth="24060" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="4920" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="272">
   <si>
     <t>事件编号</t>
   </si>
@@ -1134,6 +1134,30 @@
   </si>
   <si>
     <t>540010,540011,540012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1554,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R314"/>
+  <dimension ref="A1:R317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="G321" sqref="G321"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8173,6 +8197,72 @@
         <v>15</v>
       </c>
     </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>340020</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F315" s="3">
+        <v>0</v>
+      </c>
+      <c r="G315" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>340030</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F316" s="3">
+        <v>0</v>
+      </c>
+      <c r="G316" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H316" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" s="2">
+        <v>340040</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F317" s="3">
+        <v>0</v>
+      </c>
+      <c r="G317" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H317" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85593F87-2F7D-4D83-B2CA-3743BDFB466C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE9F251-21A4-4EE7-8633-4E7773699B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="4920" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12330" yWindow="4470" windowWidth="27705" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="277">
   <si>
     <t>事件编号</t>
   </si>
@@ -992,65 +992,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521110,550000</t>
-  </si>
-  <si>
     <t>铤而走险</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521120,550000</t>
-  </si>
-  <si>
     <t>赎金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521130,550000</t>
-  </si>
-  <si>
     <t>救赎</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521140,550000</t>
-  </si>
-  <si>
     <t>难兄难弟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521150,550000</t>
-  </si>
-  <si>
     <t>寒酸的款待</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521160,550000</t>
-  </si>
-  <si>
     <t>自保措施</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521170,550000</t>
-  </si>
-  <si>
     <t>破屋保卫战</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521180,550000</t>
-  </si>
-  <si>
     <t>虚惊一场</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521190,550000</t>
-  </si>
-  <si>
     <t>猫咪审判</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1158,6 +1131,62 @@
   </si>
   <si>
     <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>501050,501051</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>502000,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>502010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>502030,502031,502032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521110,521112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521110,521111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521140,521141</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521150,521151,521152</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521170</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521180</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1578,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R317"/>
+  <dimension ref="A1:S330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="G315" sqref="G315"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="N300" sqref="N300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1635,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1823,14 +1852,13 @@
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G11" s="4"/>
-      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>310000</v>
+        <v>301000</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1840,8 +1868,8 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
+      <c r="G12" s="6">
+        <v>501000</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1849,10 +1877,10 @@
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>310010</v>
+        <v>301010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1862,8 +1890,8 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="8">
-        <v>510000</v>
+      <c r="G13" s="6">
+        <v>501010</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1871,10 +1899,10 @@
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>310020</v>
+        <v>301020</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1884,8 +1912,8 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
-        <v>510000</v>
+      <c r="G14" s="6">
+        <v>501020</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -1893,10 +1921,10 @@
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>310030</v>
+        <v>301030</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1906,8 +1934,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="8">
-        <v>510010</v>
+      <c r="G15" s="6">
+        <v>501030</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1915,10 +1943,10 @@
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>310040</v>
+        <v>301040</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1928,8 +1956,8 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>33</v>
+      <c r="G16" s="6">
+        <v>501040</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1937,10 +1965,10 @@
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>310050</v>
+        <v>301050</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1950,41 +1978,22 @@
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="8">
-        <v>510030</v>
+      <c r="G17" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>311000</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>311010</v>
+        <v>302000</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1994,8 +2003,8 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="8">
-        <v>511000</v>
+      <c r="G19" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -2003,10 +2012,10 @@
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>311020</v>
+        <v>302010</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2016,8 +2025,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="8">
-        <v>511000</v>
+      <c r="G20" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -2025,10 +2034,10 @@
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>311030</v>
+        <v>302020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2038,8 +2047,8 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="8">
-        <v>511010</v>
+      <c r="G21" s="6">
+        <v>502020</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -2047,10 +2056,10 @@
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>311040</v>
+        <v>302030</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2061,37 +2070,18 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>311050</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>511030</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>312000</v>
+        <v>310000</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -2105,15 +2095,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>312010</v>
+        <v>310010</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
@@ -2127,15 +2117,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <v>512000</v>
+        <v>510000</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>312020</v>
+        <v>310020</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>6</v>
@@ -2149,15 +2139,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <v>512000</v>
+        <v>510000</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>312030</v>
+        <v>310030</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
@@ -2171,15 +2161,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>512010</v>
+        <v>510010</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>312040</v>
+        <v>310040</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
@@ -2193,15 +2183,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>312050</v>
+        <v>310050</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -2215,15 +2205,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <v>512030</v>
+        <v>510030</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>313000</v>
+        <v>311000</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>6</v>
@@ -2237,15 +2227,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>313010</v>
+        <v>311010</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>6</v>
@@ -2259,15 +2249,15 @@
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <v>513000</v>
+        <v>511000</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>313020</v>
+        <v>311020</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>6</v>
@@ -2281,15 +2271,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="8">
-        <v>513000</v>
+        <v>511000</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>313030</v>
+        <v>311030</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>8</v>
@@ -2303,15 +2293,15 @@
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <v>513010</v>
+        <v>511010</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>313040</v>
+        <v>311040</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>9</v>
@@ -2325,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -2333,7 +2323,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>313050</v>
+        <v>311050</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -2346,8 +2336,8 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="8">
-        <v>513030</v>
+      <c r="G35" s="6">
+        <v>511030</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -2355,7 +2345,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>314000</v>
+        <v>312000</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>6</v>
@@ -2369,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -2377,7 +2367,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>314010</v>
+        <v>312010</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>6</v>
@@ -2391,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <v>514000</v>
+        <v>512000</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -2399,7 +2389,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>314020</v>
+        <v>312020</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>6</v>
@@ -2413,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="8">
-        <v>514000</v>
+        <v>512000</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -2421,7 +2411,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>314030</v>
+        <v>312030</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>8</v>
@@ -2435,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <v>514010</v>
+        <v>512010</v>
       </c>
       <c r="H39" t="s">
         <v>15</v>
@@ -2443,7 +2433,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>314040</v>
+        <v>312040</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>9</v>
@@ -2457,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -2465,7 +2455,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>314050</v>
+        <v>312050</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -2479,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <v>514030</v>
+        <v>512030</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -2487,7 +2477,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>315000</v>
+        <v>313000</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>6</v>
@@ -2501,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -2509,7 +2499,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>315010</v>
+        <v>313010</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>6</v>
@@ -2523,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <v>515000</v>
+        <v>513000</v>
       </c>
       <c r="H43" t="s">
         <v>15</v>
@@ -2531,7 +2521,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>315020</v>
+        <v>313020</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>6</v>
@@ -2545,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="8">
-        <v>515000</v>
+        <v>513000</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
@@ -2553,7 +2543,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>315030</v>
+        <v>313030</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>8</v>
@@ -2567,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="8">
-        <v>515010</v>
+        <v>513010</v>
       </c>
       <c r="H45" t="s">
         <v>15</v>
@@ -2575,7 +2565,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>315040</v>
+        <v>313040</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -2589,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
@@ -2597,7 +2587,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>315050</v>
+        <v>313050</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -2611,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="8">
-        <v>515030</v>
+        <v>513030</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -2619,7 +2609,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>316000</v>
+        <v>314000</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>6</v>
@@ -2633,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
@@ -2641,7 +2631,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>316010</v>
+        <v>314010</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>6</v>
@@ -2655,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="8">
-        <v>516000</v>
+        <v>514000</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
@@ -2663,7 +2653,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>316020</v>
+        <v>314020</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>6</v>
@@ -2677,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="8">
-        <v>516000</v>
+        <v>514000</v>
       </c>
       <c r="H50" t="s">
         <v>15</v>
@@ -2685,7 +2675,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>316030</v>
+        <v>314030</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>8</v>
@@ -2699,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="8">
-        <v>516010</v>
+        <v>514010</v>
       </c>
       <c r="H51" t="s">
         <v>15</v>
@@ -2707,7 +2697,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>316040</v>
+        <v>314040</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>9</v>
@@ -2721,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s">
         <v>15</v>
@@ -2729,7 +2719,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>316050</v>
+        <v>314050</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -2743,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="8">
-        <v>516030</v>
+        <v>514030</v>
       </c>
       <c r="H53" t="s">
         <v>15</v>
@@ -2751,7 +2741,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>317000</v>
+        <v>315000</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>6</v>
@@ -2765,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
@@ -2773,7 +2763,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>317010</v>
+        <v>315010</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>6</v>
@@ -2787,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="8">
-        <v>517000</v>
+        <v>515000</v>
       </c>
       <c r="H55" t="s">
         <v>15</v>
@@ -2795,7 +2785,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>317020</v>
+        <v>315020</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>6</v>
@@ -2809,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="8">
-        <v>517000</v>
+        <v>515000</v>
       </c>
       <c r="H56" t="s">
         <v>15</v>
@@ -2817,7 +2807,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>317030</v>
+        <v>315030</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>8</v>
@@ -2831,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="8">
-        <v>517010</v>
+        <v>515010</v>
       </c>
       <c r="H57" t="s">
         <v>15</v>
@@ -2839,7 +2829,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>317040</v>
+        <v>315040</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>9</v>
@@ -2853,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
@@ -2861,7 +2851,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>317050</v>
+        <v>315050</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
@@ -2875,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="8">
-        <v>517030</v>
+        <v>515030</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -2883,7 +2873,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>318000</v>
+        <v>316000</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>6</v>
@@ -2897,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
@@ -2905,7 +2895,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>318010</v>
+        <v>316010</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>6</v>
@@ -2919,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="8">
-        <v>518000</v>
+        <v>516000</v>
       </c>
       <c r="H61" t="s">
         <v>15</v>
@@ -2927,7 +2917,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>318020</v>
+        <v>316020</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>6</v>
@@ -2941,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="8">
-        <v>518000</v>
+        <v>516000</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
@@ -2949,7 +2939,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>318030</v>
+        <v>316030</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>8</v>
@@ -2963,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="8">
-        <v>518010</v>
+        <v>516010</v>
       </c>
       <c r="H63" t="s">
         <v>15</v>
@@ -2971,7 +2961,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>318040</v>
+        <v>316040</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>9</v>
@@ -2985,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
@@ -2993,7 +2983,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>318050</v>
+        <v>316050</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -3007,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="8">
-        <v>518030</v>
+        <v>516030</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
@@ -3015,7 +3005,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>319000</v>
+        <v>317000</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>6</v>
@@ -3029,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
         <v>15</v>
@@ -3037,7 +3027,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>319010</v>
+        <v>317010</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>6</v>
@@ -3051,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="8">
-        <v>519000</v>
+        <v>517000</v>
       </c>
       <c r="H67" t="s">
         <v>15</v>
@@ -3059,7 +3049,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>319020</v>
+        <v>317020</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>6</v>
@@ -3073,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="8">
-        <v>519000</v>
+        <v>517000</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
@@ -3081,7 +3071,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>319030</v>
+        <v>317030</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>8</v>
@@ -3095,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="8">
-        <v>519010</v>
+        <v>517010</v>
       </c>
       <c r="H69" t="s">
         <v>15</v>
@@ -3103,7 +3093,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>319040</v>
+        <v>317040</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>9</v>
@@ -3117,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
         <v>15</v>
@@ -3125,7 +3115,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>319050</v>
+        <v>317050</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
@@ -3139,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="8">
-        <v>519030</v>
+        <v>517030</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -3147,7 +3137,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>320000</v>
+        <v>318000</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>6</v>
@@ -3161,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
         <v>15</v>
@@ -3169,7 +3159,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>320010</v>
+        <v>318010</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>6</v>
@@ -3182,8 +3172,8 @@
       <c r="F73" s="3">
         <v>0</v>
       </c>
-      <c r="G73" s="6">
-        <v>520000</v>
+      <c r="G73" s="8">
+        <v>518000</v>
       </c>
       <c r="H73" t="s">
         <v>15</v>
@@ -3191,7 +3181,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>320020</v>
+        <v>318020</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>6</v>
@@ -3204,8 +3194,8 @@
       <c r="F74" s="3">
         <v>0</v>
       </c>
-      <c r="G74" s="6">
-        <v>520000</v>
+      <c r="G74" s="8">
+        <v>518000</v>
       </c>
       <c r="H74" t="s">
         <v>15</v>
@@ -3213,7 +3203,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>320030</v>
+        <v>318030</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>8</v>
@@ -3226,8 +3216,8 @@
       <c r="F75" s="3">
         <v>0</v>
       </c>
-      <c r="G75" s="6">
-        <v>520010</v>
+      <c r="G75" s="8">
+        <v>518010</v>
       </c>
       <c r="H75" t="s">
         <v>15</v>
@@ -3235,7 +3225,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>320040</v>
+        <v>318040</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>9</v>
@@ -3249,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H76" t="s">
         <v>15</v>
@@ -3257,7 +3247,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>320050</v>
+        <v>318050</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
@@ -3270,8 +3260,8 @@
       <c r="F77" s="3">
         <v>0</v>
       </c>
-      <c r="G77" s="6">
-        <v>520030</v>
+      <c r="G77" s="8">
+        <v>518030</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
@@ -3279,7 +3269,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>321000</v>
+        <v>319000</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>6</v>
@@ -3293,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s">
         <v>15</v>
@@ -3301,7 +3291,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>321010</v>
+        <v>319010</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>6</v>
@@ -3315,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="8">
-        <v>521000</v>
+        <v>519000</v>
       </c>
       <c r="H79" t="s">
         <v>15</v>
@@ -3323,7 +3313,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>321020</v>
+        <v>319020</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>6</v>
@@ -3337,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="8">
-        <v>521000</v>
+        <v>519000</v>
       </c>
       <c r="H80" t="s">
         <v>15</v>
@@ -3345,7 +3335,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>321030</v>
+        <v>319030</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>8</v>
@@ -3359,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="8">
-        <v>521010</v>
+        <v>519010</v>
       </c>
       <c r="H81" t="s">
         <v>15</v>
@@ -3367,7 +3357,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>321040</v>
+        <v>319040</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>9</v>
@@ -3381,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s">
         <v>15</v>
@@ -3389,7 +3379,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>321050</v>
+        <v>319050</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>12</v>
@@ -3403,26 +3393,40 @@
         <v>0</v>
       </c>
       <c r="G83" s="8">
-        <v>521030</v>
+        <v>519030</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="A84" s="2">
+        <v>320000</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>300100</v>
+        <v>320010</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3432,8 +3436,8 @@
       <c r="F85" s="3">
         <v>0</v>
       </c>
-      <c r="G85" s="8">
-        <v>500100</v>
+      <c r="G85" s="6">
+        <v>520000</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
@@ -3441,10 +3445,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>300110</v>
+        <v>320020</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -3454,8 +3458,8 @@
       <c r="F86" s="3">
         <v>0</v>
       </c>
-      <c r="G86" s="8">
-        <v>500110</v>
+      <c r="G86" s="6">
+        <v>520000</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
@@ -3463,10 +3467,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>300120</v>
+        <v>320030</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -3476,8 +3480,8 @@
       <c r="F87" s="3">
         <v>0</v>
       </c>
-      <c r="G87" s="8">
-        <v>500120</v>
+      <c r="G87" s="6">
+        <v>520010</v>
       </c>
       <c r="H87" t="s">
         <v>15</v>
@@ -3485,10 +3489,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>300130</v>
+        <v>320040</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -3498,8 +3502,8 @@
       <c r="F88" s="3">
         <v>0</v>
       </c>
-      <c r="G88" s="8">
-        <v>500130</v>
+      <c r="G88" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="H88" t="s">
         <v>15</v>
@@ -3507,10 +3511,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>300140</v>
+        <v>320050</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3520,8 +3524,8 @@
       <c r="F89" s="3">
         <v>0</v>
       </c>
-      <c r="G89" s="8">
-        <v>500140</v>
+      <c r="G89" s="6">
+        <v>520030</v>
       </c>
       <c r="H89" t="s">
         <v>15</v>
@@ -3529,10 +3533,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>300150</v>
+        <v>321000</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -3542,8 +3546,8 @@
       <c r="F90" s="3">
         <v>0</v>
       </c>
-      <c r="G90" s="8">
-        <v>500150</v>
+      <c r="G90" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
@@ -3551,10 +3555,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>300160</v>
+        <v>321010</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -3565,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="8">
-        <v>500160</v>
+        <v>521000</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
@@ -3573,10 +3577,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>300170</v>
+        <v>321020</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -3587,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="8">
-        <v>500170</v>
+        <v>521000</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
@@ -3595,10 +3599,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>300180</v>
+        <v>321030</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3609,26 +3613,40 @@
         <v>0</v>
       </c>
       <c r="G93" s="8">
-        <v>500180</v>
+        <v>521010</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="A94" s="2">
+        <v>321040</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>300200</v>
+        <v>321050</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -3639,40 +3657,26 @@
         <v>0</v>
       </c>
       <c r="G95" s="8">
-        <v>500200</v>
+        <v>521030</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>300210</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="8">
-        <v>500210</v>
-      </c>
-      <c r="H96" t="s">
-        <v>15</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>300220</v>
+        <v>300100</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -3683,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="8">
-        <v>500220</v>
+        <v>500100</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
@@ -3691,10 +3695,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>300230</v>
+        <v>300110</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3705,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="8">
-        <v>500230</v>
+        <v>500110</v>
       </c>
       <c r="H98" t="s">
         <v>15</v>
@@ -3713,10 +3717,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>300240</v>
+        <v>300120</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3727,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="8">
-        <v>500240</v>
+        <v>500120</v>
       </c>
       <c r="H99" t="s">
         <v>15</v>
@@ -3735,10 +3739,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>300250</v>
+        <v>300130</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3749,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="8">
-        <v>500250</v>
+        <v>500130</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -3757,10 +3761,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>300260</v>
+        <v>300140</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3771,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="8">
-        <v>500260</v>
+        <v>500140</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
@@ -3779,10 +3783,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>300270</v>
+        <v>300150</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3793,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="8">
-        <v>500270</v>
+        <v>500150</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>
@@ -3801,10 +3805,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>300280</v>
+        <v>300160</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3815,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="8">
-        <v>500280</v>
+        <v>500160</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
@@ -3823,10 +3827,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>300290</v>
+        <v>300170</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3837,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="8">
-        <v>500290</v>
+        <v>500170</v>
       </c>
       <c r="H104" t="s">
         <v>15</v>
@@ -3845,10 +3849,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>300300</v>
+        <v>300180</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3859,40 +3863,26 @@
         <v>0</v>
       </c>
       <c r="G105" s="8">
-        <v>500300</v>
+        <v>500180</v>
       </c>
       <c r="H105" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>300310</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="3">
-        <v>0</v>
-      </c>
-      <c r="G106" s="8">
-        <v>500310</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
-      </c>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>300320</v>
+        <v>300200</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3903,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="8">
-        <v>500320</v>
+        <v>500200</v>
       </c>
       <c r="H107" t="s">
         <v>15</v>
@@ -3911,10 +3901,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>300330</v>
+        <v>300210</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3925,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="8">
-        <v>500330</v>
+        <v>500210</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
@@ -3933,10 +3923,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>300340</v>
+        <v>300220</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3947,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="8">
-        <v>500340</v>
+        <v>500220</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
@@ -3955,10 +3945,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>300350</v>
+        <v>300230</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3969,26 +3959,40 @@
         <v>0</v>
       </c>
       <c r="G110" s="8">
-        <v>500350</v>
+        <v>500230</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="A111" s="2">
+        <v>300240</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
+        <v>500240</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>301000</v>
+        <v>300250</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3999,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="G112" s="8">
-        <v>501000</v>
+        <v>500250</v>
       </c>
       <c r="H112" t="s">
         <v>15</v>
@@ -4007,10 +4011,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>301010</v>
+        <v>300260</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4021,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="8">
-        <v>501010</v>
+        <v>500260</v>
       </c>
       <c r="H113" t="s">
         <v>15</v>
@@ -4029,10 +4033,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>301020</v>
+        <v>300270</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -4043,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="8">
-        <v>501020</v>
+        <v>500270</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
@@ -4051,10 +4055,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>301030</v>
+        <v>300280</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4065,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="8">
-        <v>501030</v>
+        <v>500280</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
@@ -4073,10 +4077,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>301040</v>
+        <v>300290</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4087,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="8">
-        <v>501040</v>
+        <v>500290</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
@@ -4095,10 +4099,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>301050</v>
+        <v>300300</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4109,26 +4113,40 @@
         <v>0</v>
       </c>
       <c r="G117" s="8">
-        <v>501050</v>
+        <v>500300</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="A118" s="2">
+        <v>300310</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
+        <v>500310</v>
+      </c>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>302000</v>
+        <v>300320</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4139,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="8">
-        <v>502000</v>
+        <v>500320</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
@@ -4147,10 +4165,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>302010</v>
+        <v>300330</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -4161,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="8">
-        <v>502010</v>
+        <v>500330</v>
       </c>
       <c r="H120" t="s">
         <v>15</v>
@@ -4169,10 +4187,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>302020</v>
+        <v>300340</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4183,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G121" s="8">
-        <v>502020</v>
+        <v>500340</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
@@ -4191,10 +4209,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>302030</v>
+        <v>300350</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4205,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="G122" s="8">
-        <v>502030</v>
+        <v>500350</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
@@ -4221,10 +4239,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>303000</v>
+        <v>301000</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4235,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="8">
-        <v>503000</v>
+        <v>501000</v>
       </c>
       <c r="H124" t="s">
         <v>15</v>
@@ -4243,10 +4261,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>303010</v>
+        <v>301010</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4257,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="8">
-        <v>503010</v>
+        <v>501010</v>
       </c>
       <c r="H125" t="s">
         <v>15</v>
@@ -4265,10 +4283,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>303020</v>
+        <v>301020</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4279,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="8">
-        <v>503020</v>
+        <v>501020</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
@@ -4287,10 +4305,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>303030</v>
+        <v>301030</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4301,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="8">
-        <v>503030</v>
+        <v>501030</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -4309,10 +4327,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>303040</v>
+        <v>301040</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4323,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="8">
-        <v>503040</v>
+        <v>501040</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -4331,10 +4349,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>303100</v>
+        <v>301050</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4345,40 +4363,26 @@
         <v>0</v>
       </c>
       <c r="G129" s="8">
-        <v>503100</v>
+        <v>501050</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>303110</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="3">
-        <v>0</v>
-      </c>
-      <c r="G130" s="8">
-        <v>503110</v>
-      </c>
-      <c r="H130" t="s">
-        <v>15</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>303120</v>
+        <v>302000</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4389,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="8">
-        <v>503120</v>
+        <v>502000</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -4397,10 +4401,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>303130</v>
+        <v>302010</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4411,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="8">
-        <v>503130</v>
+        <v>502010</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
@@ -4419,10 +4423,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>303140</v>
+        <v>302020</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4433,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="8">
-        <v>503140</v>
+        <v>502020</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
@@ -4441,10 +4445,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>303150</v>
+        <v>302030</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4455,40 +4459,26 @@
         <v>0</v>
       </c>
       <c r="G134" s="8">
-        <v>503150</v>
+        <v>502030</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>303160</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" s="3">
-        <v>0</v>
-      </c>
-      <c r="G135" s="8">
-        <v>503160</v>
-      </c>
-      <c r="H135" t="s">
-        <v>15</v>
-      </c>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>303170</v>
+        <v>303000</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4499,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="8">
-        <v>503170</v>
+        <v>503000</v>
       </c>
       <c r="H136" t="s">
         <v>15</v>
@@ -4507,10 +4497,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>303180</v>
+        <v>303010</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4521,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="8">
-        <v>503180</v>
+        <v>503010</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
@@ -4529,10 +4519,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>303190</v>
+        <v>303020</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4543,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="8">
-        <v>503190</v>
+        <v>503020</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
@@ -4551,10 +4541,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>303200</v>
+        <v>303030</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4565,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="8">
-        <v>503200</v>
+        <v>503030</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
@@ -4573,10 +4563,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>303210</v>
+        <v>303040</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4587,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="8">
-        <v>503210</v>
+        <v>503040</v>
       </c>
       <c r="H140" t="s">
         <v>15</v>
@@ -4595,10 +4585,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>303220</v>
+        <v>303100</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4609,26 +4599,40 @@
         <v>0</v>
       </c>
       <c r="G141" s="8">
-        <v>503220</v>
+        <v>503100</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
+      <c r="A142" s="2">
+        <v>303110</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="8">
+        <v>503110</v>
+      </c>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>303300</v>
+        <v>303120</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4639,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="8">
-        <v>503300</v>
+        <v>503120</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
@@ -4647,10 +4651,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>303310</v>
+        <v>303130</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4661,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="8">
-        <v>503310</v>
+        <v>503130</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
@@ -4669,10 +4673,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>303320</v>
+        <v>303140</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4683,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="8">
-        <v>503320</v>
+        <v>503140</v>
       </c>
       <c r="H145" t="s">
         <v>15</v>
@@ -4691,10 +4695,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>303330</v>
+        <v>303150</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -4705,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="8">
-        <v>503330</v>
+        <v>503150</v>
       </c>
       <c r="H146" t="s">
         <v>15</v>
@@ -4713,10 +4717,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>303340</v>
+        <v>303160</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4727,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="8">
-        <v>503340</v>
+        <v>503160</v>
       </c>
       <c r="H147" t="s">
         <v>15</v>
@@ -4735,10 +4739,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>303350</v>
+        <v>303170</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4749,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="8">
-        <v>503350</v>
+        <v>503170</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
@@ -4757,10 +4761,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>303360</v>
+        <v>303180</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4771,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="8">
-        <v>503360</v>
+        <v>503180</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
@@ -4779,10 +4783,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>303370</v>
+        <v>303190</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4793,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="8">
-        <v>503370</v>
+        <v>503190</v>
       </c>
       <c r="H150" t="s">
         <v>15</v>
@@ -4801,10 +4805,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>303380</v>
+        <v>303200</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4815,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="8">
-        <v>503380</v>
+        <v>503200</v>
       </c>
       <c r="H151" t="s">
         <v>15</v>
@@ -4823,10 +4827,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>303390</v>
+        <v>303210</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -4837,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="8">
-        <v>503390</v>
+        <v>503210</v>
       </c>
       <c r="H152" t="s">
         <v>15</v>
@@ -4845,10 +4849,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>303400</v>
+        <v>303220</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -4859,40 +4863,26 @@
         <v>0</v>
       </c>
       <c r="G153" s="8">
-        <v>503400</v>
+        <v>503220</v>
       </c>
       <c r="H153" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>303410</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" s="3">
-        <v>0</v>
-      </c>
-      <c r="G154" s="8">
-        <v>503410</v>
-      </c>
-      <c r="H154" t="s">
-        <v>15</v>
-      </c>
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>303500</v>
+        <v>303300</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -4903,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="8">
-        <v>503500</v>
+        <v>503300</v>
       </c>
       <c r="H155" t="s">
         <v>15</v>
@@ -4911,10 +4901,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>303510</v>
+        <v>303310</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -4925,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="8">
-        <v>503510</v>
+        <v>503310</v>
       </c>
       <c r="H156" t="s">
         <v>15</v>
@@ -4933,10 +4923,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>303520</v>
+        <v>303320</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4947,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="8">
-        <v>503520</v>
+        <v>503320</v>
       </c>
       <c r="H157" t="s">
         <v>15</v>
@@ -4955,10 +4945,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>303530</v>
+        <v>303330</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -4969,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="8">
-        <v>503530</v>
+        <v>503330</v>
       </c>
       <c r="H158" t="s">
         <v>15</v>
@@ -4977,10 +4967,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>303540</v>
+        <v>303340</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -4991,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="8">
-        <v>503540</v>
+        <v>503340</v>
       </c>
       <c r="H159" t="s">
         <v>15</v>
@@ -4999,10 +4989,10 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>303550</v>
+        <v>303350</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -5013,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="8">
-        <v>503550</v>
+        <v>503350</v>
       </c>
       <c r="H160" t="s">
         <v>15</v>
@@ -5021,10 +5011,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>303560</v>
+        <v>303360</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -5035,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="8">
-        <v>503560</v>
+        <v>503360</v>
       </c>
       <c r="H161" t="s">
         <v>15</v>
@@ -5043,10 +5033,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>303570</v>
+        <v>303370</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -5057,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="8">
-        <v>503570</v>
+        <v>503370</v>
       </c>
       <c r="H162" t="s">
         <v>15</v>
@@ -5065,10 +5055,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>303580</v>
+        <v>303380</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -5079,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="8">
-        <v>503580</v>
+        <v>503380</v>
       </c>
       <c r="H163" t="s">
         <v>15</v>
@@ -5087,10 +5077,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>303590</v>
+        <v>303390</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -5101,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="8">
-        <v>503590</v>
+        <v>503390</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -5109,10 +5099,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>303600</v>
+        <v>303400</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -5123,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="8">
-        <v>503600</v>
+        <v>503400</v>
       </c>
       <c r="H165" t="s">
         <v>15</v>
@@ -5131,10 +5121,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>303610</v>
+        <v>303410</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -5145,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="8">
-        <v>503610</v>
+        <v>503410</v>
       </c>
       <c r="H166" t="s">
         <v>15</v>
@@ -5153,10 +5143,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>303700</v>
+        <v>303500</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -5167,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="8">
-        <v>503700</v>
+        <v>503500</v>
       </c>
       <c r="H167" t="s">
         <v>15</v>
@@ -5175,10 +5165,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>303710</v>
+        <v>303510</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -5189,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="8">
-        <v>503710</v>
+        <v>503510</v>
       </c>
       <c r="H168" t="s">
         <v>15</v>
@@ -5197,10 +5187,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>303720</v>
+        <v>303520</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -5211,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="G169" s="8">
-        <v>503720</v>
+        <v>503520</v>
       </c>
       <c r="H169" t="s">
         <v>15</v>
@@ -5219,10 +5209,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>303730</v>
+        <v>303530</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -5233,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="8">
-        <v>503730</v>
+        <v>503530</v>
       </c>
       <c r="H170" t="s">
         <v>15</v>
@@ -5241,10 +5231,10 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>303740</v>
+        <v>303540</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -5255,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="8">
-        <v>503740</v>
+        <v>503540</v>
       </c>
       <c r="H171" t="s">
         <v>15</v>
@@ -5263,10 +5253,10 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>303750</v>
+        <v>303550</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -5277,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="8">
-        <v>503750</v>
+        <v>503550</v>
       </c>
       <c r="H172" t="s">
         <v>15</v>
@@ -5285,10 +5275,10 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>303760</v>
+        <v>303560</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -5299,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="8">
-        <v>503760</v>
+        <v>503560</v>
       </c>
       <c r="H173" t="s">
         <v>15</v>
@@ -5307,10 +5297,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>303770</v>
+        <v>303570</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -5321,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="8">
-        <v>503770</v>
+        <v>503570</v>
       </c>
       <c r="H174" t="s">
         <v>15</v>
@@ -5329,10 +5319,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>303780</v>
+        <v>303580</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -5343,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="8">
-        <v>503780</v>
+        <v>503580</v>
       </c>
       <c r="H175" t="s">
         <v>15</v>
@@ -5351,10 +5341,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>303790</v>
+        <v>303590</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -5365,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="G176" s="8">
-        <v>503790</v>
+        <v>503590</v>
       </c>
       <c r="H176" t="s">
         <v>15</v>
@@ -5373,10 +5363,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>303800</v>
+        <v>303600</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -5387,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="G177" s="8">
-        <v>503800</v>
+        <v>503600</v>
       </c>
       <c r="H177" t="s">
         <v>15</v>
@@ -5395,10 +5385,10 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>303810</v>
+        <v>303610</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -5409,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="8">
-        <v>503810</v>
+        <v>503610</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -5417,10 +5407,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>303900</v>
+        <v>303700</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -5431,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="8">
-        <v>503900</v>
+        <v>503700</v>
       </c>
       <c r="H179" t="s">
         <v>15</v>
@@ -5439,10 +5429,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>303910</v>
+        <v>303710</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -5453,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="8">
-        <v>503910</v>
+        <v>503710</v>
       </c>
       <c r="H180" t="s">
         <v>15</v>
@@ -5461,10 +5451,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>303920</v>
+        <v>303720</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -5475,26 +5465,40 @@
         <v>0</v>
       </c>
       <c r="G181" s="8">
-        <v>503920</v>
+        <v>503720</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
+      <c r="A182" s="2">
+        <v>303730</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="8">
+        <v>503730</v>
+      </c>
+      <c r="H182" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>304000</v>
+        <v>303740</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -5505,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="8">
-        <v>504000</v>
+        <v>503740</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -5513,10 +5517,10 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>304010</v>
+        <v>303750</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -5527,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="8">
-        <v>504010</v>
+        <v>503750</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
@@ -5535,10 +5539,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>304020</v>
+        <v>303760</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -5549,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="8">
-        <v>504020</v>
+        <v>503760</v>
       </c>
       <c r="H185" t="s">
         <v>15</v>
@@ -5557,10 +5561,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>304030</v>
+        <v>303770</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -5571,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="8">
-        <v>504030</v>
+        <v>503770</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -5579,10 +5583,10 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>304040</v>
+        <v>303780</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -5593,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="8">
-        <v>504040</v>
+        <v>503780</v>
       </c>
       <c r="H187" t="s">
         <v>15</v>
@@ -5601,10 +5605,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>304050</v>
+        <v>303790</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -5615,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="G188" s="8">
-        <v>504050</v>
+        <v>503790</v>
       </c>
       <c r="H188" t="s">
         <v>15</v>
@@ -5623,10 +5627,10 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>304060</v>
+        <v>303800</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -5637,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="8">
-        <v>504060</v>
+        <v>503800</v>
       </c>
       <c r="H189" t="s">
         <v>15</v>
@@ -5645,10 +5649,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>304070</v>
+        <v>303810</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -5659,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="8">
-        <v>504070</v>
+        <v>503810</v>
       </c>
       <c r="H190" t="s">
         <v>15</v>
@@ -5667,10 +5671,10 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>304080</v>
+        <v>303900</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -5681,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G191" s="8">
-        <v>504080</v>
+        <v>503900</v>
       </c>
       <c r="H191" t="s">
         <v>15</v>
@@ -5689,10 +5693,10 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>304090</v>
+        <v>303910</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -5703,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="8">
-        <v>504090</v>
+        <v>503910</v>
       </c>
       <c r="H192" t="s">
         <v>15</v>
@@ -5711,10 +5715,10 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>304100</v>
+        <v>303920</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -5725,40 +5729,26 @@
         <v>0</v>
       </c>
       <c r="G193" s="8">
-        <v>504100</v>
+        <v>503920</v>
       </c>
       <c r="H193" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="2">
-        <v>304110</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" s="3">
-        <v>0</v>
-      </c>
-      <c r="G194" s="8">
-        <v>504110</v>
-      </c>
-      <c r="H194" t="s">
-        <v>15</v>
-      </c>
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>304120</v>
+        <v>304000</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -5769,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="8">
-        <v>504120</v>
+        <v>504000</v>
       </c>
       <c r="H195" t="s">
         <v>15</v>
@@ -5777,10 +5767,10 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>304130</v>
+        <v>304010</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -5791,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="8">
-        <v>504130</v>
+        <v>504010</v>
       </c>
       <c r="H196" t="s">
         <v>15</v>
@@ -5799,10 +5789,10 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>304200</v>
+        <v>304020</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -5813,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="G197" s="8">
-        <v>504200</v>
+        <v>504020</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
@@ -5821,10 +5811,10 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>304210</v>
+        <v>304030</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -5835,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="G198" s="8">
-        <v>504210</v>
+        <v>504030</v>
       </c>
       <c r="H198" t="s">
         <v>15</v>
@@ -5843,10 +5833,10 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>304220</v>
+        <v>304040</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -5857,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="G199" s="8">
-        <v>504220</v>
+        <v>504040</v>
       </c>
       <c r="H199" t="s">
         <v>15</v>
@@ -5865,10 +5855,10 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>304230</v>
+        <v>304050</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -5879,26 +5869,40 @@
         <v>0</v>
       </c>
       <c r="G200" s="8">
-        <v>504230</v>
+        <v>504050</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
+      <c r="A201" s="2">
+        <v>304060</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="8">
+        <v>504060</v>
+      </c>
+      <c r="H201" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>309000</v>
+        <v>304070</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -5909,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="8">
-        <v>509000</v>
+        <v>504070</v>
       </c>
       <c r="H202" t="s">
         <v>15</v>
@@ -5917,10 +5921,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>309010</v>
+        <v>304080</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -5931,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="8">
-        <v>509010</v>
+        <v>504080</v>
       </c>
       <c r="H203" t="s">
         <v>15</v>
@@ -5939,10 +5943,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>309020</v>
+        <v>304090</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -5953,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="8">
-        <v>509020</v>
+        <v>504090</v>
       </c>
       <c r="H204" t="s">
         <v>15</v>
@@ -5961,10 +5965,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>309030</v>
+        <v>304100</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -5975,26 +5979,40 @@
         <v>0</v>
       </c>
       <c r="G205" s="8">
-        <v>509030</v>
+        <v>504100</v>
       </c>
       <c r="H205" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
+      <c r="A206" s="2">
+        <v>304110</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0</v>
+      </c>
+      <c r="G206" s="8">
+        <v>504110</v>
+      </c>
+      <c r="H206" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>310100</v>
+        <v>304120</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -6004,8 +6022,8 @@
       <c r="F207" s="3">
         <v>0</v>
       </c>
-      <c r="G207" s="6" t="s">
-        <v>111</v>
+      <c r="G207" s="8">
+        <v>504120</v>
       </c>
       <c r="H207" t="s">
         <v>15</v>
@@ -6013,10 +6031,10 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>310110</v>
+        <v>304130</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -6026,8 +6044,8 @@
       <c r="F208" s="3">
         <v>0</v>
       </c>
-      <c r="G208" s="6" t="s">
-        <v>112</v>
+      <c r="G208" s="8">
+        <v>504130</v>
       </c>
       <c r="H208" t="s">
         <v>15</v>
@@ -6035,10 +6053,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>310120</v>
+        <v>304200</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -6048,81 +6066,93 @@
       <c r="F209" s="3">
         <v>0</v>
       </c>
-      <c r="G209" s="6" t="s">
-        <v>113</v>
+      <c r="G209" s="8">
+        <v>504200</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
+      <c r="A210" s="2">
+        <v>304210</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0</v>
+      </c>
+      <c r="G210" s="8">
+        <v>504210</v>
+      </c>
+      <c r="H210" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>311060</v>
+        <v>304220</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C211" s="3"/>
-      <c r="D211" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
-      <c r="G211" s="6" t="s">
-        <v>116</v>
+      <c r="G211" s="8">
+        <v>504220</v>
       </c>
       <c r="H211" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
+      <c r="A212" s="2">
+        <v>304230</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0</v>
+      </c>
+      <c r="G212" s="8">
+        <v>504230</v>
+      </c>
+      <c r="H212" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>312100</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F213" s="3">
-        <v>0</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H213" t="s">
-        <v>15</v>
-      </c>
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>312110</v>
+        <v>309000</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -6132,8 +6162,8 @@
       <c r="F214" s="3">
         <v>0</v>
       </c>
-      <c r="G214" s="6" t="s">
-        <v>120</v>
+      <c r="G214" s="8">
+        <v>509000</v>
       </c>
       <c r="H214" t="s">
         <v>15</v>
@@ -6141,10 +6171,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>312120</v>
+        <v>309010</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -6154,8 +6184,8 @@
       <c r="F215" s="3">
         <v>0</v>
       </c>
-      <c r="G215" s="6" t="s">
-        <v>122</v>
+      <c r="G215" s="8">
+        <v>509010</v>
       </c>
       <c r="H215" t="s">
         <v>15</v>
@@ -6163,10 +6193,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>312130</v>
+        <v>309020</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -6176,8 +6206,8 @@
       <c r="F216" s="3">
         <v>0</v>
       </c>
-      <c r="G216" s="6" t="s">
-        <v>124</v>
+      <c r="G216" s="8">
+        <v>509020</v>
       </c>
       <c r="H216" t="s">
         <v>15</v>
@@ -6185,10 +6215,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>312140</v>
+        <v>309030</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -6198,8 +6228,8 @@
       <c r="F217" s="3">
         <v>0</v>
       </c>
-      <c r="G217" s="6" t="s">
-        <v>126</v>
+      <c r="G217" s="8">
+        <v>509030</v>
       </c>
       <c r="H217" t="s">
         <v>15</v>
@@ -6215,10 +6245,10 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>313100</v>
+        <v>310100</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -6229,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="H219" t="s">
         <v>15</v>
@@ -6237,10 +6267,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>313110</v>
+        <v>310110</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -6251,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H220" t="s">
         <v>15</v>
@@ -6259,10 +6289,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>313120</v>
+        <v>310120</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -6273,43 +6303,31 @@
         <v>0</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H221" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>313130</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F222" s="3">
-        <v>0</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H222" t="s">
-        <v>15</v>
-      </c>
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>313140</v>
+        <v>311060</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
+      <c r="D223" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E223" s="3" t="s">
         <v>7</v>
       </c>
@@ -6317,40 +6335,26 @@
         <v>0</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H223" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>313150</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F224" s="3">
-        <v>0</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H224" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>313160</v>
+        <v>312100</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -6361,18 +6365,18 @@
         <v>0</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H225" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>313200</v>
+        <v>312110</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -6383,18 +6387,18 @@
         <v>0</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H226" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>313210</v>
+        <v>312120</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -6405,18 +6409,18 @@
         <v>0</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="H227" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>313220</v>
+        <v>312130</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -6427,18 +6431,18 @@
         <v>0</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="H228" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>313230</v>
+        <v>312140</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -6449,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H229" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6463,20 +6467,34 @@
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>313100</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231" s="3">
+        <v>0</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H231" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>315100</v>
+        <v>313110</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -6487,18 +6505,18 @@
         <v>0</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H232" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>315110</v>
+        <v>313120</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -6509,18 +6527,18 @@
         <v>0</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H233" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>315111</v>
+        <v>313130</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -6531,28 +6549,18 @@
         <v>0</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H234" t="s">
         <v>15</v>
       </c>
-      <c r="I234"/>
-      <c r="J234"/>
-      <c r="K234"/>
-      <c r="L234"/>
-      <c r="M234"/>
-      <c r="N234"/>
-      <c r="O234"/>
-      <c r="P234"/>
-      <c r="Q234"/>
-      <c r="R234"/>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>315120</v>
+        <v>313140</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -6563,18 +6571,18 @@
         <v>0</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H235" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>315130</v>
+        <v>313150</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -6585,18 +6593,18 @@
         <v>0</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="H236" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>315140</v>
+        <v>313160</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -6607,18 +6615,18 @@
         <v>0</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="H237" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>315150</v>
+        <v>313200</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -6629,18 +6637,18 @@
         <v>0</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H238" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>315160</v>
+        <v>313210</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -6651,18 +6659,18 @@
         <v>0</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H239" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>315170</v>
+        <v>313220</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -6673,18 +6681,18 @@
         <v>0</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="H240" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>315180</v>
+        <v>313230</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -6695,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H241" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -6709,34 +6717,20 @@
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>316100</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F243" s="3">
-        <v>0</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H243" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>316101</v>
+        <v>315100</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -6747,18 +6741,18 @@
         <v>0</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="H244" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>316110</v>
+        <v>315110</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -6769,18 +6763,18 @@
         <v>0</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="H245" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>316120</v>
+        <v>315111</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -6791,18 +6785,28 @@
         <v>0</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H246" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246"/>
+      <c r="L246"/>
+      <c r="M246"/>
+      <c r="N246"/>
+      <c r="O246"/>
+      <c r="P246"/>
+      <c r="Q246"/>
+      <c r="R246"/>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>316121</v>
+        <v>315120</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -6813,18 +6817,18 @@
         <v>0</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H247" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>316130</v>
+        <v>315130</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -6835,26 +6839,40 @@
         <v>0</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H248" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="5"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>315140</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>317100</v>
+        <v>315150</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -6865,18 +6883,18 @@
         <v>0</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H250" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>317110</v>
+        <v>315160</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -6887,18 +6905,18 @@
         <v>0</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H251" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>317120</v>
+        <v>315170</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -6909,18 +6927,18 @@
         <v>0</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H252" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>317130</v>
+        <v>315180</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -6931,40 +6949,26 @@
         <v>0</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H253" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="2">
-        <v>317140</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F254" s="3">
-        <v>0</v>
-      </c>
-      <c r="G254" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H254" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>317150</v>
+        <v>316100</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -6975,23 +6979,21 @@
         <v>0</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="H255" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>317151</v>
+        <v>316101</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C256" s="3"/>
-      <c r="D256" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="D256" s="3"/>
       <c r="E256" s="3" t="s">
         <v>7</v>
       </c>
@@ -6999,26 +7001,40 @@
         <v>0</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="H256" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
+      <c r="A257" s="2">
+        <v>316110</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" s="3">
+        <v>0</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H257" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>318100</v>
+        <v>316120</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -7028,8 +7044,8 @@
       <c r="F258" s="3">
         <v>0</v>
       </c>
-      <c r="G258" s="8">
-        <v>518100</v>
+      <c r="G258" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="H258" t="s">
         <v>15</v>
@@ -7037,15 +7053,13 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>318110</v>
+        <v>316121</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C259" s="3"/>
-      <c r="D259" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="D259" s="3"/>
       <c r="E259" s="3" t="s">
         <v>7</v>
       </c>
@@ -7053,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="H259" t="s">
         <v>15</v>
@@ -7061,15 +7075,13 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>318111</v>
+        <v>316130</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C260" s="3"/>
-      <c r="D260" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="D260" s="3"/>
       <c r="E260" s="3" t="s">
         <v>7</v>
       </c>
@@ -7077,47 +7089,29 @@
         <v>0</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="H260" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>318112</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F261" s="3">
-        <v>0</v>
-      </c>
-      <c r="G261" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H261" t="s">
-        <v>15</v>
-      </c>
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>318113</v>
+        <v>317100</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C262" s="3"/>
-      <c r="D262" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="D262" s="3"/>
       <c r="E262" s="3" t="s">
         <v>7</v>
       </c>
@@ -7125,26 +7119,40 @@
         <v>0</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="H262" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="5"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
+      <c r="A263" s="2">
+        <v>317110</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263" s="3">
+        <v>0</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H263" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>319100</v>
+        <v>317120</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -7155,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="H264" t="s">
         <v>15</v>
@@ -7163,10 +7171,10 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>319101</v>
+        <v>317130</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -7177,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H265" t="s">
         <v>15</v>
@@ -7185,10 +7193,10 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>319110</v>
+        <v>317140</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -7199,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="H266" t="s">
         <v>15</v>
@@ -7207,10 +7215,10 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>319111</v>
+        <v>317150</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -7221,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="H267" t="s">
         <v>15</v>
@@ -7229,13 +7237,15 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>319120</v>
+        <v>317151</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
+      <c r="D268" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="E268" s="3" t="s">
         <v>7</v>
       </c>
@@ -7243,40 +7253,26 @@
         <v>0</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H268" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="2">
-        <v>319121</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F269" s="3">
-        <v>0</v>
-      </c>
-      <c r="G269" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H269" t="s">
-        <v>15</v>
-      </c>
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>319130</v>
+        <v>318100</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -7286,8 +7282,8 @@
       <c r="F270" s="3">
         <v>0</v>
       </c>
-      <c r="G270" s="6" t="s">
-        <v>209</v>
+      <c r="G270" s="8">
+        <v>518100</v>
       </c>
       <c r="H270" t="s">
         <v>15</v>
@@ -7295,13 +7291,15 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>319140</v>
+        <v>318110</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
+      <c r="D271" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E271" s="3" t="s">
         <v>7</v>
       </c>
@@ -7309,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="H271" t="s">
         <v>15</v>
@@ -7317,13 +7315,15 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>319150</v>
+        <v>318111</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
+      <c r="D272" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="E272" s="3" t="s">
         <v>7</v>
       </c>
@@ -7331,29 +7331,47 @@
         <v>0</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H272" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="5"/>
-      <c r="B273" s="5"/>
-      <c r="C273" s="5"/>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
+      <c r="A273" s="2">
+        <v>318112</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F273" s="3">
+        <v>0</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H273" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>320100</v>
+        <v>318113</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
+      <c r="D274" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="E274" s="3" t="s">
         <v>7</v>
       </c>
@@ -7361,40 +7379,26 @@
         <v>0</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H274" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="2">
-        <v>320110</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F275" s="3">
-        <v>0</v>
-      </c>
-      <c r="G275" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H275" t="s">
-        <v>15</v>
-      </c>
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>320120</v>
+        <v>319100</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -7405,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="H276" t="s">
         <v>15</v>
@@ -7413,10 +7417,10 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>320121</v>
+        <v>319101</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -7427,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="H277" t="s">
         <v>15</v>
@@ -7435,10 +7439,10 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>320130</v>
+        <v>319110</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -7449,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H278" t="s">
         <v>15</v>
@@ -7457,10 +7461,10 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>320140</v>
+        <v>319111</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -7471,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="H279" t="s">
         <v>15</v>
@@ -7479,10 +7483,10 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>320150</v>
+        <v>319120</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -7493,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H280" t="s">
         <v>15</v>
@@ -7501,10 +7505,10 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>320160</v>
+        <v>319121</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -7514,27 +7518,41 @@
       <c r="F281" s="3">
         <v>0</v>
       </c>
-      <c r="G281" s="8">
-        <v>520160</v>
+      <c r="G281" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="H281" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5"/>
-      <c r="C282" s="5"/>
-      <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
-      <c r="F282" s="5"/>
+      <c r="A282" s="2">
+        <v>319130</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F282" s="3">
+        <v>0</v>
+      </c>
+      <c r="G282" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H282" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>321100</v>
+        <v>319140</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -7545,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H283" t="s">
         <v>15</v>
@@ -7553,10 +7571,10 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>321110</v>
+        <v>319150</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -7567,40 +7585,26 @@
         <v>0</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H284" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>321120</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C285" s="3"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F285" s="3">
-        <v>0</v>
-      </c>
-      <c r="G285" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H285" t="s">
-        <v>15</v>
-      </c>
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>321130</v>
+        <v>320100</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -7611,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="G286" s="6" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="H286" t="s">
         <v>15</v>
@@ -7619,10 +7623,10 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>321140</v>
+        <v>320110</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -7633,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="G287" s="6" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="H287" t="s">
         <v>15</v>
@@ -7641,10 +7645,10 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>321150</v>
+        <v>320120</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -7655,18 +7659,18 @@
         <v>0</v>
       </c>
       <c r="G288" s="6" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="H288" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>321160</v>
+        <v>320121</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -7677,18 +7681,18 @@
         <v>0</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="H289" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>321170</v>
+        <v>320130</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -7699,18 +7703,18 @@
         <v>0</v>
       </c>
       <c r="G290" s="6" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="H290" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>321180</v>
+        <v>320140</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -7721,26 +7725,40 @@
         <v>0</v>
       </c>
       <c r="G291" s="6" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="H291" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="5"/>
-      <c r="B292" s="5"/>
-      <c r="C292" s="5"/>
-      <c r="D292" s="5"/>
-      <c r="E292" s="5"/>
-      <c r="F292" s="5"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>320150</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" s="3">
+        <v>0</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H292" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>330000</v>
+        <v>320160</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -7751,40 +7769,27 @@
         <v>0</v>
       </c>
       <c r="G293" s="8">
-        <v>530000</v>
+        <v>520160</v>
       </c>
       <c r="H293" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="2">
-        <v>330010</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F294" s="3">
-        <v>0</v>
-      </c>
-      <c r="G294" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H294" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="H294"/>
+    </row>
+    <row r="295" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>330020</v>
+        <v>321100</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -7795,18 +7800,29 @@
         <v>0</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H295" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I295"/>
+      <c r="J295"/>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="N295"/>
+      <c r="O295"/>
+      <c r="P295"/>
+      <c r="Q295"/>
+      <c r="R295"/>
+      <c r="S295"/>
+    </row>
+    <row r="296" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>330030</v>
+        <v>321110</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -7816,19 +7832,30 @@
       <c r="F296" s="3">
         <v>0</v>
       </c>
-      <c r="G296" s="8">
-        <v>530030</v>
+      <c r="G296" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="H296" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I296"/>
+      <c r="J296"/>
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="N296"/>
+      <c r="O296"/>
+      <c r="P296"/>
+      <c r="Q296"/>
+      <c r="R296"/>
+      <c r="S296"/>
+    </row>
+    <row r="297" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>330040</v>
+        <v>321111</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -7838,19 +7865,30 @@
       <c r="F297" s="3">
         <v>0</v>
       </c>
-      <c r="G297" s="8">
-        <v>530040</v>
+      <c r="G297" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="H297" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I297"/>
+      <c r="J297"/>
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="N297"/>
+      <c r="O297"/>
+      <c r="P297"/>
+      <c r="Q297"/>
+      <c r="R297"/>
+      <c r="S297"/>
+    </row>
+    <row r="298" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>330050</v>
+        <v>321120</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -7860,19 +7898,30 @@
       <c r="F298" s="3">
         <v>0</v>
       </c>
-      <c r="G298" s="8">
-        <v>530050</v>
+      <c r="G298" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="H298" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I298"/>
+      <c r="J298"/>
+      <c r="K298"/>
+      <c r="L298"/>
+      <c r="M298"/>
+      <c r="N298"/>
+      <c r="O298"/>
+      <c r="P298"/>
+      <c r="Q298"/>
+      <c r="R298"/>
+      <c r="S298"/>
+    </row>
+    <row r="299" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>330060</v>
+        <v>321130</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -7882,19 +7931,30 @@
       <c r="F299" s="3">
         <v>0</v>
       </c>
-      <c r="G299" s="8">
-        <v>530060</v>
+      <c r="G299" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="H299" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I299"/>
+      <c r="J299"/>
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="N299"/>
+      <c r="O299"/>
+      <c r="P299"/>
+      <c r="Q299"/>
+      <c r="R299"/>
+      <c r="S299"/>
+    </row>
+    <row r="300" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>330070</v>
+        <v>321140</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -7904,19 +7964,30 @@
       <c r="F300" s="3">
         <v>0</v>
       </c>
-      <c r="G300" s="8">
-        <v>530070</v>
+      <c r="G300" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="H300" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+      <c r="L300"/>
+      <c r="M300"/>
+      <c r="N300"/>
+      <c r="O300"/>
+      <c r="P300"/>
+      <c r="Q300"/>
+      <c r="R300"/>
+      <c r="S300"/>
+    </row>
+    <row r="301" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>330080</v>
+        <v>321150</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -7926,19 +7997,30 @@
       <c r="F301" s="3">
         <v>0</v>
       </c>
-      <c r="G301" s="8">
-        <v>530080</v>
+      <c r="G301" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="H301" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+      <c r="L301"/>
+      <c r="M301"/>
+      <c r="N301"/>
+      <c r="O301"/>
+      <c r="P301"/>
+      <c r="Q301"/>
+      <c r="R301"/>
+      <c r="S301"/>
+    </row>
+    <row r="302" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>330090</v>
+        <v>321160</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -7948,19 +8030,30 @@
       <c r="F302" s="3">
         <v>0</v>
       </c>
-      <c r="G302" s="8">
-        <v>530090</v>
+      <c r="G302" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="H302" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I302"/>
+      <c r="J302"/>
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="N302"/>
+      <c r="O302"/>
+      <c r="P302"/>
+      <c r="Q302"/>
+      <c r="R302"/>
+      <c r="S302"/>
+    </row>
+    <row r="303" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>330100</v>
+        <v>321170</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -7970,19 +8063,30 @@
       <c r="F303" s="3">
         <v>0</v>
       </c>
-      <c r="G303" s="8">
-        <v>530100</v>
+      <c r="G303" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="H303" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+      <c r="L303"/>
+      <c r="M303"/>
+      <c r="N303"/>
+      <c r="O303"/>
+      <c r="P303"/>
+      <c r="Q303"/>
+      <c r="R303"/>
+      <c r="S303"/>
+    </row>
+    <row r="304" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>330110</v>
+        <v>321180</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -7992,41 +8096,38 @@
       <c r="F304" s="3">
         <v>0</v>
       </c>
-      <c r="G304" s="8">
-        <v>530110</v>
+      <c r="G304" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="H304" t="s">
         <v>15</v>
       </c>
+      <c r="I304"/>
+      <c r="J304"/>
+      <c r="K304"/>
+      <c r="L304"/>
+      <c r="M304"/>
+      <c r="N304"/>
+      <c r="O304"/>
+      <c r="P304"/>
+      <c r="Q304"/>
+      <c r="R304"/>
+      <c r="S304"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" s="2">
-        <v>330120</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
-      <c r="E305" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F305" s="3">
-        <v>0</v>
-      </c>
-      <c r="G305" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="H305" t="s">
-        <v>15</v>
-      </c>
+      <c r="A305" s="5"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>330130</v>
+        <v>330000</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -8036,8 +8137,8 @@
       <c r="F306" s="3">
         <v>0</v>
       </c>
-      <c r="G306" s="6" t="s">
-        <v>253</v>
+      <c r="G306" s="8">
+        <v>530000</v>
       </c>
       <c r="H306" t="s">
         <v>15</v>
@@ -8045,10 +8146,10 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>330140</v>
+        <v>330010</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -8059,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="H307" t="s">
         <v>15</v>
@@ -8067,10 +8168,10 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>330150</v>
+        <v>330020</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -8081,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="H308" t="s">
         <v>15</v>
@@ -8089,10 +8190,10 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>330160</v>
+        <v>330030</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -8102,8 +8203,8 @@
       <c r="F309" s="3">
         <v>0</v>
       </c>
-      <c r="G309" s="6" t="s">
-        <v>257</v>
+      <c r="G309" s="8">
+        <v>530030</v>
       </c>
       <c r="H309" t="s">
         <v>15</v>
@@ -8111,10 +8212,10 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>330170</v>
+        <v>330040</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -8124,8 +8225,8 @@
       <c r="F310" s="3">
         <v>0</v>
       </c>
-      <c r="G310" s="6" t="s">
-        <v>258</v>
+      <c r="G310" s="8">
+        <v>530040</v>
       </c>
       <c r="H310" t="s">
         <v>15</v>
@@ -8133,10 +8234,10 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>330180</v>
+        <v>330050</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -8147,29 +8248,51 @@
         <v>0</v>
       </c>
       <c r="G311" s="8">
-        <v>530180</v>
+        <v>530050</v>
       </c>
       <c r="H311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>330060</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F312" s="3">
+        <v>0</v>
+      </c>
+      <c r="G312" s="8">
+        <v>530060</v>
+      </c>
+      <c r="H312" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>340000</v>
+        <v>330070</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3" t="s">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="F313" s="3">
         <v>0</v>
       </c>
-      <c r="G313" s="6" t="s">
-        <v>264</v>
+      <c r="G313" s="8">
+        <v>530070</v>
       </c>
       <c r="H313" t="s">
         <v>15</v>
@@ -8177,21 +8300,21 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>340010</v>
+        <v>330080</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="F314" s="3">
         <v>0</v>
       </c>
-      <c r="G314" s="6" t="s">
-        <v>265</v>
+      <c r="G314" s="8">
+        <v>530080</v>
       </c>
       <c r="H314" t="s">
         <v>15</v>
@@ -8199,21 +8322,21 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>340020</v>
+        <v>330090</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3" t="s">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="F315" s="3">
         <v>0</v>
       </c>
-      <c r="G315" s="6" t="s">
-        <v>266</v>
+      <c r="G315" s="8">
+        <v>530090</v>
       </c>
       <c r="H315" t="s">
         <v>15</v>
@@ -8221,21 +8344,21 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>340030</v>
+        <v>330100</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3" t="s">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="F316" s="3">
         <v>0</v>
       </c>
-      <c r="G316" s="6" t="s">
-        <v>267</v>
+      <c r="G316" s="8">
+        <v>530100</v>
       </c>
       <c r="H316" t="s">
         <v>15</v>
@@ -8243,23 +8366,287 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>340040</v>
+        <v>330110</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="F317" s="3">
         <v>0</v>
       </c>
-      <c r="G317" s="6" t="s">
-        <v>268</v>
+      <c r="G317" s="8">
+        <v>530110</v>
       </c>
       <c r="H317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" s="2">
+        <v>330120</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F318" s="3">
+        <v>0</v>
+      </c>
+      <c r="G318" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>330130</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F319" s="3">
+        <v>0</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H319" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" s="2">
+        <v>330140</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F320" s="3">
+        <v>0</v>
+      </c>
+      <c r="G320" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" s="2">
+        <v>330150</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321" s="3">
+        <v>0</v>
+      </c>
+      <c r="G321" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H321" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" s="2">
+        <v>330160</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F322" s="3">
+        <v>0</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H322" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" s="2">
+        <v>330170</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F323" s="3">
+        <v>0</v>
+      </c>
+      <c r="G323" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>330180</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F324" s="3">
+        <v>0</v>
+      </c>
+      <c r="G324" s="8">
+        <v>530180</v>
+      </c>
+      <c r="H324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" s="2">
+        <v>340000</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F326" s="3">
+        <v>0</v>
+      </c>
+      <c r="G326" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>340010</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F327" s="3">
+        <v>0</v>
+      </c>
+      <c r="G327" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>340020</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F328" s="3">
+        <v>0</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>340030</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F329" s="3">
+        <v>0</v>
+      </c>
+      <c r="G329" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H329" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" s="2">
+        <v>340040</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F330" s="3">
+        <v>0</v>
+      </c>
+      <c r="G330" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H330" t="s">
         <v>15</v>
       </c>
     </row>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D87F6-9CDB-46E7-9275-F767D33EF287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51216EF9-CBE7-466F-8AD5-88789D85DF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="6090" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="3975" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -2438,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51216EF9-CBE7-466F-8AD5-88789D85DF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F37CD-78D7-42FE-8877-F0BAF7F45661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="3975" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="4440" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500030,550000</t>
-  </si>
-  <si>
     <t>绝望</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2003,6 +2000,10 @@
   </si>
   <si>
     <t>521180,521181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500030,550000,500032</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2438,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2486,11 +2487,11 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2512,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2538,10 +2539,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2564,11 +2565,11 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>474</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2590,11 +2591,11 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2613,14 +2614,14 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2639,22 +2640,22 @@
         <v>300050</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -2665,22 +2666,22 @@
         <v>300060</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -2691,14 +2692,14 @@
         <v>300070</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2723,10 +2724,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2749,10 +2750,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2775,10 +2776,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2801,10 +2802,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2827,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2853,11 +2854,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -2879,10 +2880,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2905,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2931,10 +2932,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2957,11 +2958,11 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -2983,10 +2984,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -2995,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -3009,10 +3010,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3021,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -3035,10 +3036,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3047,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -3061,10 +3062,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3087,10 +3088,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3113,10 +3114,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3139,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3151,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -3165,10 +3166,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3177,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -3191,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3203,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -3217,10 +3218,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3243,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3269,10 +3270,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3295,10 +3296,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3307,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -3321,10 +3322,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3333,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -3347,10 +3348,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3359,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -3373,10 +3374,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3399,10 +3400,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3425,10 +3426,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3451,10 +3452,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3463,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -3477,10 +3478,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3489,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -3503,10 +3504,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3515,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -3529,10 +3530,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3555,10 +3556,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3581,10 +3582,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3607,10 +3608,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3619,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
@@ -3633,10 +3634,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3645,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -3659,10 +3660,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3671,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
@@ -3685,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3711,10 +3712,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3737,10 +3738,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3763,10 +3764,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3775,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
         <v>15</v>
@@ -3789,10 +3790,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3801,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H53" t="s">
         <v>15</v>
@@ -3815,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3827,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
@@ -3841,10 +3842,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3867,10 +3868,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3893,10 +3894,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3919,10 +3920,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -3931,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
@@ -3945,10 +3946,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -3957,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -3971,10 +3972,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -3983,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
@@ -3997,10 +3998,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4023,10 +4024,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4049,10 +4050,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4075,10 +4076,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4087,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
@@ -4101,10 +4102,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4113,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
@@ -4127,10 +4128,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4139,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H66" t="s">
         <v>15</v>
@@ -4153,10 +4154,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4179,10 +4180,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4205,10 +4206,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4231,10 +4232,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4243,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s">
         <v>15</v>
@@ -4257,10 +4258,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4269,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -4283,10 +4284,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4295,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72" t="s">
         <v>15</v>
@@ -4309,10 +4310,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4335,10 +4336,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4361,10 +4362,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4387,10 +4388,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4399,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H76" t="s">
         <v>15</v>
@@ -4413,10 +4414,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4425,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
@@ -4439,10 +4440,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4451,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
         <v>15</v>
@@ -4465,10 +4466,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4491,10 +4492,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4517,10 +4518,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4543,10 +4544,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4555,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H82" t="s">
         <v>15</v>
@@ -4569,10 +4570,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4581,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
@@ -4601,13 +4602,13 @@
         <v>301000</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4627,13 +4628,13 @@
         <v>301010</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4653,13 +4654,13 @@
         <v>301020</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4679,13 +4680,13 @@
         <v>301030</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4705,13 +4706,13 @@
         <v>301040</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4731,14 +4732,14 @@
         <v>301050</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
@@ -4766,14 +4767,14 @@
         <v>302000</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
@@ -4792,14 +4793,14 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
@@ -4818,13 +4819,13 @@
         <v>302020</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -4844,14 +4845,14 @@
         <v>302030</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
@@ -4878,14 +4879,14 @@
         <v>310100</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
@@ -4904,22 +4905,22 @@
         <v>310110</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H98" t="s">
         <v>15</v>
@@ -4930,14 +4931,14 @@
         <v>310120</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H99" t="s">
         <v>15</v>
@@ -4956,14 +4957,14 @@
         <v>310130</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -4982,22 +4983,22 @@
         <v>310140</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
@@ -5008,14 +5009,14 @@
         <v>310150</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>
@@ -5043,22 +5044,22 @@
         <v>311060</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H104" t="s">
         <v>15</v>
@@ -5077,14 +5078,14 @@
         <v>312100</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
@@ -5103,22 +5104,22 @@
         <v>312110</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="3">
-        <v>0</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="H107" t="s">
         <v>15</v>
@@ -5129,22 +5130,22 @@
         <v>312120</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="3">
-        <v>0</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
@@ -5155,22 +5156,22 @@
         <v>312130</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="3">
-        <v>0</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
@@ -5181,22 +5182,22 @@
         <v>312140</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
@@ -5216,22 +5217,22 @@
         <v>313100</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H112" t="s">
         <v>15</v>
@@ -5242,22 +5243,22 @@
         <v>313110</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="H113" t="s">
         <v>15</v>
@@ -5268,22 +5269,22 @@
         <v>313120</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
@@ -5294,22 +5295,22 @@
         <v>313130</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
@@ -5320,22 +5321,22 @@
         <v>313140</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
@@ -5346,22 +5347,22 @@
         <v>313150</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
@@ -5372,22 +5373,22 @@
         <v>313160</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
@@ -5398,22 +5399,22 @@
         <v>313200</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
@@ -5424,22 +5425,22 @@
         <v>313210</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="H120" t="s">
         <v>15</v>
@@ -5450,22 +5451,22 @@
         <v>313220</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
@@ -5476,22 +5477,22 @@
         <v>313230</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
@@ -5520,22 +5521,22 @@
         <v>315100</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" s="3">
-        <v>0</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H125" t="s">
         <v>15</v>
@@ -5546,22 +5547,22 @@
         <v>315101</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
@@ -5572,14 +5573,14 @@
         <v>315110</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5598,22 +5599,22 @@
         <v>315111</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -5624,14 +5625,14 @@
         <v>315120</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -5650,14 +5651,14 @@
         <v>315130</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -5676,22 +5677,22 @@
         <v>315140</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -5702,22 +5703,22 @@
         <v>315150</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
@@ -5728,22 +5729,22 @@
         <v>315160</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" s="3">
-        <v>0</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
@@ -5754,22 +5755,22 @@
         <v>315170</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" s="3">
-        <v>0</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -5780,13 +5781,13 @@
         <v>315180</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -5795,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
@@ -5815,14 +5816,14 @@
         <v>316100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
@@ -5841,14 +5842,14 @@
         <v>316101</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
       </c>
@@ -5856,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
@@ -5867,22 +5868,22 @@
         <v>316110</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
@@ -5893,22 +5894,22 @@
         <v>316120</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="H140" t="s">
         <v>15</v>
@@ -5919,14 +5920,14 @@
         <v>316121</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
@@ -5945,22 +5946,22 @@
         <v>316130</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
@@ -5980,14 +5981,14 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
@@ -6006,22 +6007,22 @@
         <v>317110</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="H145" t="s">
         <v>15</v>
@@ -6032,22 +6033,22 @@
         <v>317120</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="H146" t="s">
         <v>15</v>
@@ -6058,22 +6059,22 @@
         <v>317130</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="H147" t="s">
         <v>15</v>
@@ -6084,14 +6085,14 @@
         <v>317140</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
@@ -6110,14 +6111,14 @@
         <v>317141</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C149" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
@@ -6136,22 +6137,22 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" s="3">
-        <v>0</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="H150" t="s">
         <v>15</v>
@@ -6162,14 +6163,14 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H151" t="s">
         <v>15</v>
@@ -6197,13 +6198,13 @@
         <v>318100</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6223,14 +6224,14 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="D154" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H154" t="s">
         <v>15</v>
@@ -6249,14 +6250,14 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H155" t="s">
         <v>15</v>
@@ -6275,13 +6276,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6290,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H156" t="s">
         <v>15</v>
@@ -6301,14 +6302,14 @@
         <v>318113</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H157" t="s">
         <v>15</v>
@@ -6336,22 +6337,22 @@
         <v>319100</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
+      <c r="G159" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" s="3">
-        <v>0</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H159" t="s">
         <v>15</v>
@@ -6362,14 +6363,14 @@
         <v>319101</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C160" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
       </c>
@@ -6377,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H160" t="s">
         <v>15</v>
@@ -6388,22 +6389,22 @@
         <v>319110</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F161" s="3">
-        <v>0</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H161" t="s">
         <v>15</v>
@@ -6414,13 +6415,13 @@
         <v>319111</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6429,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H162" t="s">
         <v>15</v>
@@ -6440,22 +6441,22 @@
         <v>319120</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F163" s="3">
-        <v>0</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H163" t="s">
         <v>15</v>
@@ -6466,14 +6467,14 @@
         <v>319121</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -6492,22 +6493,22 @@
         <v>319130</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+      <c r="G165" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" s="3">
-        <v>0</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H165" t="s">
         <v>15</v>
@@ -6518,13 +6519,13 @@
         <v>319140</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -6533,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H166" t="s">
         <v>15</v>
@@ -6544,13 +6545,13 @@
         <v>319150</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -6559,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H167" t="s">
         <v>15</v>
@@ -6579,22 +6580,22 @@
         <v>320100</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" s="3">
-        <v>0</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="H169" t="s">
         <v>15</v>
@@ -6605,22 +6606,22 @@
         <v>320110</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" s="3">
-        <v>0</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="H170" t="s">
         <v>15</v>
@@ -6631,22 +6632,22 @@
         <v>320120</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="H171" t="s">
         <v>15</v>
@@ -6657,22 +6658,22 @@
         <v>320130</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" s="3">
-        <v>0</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="H172" t="s">
         <v>15</v>
@@ -6683,22 +6684,22 @@
         <v>320140</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F173" s="3">
-        <v>0</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="H173" t="s">
         <v>15</v>
@@ -6709,22 +6710,22 @@
         <v>320150</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" s="3">
-        <v>0</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="H174" t="s">
         <v>15</v>
@@ -6735,13 +6736,13 @@
         <v>320160</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C175" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -6770,14 +6771,14 @@
         <v>321100</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C177" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="E177" s="3" t="s">
         <v>7</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H177" t="s">
         <v>15</v>
@@ -6796,14 +6797,14 @@
         <v>321110</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C178" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
       </c>
@@ -6811,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -6822,14 +6823,14 @@
         <v>321111</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H179" t="s">
         <v>15</v>
@@ -6848,13 +6849,13 @@
         <v>321120</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -6863,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H180" t="s">
         <v>15</v>
@@ -6874,14 +6875,14 @@
         <v>321130</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C181" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
@@ -6900,14 +6901,14 @@
         <v>321140</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C182" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
@@ -6926,14 +6927,14 @@
         <v>321150</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>417</v>
-      </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -6952,14 +6953,14 @@
         <v>321160</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
@@ -6978,14 +6979,14 @@
         <v>321170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C185" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H185" t="s">
         <v>15</v>
@@ -7004,13 +7005,13 @@
         <v>321180</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7019,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -7039,13 +7040,13 @@
         <v>330000</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>7</v>
@@ -7065,14 +7066,14 @@
         <v>330010</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H189" t="s">
         <v>15</v>
@@ -7091,14 +7092,14 @@
         <v>330020</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H190" t="s">
         <v>15</v>
@@ -7117,13 +7118,13 @@
         <v>330030</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7143,13 +7144,13 @@
         <v>330040</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7169,13 +7170,13 @@
         <v>330050</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7195,13 +7196,13 @@
         <v>330060</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7221,13 +7222,13 @@
         <v>330070</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7247,13 +7248,13 @@
         <v>330080</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7273,13 +7274,13 @@
         <v>330090</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7299,13 +7300,13 @@
         <v>330100</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7325,13 +7326,13 @@
         <v>330110</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C199" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7351,22 +7352,22 @@
         <v>330120</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0</v>
+      </c>
+      <c r="G200" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F200" s="3">
-        <v>0</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
@@ -7377,22 +7378,22 @@
         <v>330130</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" s="3">
-        <v>0</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H201" t="s">
         <v>15</v>
@@ -7403,22 +7404,22 @@
         <v>330140</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" s="3">
-        <v>0</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="H202" t="s">
         <v>15</v>
@@ -7429,14 +7430,14 @@
         <v>330150</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H203" t="s">
         <v>15</v>
@@ -7455,14 +7456,14 @@
         <v>330160</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
       </c>
@@ -7470,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H204" t="s">
         <v>15</v>
@@ -7481,14 +7482,14 @@
         <v>330170</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>445</v>
-      </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H205" t="s">
         <v>15</v>
@@ -7507,13 +7508,13 @@
         <v>330180</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -7533,18 +7534,18 @@
         <v>340000</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F208" s="3">
         <v>0</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H208" t="s">
         <v>15</v>
@@ -7555,18 +7556,18 @@
         <v>340010</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
@@ -7577,18 +7578,18 @@
         <v>340020</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H210" t="s">
         <v>15</v>
@@ -7599,18 +7600,18 @@
         <v>340030</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H211" t="s">
         <v>15</v>
@@ -7621,18 +7622,18 @@
         <v>340040</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H212" t="s">
         <v>15</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F37CD-78D7-42FE-8877-F0BAF7F45661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6000FF41-A50B-4FF5-8783-425B338F7A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="4440" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="4890" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -621,15 +621,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>518110,518113</t>
-  </si>
-  <si>
-    <t>518110,518114</t>
-  </si>
-  <si>
-    <t>518110,518116</t>
-  </si>
-  <si>
     <t>鼠患烦恼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2004,6 +1995,18 @@
   </si>
   <si>
     <t>500030,550000,500032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518116</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2439,8 +2442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2487,10 +2490,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2499,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2513,10 +2516,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2539,10 +2542,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2565,10 +2568,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -2577,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2591,10 +2594,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -2603,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2614,13 +2617,13 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -2629,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2643,10 +2646,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -2669,10 +2672,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -2695,10 +2698,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2707,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2724,10 +2727,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2750,10 +2753,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2776,10 +2779,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2802,10 +2805,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2828,10 +2831,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2854,10 +2857,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -2866,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -2880,10 +2883,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2906,10 +2909,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2932,10 +2935,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2958,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -2970,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -2984,10 +2987,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -2996,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -3010,10 +3013,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3022,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -3036,10 +3039,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3062,10 +3065,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3088,10 +3091,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3114,10 +3117,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3140,10 +3143,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3152,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -3166,10 +3169,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3178,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -3192,10 +3195,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3218,10 +3221,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3244,10 +3247,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3270,10 +3273,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3296,10 +3299,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3308,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -3322,10 +3325,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3334,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -3348,10 +3351,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3374,10 +3377,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3400,10 +3403,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3426,10 +3429,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3452,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3478,10 +3481,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3490,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -3504,10 +3507,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3530,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3556,10 +3559,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3582,10 +3585,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3608,10 +3611,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3634,10 +3637,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3646,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -3660,10 +3663,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3686,10 +3689,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3712,10 +3715,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3738,10 +3741,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3764,10 +3767,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3790,10 +3793,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3802,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H53" t="s">
         <v>15</v>
@@ -3816,10 +3819,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3842,10 +3845,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3868,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3894,10 +3897,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3920,10 +3923,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -3946,10 +3949,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -3958,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -3972,10 +3975,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -3998,10 +4001,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4024,10 +4027,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4050,10 +4053,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4076,10 +4079,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4102,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4114,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
@@ -4128,10 +4131,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4154,10 +4157,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4180,10 +4183,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4206,10 +4209,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4232,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4258,10 +4261,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4270,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -4284,10 +4287,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4310,10 +4313,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4336,10 +4339,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4362,10 +4365,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4388,10 +4391,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4414,10 +4417,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4426,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
@@ -4440,10 +4443,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4466,10 +4469,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4492,10 +4495,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4518,10 +4521,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4544,10 +4547,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4570,10 +4573,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4582,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
@@ -4605,10 +4608,10 @@
         <v>45</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4631,10 +4634,10 @@
         <v>46</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4657,10 +4660,10 @@
         <v>47</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4683,10 +4686,10 @@
         <v>48</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4709,10 +4712,10 @@
         <v>49</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4735,10 +4738,10 @@
         <v>50</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
@@ -4747,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
@@ -4770,10 +4773,10 @@
         <v>51</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
@@ -4782,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
@@ -4793,13 +4796,13 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
@@ -4808,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
@@ -4822,10 +4825,10 @@
         <v>52</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -4848,10 +4851,10 @@
         <v>53</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
@@ -4860,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
@@ -4882,10 +4885,10 @@
         <v>54</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -4894,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
@@ -4908,10 +4911,10 @@
         <v>54</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -4934,10 +4937,10 @@
         <v>54</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -4960,10 +4963,10 @@
         <v>54</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
@@ -4972,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -4986,10 +4989,10 @@
         <v>54</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -5012,10 +5015,10 @@
         <v>54</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5047,7 +5050,7 @@
         <v>57</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>58</v>
@@ -5081,10 +5084,10 @@
         <v>60</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
@@ -5093,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
@@ -5107,10 +5110,10 @@
         <v>61</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5133,10 +5136,10 @@
         <v>63</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5159,10 +5162,10 @@
         <v>65</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5185,10 +5188,10 @@
         <v>67</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5220,10 +5223,10 @@
         <v>69</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -5246,10 +5249,10 @@
         <v>71</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5272,10 +5275,10 @@
         <v>73</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5298,10 +5301,10 @@
         <v>75</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5324,10 +5327,10 @@
         <v>77</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5350,10 +5353,10 @@
         <v>79</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5376,10 +5379,10 @@
         <v>81</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5402,10 +5405,10 @@
         <v>83</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5428,10 +5431,10 @@
         <v>85</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -5454,10 +5457,10 @@
         <v>87</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -5480,10 +5483,10 @@
         <v>89</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5524,10 +5527,10 @@
         <v>91</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -5550,10 +5553,10 @@
         <v>91</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -5576,10 +5579,10 @@
         <v>93</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
@@ -5588,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5602,10 +5605,10 @@
         <v>93</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5628,10 +5631,10 @@
         <v>95</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
@@ -5640,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -5654,10 +5657,10 @@
         <v>96</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
@@ -5666,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -5680,10 +5683,10 @@
         <v>97</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -5706,10 +5709,10 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -5732,10 +5735,10 @@
         <v>101</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
@@ -5758,10 +5761,10 @@
         <v>103</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -5784,10 +5787,10 @@
         <v>105</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -5796,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
@@ -5819,10 +5822,10 @@
         <v>106</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
@@ -5831,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
@@ -5845,10 +5848,10 @@
         <v>106</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -5857,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
@@ -5871,10 +5874,10 @@
         <v>107</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -5897,10 +5900,10 @@
         <v>109</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -5923,10 +5926,10 @@
         <v>111</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
@@ -5935,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
@@ -5949,10 +5952,10 @@
         <v>112</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -5981,13 +5984,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6010,10 +6013,10 @@
         <v>115</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -6036,10 +6039,10 @@
         <v>117</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -6062,10 +6065,10 @@
         <v>119</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -6088,10 +6091,10 @@
         <v>121</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
@@ -6100,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
@@ -6114,10 +6117,10 @@
         <v>121</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
@@ -6126,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
@@ -6140,10 +6143,10 @@
         <v>122</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6166,10 +6169,10 @@
         <v>122</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6201,10 +6204,10 @@
         <v>125</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6224,13 +6227,13 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
@@ -6239,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>127</v>
+        <v>472</v>
       </c>
       <c r="H154" t="s">
         <v>15</v>
@@ -6250,13 +6253,13 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
@@ -6265,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>128</v>
+        <v>473</v>
       </c>
       <c r="H155" t="s">
         <v>15</v>
@@ -6276,13 +6279,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6291,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>127</v>
+        <v>472</v>
       </c>
       <c r="H156" t="s">
         <v>15</v>
@@ -6305,10 +6308,10 @@
         <v>126</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
@@ -6317,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>129</v>
+        <v>474</v>
       </c>
       <c r="H157" t="s">
         <v>15</v>
@@ -6337,13 +6340,13 @@
         <v>319100</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>7</v>
@@ -6352,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H159" t="s">
         <v>15</v>
@@ -6363,13 +6366,13 @@
         <v>319101</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6378,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H160" t="s">
         <v>15</v>
@@ -6389,13 +6392,13 @@
         <v>319110</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6404,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H161" t="s">
         <v>15</v>
@@ -6415,13 +6418,13 @@
         <v>319111</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6430,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H162" t="s">
         <v>15</v>
@@ -6441,13 +6444,13 @@
         <v>319120</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6456,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H163" t="s">
         <v>15</v>
@@ -6467,13 +6470,13 @@
         <v>319121</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6482,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -6493,13 +6496,13 @@
         <v>319130</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -6508,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H165" t="s">
         <v>15</v>
@@ -6519,13 +6522,13 @@
         <v>319140</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -6534,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H166" t="s">
         <v>15</v>
@@ -6545,22 +6548,22 @@
         <v>319150</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" s="3">
-        <v>0</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H167" t="s">
         <v>15</v>
@@ -6580,13 +6583,13 @@
         <v>320100</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>7</v>
@@ -6595,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H169" t="s">
         <v>15</v>
@@ -6606,13 +6609,13 @@
         <v>320110</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
@@ -6621,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H170" t="s">
         <v>15</v>
@@ -6632,13 +6635,13 @@
         <v>320120</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -6647,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H171" t="s">
         <v>15</v>
@@ -6658,13 +6661,13 @@
         <v>320130</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -6673,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H172" t="s">
         <v>15</v>
@@ -6684,13 +6687,13 @@
         <v>320140</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
@@ -6699,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H173" t="s">
         <v>15</v>
@@ -6710,13 +6713,13 @@
         <v>320150</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
@@ -6725,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H174" t="s">
         <v>15</v>
@@ -6736,13 +6739,13 @@
         <v>320160</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -6771,13 +6774,13 @@
         <v>321100</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>7</v>
@@ -6786,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H177" t="s">
         <v>15</v>
@@ -6797,13 +6800,13 @@
         <v>321110</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
@@ -6812,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -6823,13 +6826,13 @@
         <v>321111</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -6838,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H179" t="s">
         <v>15</v>
@@ -6849,13 +6852,13 @@
         <v>321120</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -6864,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H180" t="s">
         <v>15</v>
@@ -6875,13 +6878,13 @@
         <v>321130</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -6890,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
@@ -6901,13 +6904,13 @@
         <v>321140</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -6916,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
@@ -6927,13 +6930,13 @@
         <v>321150</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -6942,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -6953,13 +6956,13 @@
         <v>321160</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -6968,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
@@ -6979,13 +6982,13 @@
         <v>321170</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
@@ -6994,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H185" t="s">
         <v>15</v>
@@ -7005,13 +7008,13 @@
         <v>321180</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7020,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -7040,13 +7043,13 @@
         <v>330000</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>7</v>
@@ -7069,10 +7072,10 @@
         <v>57</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7081,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H189" t="s">
         <v>15</v>
@@ -7095,10 +7098,10 @@
         <v>57</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7107,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H190" t="s">
         <v>15</v>
@@ -7118,13 +7121,13 @@
         <v>330030</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7144,13 +7147,13 @@
         <v>330040</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7170,13 +7173,13 @@
         <v>330050</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7196,13 +7199,13 @@
         <v>330060</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7222,13 +7225,13 @@
         <v>330070</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7248,13 +7251,13 @@
         <v>330080</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7274,13 +7277,13 @@
         <v>330090</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7300,13 +7303,13 @@
         <v>330100</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7326,13 +7329,13 @@
         <v>330110</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7352,13 +7355,13 @@
         <v>330120</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7367,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
@@ -7378,13 +7381,13 @@
         <v>330130</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7393,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H201" t="s">
         <v>15</v>
@@ -7404,13 +7407,13 @@
         <v>330140</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7419,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H202" t="s">
         <v>15</v>
@@ -7430,13 +7433,13 @@
         <v>330150</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -7445,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H203" t="s">
         <v>15</v>
@@ -7456,13 +7459,13 @@
         <v>330160</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -7471,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H204" t="s">
         <v>15</v>
@@ -7482,13 +7485,13 @@
         <v>330170</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -7497,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H205" t="s">
         <v>15</v>
@@ -7508,13 +7511,13 @@
         <v>330180</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -7534,18 +7537,18 @@
         <v>340000</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F208" s="3">
         <v>0</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H208" t="s">
         <v>15</v>
@@ -7556,18 +7559,18 @@
         <v>340010</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
@@ -7578,18 +7581,18 @@
         <v>340020</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H210" t="s">
         <v>15</v>
@@ -7600,18 +7603,18 @@
         <v>340030</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H211" t="s">
         <v>15</v>
@@ -7622,18 +7625,18 @@
         <v>340040</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H212" t="s">
         <v>15</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6000FF41-A50B-4FF5-8783-425B338F7A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C608E6-FD37-4B35-8F3B-1783F3D7EB02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="4890" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="5820" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="476">
   <si>
     <t>事件编号</t>
   </si>
@@ -2007,6 +2007,10 @@
   </si>
   <si>
     <t>518116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518115</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2443,7 +2447,7 @@
   <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6294,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H156" t="s">
         <v>15</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C608E6-FD37-4B35-8F3B-1783F3D7EB02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5BDF6-F117-4C5A-B4CE-E5055B89862F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="5820" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12330" yWindow="4245" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="477">
   <si>
     <t>事件编号</t>
   </si>
@@ -2011,6 +2011,10 @@
   </si>
   <si>
     <t>518115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门中已经空无一物</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2102,7 +2106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2128,6 +2132,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2444,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6009,7 +6016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>317110</v>
       </c>
@@ -6035,7 +6042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>317120</v>
       </c>
@@ -6061,7 +6068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>317130</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>317140</v>
       </c>
@@ -6113,7 +6120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>317141</v>
       </c>
@@ -6139,7 +6146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>317150</v>
       </c>
@@ -6165,7 +6172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>317151</v>
       </c>
@@ -6191,7 +6198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6200,7 +6207,7 @@
       <c r="F152" s="5"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>318100</v>
       </c>
@@ -6226,7 +6233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>318110</v>
       </c>
@@ -6252,7 +6259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>318111</v>
       </c>
@@ -6278,7 +6285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>318112</v>
       </c>
@@ -6304,7 +6311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>318113</v>
       </c>
@@ -6330,53 +6337,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="H158"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
+    <row r="158" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>318114</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="3"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="H159"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
         <v>319100</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" s="3">
-        <v>0</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H159" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>319101</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6385,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H160" t="s">
         <v>15</v>
@@ -6393,16 +6408,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>319110</v>
+        <v>319101</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6411,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H161" t="s">
         <v>15</v>
@@ -6419,16 +6434,16 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>319111</v>
+        <v>319110</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6437,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H162" t="s">
         <v>15</v>
@@ -6445,16 +6460,16 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>319120</v>
+        <v>319111</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6463,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H163" t="s">
         <v>15</v>
@@ -6471,16 +6486,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>319121</v>
+        <v>319120</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6489,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -6497,16 +6512,16 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>319130</v>
+        <v>319121</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -6515,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H165" t="s">
         <v>15</v>
@@ -6523,13 +6538,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>319140</v>
+        <v>319130</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>389</v>
@@ -6541,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H166" t="s">
         <v>15</v>
@@ -6549,13 +6564,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>319150</v>
+        <v>319140</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>389</v>
@@ -6567,68 +6582,68 @@
         <v>0</v>
       </c>
       <c r="G167" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>319150</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H167" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="H168"/>
-    </row>
-    <row r="169" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
+      <c r="H168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
         <v>320100</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B170" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C170" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" s="3">
-        <v>0</v>
-      </c>
-      <c r="G169" s="6" t="s">
+      <c r="E170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="H169" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>320110</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" s="3">
-        <v>0</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="H170" t="s">
         <v>15</v>
@@ -6636,16 +6651,16 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>320120</v>
+        <v>320110</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -6654,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H171" t="s">
         <v>15</v>
@@ -6662,16 +6677,16 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>320130</v>
+        <v>320120</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -6680,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H172" t="s">
         <v>15</v>
@@ -6688,13 +6703,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>320140</v>
+        <v>320130</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>222</v>
+        <v>398</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>398</v>
@@ -6706,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H173" t="s">
         <v>15</v>
@@ -6714,10 +6729,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>320150</v>
+        <v>320140</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>222</v>
@@ -6732,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H174" t="s">
         <v>15</v>
@@ -6740,86 +6755,86 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
+        <v>320150</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
         <v>320160</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B176" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" s="3">
-        <v>0</v>
-      </c>
-      <c r="G175" s="6">
+      <c r="E176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0</v>
+      </c>
+      <c r="G176" s="6">
         <v>520160</v>
       </c>
-      <c r="H175" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="H176"/>
-    </row>
-    <row r="177" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
+      <c r="H176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="H177"/>
+    </row>
+    <row r="178" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
         <v>321100</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B178" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C178" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" s="3">
-        <v>0</v>
-      </c>
-      <c r="G177" s="6" t="s">
+      <c r="E178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="H177" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>321110</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F178" s="3">
-        <v>0</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -6827,51 +6842,51 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>321111</v>
+        <v>321110</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>321111</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F179" s="3">
-        <v>0</v>
-      </c>
-      <c r="G179" s="6" t="s">
+      <c r="E180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="H179" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>321120</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F180" s="3">
-        <v>0</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="H180" t="s">
         <v>15</v>
@@ -6879,51 +6894,51 @@
     </row>
     <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
+        <v>321120</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
         <v>321130</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C182" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F181" s="3">
-        <v>0</v>
-      </c>
-      <c r="G181" s="6" t="s">
+      <c r="E182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="H181" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>321140</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" s="3">
-        <v>0</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
@@ -6931,16 +6946,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>321150</v>
+        <v>321140</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -6949,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -6957,129 +6972,129 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
+        <v>321150</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
         <v>321160</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F184" s="3">
-        <v>0</v>
-      </c>
-      <c r="G184" s="6" t="s">
+      <c r="E185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H184" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
+      <c r="H185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
         <v>321170</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C186" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E185" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F185" s="3">
-        <v>0</v>
-      </c>
-      <c r="G185" s="6" t="s">
+      <c r="E186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H185" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
+      <c r="H186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
         <v>321180</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" s="3">
-        <v>0</v>
-      </c>
-      <c r="G186" s="6" t="s">
+      <c r="E187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
+      </c>
+      <c r="G187" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="H186" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="H187"/>
+      <c r="H187" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
-        <v>330000</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" s="3">
-        <v>0</v>
-      </c>
-      <c r="G188" s="6">
-        <v>530000</v>
-      </c>
-      <c r="H188" t="s">
-        <v>15</v>
-      </c>
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="H188"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>330010</v>
+        <v>330000</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7087,8 +7102,8 @@
       <c r="F189" s="3">
         <v>0</v>
       </c>
-      <c r="G189" s="6" t="s">
-        <v>163</v>
+      <c r="G189" s="6">
+        <v>530000</v>
       </c>
       <c r="H189" t="s">
         <v>15</v>
@@ -7096,16 +7111,16 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>330020</v>
+        <v>330010</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7114,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H190" t="s">
         <v>15</v>
@@ -7122,16 +7137,16 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>330030</v>
+        <v>330020</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7139,8 +7154,8 @@
       <c r="F191" s="3">
         <v>0</v>
       </c>
-      <c r="G191" s="6">
-        <v>530030</v>
+      <c r="G191" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="H191" t="s">
         <v>15</v>
@@ -7148,7 +7163,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>330040</v>
+        <v>330030</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>165</v>
@@ -7166,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="6">
-        <v>530040</v>
+        <v>530030</v>
       </c>
       <c r="H192" t="s">
         <v>15</v>
@@ -7174,16 +7189,16 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>330050</v>
+        <v>330040</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7192,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="G193" s="6">
-        <v>530050</v>
+        <v>530040</v>
       </c>
       <c r="H193" t="s">
         <v>15</v>
@@ -7200,16 +7215,16 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>330060</v>
+        <v>330050</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7218,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="G194" s="6">
-        <v>530060</v>
+        <v>530050</v>
       </c>
       <c r="H194" t="s">
         <v>15</v>
@@ -7226,7 +7241,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>330070</v>
+        <v>330060</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>166</v>
@@ -7244,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="6">
-        <v>530070</v>
+        <v>530060</v>
       </c>
       <c r="H195" t="s">
         <v>15</v>
@@ -7252,16 +7267,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>330080</v>
+        <v>330070</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7270,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="6">
-        <v>530080</v>
+        <v>530070</v>
       </c>
       <c r="H196" t="s">
         <v>15</v>
@@ -7278,16 +7293,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>330090</v>
+        <v>330080</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7296,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="G197" s="6">
-        <v>530090</v>
+        <v>530080</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
@@ -7304,7 +7319,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>330100</v>
+        <v>330090</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>167</v>
@@ -7322,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="G198" s="6">
-        <v>530100</v>
+        <v>530090</v>
       </c>
       <c r="H198" t="s">
         <v>15</v>
@@ -7330,16 +7345,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>330110</v>
+        <v>330100</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7348,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="G199" s="6">
-        <v>530110</v>
+        <v>530100</v>
       </c>
       <c r="H199" t="s">
         <v>15</v>
@@ -7356,16 +7371,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>330120</v>
+        <v>330110</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7373,8 +7388,8 @@
       <c r="F200" s="3">
         <v>0</v>
       </c>
-      <c r="G200" s="6" t="s">
-        <v>169</v>
+      <c r="G200" s="6">
+        <v>530110</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
@@ -7382,16 +7397,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>330130</v>
+        <v>330120</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7400,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H201" t="s">
         <v>15</v>
@@ -7408,16 +7423,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>330140</v>
+        <v>330130</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7426,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H202" t="s">
         <v>15</v>
@@ -7434,16 +7449,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>330150</v>
+        <v>330140</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -7452,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H203" t="s">
         <v>15</v>
@@ -7460,16 +7475,16 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>330160</v>
+        <v>330150</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -7478,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H204" t="s">
         <v>15</v>
@@ -7486,16 +7501,16 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>330170</v>
+        <v>330160</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -7504,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H205" t="s">
         <v>15</v>
@@ -7512,69 +7527,73 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
+        <v>330170</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
         <v>330180</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B207" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C207" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D207" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F206" s="3">
-        <v>0</v>
-      </c>
-      <c r="G206" s="6">
+      <c r="E207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
+      <c r="G207" s="6">
         <v>530180</v>
       </c>
-      <c r="H206" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
-        <v>340000</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F208" s="3">
-        <v>0</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H208" t="s">
+      <c r="H207" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>340010</v>
+        <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
@@ -7582,21 +7601,21 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>340020</v>
+        <v>340010</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H210" t="s">
         <v>15</v>
@@ -7604,10 +7623,10 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>340030</v>
+        <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7618,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H211" t="s">
         <v>15</v>
@@ -7626,23 +7645,45 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>340040</v>
+        <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H212" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>340040</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F212" s="3">
-        <v>0</v>
-      </c>
-      <c r="G212" s="6" t="s">
+      <c r="F213" s="3">
+        <v>0</v>
+      </c>
+      <c r="G213" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H213" t="s">
         <v>15</v>
       </c>
     </row>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D5BDF6-F117-4C5A-B4CE-E5055B89862F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBAEC3A-7158-446F-BB29-260E20F5DCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="4245" windowWidth="21105" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12135" yWindow="3765" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -645,13 +645,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>519120,550000</t>
-  </si>
-  <si>
-    <t>519121,550000,519122,519123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>鼠患四起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2015,6 +2008,14 @@
   </si>
   <si>
     <t>门中已经空无一物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519120,550000,519121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550000,519122,519123</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2454,7 +2455,7 @@
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2501,10 +2502,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2513,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2527,10 +2528,10 @@
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2553,10 +2554,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2579,10 +2580,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -2591,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2605,10 +2606,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -2617,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2628,14 +2629,14 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2657,10 +2658,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -2683,10 +2684,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -2709,10 +2710,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2721,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2738,10 +2739,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2764,10 +2765,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2790,10 +2791,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2816,10 +2817,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2842,10 +2843,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2868,10 +2869,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -2880,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -2894,10 +2895,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2920,10 +2921,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2946,10 +2947,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2972,10 +2973,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -2984,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -2998,10 +2999,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -3010,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -3024,10 +3025,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3036,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -3050,10 +3051,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3076,10 +3077,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3102,10 +3103,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3128,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3154,10 +3155,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3166,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -3180,10 +3181,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3192,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -3206,10 +3207,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3232,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3258,10 +3259,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3284,10 +3285,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3310,10 +3311,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3322,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -3336,10 +3337,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3348,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -3362,10 +3363,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3388,10 +3389,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3414,10 +3415,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3440,10 +3441,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3466,10 +3467,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3492,10 +3493,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3504,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -3518,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3544,10 +3545,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3570,10 +3571,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3596,10 +3597,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3622,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3648,10 +3649,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3660,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -3674,10 +3675,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3700,10 +3701,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3726,10 +3727,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3752,10 +3753,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3778,10 +3779,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3804,10 +3805,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3816,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H53" t="s">
         <v>15</v>
@@ -3830,10 +3831,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3856,10 +3857,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3882,10 +3883,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3908,10 +3909,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3934,10 +3935,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -3960,10 +3961,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -3972,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
@@ -3986,10 +3987,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4012,10 +4013,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4038,10 +4039,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4064,10 +4065,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4090,10 +4091,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4116,10 +4117,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4128,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
@@ -4142,10 +4143,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4168,10 +4169,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4194,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4220,10 +4221,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4246,10 +4247,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4272,10 +4273,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4284,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
@@ -4298,10 +4299,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4324,10 +4325,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4350,10 +4351,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4376,10 +4377,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4402,10 +4403,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4428,10 +4429,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4440,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H77" t="s">
         <v>15</v>
@@ -4454,10 +4455,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4480,10 +4481,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4506,10 +4507,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4532,10 +4533,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4558,10 +4559,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4584,10 +4585,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4596,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
@@ -4619,10 +4620,10 @@
         <v>45</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4645,10 +4646,10 @@
         <v>46</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4671,10 +4672,10 @@
         <v>47</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4697,10 +4698,10 @@
         <v>48</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4723,10 +4724,10 @@
         <v>49</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4749,10 +4750,10 @@
         <v>50</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
@@ -4761,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
@@ -4784,10 +4785,10 @@
         <v>51</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
@@ -4796,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
@@ -4807,14 +4808,14 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
@@ -4836,10 +4837,10 @@
         <v>52</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -4862,10 +4863,10 @@
         <v>53</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
@@ -4874,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
@@ -4896,10 +4897,10 @@
         <v>54</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -4908,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
@@ -4922,10 +4923,10 @@
         <v>54</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -4948,10 +4949,10 @@
         <v>54</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -4974,10 +4975,10 @@
         <v>54</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
@@ -4986,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H100" t="s">
         <v>15</v>
@@ -5000,10 +5001,10 @@
         <v>54</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -5026,10 +5027,10 @@
         <v>54</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5061,7 +5062,7 @@
         <v>57</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>58</v>
@@ -5095,10 +5096,10 @@
         <v>60</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
@@ -5107,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
@@ -5121,10 +5122,10 @@
         <v>61</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5147,10 +5148,10 @@
         <v>63</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5173,10 +5174,10 @@
         <v>65</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5199,10 +5200,10 @@
         <v>67</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5234,10 +5235,10 @@
         <v>69</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -5260,10 +5261,10 @@
         <v>71</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5286,10 +5287,10 @@
         <v>73</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5312,10 +5313,10 @@
         <v>75</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5338,10 +5339,10 @@
         <v>77</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5364,10 +5365,10 @@
         <v>79</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5390,10 +5391,10 @@
         <v>81</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5416,10 +5417,10 @@
         <v>83</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5442,10 +5443,10 @@
         <v>85</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -5468,10 +5469,10 @@
         <v>87</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -5494,10 +5495,10 @@
         <v>89</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5538,10 +5539,10 @@
         <v>91</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -5564,10 +5565,10 @@
         <v>91</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -5590,10 +5591,10 @@
         <v>93</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
@@ -5602,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5616,10 +5617,10 @@
         <v>93</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5642,10 +5643,10 @@
         <v>95</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
@@ -5654,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -5668,10 +5669,10 @@
         <v>96</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
@@ -5680,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -5694,10 +5695,10 @@
         <v>97</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -5720,10 +5721,10 @@
         <v>99</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -5746,10 +5747,10 @@
         <v>101</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
@@ -5772,10 +5773,10 @@
         <v>103</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -5798,10 +5799,10 @@
         <v>105</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -5810,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
@@ -5833,10 +5834,10 @@
         <v>106</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
@@ -5845,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H137" t="s">
         <v>15</v>
@@ -5859,10 +5860,10 @@
         <v>106</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -5871,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
@@ -5885,10 +5886,10 @@
         <v>107</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -5911,10 +5912,10 @@
         <v>109</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -5937,10 +5938,10 @@
         <v>111</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
@@ -5949,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
@@ -5963,10 +5964,10 @@
         <v>112</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -5995,13 +5996,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6024,10 +6025,10 @@
         <v>115</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -6050,10 +6051,10 @@
         <v>117</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -6076,10 +6077,10 @@
         <v>119</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -6102,10 +6103,10 @@
         <v>121</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
@@ -6114,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
@@ -6128,10 +6129,10 @@
         <v>121</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
@@ -6140,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
@@ -6154,10 +6155,10 @@
         <v>122</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6180,10 +6181,10 @@
         <v>122</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6215,10 +6216,10 @@
         <v>125</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6238,14 +6239,14 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C154" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H154" t="s">
         <v>15</v>
@@ -6264,14 +6265,14 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H155" t="s">
         <v>15</v>
@@ -6290,13 +6291,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6305,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H156" t="s">
         <v>15</v>
@@ -6319,10 +6320,10 @@
         <v>126</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
@@ -6331,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H157" t="s">
         <v>15</v>
@@ -6345,10 +6346,10 @@
         <v>126</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6357,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H158" s="11"/>
       <c r="I158" s="11"/>
@@ -6388,10 +6389,10 @@
         <v>127</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6414,10 +6415,10 @@
         <v>127</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6440,10 +6441,10 @@
         <v>130</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6466,10 +6467,10 @@
         <v>130</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6492,10 +6493,10 @@
         <v>133</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6504,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>134</v>
+        <v>475</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
@@ -6518,10 +6519,10 @@
         <v>133</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -6530,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>135</v>
+        <v>476</v>
       </c>
       <c r="H165" t="s">
         <v>15</v>
@@ -6541,13 +6542,13 @@
         <v>319130</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -6556,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H166" t="s">
         <v>15</v>
@@ -6567,22 +6568,22 @@
         <v>319140</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" s="3">
-        <v>0</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H167" t="s">
         <v>15</v>
@@ -6593,13 +6594,13 @@
         <v>319150</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -6608,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H168" t="s">
         <v>15</v>
@@ -6628,13 +6629,13 @@
         <v>320100</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
@@ -6643,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H170" t="s">
         <v>15</v>
@@ -6654,13 +6655,13 @@
         <v>320110</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -6669,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H171" t="s">
         <v>15</v>
@@ -6680,13 +6681,13 @@
         <v>320120</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -6695,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H172" t="s">
         <v>15</v>
@@ -6706,13 +6707,13 @@
         <v>320130</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
@@ -6721,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H173" t="s">
         <v>15</v>
@@ -6732,13 +6733,13 @@
         <v>320140</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
@@ -6747,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H174" t="s">
         <v>15</v>
@@ -6758,13 +6759,13 @@
         <v>320150</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -6773,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H175" t="s">
         <v>15</v>
@@ -6784,13 +6785,13 @@
         <v>320160</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -6819,13 +6820,13 @@
         <v>321100</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
@@ -6834,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H178" t="s">
         <v>15</v>
@@ -6845,13 +6846,13 @@
         <v>321110</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -6860,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H179" t="s">
         <v>15</v>
@@ -6871,13 +6872,13 @@
         <v>321111</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -6886,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H180" t="s">
         <v>15</v>
@@ -6897,13 +6898,13 @@
         <v>321120</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -6912,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
@@ -6923,13 +6924,13 @@
         <v>321130</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -6938,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
@@ -6949,13 +6950,13 @@
         <v>321140</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -6964,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
@@ -6975,13 +6976,13 @@
         <v>321150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -6990,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
@@ -7001,13 +7002,13 @@
         <v>321160</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
@@ -7016,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H185" t="s">
         <v>15</v>
@@ -7027,13 +7028,13 @@
         <v>321170</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7042,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
@@ -7053,13 +7054,13 @@
         <v>321180</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7068,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H187" t="s">
         <v>15</v>
@@ -7088,13 +7089,13 @@
         <v>330000</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7117,10 +7118,10 @@
         <v>57</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7129,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H190" t="s">
         <v>15</v>
@@ -7143,10 +7144,10 @@
         <v>57</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7155,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H191" t="s">
         <v>15</v>
@@ -7166,13 +7167,13 @@
         <v>330030</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7192,13 +7193,13 @@
         <v>330040</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7218,13 +7219,13 @@
         <v>330050</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7244,13 +7245,13 @@
         <v>330060</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7270,13 +7271,13 @@
         <v>330070</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7296,13 +7297,13 @@
         <v>330080</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7322,13 +7323,13 @@
         <v>330090</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7348,13 +7349,13 @@
         <v>330100</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7374,13 +7375,13 @@
         <v>330110</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7400,13 +7401,13 @@
         <v>330120</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7415,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H201" t="s">
         <v>15</v>
@@ -7426,13 +7427,13 @@
         <v>330130</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7441,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H202" t="s">
         <v>15</v>
@@ -7452,13 +7453,13 @@
         <v>330140</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -7467,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H203" t="s">
         <v>15</v>
@@ -7478,13 +7479,13 @@
         <v>330150</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -7493,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H204" t="s">
         <v>15</v>
@@ -7504,13 +7505,13 @@
         <v>330160</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -7519,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H205" t="s">
         <v>15</v>
@@ -7530,13 +7531,13 @@
         <v>330170</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -7545,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H206" t="s">
         <v>15</v>
@@ -7556,13 +7557,13 @@
         <v>330180</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -7582,18 +7583,18 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0</v>
+      </c>
+      <c r="G209" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="F209" s="3">
-        <v>0</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
@@ -7604,18 +7605,18 @@
         <v>340010</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0</v>
+      </c>
+      <c r="G210" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="F210" s="3">
-        <v>0</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="H210" t="s">
         <v>15</v>
@@ -7626,18 +7627,18 @@
         <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H211" t="s">
         <v>15</v>
@@ -7648,18 +7649,18 @@
         <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H212" t="s">
         <v>15</v>
@@ -7670,18 +7671,18 @@
         <v>340040</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H213" t="s">
         <v>15</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBAEC3A-7158-446F-BB29-260E20F5DCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1806526-CC2A-4F32-9796-3ECC74311245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="3765" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14025" yWindow="6015" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="476">
   <si>
     <t>事件编号</t>
   </si>
@@ -211,10 +211,6 @@
   </si>
   <si>
     <t>511000,511001,511002,511003,511004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Main/4刺探事件卡片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2454,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2499,14 +2495,14 @@
         <v>300000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2514,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+        <v>175</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -2525,25 +2521,25 @@
         <v>300010</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="H3" s="2">
+        <v>10001</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -2551,25 +2547,25 @@
         <v>300020</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+      <c r="H4" s="2">
+        <v>10002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2577,14 +2573,14 @@
         <v>300030</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2592,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+        <v>468</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2603,14 +2599,14 @@
         <v>300031</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2618,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
+        <v>441</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10004</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -2629,14 +2625,14 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2644,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+        <v>442</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10004</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2655,25 +2651,25 @@
         <v>300050</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
+      <c r="H8" s="2">
+        <v>10005</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2681,25 +2677,25 @@
         <v>300060</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
+      <c r="H9" s="2">
+        <v>10005</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2707,14 +2703,14 @@
         <v>300070</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2722,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
+        <v>443</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10007</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2739,10 +2735,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2753,8 +2749,8 @@
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>15</v>
+      <c r="H12" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2765,10 +2761,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2779,8 +2775,8 @@
       <c r="G13" s="6">
         <v>510000</v>
       </c>
-      <c r="H13" t="s">
-        <v>15</v>
+      <c r="H13" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2791,10 +2787,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2805,8 +2801,8 @@
       <c r="G14" s="6">
         <v>510000</v>
       </c>
-      <c r="H14" t="s">
-        <v>15</v>
+      <c r="H14" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2817,11 +2813,11 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2831,8 +2827,8 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>15</v>
+      <c r="H15" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2843,10 +2839,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2857,8 +2853,8 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>15</v>
+      <c r="H16" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2869,11 +2865,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2881,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
+        <v>444</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2895,10 +2891,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2909,8 +2905,8 @@
       <c r="G18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
-        <v>15</v>
+      <c r="H18" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2921,10 +2917,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2935,8 +2931,8 @@
       <c r="G19" s="6">
         <v>511000</v>
       </c>
-      <c r="H19" t="s">
-        <v>15</v>
+      <c r="H19" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2947,10 +2943,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2961,8 +2957,8 @@
       <c r="G20" s="6">
         <v>511000</v>
       </c>
-      <c r="H20" t="s">
-        <v>15</v>
+      <c r="H20" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2973,11 +2969,11 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
@@ -2985,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
+        <v>445</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2999,10 +2995,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -3011,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
+        <v>445</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3025,10 +3021,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3037,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
+        <v>445</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3051,10 +3047,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3063,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3077,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3091,8 +3087,8 @@
       <c r="G25" s="6">
         <v>512000</v>
       </c>
-      <c r="H25" t="s">
-        <v>15</v>
+      <c r="H25" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3103,10 +3099,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3117,8 +3113,8 @@
       <c r="G26" s="6">
         <v>512000</v>
       </c>
-      <c r="H26" t="s">
-        <v>15</v>
+      <c r="H26" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3129,10 +3125,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3143,8 +3139,8 @@
       <c r="G27" s="6">
         <v>512010</v>
       </c>
-      <c r="H27" t="s">
-        <v>15</v>
+      <c r="H27" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3155,10 +3151,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3167,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
+        <v>446</v>
+      </c>
+      <c r="H28" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3181,10 +3177,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3193,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
+        <v>445</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3207,10 +3203,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3219,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="H30" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3233,10 +3229,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3247,8 +3243,8 @@
       <c r="G31" s="6">
         <v>513000</v>
       </c>
-      <c r="H31" t="s">
-        <v>15</v>
+      <c r="H31" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3259,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3273,8 +3269,8 @@
       <c r="G32" s="6">
         <v>513000</v>
       </c>
-      <c r="H32" t="s">
-        <v>15</v>
+      <c r="H32" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3285,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3299,8 +3295,8 @@
       <c r="G33" s="6">
         <v>513010</v>
       </c>
-      <c r="H33" t="s">
-        <v>15</v>
+      <c r="H33" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3311,10 +3307,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3323,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
+        <v>447</v>
+      </c>
+      <c r="H34" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3337,10 +3333,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3349,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
+        <v>448</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3363,10 +3359,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3375,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3389,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3403,8 +3399,8 @@
       <c r="G37" s="6">
         <v>514000</v>
       </c>
-      <c r="H37" t="s">
-        <v>15</v>
+      <c r="H37" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3415,10 +3411,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3429,8 +3425,8 @@
       <c r="G38" s="6">
         <v>514000</v>
       </c>
-      <c r="H38" t="s">
-        <v>15</v>
+      <c r="H38" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3441,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3455,8 +3451,8 @@
       <c r="G39" s="6">
         <v>514010</v>
       </c>
-      <c r="H39" t="s">
-        <v>15</v>
+      <c r="H39" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3467,10 +3463,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3479,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="H40" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3493,10 +3489,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3505,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
+        <v>449</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3519,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3531,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="H42" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3545,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3559,8 +3555,8 @@
       <c r="G43" s="6">
         <v>515000</v>
       </c>
-      <c r="H43" t="s">
-        <v>15</v>
+      <c r="H43" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3571,10 +3567,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3585,8 +3581,8 @@
       <c r="G44" s="6">
         <v>515000</v>
       </c>
-      <c r="H44" t="s">
-        <v>15</v>
+      <c r="H44" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3597,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3611,8 +3607,8 @@
       <c r="G45" s="6">
         <v>515010</v>
       </c>
-      <c r="H45" t="s">
-        <v>15</v>
+      <c r="H45" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3623,10 +3619,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3635,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="H46" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3649,10 +3645,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3661,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
+        <v>450</v>
+      </c>
+      <c r="H47" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3675,10 +3671,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3687,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="H48" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3701,10 +3697,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3715,8 +3711,8 @@
       <c r="G49" s="6">
         <v>516000</v>
       </c>
-      <c r="H49" t="s">
-        <v>15</v>
+      <c r="H49" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3727,10 +3723,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3741,8 +3737,8 @@
       <c r="G50" s="6">
         <v>516000</v>
       </c>
-      <c r="H50" t="s">
-        <v>15</v>
+      <c r="H50" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3753,10 +3749,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3767,8 +3763,8 @@
       <c r="G51" s="6">
         <v>516010</v>
       </c>
-      <c r="H51" t="s">
-        <v>15</v>
+      <c r="H51" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3779,10 +3775,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3791,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="H52" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3805,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3817,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="H53" t="s">
-        <v>15</v>
+        <v>451</v>
+      </c>
+      <c r="H53" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3831,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3843,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H54" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3857,10 +3853,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3871,8 +3867,8 @@
       <c r="G55" s="6">
         <v>517000</v>
       </c>
-      <c r="H55" t="s">
-        <v>15</v>
+      <c r="H55" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3883,10 +3879,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3897,8 +3893,8 @@
       <c r="G56" s="6">
         <v>517000</v>
       </c>
-      <c r="H56" t="s">
-        <v>15</v>
+      <c r="H56" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -3909,10 +3905,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3923,8 +3919,8 @@
       <c r="G57" s="6">
         <v>517010</v>
       </c>
-      <c r="H57" t="s">
-        <v>15</v>
+      <c r="H57" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3935,10 +3931,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -3947,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="H58" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3961,10 +3957,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -3973,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
+        <v>452</v>
+      </c>
+      <c r="H59" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3987,10 +3983,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -3999,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="H60" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4013,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4027,8 +4023,8 @@
       <c r="G61" s="6">
         <v>518000</v>
       </c>
-      <c r="H61" t="s">
-        <v>15</v>
+      <c r="H61" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4039,10 +4035,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4053,8 +4049,8 @@
       <c r="G62" s="6">
         <v>518000</v>
       </c>
-      <c r="H62" t="s">
-        <v>15</v>
+      <c r="H62" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4065,10 +4061,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4079,8 +4075,8 @@
       <c r="G63" s="6">
         <v>518010</v>
       </c>
-      <c r="H63" t="s">
-        <v>15</v>
+      <c r="H63" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4091,10 +4087,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4103,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H64" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="H64" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4117,10 +4113,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4129,10 +4125,10 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H65" t="s">
-        <v>15</v>
+        <v>453</v>
+      </c>
+      <c r="H65" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4143,10 +4139,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4155,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="H66" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4169,10 +4165,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4183,8 +4179,8 @@
       <c r="G67" s="6">
         <v>519000</v>
       </c>
-      <c r="H67" t="s">
-        <v>15</v>
+      <c r="H67" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4195,10 +4191,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4209,8 +4205,8 @@
       <c r="G68" s="6">
         <v>519000</v>
       </c>
-      <c r="H68" t="s">
-        <v>15</v>
+      <c r="H68" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4221,10 +4217,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4235,8 +4231,8 @@
       <c r="G69" s="6">
         <v>519010</v>
       </c>
-      <c r="H69" t="s">
-        <v>15</v>
+      <c r="H69" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4247,10 +4243,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4259,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="H70" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4273,10 +4269,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4285,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="H71" t="s">
-        <v>15</v>
+        <v>454</v>
+      </c>
+      <c r="H71" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4299,10 +4295,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4311,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="H72" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4325,10 +4321,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4339,8 +4335,8 @@
       <c r="G73" s="6">
         <v>520000</v>
       </c>
-      <c r="H73" t="s">
-        <v>15</v>
+      <c r="H73" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4351,10 +4347,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4365,8 +4361,8 @@
       <c r="G74" s="6">
         <v>520000</v>
       </c>
-      <c r="H74" t="s">
-        <v>15</v>
+      <c r="H74" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4377,10 +4373,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4391,8 +4387,8 @@
       <c r="G75" s="6">
         <v>520010</v>
       </c>
-      <c r="H75" t="s">
-        <v>15</v>
+      <c r="H75" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4403,10 +4399,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4415,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="H76" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4429,10 +4425,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4441,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="H77" t="s">
-        <v>15</v>
+        <v>455</v>
+      </c>
+      <c r="H77" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4455,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4467,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H78" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="H78" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4481,10 +4477,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4495,8 +4491,8 @@
       <c r="G79" s="6">
         <v>521000</v>
       </c>
-      <c r="H79" t="s">
-        <v>15</v>
+      <c r="H79" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4507,10 +4503,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4521,8 +4517,8 @@
       <c r="G80" s="6">
         <v>521000</v>
       </c>
-      <c r="H80" t="s">
-        <v>15</v>
+      <c r="H80" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4533,10 +4529,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4547,8 +4543,8 @@
       <c r="G81" s="6">
         <v>521010</v>
       </c>
-      <c r="H81" t="s">
-        <v>15</v>
+      <c r="H81" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4559,10 +4555,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4571,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="H82" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4585,10 +4581,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4597,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="H83" t="s">
-        <v>15</v>
+        <v>456</v>
+      </c>
+      <c r="H83" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4617,13 +4613,13 @@
         <v>301000</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4634,8 +4630,8 @@
       <c r="G85" s="6">
         <v>501000</v>
       </c>
-      <c r="H85" t="s">
-        <v>15</v>
+      <c r="H85" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4643,13 +4639,13 @@
         <v>301010</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4660,8 +4656,8 @@
       <c r="G86" s="6">
         <v>501010</v>
       </c>
-      <c r="H86" t="s">
-        <v>15</v>
+      <c r="H86" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4669,13 +4665,13 @@
         <v>301020</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4686,8 +4682,8 @@
       <c r="G87" s="6">
         <v>501020</v>
       </c>
-      <c r="H87" t="s">
-        <v>15</v>
+      <c r="H87" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4695,13 +4691,13 @@
         <v>301030</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4712,8 +4708,8 @@
       <c r="G88" s="6">
         <v>501030</v>
       </c>
-      <c r="H88" t="s">
-        <v>15</v>
+      <c r="H88" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4721,13 +4717,13 @@
         <v>301040</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4738,8 +4734,8 @@
       <c r="G89" s="6">
         <v>501040</v>
       </c>
-      <c r="H89" t="s">
-        <v>15</v>
+      <c r="H89" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4747,14 +4743,14 @@
         <v>301050</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
       </c>
@@ -4762,10 +4758,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H90" t="s">
-        <v>15</v>
+        <v>186</v>
+      </c>
+      <c r="H90" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4782,14 +4778,14 @@
         <v>302000</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C92" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
       </c>
@@ -4797,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H92" t="s">
-        <v>15</v>
+        <v>187</v>
+      </c>
+      <c r="H92" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4808,14 +4804,14 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
       </c>
@@ -4823,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H93" t="s">
-        <v>15</v>
+        <v>188</v>
+      </c>
+      <c r="H93" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -4834,13 +4830,13 @@
         <v>302020</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -4851,8 +4847,8 @@
       <c r="G94" s="6">
         <v>502020</v>
       </c>
-      <c r="H94" t="s">
-        <v>15</v>
+      <c r="H94" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -4860,14 +4856,14 @@
         <v>302030</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
       </c>
@@ -4875,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H95" t="s">
-        <v>15</v>
+        <v>189</v>
+      </c>
+      <c r="H95" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -4894,14 +4890,14 @@
         <v>310100</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
       </c>
@@ -4909,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H97" t="s">
-        <v>15</v>
+        <v>457</v>
+      </c>
+      <c r="H97" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -4920,25 +4916,25 @@
         <v>310110</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H98" t="s">
-        <v>15</v>
+      <c r="H98" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -4946,14 +4942,14 @@
         <v>310120</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
       </c>
@@ -4961,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H99" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="H99" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -4972,14 +4968,14 @@
         <v>310130</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4987,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H100" t="s">
-        <v>15</v>
+        <v>457</v>
+      </c>
+      <c r="H100" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4998,25 +4994,25 @@
         <v>310140</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
+      <c r="H101" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5024,14 +5020,14 @@
         <v>310150</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
       </c>
@@ -5039,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H102" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="H102" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5059,25 +5055,25 @@
         <v>311060</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H104" t="s">
-        <v>15</v>
+      <c r="H104" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5093,14 +5089,14 @@
         <v>312100</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
       </c>
@@ -5108,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
+        <v>458</v>
+      </c>
+      <c r="H106" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -5119,25 +5115,25 @@
         <v>312110</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="3">
-        <v>0</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H107" t="s">
-        <v>15</v>
+      <c r="H107" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -5145,25 +5141,25 @@
         <v>312120</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="3">
-        <v>0</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H108" t="s">
-        <v>15</v>
+      <c r="H108" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5171,25 +5167,25 @@
         <v>312130</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="3">
-        <v>0</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H109" t="s">
-        <v>15</v>
+      <c r="H109" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5197,25 +5193,25 @@
         <v>312140</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H110" t="s">
-        <v>15</v>
+      <c r="H110" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -5232,25 +5228,25 @@
         <v>313100</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0</v>
+      </c>
+      <c r="G112" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H112" t="s">
-        <v>15</v>
+      <c r="H112" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -5258,25 +5254,25 @@
         <v>313110</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H113" t="s">
-        <v>15</v>
+      <c r="H113" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -5284,25 +5280,25 @@
         <v>313120</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H114" t="s">
-        <v>15</v>
+      <c r="H114" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5310,25 +5306,25 @@
         <v>313130</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H115" t="s">
-        <v>15</v>
+      <c r="H115" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5336,25 +5332,25 @@
         <v>313140</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H116" t="s">
-        <v>15</v>
+      <c r="H116" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5362,25 +5358,25 @@
         <v>313150</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H117" t="s">
-        <v>15</v>
+      <c r="H117" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5388,25 +5384,25 @@
         <v>313160</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H118" t="s">
-        <v>15</v>
+      <c r="H118" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5414,25 +5410,25 @@
         <v>313200</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H119" t="s">
-        <v>15</v>
+      <c r="H119" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5440,25 +5436,25 @@
         <v>313210</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H120" t="s">
-        <v>15</v>
+      <c r="H120" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5466,25 +5462,25 @@
         <v>313220</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H121" t="s">
-        <v>15</v>
+      <c r="H121" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5492,25 +5488,25 @@
         <v>313230</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H122" t="s">
-        <v>15</v>
+      <c r="H122" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -5536,25 +5532,25 @@
         <v>315100</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" s="3">
-        <v>0</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H125" t="s">
-        <v>15</v>
+      <c r="H125" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5562,25 +5558,25 @@
         <v>315101</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H126" t="s">
-        <v>15</v>
+      <c r="H126" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5588,14 +5584,14 @@
         <v>315110</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
@@ -5603,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="H127" t="s">
-        <v>15</v>
+        <v>459</v>
+      </c>
+      <c r="H127" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5614,25 +5610,25 @@
         <v>315111</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H128" t="s">
-        <v>15</v>
+      <c r="H128" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -5640,14 +5636,14 @@
         <v>315120</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
       </c>
@@ -5655,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H129" t="s">
-        <v>15</v>
+        <v>460</v>
+      </c>
+      <c r="H129" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -5666,14 +5662,14 @@
         <v>315130</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
       </c>
@@ -5681,10 +5677,10 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="H130" t="s">
-        <v>15</v>
+        <v>461</v>
+      </c>
+      <c r="H130" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -5692,25 +5688,25 @@
         <v>315140</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H131" t="s">
-        <v>15</v>
+      <c r="H131" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -5718,25 +5714,25 @@
         <v>315150</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H132" t="s">
-        <v>15</v>
+      <c r="H132" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -5744,25 +5740,25 @@
         <v>315160</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" s="3">
-        <v>0</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H133" t="s">
-        <v>15</v>
+      <c r="H133" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -5770,25 +5766,25 @@
         <v>315170</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" s="3">
-        <v>0</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H134" t="s">
-        <v>15</v>
+      <c r="H134" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -5796,13 +5792,13 @@
         <v>315180</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -5811,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="H135" t="s">
-        <v>15</v>
+        <v>462</v>
+      </c>
+      <c r="H135" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -5831,14 +5827,14 @@
         <v>316100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
       </c>
@@ -5846,10 +5842,10 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="H137" t="s">
-        <v>15</v>
+        <v>463</v>
+      </c>
+      <c r="H137" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -5857,14 +5853,14 @@
         <v>316101</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
       </c>
@@ -5872,10 +5868,10 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="H138" t="s">
-        <v>15</v>
+        <v>463</v>
+      </c>
+      <c r="H138" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -5883,25 +5879,25 @@
         <v>316110</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H139" t="s">
-        <v>15</v>
+      <c r="H139" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -5909,25 +5905,25 @@
         <v>316120</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H140" t="s">
-        <v>15</v>
+      <c r="H140" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -5935,14 +5931,14 @@
         <v>316121</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
@@ -5950,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="H141" t="s">
-        <v>15</v>
+        <v>464</v>
+      </c>
+      <c r="H141" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -5961,25 +5957,25 @@
         <v>316130</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H142" t="s">
-        <v>15</v>
+      <c r="H142" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -5996,14 +5992,14 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
       </c>
@@ -6011,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H144" t="s">
-        <v>15</v>
+        <v>113</v>
+      </c>
+      <c r="H144" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
@@ -6022,25 +6018,25 @@
         <v>317110</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H145" t="s">
-        <v>15</v>
+      <c r="H145" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
@@ -6048,25 +6044,25 @@
         <v>317120</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H146" t="s">
-        <v>15</v>
+      <c r="H146" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
@@ -6074,25 +6070,25 @@
         <v>317130</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H147" t="s">
-        <v>15</v>
+      <c r="H147" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
@@ -6100,14 +6096,14 @@
         <v>317140</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
       </c>
@@ -6115,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="H148" t="s">
-        <v>15</v>
+        <v>465</v>
+      </c>
+      <c r="H148" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
@@ -6126,14 +6122,14 @@
         <v>317141</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C149" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
       </c>
@@ -6141,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="H149" t="s">
-        <v>15</v>
+        <v>466</v>
+      </c>
+      <c r="H149" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
@@ -6152,25 +6148,25 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" s="3">
-        <v>0</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H150" t="s">
-        <v>15</v>
+      <c r="H150" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
@@ -6178,14 +6174,14 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
       </c>
@@ -6193,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H151" t="s">
-        <v>15</v>
+        <v>123</v>
+      </c>
+      <c r="H151" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
@@ -6213,13 +6209,13 @@
         <v>318100</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6230,8 +6226,8 @@
       <c r="G153" s="6">
         <v>518100</v>
       </c>
-      <c r="H153" t="s">
-        <v>15</v>
+      <c r="H153" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
@@ -6239,14 +6235,14 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="D154" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
@@ -6254,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="H154" t="s">
-        <v>15</v>
+        <v>469</v>
+      </c>
+      <c r="H154" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
@@ -6265,14 +6261,14 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
       </c>
@@ -6280,10 +6276,10 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="H155" t="s">
-        <v>15</v>
+        <v>470</v>
+      </c>
+      <c r="H155" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
@@ -6291,13 +6287,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6306,10 +6302,10 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="H156" t="s">
-        <v>15</v>
+        <v>472</v>
+      </c>
+      <c r="H156" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
@@ -6317,14 +6313,14 @@
         <v>318113</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
       </c>
@@ -6332,10 +6328,10 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H157" t="s">
-        <v>15</v>
+        <v>471</v>
+      </c>
+      <c r="H157" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="158" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6343,13 +6339,13 @@
         <v>318114</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6358,9 +6354,11 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H158" s="11"/>
+        <v>471</v>
+      </c>
+      <c r="H158" s="2">
+        <v>10000</v>
+      </c>
       <c r="I158" s="11"/>
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
@@ -6386,25 +6384,25 @@
         <v>319100</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" s="3">
-        <v>0</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H160" t="s">
-        <v>15</v>
+      <c r="H160" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -6412,14 +6410,14 @@
         <v>319101</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C161" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
       </c>
@@ -6427,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H161" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="H161" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -6438,25 +6436,25 @@
         <v>319110</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H162" t="s">
-        <v>15</v>
+      <c r="H162" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6464,13 +6462,13 @@
         <v>319111</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6479,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H163" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="H163" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -6490,14 +6488,14 @@
         <v>319120</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
       </c>
@@ -6505,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="H164" t="s">
-        <v>15</v>
+        <v>474</v>
+      </c>
+      <c r="H164" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -6516,14 +6514,14 @@
         <v>319121</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C165" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
       </c>
@@ -6531,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="H165" t="s">
-        <v>15</v>
+        <v>475</v>
+      </c>
+      <c r="H165" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6542,25 +6540,25 @@
         <v>319130</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" s="3">
-        <v>0</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H166" t="s">
-        <v>15</v>
+      <c r="H166" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -6568,13 +6566,13 @@
         <v>319140</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -6583,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H167" t="s">
-        <v>15</v>
+        <v>135</v>
+      </c>
+      <c r="H167" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -6594,13 +6592,13 @@
         <v>319150</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -6609,10 +6607,10 @@
         <v>0</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H168" t="s">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="H168" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -6629,25 +6627,25 @@
         <v>320100</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C170" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" s="3">
-        <v>0</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H170" t="s">
-        <v>15</v>
+      <c r="H170" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -6655,25 +6653,25 @@
         <v>320110</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H171" t="s">
-        <v>15</v>
+      <c r="H171" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -6681,25 +6679,25 @@
         <v>320120</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" s="3">
-        <v>0</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H172" t="s">
-        <v>15</v>
+      <c r="H172" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -6707,25 +6705,25 @@
         <v>320130</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F173" s="3">
-        <v>0</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H173" t="s">
-        <v>15</v>
+      <c r="H173" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -6733,25 +6731,25 @@
         <v>320140</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" s="3">
-        <v>0</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H174" t="s">
-        <v>15</v>
+      <c r="H174" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -6759,25 +6757,25 @@
         <v>320150</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" s="3">
-        <v>0</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H175" t="s">
-        <v>15</v>
+      <c r="H175" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -6785,13 +6783,13 @@
         <v>320160</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -6802,8 +6800,8 @@
       <c r="G176" s="6">
         <v>520160</v>
       </c>
-      <c r="H176" t="s">
-        <v>15</v>
+      <c r="H176" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -6820,14 +6818,14 @@
         <v>321100</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C178" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
       </c>
@@ -6835,10 +6833,10 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H178" t="s">
-        <v>15</v>
+        <v>190</v>
+      </c>
+      <c r="H178" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -6846,14 +6844,14 @@
         <v>321110</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
       </c>
@@ -6861,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H179" t="s">
-        <v>15</v>
+        <v>191</v>
+      </c>
+      <c r="H179" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -6872,14 +6870,14 @@
         <v>321111</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
       </c>
@@ -6887,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H180" t="s">
-        <v>15</v>
+        <v>192</v>
+      </c>
+      <c r="H180" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -6898,13 +6896,13 @@
         <v>321120</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -6913,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H181" t="s">
-        <v>15</v>
+        <v>193</v>
+      </c>
+      <c r="H181" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -6924,14 +6922,14 @@
         <v>321130</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C182" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
       </c>
@@ -6939,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H182" t="s">
-        <v>15</v>
+        <v>194</v>
+      </c>
+      <c r="H182" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -6950,14 +6948,14 @@
         <v>321140</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
       </c>
@@ -6965,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H183" t="s">
-        <v>15</v>
+        <v>195</v>
+      </c>
+      <c r="H183" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -6976,14 +6974,14 @@
         <v>321150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
       </c>
@@ -6991,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H184" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H184" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -7002,14 +7000,14 @@
         <v>321160</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
       </c>
@@ -7017,10 +7015,10 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H185" t="s">
-        <v>15</v>
+        <v>197</v>
+      </c>
+      <c r="H185" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -7028,14 +7026,14 @@
         <v>321170</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C186" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
       </c>
@@ -7043,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H186" t="s">
-        <v>15</v>
+        <v>198</v>
+      </c>
+      <c r="H186" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -7054,13 +7052,13 @@
         <v>321180</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7069,10 +7067,10 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="H187" t="s">
-        <v>15</v>
+        <v>467</v>
+      </c>
+      <c r="H187" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -7089,13 +7087,13 @@
         <v>330000</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7106,8 +7104,8 @@
       <c r="G189" s="6">
         <v>530000</v>
       </c>
-      <c r="H189" t="s">
-        <v>15</v>
+      <c r="H189" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -7115,14 +7113,14 @@
         <v>330010</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
       </c>
@@ -7130,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H190" t="s">
-        <v>15</v>
+        <v>160</v>
+      </c>
+      <c r="H190" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -7141,14 +7139,14 @@
         <v>330020</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
       </c>
@@ -7156,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H191" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H191" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -7167,13 +7165,13 @@
         <v>330030</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7184,8 +7182,8 @@
       <c r="G192" s="6">
         <v>530030</v>
       </c>
-      <c r="H192" t="s">
-        <v>15</v>
+      <c r="H192" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -7193,13 +7191,13 @@
         <v>330040</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7210,8 +7208,8 @@
       <c r="G193" s="6">
         <v>530040</v>
       </c>
-      <c r="H193" t="s">
-        <v>15</v>
+      <c r="H193" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -7219,13 +7217,13 @@
         <v>330050</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7236,8 +7234,8 @@
       <c r="G194" s="6">
         <v>530050</v>
       </c>
-      <c r="H194" t="s">
-        <v>15</v>
+      <c r="H194" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -7245,13 +7243,13 @@
         <v>330060</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7262,8 +7260,8 @@
       <c r="G195" s="6">
         <v>530060</v>
       </c>
-      <c r="H195" t="s">
-        <v>15</v>
+      <c r="H195" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -7271,13 +7269,13 @@
         <v>330070</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7288,8 +7286,8 @@
       <c r="G196" s="6">
         <v>530070</v>
       </c>
-      <c r="H196" t="s">
-        <v>15</v>
+      <c r="H196" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -7297,13 +7295,13 @@
         <v>330080</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7314,8 +7312,8 @@
       <c r="G197" s="6">
         <v>530080</v>
       </c>
-      <c r="H197" t="s">
-        <v>15</v>
+      <c r="H197" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -7323,13 +7321,13 @@
         <v>330090</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7340,8 +7338,8 @@
       <c r="G198" s="6">
         <v>530090</v>
       </c>
-      <c r="H198" t="s">
-        <v>15</v>
+      <c r="H198" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -7349,13 +7347,13 @@
         <v>330100</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7366,8 +7364,8 @@
       <c r="G199" s="6">
         <v>530100</v>
       </c>
-      <c r="H199" t="s">
-        <v>15</v>
+      <c r="H199" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -7375,13 +7373,13 @@
         <v>330110</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C200" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7392,8 +7390,8 @@
       <c r="G200" s="6">
         <v>530110</v>
       </c>
-      <c r="H200" t="s">
-        <v>15</v>
+      <c r="H200" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -7401,25 +7399,25 @@
         <v>330120</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" s="3">
-        <v>0</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H201" t="s">
-        <v>15</v>
+      <c r="H201" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -7427,25 +7425,25 @@
         <v>330130</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" s="3">
-        <v>0</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H202" t="s">
-        <v>15</v>
+      <c r="H202" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -7453,25 +7451,25 @@
         <v>330140</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0</v>
+      </c>
+      <c r="G203" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F203" s="3">
-        <v>0</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H203" t="s">
-        <v>15</v>
+      <c r="H203" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -7479,14 +7477,14 @@
         <v>330150</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
       </c>
@@ -7494,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H204" t="s">
-        <v>15</v>
+        <v>171</v>
+      </c>
+      <c r="H204" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -7505,14 +7503,14 @@
         <v>330160</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
       </c>
@@ -7520,10 +7518,10 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H205" t="s">
-        <v>15</v>
+        <v>172</v>
+      </c>
+      <c r="H205" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -7531,14 +7529,14 @@
         <v>330170</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
       </c>
@@ -7546,10 +7544,10 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H206" t="s">
-        <v>15</v>
+        <v>173</v>
+      </c>
+      <c r="H206" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -7557,13 +7555,13 @@
         <v>330180</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -7574,8 +7572,8 @@
       <c r="G207" s="6">
         <v>530180</v>
       </c>
-      <c r="H207" t="s">
-        <v>15</v>
+      <c r="H207" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -7583,21 +7581,21 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H209" t="s">
-        <v>15</v>
+        <v>178</v>
+      </c>
+      <c r="H209" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -7605,21 +7603,21 @@
         <v>340010</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H210" t="s">
-        <v>15</v>
+        <v>179</v>
+      </c>
+      <c r="H210" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -7627,21 +7625,21 @@
         <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H211" t="s">
-        <v>15</v>
+        <v>180</v>
+      </c>
+      <c r="H211" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -7649,21 +7647,21 @@
         <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H212" t="s">
-        <v>15</v>
+        <v>181</v>
+      </c>
+      <c r="H212" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -7671,21 +7669,21 @@
         <v>340040</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H213" t="s">
-        <v>15</v>
+        <v>182</v>
+      </c>
+      <c r="H213" s="2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1806526-CC2A-4F32-9796-3ECC74311245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC25254-DCF2-41A5-97C5-7B9EBD51AF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="6015" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="5025" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -819,10 +819,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>540030</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2012,6 +2008,10 @@
   </si>
   <si>
     <t>550000,519122,519123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540020,540021</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2451,7 +2451,7 @@
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="G215" sqref="G215"/>
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2498,10 +2498,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2524,10 +2524,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2550,10 +2550,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2576,11 +2576,11 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H5" s="2">
         <v>10002</v>
@@ -2602,11 +2602,11 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H6" s="2">
         <v>10004</v>
@@ -2625,14 +2625,14 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H7" s="2">
         <v>10004</v>
@@ -2654,10 +2654,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -2680,10 +2680,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -2706,11 +2706,11 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2735,10 +2735,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2761,10 +2761,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2787,10 +2787,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2813,10 +2813,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2839,10 +2839,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2865,11 +2865,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H17" s="2">
         <v>10000</v>
@@ -2891,10 +2891,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2917,10 +2917,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2943,10 +2943,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2969,11 +2969,11 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H21" s="2">
         <v>10000</v>
@@ -2995,10 +2995,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H22" s="2">
         <v>10000</v>
@@ -3021,10 +3021,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H23" s="2">
         <v>10000</v>
@@ -3047,10 +3047,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3099,10 +3099,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3125,10 +3125,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3151,10 +3151,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H28" s="2">
         <v>10000</v>
@@ -3177,10 +3177,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H29" s="2">
         <v>10000</v>
@@ -3203,10 +3203,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3229,10 +3229,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3281,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3307,10 +3307,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H34" s="2">
         <v>10000</v>
@@ -3333,10 +3333,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H35" s="2">
         <v>10000</v>
@@ -3359,10 +3359,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3385,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3411,10 +3411,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3437,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3463,10 +3463,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3489,10 +3489,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H41" s="2">
         <v>10000</v>
@@ -3515,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3567,10 +3567,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3593,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3619,10 +3619,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3645,10 +3645,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H47" s="2">
         <v>10000</v>
@@ -3671,10 +3671,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3697,10 +3697,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3723,10 +3723,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3749,10 +3749,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3775,10 +3775,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3801,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H53" s="2">
         <v>10000</v>
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3853,10 +3853,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3879,10 +3879,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3905,10 +3905,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3931,10 +3931,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -3957,10 +3957,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H59" s="2">
         <v>10000</v>
@@ -3983,10 +3983,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4009,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4035,10 +4035,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4061,10 +4061,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4087,10 +4087,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4113,10 +4113,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H65" s="2">
         <v>10000</v>
@@ -4139,10 +4139,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4165,10 +4165,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4191,10 +4191,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4217,10 +4217,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4243,10 +4243,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4269,10 +4269,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H71" s="2">
         <v>10000</v>
@@ -4295,10 +4295,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4321,10 +4321,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4347,10 +4347,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4373,10 +4373,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4399,10 +4399,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4425,10 +4425,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H77" s="2">
         <v>10000</v>
@@ -4451,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4477,10 +4477,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4503,10 +4503,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4529,10 +4529,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4555,10 +4555,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4581,10 +4581,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H83" s="2">
         <v>10000</v>
@@ -4616,10 +4616,10 @@
         <v>44</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4642,10 +4642,10 @@
         <v>45</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4668,10 +4668,10 @@
         <v>46</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4694,10 +4694,10 @@
         <v>47</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4720,10 +4720,10 @@
         <v>48</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4746,11 +4746,11 @@
         <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H90" s="2">
         <v>10000</v>
@@ -4781,11 +4781,11 @@
         <v>50</v>
       </c>
       <c r="C92" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H92" s="2">
         <v>10000</v>
@@ -4804,14 +4804,14 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H93" s="2">
         <v>10000</v>
@@ -4833,10 +4833,10 @@
         <v>51</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -4859,11 +4859,11 @@
         <v>52</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H95" s="2">
         <v>10000</v>
@@ -4893,11 +4893,11 @@
         <v>53</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H97" s="2">
         <v>10000</v>
@@ -4919,10 +4919,10 @@
         <v>53</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -4945,10 +4945,10 @@
         <v>53</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -4971,11 +4971,11 @@
         <v>53</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H100" s="2">
         <v>10000</v>
@@ -4997,10 +4997,10 @@
         <v>53</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -5023,10 +5023,10 @@
         <v>53</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5058,7 +5058,7 @@
         <v>56</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>57</v>
@@ -5092,11 +5092,11 @@
         <v>59</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H106" s="2">
         <v>10000</v>
@@ -5118,10 +5118,10 @@
         <v>60</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5144,10 +5144,10 @@
         <v>62</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5170,10 +5170,10 @@
         <v>64</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5196,10 +5196,10 @@
         <v>66</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5231,10 +5231,10 @@
         <v>68</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -5257,10 +5257,10 @@
         <v>70</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5283,10 +5283,10 @@
         <v>72</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5309,10 +5309,10 @@
         <v>74</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5335,10 +5335,10 @@
         <v>76</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5361,10 +5361,10 @@
         <v>78</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5387,10 +5387,10 @@
         <v>80</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5413,10 +5413,10 @@
         <v>82</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5439,10 +5439,10 @@
         <v>84</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -5465,10 +5465,10 @@
         <v>86</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -5491,10 +5491,10 @@
         <v>88</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5535,10 +5535,10 @@
         <v>90</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -5561,10 +5561,10 @@
         <v>90</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -5587,11 +5587,11 @@
         <v>92</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H127" s="2">
         <v>10000</v>
@@ -5613,10 +5613,10 @@
         <v>92</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5639,11 +5639,11 @@
         <v>94</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H129" s="2">
         <v>10000</v>
@@ -5665,11 +5665,11 @@
         <v>95</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H130" s="2">
         <v>10000</v>
@@ -5691,10 +5691,10 @@
         <v>96</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -5717,10 +5717,10 @@
         <v>98</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -5743,10 +5743,10 @@
         <v>100</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
@@ -5769,10 +5769,10 @@
         <v>102</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -5795,10 +5795,10 @@
         <v>104</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H135" s="2">
         <v>10000</v>
@@ -5830,11 +5830,11 @@
         <v>105</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H137" s="2">
         <v>10000</v>
@@ -5856,11 +5856,11 @@
         <v>105</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H138" s="2">
         <v>10000</v>
@@ -5882,10 +5882,10 @@
         <v>106</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -5908,10 +5908,10 @@
         <v>108</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -5934,11 +5934,11 @@
         <v>110</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H141" s="2">
         <v>10000</v>
@@ -5960,10 +5960,10 @@
         <v>111</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -5992,13 +5992,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6021,10 +6021,10 @@
         <v>114</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -6047,10 +6047,10 @@
         <v>116</v>
       </c>
       <c r="C146" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -6073,10 +6073,10 @@
         <v>118</v>
       </c>
       <c r="C147" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -6099,11 +6099,11 @@
         <v>120</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H148" s="2">
         <v>10000</v>
@@ -6125,11 +6125,11 @@
         <v>120</v>
       </c>
       <c r="C149" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H149" s="2">
         <v>10000</v>
@@ -6151,10 +6151,10 @@
         <v>121</v>
       </c>
       <c r="C150" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6177,10 +6177,10 @@
         <v>121</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6212,10 +6212,10 @@
         <v>124</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6235,14 +6235,14 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="D154" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H154" s="2">
         <v>10000</v>
@@ -6261,14 +6261,14 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H155" s="2">
         <v>10000</v>
@@ -6287,13 +6287,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H156" s="2">
         <v>10000</v>
@@ -6316,11 +6316,11 @@
         <v>125</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H157" s="2">
         <v>10000</v>
@@ -6342,10 +6342,10 @@
         <v>125</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H158" s="2">
         <v>10000</v>
@@ -6387,10 +6387,10 @@
         <v>126</v>
       </c>
       <c r="C160" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6413,10 +6413,10 @@
         <v>126</v>
       </c>
       <c r="C161" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6439,10 +6439,10 @@
         <v>129</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6465,10 +6465,10 @@
         <v>129</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6491,11 +6491,11 @@
         <v>132</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H164" s="2">
         <v>10000</v>
@@ -6517,11 +6517,11 @@
         <v>132</v>
       </c>
       <c r="C165" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H165" s="2">
         <v>10000</v>
@@ -6543,10 +6543,10 @@
         <v>133</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -6569,10 +6569,10 @@
         <v>133</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -6595,10 +6595,10 @@
         <v>133</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -6630,10 +6630,10 @@
         <v>137</v>
       </c>
       <c r="C170" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
@@ -6656,10 +6656,10 @@
         <v>139</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -6682,10 +6682,10 @@
         <v>141</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -6708,10 +6708,10 @@
         <v>143</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
@@ -6734,10 +6734,10 @@
         <v>145</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
@@ -6760,10 +6760,10 @@
         <v>147</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -6786,10 +6786,10 @@
         <v>149</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -6821,11 +6821,11 @@
         <v>150</v>
       </c>
       <c r="C178" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H178" s="2">
         <v>10000</v>
@@ -6847,11 +6847,11 @@
         <v>151</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H179" s="2">
         <v>10000</v>
@@ -6873,11 +6873,11 @@
         <v>151</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H180" s="2">
         <v>10000</v>
@@ -6899,10 +6899,10 @@
         <v>152</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H181" s="2">
         <v>10000</v>
@@ -6925,11 +6925,11 @@
         <v>153</v>
       </c>
       <c r="C182" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H182" s="2">
         <v>10000</v>
@@ -6951,11 +6951,11 @@
         <v>154</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H183" s="2">
         <v>10000</v>
@@ -6977,11 +6977,11 @@
         <v>155</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H184" s="2">
         <v>10000</v>
@@ -7003,11 +7003,11 @@
         <v>156</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H185" s="2">
         <v>10000</v>
@@ -7029,11 +7029,11 @@
         <v>157</v>
       </c>
       <c r="C186" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H186" s="2">
         <v>10000</v>
@@ -7055,10 +7055,10 @@
         <v>158</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H187" s="2">
         <v>10000</v>
@@ -7090,10 +7090,10 @@
         <v>159</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7116,10 +7116,10 @@
         <v>56</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7142,10 +7142,10 @@
         <v>56</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7168,10 +7168,10 @@
         <v>162</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7194,10 +7194,10 @@
         <v>162</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7220,10 +7220,10 @@
         <v>162</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7246,10 +7246,10 @@
         <v>163</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7272,10 +7272,10 @@
         <v>163</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7298,10 +7298,10 @@
         <v>163</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7324,10 +7324,10 @@
         <v>164</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7350,10 +7350,10 @@
         <v>164</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7376,10 +7376,10 @@
         <v>164</v>
       </c>
       <c r="C200" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7402,10 +7402,10 @@
         <v>165</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7428,10 +7428,10 @@
         <v>167</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7454,10 +7454,10 @@
         <v>169</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -7480,10 +7480,10 @@
         <v>165</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -7506,10 +7506,10 @@
         <v>167</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -7532,10 +7532,10 @@
         <v>169</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -7558,10 +7558,10 @@
         <v>174</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -7625,7 +7625,7 @@
         <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>180</v>
+        <v>475</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -7647,7 +7647,7 @@
         <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -7669,7 +7669,7 @@
         <v>340040</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC25254-DCF2-41A5-97C5-7B9EBD51AF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AACBFF-9179-426A-8948-5EFF79BA9E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="5025" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9615" yWindow="4125" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -819,10 +819,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>540040</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2011,7 +2007,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540020,540021</t>
+    <t>540030,518113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540020,540021,517140</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2450,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="I211" sqref="I211"/>
+    <sheetView tabSelected="1" topLeftCell="E194" workbookViewId="0">
+      <selection activeCell="J211" sqref="J211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2498,10 +2498,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2524,10 +2524,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2550,10 +2550,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2576,11 +2576,11 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H5" s="2">
         <v>10002</v>
@@ -2602,11 +2602,11 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H6" s="2">
         <v>10004</v>
@@ -2625,14 +2625,14 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H7" s="2">
         <v>10004</v>
@@ -2654,10 +2654,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -2680,10 +2680,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -2706,11 +2706,11 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2735,10 +2735,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2761,10 +2761,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2787,10 +2787,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2813,10 +2813,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2839,10 +2839,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2865,11 +2865,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H17" s="2">
         <v>10000</v>
@@ -2891,10 +2891,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2917,10 +2917,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2943,10 +2943,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2969,11 +2969,11 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H21" s="2">
         <v>10000</v>
@@ -2995,10 +2995,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H22" s="2">
         <v>10000</v>
@@ -3021,10 +3021,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H23" s="2">
         <v>10000</v>
@@ -3047,10 +3047,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3099,10 +3099,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3125,10 +3125,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3151,10 +3151,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H28" s="2">
         <v>10000</v>
@@ -3177,10 +3177,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H29" s="2">
         <v>10000</v>
@@ -3203,10 +3203,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3229,10 +3229,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3255,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3281,10 +3281,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3307,10 +3307,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H34" s="2">
         <v>10000</v>
@@ -3333,10 +3333,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H35" s="2">
         <v>10000</v>
@@ -3359,10 +3359,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3385,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3411,10 +3411,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3437,10 +3437,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3463,10 +3463,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3489,10 +3489,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H41" s="2">
         <v>10000</v>
@@ -3515,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3541,10 +3541,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3567,10 +3567,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3593,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3619,10 +3619,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3645,10 +3645,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H47" s="2">
         <v>10000</v>
@@ -3671,10 +3671,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3697,10 +3697,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3723,10 +3723,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3749,10 +3749,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3775,10 +3775,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3801,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H53" s="2">
         <v>10000</v>
@@ -3827,10 +3827,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3853,10 +3853,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3879,10 +3879,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3905,10 +3905,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3931,10 +3931,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -3957,10 +3957,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H59" s="2">
         <v>10000</v>
@@ -3983,10 +3983,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4009,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4035,10 +4035,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4061,10 +4061,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4087,10 +4087,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4113,10 +4113,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H65" s="2">
         <v>10000</v>
@@ -4139,10 +4139,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4165,10 +4165,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4191,10 +4191,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4217,10 +4217,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4243,10 +4243,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4269,10 +4269,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H71" s="2">
         <v>10000</v>
@@ -4295,10 +4295,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4321,10 +4321,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4347,10 +4347,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4373,10 +4373,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4399,10 +4399,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4425,10 +4425,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H77" s="2">
         <v>10000</v>
@@ -4451,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4477,10 +4477,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4503,10 +4503,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4529,10 +4529,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4555,10 +4555,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4581,10 +4581,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H83" s="2">
         <v>10000</v>
@@ -4616,10 +4616,10 @@
         <v>44</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4642,10 +4642,10 @@
         <v>45</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4668,10 +4668,10 @@
         <v>46</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4694,10 +4694,10 @@
         <v>47</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4720,10 +4720,10 @@
         <v>48</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4746,11 +4746,11 @@
         <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H90" s="2">
         <v>10000</v>
@@ -4781,11 +4781,11 @@
         <v>50</v>
       </c>
       <c r="C92" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H92" s="2">
         <v>10000</v>
@@ -4804,14 +4804,14 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H93" s="2">
         <v>10000</v>
@@ -4833,10 +4833,10 @@
         <v>51</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -4859,11 +4859,11 @@
         <v>52</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H95" s="2">
         <v>10000</v>
@@ -4893,11 +4893,11 @@
         <v>53</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H97" s="2">
         <v>10000</v>
@@ -4919,10 +4919,10 @@
         <v>53</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -4945,10 +4945,10 @@
         <v>53</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -4971,11 +4971,11 @@
         <v>53</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H100" s="2">
         <v>10000</v>
@@ -4997,10 +4997,10 @@
         <v>53</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -5023,10 +5023,10 @@
         <v>53</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5058,7 +5058,7 @@
         <v>56</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>57</v>
@@ -5092,11 +5092,11 @@
         <v>59</v>
       </c>
       <c r="C106" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H106" s="2">
         <v>10000</v>
@@ -5118,10 +5118,10 @@
         <v>60</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5144,10 +5144,10 @@
         <v>62</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5170,10 +5170,10 @@
         <v>64</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5196,10 +5196,10 @@
         <v>66</v>
       </c>
       <c r="C110" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5231,10 +5231,10 @@
         <v>68</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -5257,10 +5257,10 @@
         <v>70</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5283,10 +5283,10 @@
         <v>72</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5309,10 +5309,10 @@
         <v>74</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5335,10 +5335,10 @@
         <v>76</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5361,10 +5361,10 @@
         <v>78</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5387,10 +5387,10 @@
         <v>80</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5413,10 +5413,10 @@
         <v>82</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5439,10 +5439,10 @@
         <v>84</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -5465,10 +5465,10 @@
         <v>86</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -5491,10 +5491,10 @@
         <v>88</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5535,10 +5535,10 @@
         <v>90</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -5561,10 +5561,10 @@
         <v>90</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -5587,11 +5587,11 @@
         <v>92</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H127" s="2">
         <v>10000</v>
@@ -5613,10 +5613,10 @@
         <v>92</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5639,11 +5639,11 @@
         <v>94</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H129" s="2">
         <v>10000</v>
@@ -5665,11 +5665,11 @@
         <v>95</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H130" s="2">
         <v>10000</v>
@@ -5691,10 +5691,10 @@
         <v>96</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -5717,10 +5717,10 @@
         <v>98</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -5743,10 +5743,10 @@
         <v>100</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
@@ -5769,10 +5769,10 @@
         <v>102</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -5795,10 +5795,10 @@
         <v>104</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H135" s="2">
         <v>10000</v>
@@ -5830,11 +5830,11 @@
         <v>105</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H137" s="2">
         <v>10000</v>
@@ -5856,11 +5856,11 @@
         <v>105</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>340</v>
-      </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H138" s="2">
         <v>10000</v>
@@ -5882,10 +5882,10 @@
         <v>106</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -5908,10 +5908,10 @@
         <v>108</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -5934,11 +5934,11 @@
         <v>110</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H141" s="2">
         <v>10000</v>
@@ -5960,10 +5960,10 @@
         <v>111</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -5992,13 +5992,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6021,10 +6021,10 @@
         <v>114</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -6047,10 +6047,10 @@
         <v>116</v>
       </c>
       <c r="C146" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -6073,10 +6073,10 @@
         <v>118</v>
       </c>
       <c r="C147" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -6099,11 +6099,11 @@
         <v>120</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H148" s="2">
         <v>10000</v>
@@ -6125,11 +6125,11 @@
         <v>120</v>
       </c>
       <c r="C149" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H149" s="2">
         <v>10000</v>
@@ -6151,10 +6151,10 @@
         <v>121</v>
       </c>
       <c r="C150" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6177,10 +6177,10 @@
         <v>121</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6212,10 +6212,10 @@
         <v>124</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6235,14 +6235,14 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="D154" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H154" s="2">
         <v>10000</v>
@@ -6261,14 +6261,14 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H155" s="2">
         <v>10000</v>
@@ -6287,13 +6287,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>371</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H156" s="2">
         <v>10000</v>
@@ -6316,11 +6316,11 @@
         <v>125</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H157" s="2">
         <v>10000</v>
@@ -6342,10 +6342,10 @@
         <v>125</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H158" s="2">
         <v>10000</v>
@@ -6387,10 +6387,10 @@
         <v>126</v>
       </c>
       <c r="C160" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6413,10 +6413,10 @@
         <v>126</v>
       </c>
       <c r="C161" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6439,10 +6439,10 @@
         <v>129</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6465,10 +6465,10 @@
         <v>129</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6491,11 +6491,11 @@
         <v>132</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H164" s="2">
         <v>10000</v>
@@ -6517,11 +6517,11 @@
         <v>132</v>
       </c>
       <c r="C165" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H165" s="2">
         <v>10000</v>
@@ -6543,10 +6543,10 @@
         <v>133</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -6569,10 +6569,10 @@
         <v>133</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -6595,10 +6595,10 @@
         <v>133</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -6630,10 +6630,10 @@
         <v>137</v>
       </c>
       <c r="C170" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
@@ -6656,10 +6656,10 @@
         <v>139</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -6682,10 +6682,10 @@
         <v>141</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -6708,10 +6708,10 @@
         <v>143</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
@@ -6734,10 +6734,10 @@
         <v>145</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
@@ -6760,10 +6760,10 @@
         <v>147</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -6786,10 +6786,10 @@
         <v>149</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -6821,11 +6821,11 @@
         <v>150</v>
       </c>
       <c r="C178" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H178" s="2">
         <v>10000</v>
@@ -6847,11 +6847,11 @@
         <v>151</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H179" s="2">
         <v>10000</v>
@@ -6873,11 +6873,11 @@
         <v>151</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H180" s="2">
         <v>10000</v>
@@ -6899,10 +6899,10 @@
         <v>152</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H181" s="2">
         <v>10000</v>
@@ -6925,11 +6925,11 @@
         <v>153</v>
       </c>
       <c r="C182" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H182" s="2">
         <v>10000</v>
@@ -6951,11 +6951,11 @@
         <v>154</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H183" s="2">
         <v>10000</v>
@@ -6977,11 +6977,11 @@
         <v>155</v>
       </c>
       <c r="C184" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H184" s="2">
         <v>10000</v>
@@ -7003,11 +7003,11 @@
         <v>156</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H185" s="2">
         <v>10000</v>
@@ -7029,11 +7029,11 @@
         <v>157</v>
       </c>
       <c r="C186" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H186" s="2">
         <v>10000</v>
@@ -7055,10 +7055,10 @@
         <v>158</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H187" s="2">
         <v>10000</v>
@@ -7090,10 +7090,10 @@
         <v>159</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7116,10 +7116,10 @@
         <v>56</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7142,10 +7142,10 @@
         <v>56</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7168,10 +7168,10 @@
         <v>162</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7194,10 +7194,10 @@
         <v>162</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7220,10 +7220,10 @@
         <v>162</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7246,10 +7246,10 @@
         <v>163</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7272,10 +7272,10 @@
         <v>163</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7298,10 +7298,10 @@
         <v>163</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7324,10 +7324,10 @@
         <v>164</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7350,10 +7350,10 @@
         <v>164</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7376,10 +7376,10 @@
         <v>164</v>
       </c>
       <c r="C200" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7402,10 +7402,10 @@
         <v>165</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7428,10 +7428,10 @@
         <v>167</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7454,10 +7454,10 @@
         <v>169</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -7480,10 +7480,10 @@
         <v>165</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -7506,10 +7506,10 @@
         <v>167</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -7532,10 +7532,10 @@
         <v>169</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -7558,10 +7558,10 @@
         <v>174</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -7625,7 +7625,7 @@
         <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -7647,7 +7647,7 @@
         <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -7669,7 +7669,7 @@
         <v>340040</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AACBFF-9179-426A-8948-5EFF79BA9E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5878B8-F0B7-4A7E-BD48-C4ED34283C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="4125" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="4140" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -155,12 +155,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type
+int32</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="477">
   <si>
     <t>事件编号</t>
   </si>
@@ -2013,6 +2028,9 @@
   <si>
     <t>540020,540021,517140</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动事件类型</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2134,6 +2152,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2450,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E194" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211"/>
+    <sheetView tabSelected="1" topLeftCell="E192" workbookViewId="0">
+      <selection activeCell="M206" sqref="M206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2462,9 +2481,10 @@
     <col min="5" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="8" style="4"/>
+    <col min="9" max="9" width="13" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2489,8 +2509,11 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>300000</v>
       </c>
@@ -2515,8 +2538,11 @@
       <c r="H2" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I2" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>300010</v>
       </c>
@@ -2541,8 +2567,11 @@
       <c r="H3" s="2">
         <v>10001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I3" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>300020</v>
       </c>
@@ -2567,8 +2596,11 @@
       <c r="H4" s="2">
         <v>10002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>300030</v>
       </c>
@@ -2593,8 +2625,11 @@
       <c r="H5" s="2">
         <v>10002</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>300031</v>
       </c>
@@ -2619,8 +2654,11 @@
       <c r="H6" s="2">
         <v>10004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I6" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>300040</v>
       </c>
@@ -2645,8 +2683,11 @@
       <c r="H7" s="2">
         <v>10004</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>300050</v>
       </c>
@@ -2671,8 +2712,11 @@
       <c r="H8" s="2">
         <v>10005</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>300060</v>
       </c>
@@ -2697,8 +2741,11 @@
       <c r="H9" s="2">
         <v>10005</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>300070</v>
       </c>
@@ -2723,11 +2770,14 @@
       <c r="H10" s="2">
         <v>10007</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>310000</v>
       </c>
@@ -2752,8 +2802,11 @@
       <c r="H12" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>310010</v>
       </c>
@@ -2778,8 +2831,11 @@
       <c r="H13" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>310020</v>
       </c>
@@ -2804,8 +2860,11 @@
       <c r="H14" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>310030</v>
       </c>
@@ -2830,8 +2889,11 @@
       <c r="H15" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>310040</v>
       </c>
@@ -2856,8 +2918,11 @@
       <c r="H16" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>310050</v>
       </c>
@@ -2882,8 +2947,11 @@
       <c r="H17" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>311000</v>
       </c>
@@ -2908,8 +2976,11 @@
       <c r="H18" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>311010</v>
       </c>
@@ -2934,8 +3005,11 @@
       <c r="H19" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>311020</v>
       </c>
@@ -2960,8 +3034,11 @@
       <c r="H20" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>311030</v>
       </c>
@@ -2986,8 +3063,11 @@
       <c r="H21" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>311040</v>
       </c>
@@ -3012,8 +3092,11 @@
       <c r="H22" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>311050</v>
       </c>
@@ -3038,8 +3121,11 @@
       <c r="H23" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>312000</v>
       </c>
@@ -3064,8 +3150,11 @@
       <c r="H24" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>312010</v>
       </c>
@@ -3090,8 +3179,11 @@
       <c r="H25" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>312020</v>
       </c>
@@ -3116,8 +3208,11 @@
       <c r="H26" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>312030</v>
       </c>
@@ -3142,8 +3237,11 @@
       <c r="H27" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>312040</v>
       </c>
@@ -3168,8 +3266,11 @@
       <c r="H28" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>312050</v>
       </c>
@@ -3194,8 +3295,11 @@
       <c r="H29" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>313000</v>
       </c>
@@ -3220,8 +3324,11 @@
       <c r="H30" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>313010</v>
       </c>
@@ -3246,8 +3353,11 @@
       <c r="H31" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>313020</v>
       </c>
@@ -3272,8 +3382,11 @@
       <c r="H32" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>313030</v>
       </c>
@@ -3298,8 +3411,11 @@
       <c r="H33" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>313040</v>
       </c>
@@ -3324,8 +3440,11 @@
       <c r="H34" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>313050</v>
       </c>
@@ -3350,8 +3469,11 @@
       <c r="H35" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>314000</v>
       </c>
@@ -3376,8 +3498,11 @@
       <c r="H36" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>314010</v>
       </c>
@@ -3402,8 +3527,11 @@
       <c r="H37" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>314020</v>
       </c>
@@ -3428,8 +3556,11 @@
       <c r="H38" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>314030</v>
       </c>
@@ -3454,8 +3585,11 @@
       <c r="H39" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>314040</v>
       </c>
@@ -3480,8 +3614,11 @@
       <c r="H40" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>314050</v>
       </c>
@@ -3506,8 +3643,11 @@
       <c r="H41" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>315000</v>
       </c>
@@ -3532,8 +3672,11 @@
       <c r="H42" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>315010</v>
       </c>
@@ -3558,8 +3701,11 @@
       <c r="H43" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>315020</v>
       </c>
@@ -3584,8 +3730,11 @@
       <c r="H44" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>315030</v>
       </c>
@@ -3610,8 +3759,11 @@
       <c r="H45" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>315040</v>
       </c>
@@ -3636,8 +3788,11 @@
       <c r="H46" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>315050</v>
       </c>
@@ -3662,8 +3817,11 @@
       <c r="H47" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>316000</v>
       </c>
@@ -3688,8 +3846,11 @@
       <c r="H48" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>316010</v>
       </c>
@@ -3714,8 +3875,11 @@
       <c r="H49" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>316020</v>
       </c>
@@ -3740,8 +3904,11 @@
       <c r="H50" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>316030</v>
       </c>
@@ -3766,8 +3933,11 @@
       <c r="H51" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>316040</v>
       </c>
@@ -3792,8 +3962,11 @@
       <c r="H52" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>316050</v>
       </c>
@@ -3818,8 +3991,11 @@
       <c r="H53" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>317000</v>
       </c>
@@ -3844,8 +4020,11 @@
       <c r="H54" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>317010</v>
       </c>
@@ -3870,8 +4049,11 @@
       <c r="H55" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>317020</v>
       </c>
@@ -3896,8 +4078,11 @@
       <c r="H56" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>317030</v>
       </c>
@@ -3922,8 +4107,11 @@
       <c r="H57" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>317040</v>
       </c>
@@ -3948,8 +4136,11 @@
       <c r="H58" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>317050</v>
       </c>
@@ -3974,8 +4165,11 @@
       <c r="H59" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>318000</v>
       </c>
@@ -4000,8 +4194,11 @@
       <c r="H60" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>318010</v>
       </c>
@@ -4026,8 +4223,11 @@
       <c r="H61" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>318020</v>
       </c>
@@ -4052,8 +4252,11 @@
       <c r="H62" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>318030</v>
       </c>
@@ -4078,8 +4281,11 @@
       <c r="H63" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>318040</v>
       </c>
@@ -4104,8 +4310,11 @@
       <c r="H64" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>318050</v>
       </c>
@@ -4130,8 +4339,11 @@
       <c r="H65" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>319000</v>
       </c>
@@ -4156,8 +4368,11 @@
       <c r="H66" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>319010</v>
       </c>
@@ -4182,8 +4397,11 @@
       <c r="H67" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>319020</v>
       </c>
@@ -4208,8 +4426,11 @@
       <c r="H68" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>319030</v>
       </c>
@@ -4234,8 +4455,11 @@
       <c r="H69" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>319040</v>
       </c>
@@ -4260,8 +4484,11 @@
       <c r="H70" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>319050</v>
       </c>
@@ -4286,8 +4513,11 @@
       <c r="H71" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>320000</v>
       </c>
@@ -4312,8 +4542,11 @@
       <c r="H72" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>320010</v>
       </c>
@@ -4338,8 +4571,11 @@
       <c r="H73" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>320020</v>
       </c>
@@ -4364,8 +4600,11 @@
       <c r="H74" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>320030</v>
       </c>
@@ -4390,8 +4629,11 @@
       <c r="H75" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>320040</v>
       </c>
@@ -4416,8 +4658,11 @@
       <c r="H76" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>320050</v>
       </c>
@@ -4442,8 +4687,11 @@
       <c r="H77" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>321000</v>
       </c>
@@ -4468,8 +4716,11 @@
       <c r="H78" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>321010</v>
       </c>
@@ -4494,8 +4745,11 @@
       <c r="H79" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>321020</v>
       </c>
@@ -4520,8 +4774,11 @@
       <c r="H80" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>321030</v>
       </c>
@@ -4546,8 +4803,11 @@
       <c r="H81" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>321040</v>
       </c>
@@ -4572,8 +4832,11 @@
       <c r="H82" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>321050</v>
       </c>
@@ -4598,8 +4861,11 @@
       <c r="H83" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4608,7 +4874,7 @@
       <c r="F84" s="5"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>301000</v>
       </c>
@@ -4633,8 +4899,11 @@
       <c r="H85" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>301010</v>
       </c>
@@ -4659,8 +4928,11 @@
       <c r="H86" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>301020</v>
       </c>
@@ -4685,8 +4957,11 @@
       <c r="H87" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>301030</v>
       </c>
@@ -4711,8 +4986,11 @@
       <c r="H88" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>301040</v>
       </c>
@@ -4737,8 +5015,11 @@
       <c r="H89" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>301050</v>
       </c>
@@ -4763,8 +5044,11 @@
       <c r="H90" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4773,7 +5057,7 @@
       <c r="F91" s="5"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>302000</v>
       </c>
@@ -4798,8 +5082,11 @@
       <c r="H92" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>302010</v>
       </c>
@@ -4824,8 +5111,11 @@
       <c r="H93" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>302020</v>
       </c>
@@ -4850,8 +5140,11 @@
       <c r="H94" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>302030</v>
       </c>
@@ -4876,8 +5169,11 @@
       <c r="H95" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4885,7 +5181,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>310100</v>
       </c>
@@ -4910,8 +5206,11 @@
       <c r="H97" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>310110</v>
       </c>
@@ -4936,8 +5235,11 @@
       <c r="H98" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>310120</v>
       </c>
@@ -4962,8 +5264,11 @@
       <c r="H99" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>310130</v>
       </c>
@@ -4988,8 +5293,11 @@
       <c r="H100" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>310140</v>
       </c>
@@ -5014,8 +5322,11 @@
       <c r="H101" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>310150</v>
       </c>
@@ -5040,8 +5351,11 @@
       <c r="H102" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5050,7 +5364,7 @@
       <c r="F103" s="5"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>311060</v>
       </c>
@@ -5075,8 +5389,11 @@
       <c r="H104" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5084,7 +5401,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>312100</v>
       </c>
@@ -5109,8 +5426,11 @@
       <c r="H106" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I106" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>312110</v>
       </c>
@@ -5135,8 +5455,11 @@
       <c r="H107" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I107" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>312120</v>
       </c>
@@ -5161,8 +5484,11 @@
       <c r="H108" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I108" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>312130</v>
       </c>
@@ -5187,8 +5513,11 @@
       <c r="H109" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I109" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>312140</v>
       </c>
@@ -5213,8 +5542,11 @@
       <c r="H110" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5223,7 +5555,7 @@
       <c r="F111" s="5"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>313100</v>
       </c>
@@ -5248,8 +5580,11 @@
       <c r="H112" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I112" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>313110</v>
       </c>
@@ -5274,8 +5609,11 @@
       <c r="H113" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>313120</v>
       </c>
@@ -5300,8 +5638,11 @@
       <c r="H114" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>313130</v>
       </c>
@@ -5326,8 +5667,11 @@
       <c r="H115" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>313140</v>
       </c>
@@ -5352,8 +5696,11 @@
       <c r="H116" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>313150</v>
       </c>
@@ -5378,8 +5725,11 @@
       <c r="H117" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>313160</v>
       </c>
@@ -5404,8 +5754,11 @@
       <c r="H118" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>313200</v>
       </c>
@@ -5430,8 +5783,11 @@
       <c r="H119" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>313210</v>
       </c>
@@ -5456,8 +5812,11 @@
       <c r="H120" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>313220</v>
       </c>
@@ -5482,8 +5841,11 @@
       <c r="H121" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>313230</v>
       </c>
@@ -5508,8 +5870,11 @@
       <c r="H122" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5517,8 +5882,9 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="H123"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -5527,7 +5893,7 @@
       <c r="F124" s="5"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>315100</v>
       </c>
@@ -5552,8 +5918,11 @@
       <c r="H125" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>315101</v>
       </c>
@@ -5578,8 +5947,11 @@
       <c r="H126" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>315110</v>
       </c>
@@ -5604,8 +5976,11 @@
       <c r="H127" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>315111</v>
       </c>
@@ -5630,8 +6005,11 @@
       <c r="H128" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>315120</v>
       </c>
@@ -5656,8 +6034,11 @@
       <c r="H129" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>315130</v>
       </c>
@@ -5682,8 +6063,11 @@
       <c r="H130" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>315140</v>
       </c>
@@ -5708,8 +6092,11 @@
       <c r="H131" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>315150</v>
       </c>
@@ -5734,8 +6121,11 @@
       <c r="H132" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>315160</v>
       </c>
@@ -5760,8 +6150,11 @@
       <c r="H133" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>315170</v>
       </c>
@@ -5786,8 +6179,11 @@
       <c r="H134" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>315180</v>
       </c>
@@ -5812,8 +6208,11 @@
       <c r="H135" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -5822,7 +6221,7 @@
       <c r="F136" s="5"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>316100</v>
       </c>
@@ -5847,8 +6246,11 @@
       <c r="H137" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>316101</v>
       </c>
@@ -5873,8 +6275,11 @@
       <c r="H138" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>316110</v>
       </c>
@@ -5899,8 +6304,11 @@
       <c r="H139" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>316120</v>
       </c>
@@ -5925,8 +6333,11 @@
       <c r="H140" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>316121</v>
       </c>
@@ -5951,8 +6362,11 @@
       <c r="H141" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>316130</v>
       </c>
@@ -5977,8 +6391,11 @@
       <c r="H142" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5987,7 +6404,7 @@
       <c r="F143" s="5"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>317100</v>
       </c>
@@ -6011,6 +6428,9 @@
       </c>
       <c r="H144" s="2">
         <v>10000</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
@@ -6038,6 +6458,9 @@
       <c r="H145" s="2">
         <v>10000</v>
       </c>
+      <c r="I145" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="146" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
@@ -6064,6 +6487,9 @@
       <c r="H146" s="2">
         <v>10000</v>
       </c>
+      <c r="I146" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="147" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
@@ -6090,6 +6516,9 @@
       <c r="H147" s="2">
         <v>10000</v>
       </c>
+      <c r="I147" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
@@ -6116,6 +6545,9 @@
       <c r="H148" s="2">
         <v>10000</v>
       </c>
+      <c r="I148" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="149" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
@@ -6142,6 +6574,9 @@
       <c r="H149" s="2">
         <v>10000</v>
       </c>
+      <c r="I149" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="150" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
@@ -6168,6 +6603,9 @@
       <c r="H150" s="2">
         <v>10000</v>
       </c>
+      <c r="I150" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
@@ -6193,6 +6631,9 @@
       </c>
       <c r="H151" s="2">
         <v>10000</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
@@ -6229,6 +6670,9 @@
       <c r="H153" s="2">
         <v>10000</v>
       </c>
+      <c r="I153" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="154" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
@@ -6255,6 +6699,9 @@
       <c r="H154" s="2">
         <v>10000</v>
       </c>
+      <c r="I154" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
@@ -6281,6 +6728,9 @@
       <c r="H155" s="2">
         <v>10000</v>
       </c>
+      <c r="I155" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
@@ -6307,6 +6757,9 @@
       <c r="H156" s="2">
         <v>10000</v>
       </c>
+      <c r="I156" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
@@ -6333,6 +6786,9 @@
       <c r="H157" s="2">
         <v>10000</v>
       </c>
+      <c r="I157" s="12" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="158" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
@@ -6359,7 +6815,9 @@
       <c r="H158" s="2">
         <v>10000</v>
       </c>
-      <c r="I158" s="11"/>
+      <c r="I158" s="12" t="s">
+        <v>443</v>
+      </c>
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
       <c r="L158" s="11"/>
@@ -6404,8 +6862,11 @@
       <c r="H160" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>319101</v>
       </c>
@@ -6430,8 +6891,11 @@
       <c r="H161" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>319110</v>
       </c>
@@ -6456,8 +6920,11 @@
       <c r="H162" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>319111</v>
       </c>
@@ -6482,8 +6949,11 @@
       <c r="H163" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>319120</v>
       </c>
@@ -6508,8 +6978,11 @@
       <c r="H164" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>319121</v>
       </c>
@@ -6534,8 +7007,11 @@
       <c r="H165" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>319130</v>
       </c>
@@ -6560,8 +7036,11 @@
       <c r="H166" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>319140</v>
       </c>
@@ -6586,8 +7065,11 @@
       <c r="H167" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>319150</v>
       </c>
@@ -6612,8 +7094,11 @@
       <c r="H168" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -6622,7 +7107,7 @@
       <c r="F169" s="5"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>320100</v>
       </c>
@@ -6647,8 +7132,11 @@
       <c r="H170" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>320110</v>
       </c>
@@ -6673,8 +7161,11 @@
       <c r="H171" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>320120</v>
       </c>
@@ -6699,8 +7190,11 @@
       <c r="H172" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>320130</v>
       </c>
@@ -6725,8 +7219,11 @@
       <c r="H173" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>320140</v>
       </c>
@@ -6751,8 +7248,11 @@
       <c r="H174" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>320150</v>
       </c>
@@ -6777,8 +7277,11 @@
       <c r="H175" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>320160</v>
       </c>
@@ -6803,8 +7306,11 @@
       <c r="H176" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -6813,7 +7319,7 @@
       <c r="F177" s="5"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>321100</v>
       </c>
@@ -6838,8 +7344,11 @@
       <c r="H178" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>321110</v>
       </c>
@@ -6864,8 +7373,11 @@
       <c r="H179" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>321111</v>
       </c>
@@ -6890,8 +7402,11 @@
       <c r="H180" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I180" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>321120</v>
       </c>
@@ -6916,8 +7431,11 @@
       <c r="H181" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I181" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>321130</v>
       </c>
@@ -6942,8 +7460,11 @@
       <c r="H182" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>321140</v>
       </c>
@@ -6968,8 +7489,11 @@
       <c r="H183" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>321150</v>
       </c>
@@ -6994,8 +7518,11 @@
       <c r="H184" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>321160</v>
       </c>
@@ -7020,8 +7547,11 @@
       <c r="H185" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I185" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>321170</v>
       </c>
@@ -7046,8 +7576,11 @@
       <c r="H186" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>321180</v>
       </c>
@@ -7072,8 +7605,11 @@
       <c r="H187" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -7082,7 +7618,7 @@
       <c r="F188" s="5"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>330000</v>
       </c>
@@ -7107,8 +7643,11 @@
       <c r="H189" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>330010</v>
       </c>
@@ -7133,8 +7672,11 @@
       <c r="H190" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>330020</v>
       </c>
@@ -7159,8 +7701,11 @@
       <c r="H191" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>330030</v>
       </c>
@@ -7185,8 +7730,11 @@
       <c r="H192" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>330040</v>
       </c>
@@ -7211,8 +7759,11 @@
       <c r="H193" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>330050</v>
       </c>
@@ -7237,8 +7788,11 @@
       <c r="H194" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>330060</v>
       </c>
@@ -7263,8 +7817,11 @@
       <c r="H195" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>330070</v>
       </c>
@@ -7289,8 +7846,11 @@
       <c r="H196" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>330080</v>
       </c>
@@ -7315,8 +7875,11 @@
       <c r="H197" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>330090</v>
       </c>
@@ -7341,8 +7904,11 @@
       <c r="H198" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>330100</v>
       </c>
@@ -7367,8 +7933,11 @@
       <c r="H199" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>330110</v>
       </c>
@@ -7393,8 +7962,11 @@
       <c r="H200" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>330120</v>
       </c>
@@ -7419,8 +7991,11 @@
       <c r="H201" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>330130</v>
       </c>
@@ -7445,8 +8020,11 @@
       <c r="H202" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>330140</v>
       </c>
@@ -7471,8 +8049,11 @@
       <c r="H203" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>330150</v>
       </c>
@@ -7497,8 +8078,11 @@
       <c r="H204" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>330160</v>
       </c>
@@ -7523,8 +8107,11 @@
       <c r="H205" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>330170</v>
       </c>
@@ -7549,8 +8136,11 @@
       <c r="H206" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>330180</v>
       </c>
@@ -7575,8 +8165,11 @@
       <c r="H207" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>340000</v>
       </c>
@@ -7597,8 +8190,11 @@
       <c r="H209" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>340010</v>
       </c>
@@ -7619,8 +8215,11 @@
       <c r="H210" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>340020</v>
       </c>
@@ -7641,8 +8240,11 @@
       <c r="H211" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>340030</v>
       </c>
@@ -7663,8 +8265,11 @@
       <c r="H212" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>340040</v>
       </c>
@@ -7684,6 +8289,9 @@
       </c>
       <c r="H213" s="2">
         <v>10000</v>
+      </c>
+      <c r="I213" s="12" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5878B8-F0B7-4A7E-BD48-C4ED34283C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4ED41E-5C8E-40DC-B35D-879178418DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="4140" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="5010" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="477">
   <si>
     <t>事件编号</t>
   </si>
@@ -2469,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E192" workbookViewId="0">
-      <selection activeCell="M206" sqref="M206"/>
+    <sheetView tabSelected="1" topLeftCell="E193" workbookViewId="0">
+      <selection activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2538,8 +2538,8 @@
       <c r="H2" s="2">
         <v>10000</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>443</v>
+      <c r="I2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -2565,10 +2565,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="2">
-        <v>10001</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>443</v>
+        <v>10007</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -2594,10 +2594,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="2">
-        <v>10002</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>443</v>
+        <v>10007</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2623,10 +2623,10 @@
         <v>466</v>
       </c>
       <c r="H5" s="2">
-        <v>10002</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>443</v>
+        <v>10007</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2652,10 +2652,10 @@
         <v>439</v>
       </c>
       <c r="H6" s="2">
-        <v>10004</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>443</v>
+        <v>10007</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -2681,10 +2681,10 @@
         <v>440</v>
       </c>
       <c r="H7" s="2">
-        <v>10004</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2710,10 +2710,10 @@
         <v>22</v>
       </c>
       <c r="H8" s="2">
-        <v>10005</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>443</v>
+        <v>10007</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2739,10 +2739,10 @@
         <v>24</v>
       </c>
       <c r="H9" s="2">
-        <v>10005</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>443</v>
+        <v>10007</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2770,8 +2770,8 @@
       <c r="H10" s="2">
         <v>10007</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>443</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2800,10 +2800,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2829,10 +2829,10 @@
         <v>510000</v>
       </c>
       <c r="H13" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2858,10 +2858,10 @@
         <v>510000</v>
       </c>
       <c r="H14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2945,10 +2945,10 @@
         <v>442</v>
       </c>
       <c r="H17" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2974,10 +2974,10 @@
         <v>14</v>
       </c>
       <c r="H18" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3003,10 +3003,10 @@
         <v>511000</v>
       </c>
       <c r="H19" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3032,10 +3032,10 @@
         <v>511000</v>
       </c>
       <c r="H20" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3061,10 +3061,10 @@
         <v>443</v>
       </c>
       <c r="H21" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3090,10 +3090,10 @@
         <v>443</v>
       </c>
       <c r="H22" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3119,10 +3119,10 @@
         <v>443</v>
       </c>
       <c r="H23" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3148,10 +3148,10 @@
         <v>26</v>
       </c>
       <c r="H24" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3177,10 +3177,10 @@
         <v>512000</v>
       </c>
       <c r="H25" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3206,10 +3206,10 @@
         <v>512000</v>
       </c>
       <c r="H26" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3235,10 +3235,10 @@
         <v>512010</v>
       </c>
       <c r="H27" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3264,10 +3264,10 @@
         <v>444</v>
       </c>
       <c r="H28" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3293,10 +3293,10 @@
         <v>443</v>
       </c>
       <c r="H29" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3322,10 +3322,10 @@
         <v>27</v>
       </c>
       <c r="H30" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3351,10 +3351,10 @@
         <v>513000</v>
       </c>
       <c r="H31" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3380,10 +3380,10 @@
         <v>513000</v>
       </c>
       <c r="H32" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3409,10 +3409,10 @@
         <v>513010</v>
       </c>
       <c r="H33" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3438,10 +3438,10 @@
         <v>445</v>
       </c>
       <c r="H34" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3467,10 +3467,10 @@
         <v>446</v>
       </c>
       <c r="H35" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3496,10 +3496,10 @@
         <v>28</v>
       </c>
       <c r="H36" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3525,10 +3525,10 @@
         <v>514000</v>
       </c>
       <c r="H37" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3554,10 +3554,10 @@
         <v>514000</v>
       </c>
       <c r="H38" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3583,10 +3583,10 @@
         <v>514010</v>
       </c>
       <c r="H39" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I39" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3612,10 +3612,10 @@
         <v>29</v>
       </c>
       <c r="H40" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3641,10 +3641,10 @@
         <v>447</v>
       </c>
       <c r="H41" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3670,10 +3670,10 @@
         <v>30</v>
       </c>
       <c r="H42" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3699,10 +3699,10 @@
         <v>515000</v>
       </c>
       <c r="H43" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3728,10 +3728,10 @@
         <v>515000</v>
       </c>
       <c r="H44" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3757,10 +3757,10 @@
         <v>515010</v>
       </c>
       <c r="H45" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3786,10 +3786,10 @@
         <v>31</v>
       </c>
       <c r="H46" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3815,10 +3815,10 @@
         <v>448</v>
       </c>
       <c r="H47" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3844,10 +3844,10 @@
         <v>32</v>
       </c>
       <c r="H48" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3873,10 +3873,10 @@
         <v>516000</v>
       </c>
       <c r="H49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3902,10 +3902,10 @@
         <v>516000</v>
       </c>
       <c r="H50" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3931,10 +3931,10 @@
         <v>516010</v>
       </c>
       <c r="H51" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I51" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3960,10 +3960,10 @@
         <v>33</v>
       </c>
       <c r="H52" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3989,10 +3989,10 @@
         <v>449</v>
       </c>
       <c r="H53" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I53" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -4018,10 +4018,10 @@
         <v>34</v>
       </c>
       <c r="H54" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -4047,10 +4047,10 @@
         <v>517000</v>
       </c>
       <c r="H55" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -4076,10 +4076,10 @@
         <v>517000</v>
       </c>
       <c r="H56" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -4105,10 +4105,10 @@
         <v>517010</v>
       </c>
       <c r="H57" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4134,10 +4134,10 @@
         <v>35</v>
       </c>
       <c r="H58" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4163,10 +4163,10 @@
         <v>450</v>
       </c>
       <c r="H59" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -4192,10 +4192,10 @@
         <v>36</v>
       </c>
       <c r="H60" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4221,10 +4221,10 @@
         <v>518000</v>
       </c>
       <c r="H61" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4250,10 +4250,10 @@
         <v>518000</v>
       </c>
       <c r="H62" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4279,10 +4279,10 @@
         <v>518010</v>
       </c>
       <c r="H63" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I63" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -4308,10 +4308,10 @@
         <v>37</v>
       </c>
       <c r="H64" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I64" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -4337,10 +4337,10 @@
         <v>451</v>
       </c>
       <c r="H65" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I65" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -4366,10 +4366,10 @@
         <v>38</v>
       </c>
       <c r="H66" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -4395,10 +4395,10 @@
         <v>519000</v>
       </c>
       <c r="H67" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -4424,10 +4424,10 @@
         <v>519000</v>
       </c>
       <c r="H68" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4453,10 +4453,10 @@
         <v>519010</v>
       </c>
       <c r="H69" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I69" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4482,10 +4482,10 @@
         <v>39</v>
       </c>
       <c r="H70" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -4511,10 +4511,10 @@
         <v>452</v>
       </c>
       <c r="H71" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4540,10 +4540,10 @@
         <v>40</v>
       </c>
       <c r="H72" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -4569,10 +4569,10 @@
         <v>520000</v>
       </c>
       <c r="H73" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I73" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -4598,10 +4598,10 @@
         <v>520000</v>
       </c>
       <c r="H74" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4627,10 +4627,10 @@
         <v>520010</v>
       </c>
       <c r="H75" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I75" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4656,10 +4656,10 @@
         <v>41</v>
       </c>
       <c r="H76" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I76" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -4685,10 +4685,10 @@
         <v>453</v>
       </c>
       <c r="H77" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I77" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4714,10 +4714,10 @@
         <v>42</v>
       </c>
       <c r="H78" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I78" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4743,10 +4743,10 @@
         <v>521000</v>
       </c>
       <c r="H79" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -4772,10 +4772,10 @@
         <v>521000</v>
       </c>
       <c r="H80" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>443</v>
+        <v>11000</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4801,10 +4801,10 @@
         <v>521010</v>
       </c>
       <c r="H81" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>443</v>
+        <v>11003</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -4830,10 +4830,10 @@
         <v>43</v>
       </c>
       <c r="H82" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I82" s="12" t="s">
-        <v>443</v>
+        <v>11004</v>
+      </c>
+      <c r="I82" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -4859,10 +4859,10 @@
         <v>454</v>
       </c>
       <c r="H83" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>443</v>
+        <v>11005</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -4897,10 +4897,10 @@
         <v>501000</v>
       </c>
       <c r="H85" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>443</v>
+        <v>10105</v>
+      </c>
+      <c r="I85" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -4926,10 +4926,10 @@
         <v>501010</v>
       </c>
       <c r="H86" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>443</v>
+        <v>10105</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4955,10 +4955,10 @@
         <v>501020</v>
       </c>
       <c r="H87" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>443</v>
+        <v>10105</v>
+      </c>
+      <c r="I87" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -4984,10 +4984,10 @@
         <v>501030</v>
       </c>
       <c r="H88" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>443</v>
+        <v>10105</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -5013,10 +5013,10 @@
         <v>501040</v>
       </c>
       <c r="H89" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>443</v>
+        <v>10105</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -5042,10 +5042,10 @@
         <v>184</v>
       </c>
       <c r="H90" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>443</v>
+        <v>10105</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,8 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="H91"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
@@ -5080,10 +5081,10 @@
         <v>185</v>
       </c>
       <c r="H92" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>443</v>
+        <v>10200</v>
+      </c>
+      <c r="I92" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -5109,10 +5110,10 @@
         <v>186</v>
       </c>
       <c r="H93" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>443</v>
+        <v>10200</v>
+      </c>
+      <c r="I93" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -5138,10 +5139,10 @@
         <v>502020</v>
       </c>
       <c r="H94" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>443</v>
+        <v>10200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -5167,10 +5168,10 @@
         <v>187</v>
       </c>
       <c r="H95" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>443</v>
+        <v>10200</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -5204,10 +5205,10 @@
         <v>455</v>
       </c>
       <c r="H97" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>443</v>
+        <v>11010</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -5233,10 +5234,10 @@
         <v>54</v>
       </c>
       <c r="H98" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>443</v>
+        <v>11010</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -5262,10 +5263,10 @@
         <v>55</v>
       </c>
       <c r="H99" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>443</v>
+        <v>11010</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -5291,10 +5292,10 @@
         <v>455</v>
       </c>
       <c r="H100" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>443</v>
+        <v>11010</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -5320,10 +5321,10 @@
         <v>54</v>
       </c>
       <c r="H101" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>443</v>
+        <v>11010</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -5349,10 +5350,10 @@
         <v>55</v>
       </c>
       <c r="H102" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>443</v>
+        <v>11010</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -5362,7 +5363,8 @@
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="H103"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
@@ -5387,10 +5389,10 @@
         <v>58</v>
       </c>
       <c r="H104" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>443</v>
+        <v>13001</v>
+      </c>
+      <c r="I104" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -5400,6 +5402,8 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
@@ -5424,10 +5428,10 @@
         <v>456</v>
       </c>
       <c r="H106" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>443</v>
+        <v>11210</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -5453,10 +5457,10 @@
         <v>61</v>
       </c>
       <c r="H107" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>443</v>
+        <v>11210</v>
+      </c>
+      <c r="I107" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -5482,10 +5486,10 @@
         <v>63</v>
       </c>
       <c r="H108" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I108" s="12" t="s">
-        <v>443</v>
+        <v>11210</v>
+      </c>
+      <c r="I108" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5511,10 +5515,10 @@
         <v>65</v>
       </c>
       <c r="H109" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>443</v>
+        <v>11210</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5540,10 +5544,10 @@
         <v>67</v>
       </c>
       <c r="H110" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>443</v>
+        <v>11210</v>
+      </c>
+      <c r="I110" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -5553,7 +5557,8 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="H111"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
@@ -5578,10 +5583,10 @@
         <v>69</v>
       </c>
       <c r="H112" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I112" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -5607,10 +5612,10 @@
         <v>71</v>
       </c>
       <c r="H113" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I113" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I113" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -5636,10 +5641,10 @@
         <v>73</v>
       </c>
       <c r="H114" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5665,10 +5670,10 @@
         <v>75</v>
       </c>
       <c r="H115" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I115" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -5694,10 +5699,10 @@
         <v>77</v>
       </c>
       <c r="H116" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I116" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I116" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -5723,10 +5728,10 @@
         <v>79</v>
       </c>
       <c r="H117" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I117" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I117" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -5752,10 +5757,10 @@
         <v>81</v>
       </c>
       <c r="H118" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I118" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I118" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -5781,10 +5786,10 @@
         <v>83</v>
       </c>
       <c r="H119" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I119" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -5810,10 +5815,10 @@
         <v>85</v>
       </c>
       <c r="H120" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I120" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -5839,10 +5844,10 @@
         <v>87</v>
       </c>
       <c r="H121" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I121" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I121" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -5868,10 +5873,10 @@
         <v>89</v>
       </c>
       <c r="H122" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>443</v>
+        <v>11310</v>
+      </c>
+      <c r="I122" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -5881,8 +5886,8 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="H123"/>
-      <c r="I123"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
@@ -5891,7 +5896,8 @@
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="H124"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
@@ -5916,10 +5922,10 @@
         <v>91</v>
       </c>
       <c r="H125" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I125" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I125" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -5945,10 +5951,10 @@
         <v>91</v>
       </c>
       <c r="H126" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I126" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -5974,10 +5980,10 @@
         <v>457</v>
       </c>
       <c r="H127" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I127" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6003,10 +6009,10 @@
         <v>93</v>
       </c>
       <c r="H128" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I128" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I128" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6032,10 +6038,10 @@
         <v>458</v>
       </c>
       <c r="H129" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I129" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I129" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6061,10 +6067,10 @@
         <v>459</v>
       </c>
       <c r="H130" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I130" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I130" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6090,10 +6096,10 @@
         <v>97</v>
       </c>
       <c r="H131" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I131" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -6119,10 +6125,10 @@
         <v>99</v>
       </c>
       <c r="H132" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I132" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -6148,10 +6154,10 @@
         <v>101</v>
       </c>
       <c r="H133" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I133" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -6177,10 +6183,10 @@
         <v>103</v>
       </c>
       <c r="H134" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I134" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -6206,10 +6212,10 @@
         <v>460</v>
       </c>
       <c r="H135" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I135" s="12" t="s">
-        <v>443</v>
+        <v>11510</v>
+      </c>
+      <c r="I135" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -6219,7 +6225,8 @@
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="H136"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
@@ -6244,10 +6251,10 @@
         <v>461</v>
       </c>
       <c r="H137" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>443</v>
+        <v>11610</v>
+      </c>
+      <c r="I137" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -6273,10 +6280,10 @@
         <v>461</v>
       </c>
       <c r="H138" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I138" s="12" t="s">
-        <v>443</v>
+        <v>11610</v>
+      </c>
+      <c r="I138" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -6302,10 +6309,10 @@
         <v>107</v>
       </c>
       <c r="H139" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I139" s="12" t="s">
-        <v>443</v>
+        <v>11610</v>
+      </c>
+      <c r="I139" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -6331,10 +6338,10 @@
         <v>109</v>
       </c>
       <c r="H140" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I140" s="12" t="s">
-        <v>443</v>
+        <v>11610</v>
+      </c>
+      <c r="I140" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -6360,10 +6367,10 @@
         <v>462</v>
       </c>
       <c r="H141" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>443</v>
+        <v>11610</v>
+      </c>
+      <c r="I141" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -6389,10 +6396,10 @@
         <v>112</v>
       </c>
       <c r="H142" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I142" s="12" t="s">
-        <v>443</v>
+        <v>11610</v>
+      </c>
+      <c r="I142" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -6402,7 +6409,8 @@
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="H143"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
@@ -6427,10 +6435,10 @@
         <v>113</v>
       </c>
       <c r="H144" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>443</v>
+        <v>11710</v>
+      </c>
+      <c r="I144" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
@@ -6456,10 +6464,10 @@
         <v>115</v>
       </c>
       <c r="H145" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>443</v>
+        <v>11710</v>
+      </c>
+      <c r="I145" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
@@ -6485,10 +6493,10 @@
         <v>117</v>
       </c>
       <c r="H146" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I146" s="12" t="s">
-        <v>443</v>
+        <v>11710</v>
+      </c>
+      <c r="I146" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
@@ -6514,10 +6522,10 @@
         <v>119</v>
       </c>
       <c r="H147" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I147" s="12" t="s">
-        <v>443</v>
+        <v>11710</v>
+      </c>
+      <c r="I147" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
@@ -6543,10 +6551,10 @@
         <v>463</v>
       </c>
       <c r="H148" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I148" s="12" t="s">
-        <v>443</v>
+        <v>11710</v>
+      </c>
+      <c r="I148" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
@@ -6572,10 +6580,10 @@
         <v>464</v>
       </c>
       <c r="H149" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>443</v>
+        <v>11710</v>
+      </c>
+      <c r="I149" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
@@ -6601,10 +6609,10 @@
         <v>122</v>
       </c>
       <c r="H150" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I150" s="12" t="s">
-        <v>443</v>
+        <v>11710</v>
+      </c>
+      <c r="I150" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
@@ -6630,10 +6638,10 @@
         <v>123</v>
       </c>
       <c r="H151" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I151" s="12" t="s">
-        <v>443</v>
+        <v>11710</v>
+      </c>
+      <c r="I151" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
@@ -6643,7 +6651,8 @@
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="H152"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
@@ -6668,10 +6677,10 @@
         <v>518100</v>
       </c>
       <c r="H153" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I153" s="12" t="s">
-        <v>443</v>
+        <v>11811</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
@@ -6697,10 +6706,10 @@
         <v>467</v>
       </c>
       <c r="H154" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I154" s="12" t="s">
-        <v>443</v>
+        <v>11811</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
@@ -6726,10 +6735,10 @@
         <v>468</v>
       </c>
       <c r="H155" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>443</v>
+        <v>11811</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
@@ -6755,10 +6764,10 @@
         <v>470</v>
       </c>
       <c r="H156" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I156" s="12" t="s">
-        <v>443</v>
+        <v>11811</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
@@ -6784,10 +6793,10 @@
         <v>469</v>
       </c>
       <c r="H157" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I157" s="12" t="s">
-        <v>443</v>
+        <v>11811</v>
+      </c>
+      <c r="I157" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6813,10 +6822,10 @@
         <v>469</v>
       </c>
       <c r="H158" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I158" s="12" t="s">
-        <v>443</v>
+        <v>11811</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0</v>
       </c>
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
@@ -6860,10 +6869,10 @@
         <v>127</v>
       </c>
       <c r="H160" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I160" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -6889,10 +6898,10 @@
         <v>128</v>
       </c>
       <c r="H161" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I161" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I161" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -6918,10 +6927,10 @@
         <v>130</v>
       </c>
       <c r="H162" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I162" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I162" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -6947,10 +6956,10 @@
         <v>131</v>
       </c>
       <c r="H163" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I163" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -6976,10 +6985,10 @@
         <v>472</v>
       </c>
       <c r="H164" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I164" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I164" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -7005,10 +7014,10 @@
         <v>473</v>
       </c>
       <c r="H165" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I165" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -7034,10 +7043,10 @@
         <v>134</v>
       </c>
       <c r="H166" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I166" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I166" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -7063,10 +7072,10 @@
         <v>135</v>
       </c>
       <c r="H167" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I167" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -7092,10 +7101,10 @@
         <v>136</v>
       </c>
       <c r="H168" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I168" s="12" t="s">
-        <v>443</v>
+        <v>11913</v>
+      </c>
+      <c r="I168" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -7105,7 +7114,8 @@
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
-      <c r="H169"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
     </row>
     <row r="170" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
@@ -7130,10 +7140,10 @@
         <v>138</v>
       </c>
       <c r="H170" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I170" s="12" t="s">
-        <v>443</v>
+        <v>12010</v>
+      </c>
+      <c r="I170" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -7159,10 +7169,10 @@
         <v>140</v>
       </c>
       <c r="H171" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I171" s="12" t="s">
-        <v>443</v>
+        <v>12010</v>
+      </c>
+      <c r="I171" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -7188,10 +7198,10 @@
         <v>142</v>
       </c>
       <c r="H172" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I172" s="12" t="s">
-        <v>443</v>
+        <v>12010</v>
+      </c>
+      <c r="I172" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -7217,10 +7227,10 @@
         <v>144</v>
       </c>
       <c r="H173" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I173" s="12" t="s">
-        <v>443</v>
+        <v>12010</v>
+      </c>
+      <c r="I173" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -7246,10 +7256,10 @@
         <v>146</v>
       </c>
       <c r="H174" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I174" s="12" t="s">
-        <v>443</v>
+        <v>12010</v>
+      </c>
+      <c r="I174" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -7275,10 +7285,10 @@
         <v>148</v>
       </c>
       <c r="H175" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I175" s="12" t="s">
-        <v>443</v>
+        <v>12010</v>
+      </c>
+      <c r="I175" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -7304,10 +7314,10 @@
         <v>520160</v>
       </c>
       <c r="H176" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>443</v>
+        <v>12010</v>
+      </c>
+      <c r="I176" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -7317,7 +7327,8 @@
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-      <c r="H177"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
     </row>
     <row r="178" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
@@ -7342,10 +7353,10 @@
         <v>188</v>
       </c>
       <c r="H178" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I178" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I178" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -7371,10 +7382,10 @@
         <v>189</v>
       </c>
       <c r="H179" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I179" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I179" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -7400,10 +7411,10 @@
         <v>190</v>
       </c>
       <c r="H180" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I180" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I180" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -7429,10 +7440,10 @@
         <v>191</v>
       </c>
       <c r="H181" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I181" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I181" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -7458,10 +7469,10 @@
         <v>192</v>
       </c>
       <c r="H182" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I182" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I182" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -7487,10 +7498,10 @@
         <v>193</v>
       </c>
       <c r="H183" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I183" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I183" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -7516,10 +7527,10 @@
         <v>194</v>
       </c>
       <c r="H184" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I184" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I184" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -7545,10 +7556,10 @@
         <v>195</v>
       </c>
       <c r="H185" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I185" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I185" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -7574,10 +7585,10 @@
         <v>196</v>
       </c>
       <c r="H186" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I186" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I186" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -7603,10 +7614,10 @@
         <v>465</v>
       </c>
       <c r="H187" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I187" s="12" t="s">
-        <v>443</v>
+        <v>12113</v>
+      </c>
+      <c r="I187" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -7641,10 +7652,10 @@
         <v>530000</v>
       </c>
       <c r="H189" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I189" s="12" t="s">
-        <v>443</v>
+        <v>13000</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -7670,10 +7681,10 @@
         <v>160</v>
       </c>
       <c r="H190" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I190" s="12" t="s">
-        <v>443</v>
+        <v>13001</v>
+      </c>
+      <c r="I190" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -7699,10 +7710,10 @@
         <v>161</v>
       </c>
       <c r="H191" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I191" s="12" t="s">
-        <v>443</v>
+        <v>13001</v>
+      </c>
+      <c r="I191" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -7728,10 +7739,10 @@
         <v>530030</v>
       </c>
       <c r="H192" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I192" s="12" t="s">
-        <v>443</v>
+        <v>13003</v>
+      </c>
+      <c r="I192" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -7757,10 +7768,10 @@
         <v>530040</v>
       </c>
       <c r="H193" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I193" s="12" t="s">
-        <v>443</v>
+        <v>13003</v>
+      </c>
+      <c r="I193" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -7786,10 +7797,10 @@
         <v>530050</v>
       </c>
       <c r="H194" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I194" s="12" t="s">
-        <v>443</v>
+        <v>13003</v>
+      </c>
+      <c r="I194" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -7815,10 +7826,10 @@
         <v>530060</v>
       </c>
       <c r="H195" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I195" s="12" t="s">
-        <v>443</v>
+        <v>13006</v>
+      </c>
+      <c r="I195" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -7844,10 +7855,10 @@
         <v>530070</v>
       </c>
       <c r="H196" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I196" s="12" t="s">
-        <v>443</v>
+        <v>13006</v>
+      </c>
+      <c r="I196" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -7873,10 +7884,10 @@
         <v>530080</v>
       </c>
       <c r="H197" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I197" s="12" t="s">
-        <v>443</v>
+        <v>13006</v>
+      </c>
+      <c r="I197" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -7902,10 +7913,10 @@
         <v>530090</v>
       </c>
       <c r="H198" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I198" s="12" t="s">
-        <v>443</v>
+        <v>13009</v>
+      </c>
+      <c r="I198" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -7931,10 +7942,10 @@
         <v>530100</v>
       </c>
       <c r="H199" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I199" s="12" t="s">
-        <v>443</v>
+        <v>13009</v>
+      </c>
+      <c r="I199" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -7960,10 +7971,10 @@
         <v>530110</v>
       </c>
       <c r="H200" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I200" s="12" t="s">
-        <v>443</v>
+        <v>13009</v>
+      </c>
+      <c r="I200" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -7989,10 +8000,10 @@
         <v>166</v>
       </c>
       <c r="H201" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I201" s="12" t="s">
-        <v>443</v>
+        <v>13003</v>
+      </c>
+      <c r="I201" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -8018,10 +8029,10 @@
         <v>168</v>
       </c>
       <c r="H202" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I202" s="12" t="s">
-        <v>443</v>
+        <v>13006</v>
+      </c>
+      <c r="I202" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -8047,10 +8058,10 @@
         <v>170</v>
       </c>
       <c r="H203" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I203" s="12" t="s">
-        <v>443</v>
+        <v>13009</v>
+      </c>
+      <c r="I203" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -8076,10 +8087,10 @@
         <v>171</v>
       </c>
       <c r="H204" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I204" s="12" t="s">
-        <v>443</v>
+        <v>13003</v>
+      </c>
+      <c r="I204" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -8105,10 +8116,10 @@
         <v>172</v>
       </c>
       <c r="H205" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I205" s="12" t="s">
-        <v>443</v>
+        <v>13006</v>
+      </c>
+      <c r="I205" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -8134,10 +8145,10 @@
         <v>173</v>
       </c>
       <c r="H206" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I206" s="12" t="s">
-        <v>443</v>
+        <v>13009</v>
+      </c>
+      <c r="I206" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -8163,10 +8174,10 @@
         <v>530180</v>
       </c>
       <c r="H207" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I207" s="12" t="s">
-        <v>443</v>
+        <v>13000</v>
+      </c>
+      <c r="I207" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -8190,8 +8201,8 @@
       <c r="H209" s="2">
         <v>10000</v>
       </c>
-      <c r="I209" s="12" t="s">
-        <v>443</v>
+      <c r="I209" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -8215,8 +8226,8 @@
       <c r="H210" s="2">
         <v>10000</v>
       </c>
-      <c r="I210" s="12" t="s">
-        <v>443</v>
+      <c r="I210" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -8240,8 +8251,8 @@
       <c r="H211" s="2">
         <v>10000</v>
       </c>
-      <c r="I211" s="12" t="s">
-        <v>443</v>
+      <c r="I211" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -8265,8 +8276,8 @@
       <c r="H212" s="2">
         <v>10000</v>
       </c>
-      <c r="I212" s="12" t="s">
-        <v>443</v>
+      <c r="I212" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -8290,8 +8301,8 @@
       <c r="H213" s="2">
         <v>10000</v>
       </c>
-      <c r="I213" s="12" t="s">
-        <v>443</v>
+      <c r="I213" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4ED41E-5C8E-40DC-B35D-879178418DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF8D52-AFC2-48DC-9A0C-7C793A4502E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="5010" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="5730" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -612,10 +612,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>他的抉择</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>517150,550000,517151</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -910,1127 +906,1009 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>葛林：我怎么会答应与恶魔交易？你走吧。\n
+    <t>没关系，他很快就会回心转意的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫早已被买通，他跑不掉的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫：嗯？只是只猫么。还以为当班第一天，我就要亲手杀人了呢。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆嘉帕兹没有被发现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫：亲王吩咐，经过的人都是刺客。不问缘由，格杀勿论！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆嘉帕兹被守卫杀死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏欠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义有限的承诺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王“愿意”与猫咪合作了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙：数日后，亲王将带兵攻入王都。猫咪会阻止他，也希望陛下不要忘记自己的承诺。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月15日，亲王将发起兵变。在此之前挫败其计划。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的一举一动，都不会逃出猫咪的眼睛。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类会为放松警惕而付出代价，就如同当年的我们一样。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一户养猫的人家，都将是我们潜伏的据点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们取得了因西亚地区的统治地位，剩下的工作交给组织下层打理即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得统治胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被控制的人类会听从猫咪的命令，但也具有自己的感情。不应过度信任他们。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪影响力提升10点，该人被控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪隐匿度提升10点，此人收养猫咪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟据传闻的描述，有关的遗迹更可能位于王城的西边。我们应着重搜查这个方向。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析传言、线索与痕迹，以获悉圣杯的位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与火有关的位置，通常是厨房、森林、战场。也有可能是发生过火灾的地方，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫，可能是与数十年前的女巫审判有关。某个女巫得到了圣杯，然后将其藏匿了起来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有在遗迹中找到圣杯，却发现了有人最近活动过的痕迹。是有人把圣杯拿走了吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续寻找圣杯的下落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了猫咪圣杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在场的猫咪都感受到了，整个世界在一瞬间出现了微小变化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣杯发挥力量，猫咪影响力与隐匿度均提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王后是叛徒，我们要尽快将此事禀告国王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禀告国王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他还需要一点时间来接受现实</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王亲手杀死了王后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙：做个好梦吧陛下。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王已毫无防备，可以开始洗脑仪式了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们阻止了这一次暗杀，但下一次暗杀又会是什么时候呢？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得国王的酬金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉：致西蒙——其他成员正在处理紧急事务。影响力充足后，我将联系组织进行调度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器运输被查，兵变难度提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵行军受到阻碍，兵变难度提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵族可能干预兵变，兵变难度提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教对兵变保持警惕，兵变难度提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲王与地方贵族产生了嫌隙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙：一模一样的笔记。不如说就是她的字迹。把这封信寄出去，应该可以唬住主教吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对猫咪感兴趣，是他迈入深渊的开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来，他会去调查古代文献</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他得出了猫咪与众不同的结论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为被猫咪拿了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他好像真的相信炼金术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得了少量人类货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得了一些人类货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得大量人类货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们救下了猫咪，但也十分引人注目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到时候跟踪他，就能弄明白信里是什么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们有“同伴”了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只靠说服，可能会有点难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以尝试跟踪那个女人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然没有看清面容，但从这个她身上带有皇室的挂饰。这个人，恐怕是茵菲尔王后.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王后和亲王之间有书信来往</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们争吵了起来，但我们也做不了什么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神的启明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩见到了猫神，获得了”神启“</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水的启明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩看到了一些过去的片段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火的启明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩看到了地狱般的火焰，无数的猫在火焰中挣扎翻滚，以及周遭狂热地呐喊着的人类。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪做了一场好梦，身心的疲劳都得到了缓解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪影响力提升5点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师会继续寻找解决鼠患的办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠患解决了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠将泛滥成灾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师对猫咪心防降低，猫咪影响力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鼠做出贡献，猫咪影响力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢了小家伙们，回头我替你们向费琳娜讨些猫薄荷吃，就当是感谢吧。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们要想办法阻止士兵返回王都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他似乎在暗中与国外势力通信，看来他对亲王也不忠诚。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以尝试拦截这封信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵源减少，兵变难度提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>借了高利贷，被讨债的盯上了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪们大快朵颐，影响力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防卫设施准备就绪，等待讨债的人前来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们应该不敢再来了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平息了一次狂热的游行，但猫咪们也受了不少的损伤。以后我们需要更谨慎的行动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐匿度提升。通过“猫咪入住”可以维持隐匿度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯修：致卡莉——这就来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪凯修参与行动，获得“猫咪入住”能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩：致卡莉——如果在有生之年可以见证到审判之日的降临，这将是我的荣幸。</t>
+  </si>
+  <si>
+    <t>猫咪科恩参与行动，获得“猫咪洗脑”能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。还需要继续寻找知情的猫咪。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以开展1次特训，提升猫咪能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在巡游中遇到了被骑士虐待的猫咪，它告诉了我们一条关键的传言。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现”圣杯的传言“</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果有猫咪能获得“神启“，应当可以取得突破。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以开展1次特训，提升猫咪能力</t>
+  </si>
+  <si>
+    <t>科恩在仪式中感受到了神启，察觉到了圣杯的痕迹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现”圣杯的痕迹“</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。需要更多的猫咪影响力来协助我们。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让大量学者猫咪参与，查阅大量文献后，我们终于找到了圣杯的线索。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现”圣杯的线索“</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯修：注意技巧，看我示范。左右左右右左。身体摆动要与栏杆样子结合，速度才能更快。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员探查能力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩：如果不是身负使命，我也想整天缩在罐子冥想啊。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员密谋能力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡莉：控制好与人交流的频率。过于亲近会显得很廉价，而过于疏远会显得冷漠，明白吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员交际能力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪共济会遭到人类的剿杀。猫被视为危险生物，从此在世界上被抹去。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500031,550000,500034,500035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500040,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500070,550000, 500074,500075,500076,500077</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512030,510030,510031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512020,512040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513020,513040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512030,513030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,514030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,515030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,516030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,517030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,518030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,519030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,520030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,521030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510100,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512100,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515110,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515120,515121,515122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515130,515131,515132</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515180,515181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>516100,550000</t>
+  </si>
+  <si>
+    <t>516121,550000,516122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517140,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>517141,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521180,521181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500030,550000,500032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>518115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门中已经空无一物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519120,550000,519121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550000,519122,519123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540030,518113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540020,540021,517140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动事件类型</t>
+  </si>
+  <si>
+    <t>国王：我怎么会答应与恶魔交易？你走吧。
 西蒙：猫咪们会等待陛下回心转意的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没关系，他很快就会回心转意的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：难道一国之君，出门都要侍从允许吗？\n
+  </si>
+  <si>
+    <t>国王：难道一国之君，出门都要侍从允许吗？
 守卫：陛下大病初愈，应以保养身体为重。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫早已被买通，他跑不掉的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫：嗯？只是只猫么。还以为当班第一天，我就要亲手杀人了呢。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女仆嘉帕兹没有被发现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫：亲王吩咐，经过的人都是刺客。不问缘由，格杀勿论！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女仆嘉帕兹被守卫杀死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亏欠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：教廷会调查此事，只要你说了实话。我个人只能承诺到这一步。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>意义有限的承诺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：猫，魔鬼的使徒。而我现在别无他法，只能求助于它们了吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国王“愿意”与猫咪合作了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：数日后，亲王将带兵攻入王都。猫咪会阻止他，也希望陛下不要忘记自己的承诺。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月15日，亲王将发起兵变。在此之前挫败其计划。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类的一举一动，都不会逃出猫咪的眼睛。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类会为放松警惕而付出代价，就如同当年的我们一样。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一户养猫的人家，都将是我们潜伏的据点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们取得了因西亚地区的统治地位，剩下的工作交给组织下层打理即可。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得统治胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>茵菲尔-能见度增加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被控制的人类会听从猫咪的命令，但也具有自己的感情。不应过度信任他们。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥-能见度增加</t>
-  </si>
-  <si>
-    <t>安彼西奥-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥-收养猫咪，猫咪隐匿度极大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔-收养猫咪，猫咪隐匿度极大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪影响力提升10点，该人被控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉帕兹-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉帕兹-能见度增加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉帕兹-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪隐匿度提升10点，此人收养猫咪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔-收养猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔-受到洗脑控制，猫咪影响大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺-收养猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺-受到洗脑控制，猫咪影响大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚-收养猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚-受到洗脑控制，猫咪影响大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费琳娜-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费琳娜-能见度增加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费琳娜-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费琳娜-收养猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费琳娜-受到洗脑控制，猫咪影响大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯-收养猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯-受到洗脑控制，猫咪影响大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德-能见度增加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德-收养猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德-受到洗脑控制，猫咪影响大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达-能见度增加，相关事件被揭露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达-心防减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达-收养猫咪，猫咪隐匿度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达-受到洗脑控制，猫咪影响大幅提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟据传闻的描述，有关的遗迹更可能位于王城的西边。我们应着重搜查这个方向。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析传言、线索与痕迹，以获悉圣杯的位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与火有关的位置，通常是厨房、森林、战场。也有可能是发生过火灾的地方，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女巫，可能是与数十年前的女巫审判有关。某个女巫得到了圣杯，然后将其藏匿了起来。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有在遗迹中找到圣杯，却发现了有人最近活动过的痕迹。是有人把圣杯拿走了吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续寻找圣杯的下落</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达挖出了他藏的宝物，猫咪圣杯就在其中！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了猫咪圣杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在场的猫咪都感受到了，整个世界在一瞬间出现了微小变化。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣杯发挥力量，猫咪影响力与隐匿度均提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>茵菲尔：别谈正事了，浪费我们相处的时间。\n
-安彼西奥：再忍耐几天亲爱的，就快结束了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王后是叛徒，我们要尽快将此事禀告国王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>禀告国王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：毒药、书信……啊，这个字迹。不可能的，她是唯一不可能背叛我的人，为什么……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>他还需要一点时间来接受现实</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葛林：即便你背叛了我，我也依然爱你，因菲尔。所以，我也必须承受杀死心上人的痛苦。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国王亲手杀死了王后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：做个好梦吧陛下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国王已毫无防备，可以开始洗脑仪式了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们阻止了这一次暗杀，但下一次暗杀又会是什么时候呢？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得国王的酬金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉：致西蒙——其他成员正在处理紧急事务。影响力充足后，我将联系组织进行调度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：所有路线的武器都突然被盘查了！\n
-安彼西奥：到底是谁走漏的风声？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器运输被查，兵变难度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：士兵们突然上吐下泻，都病倒了。 \n
-安彼西奥：这不可能是巧合，有人在帮葛林。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵行军受到阻碍，兵变难度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：那些贵族已经一脸恼怒地回去了。\n
-安彼西奥：唉，希望他们到时候不要出手吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵族可能干预兵变，兵变难度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：主教拒绝了，还说会关注我们。\n
-安彼西奥：只能再找教廷的朋友想办法了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主教对兵变保持警惕，兵变难度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地方侯爵：殿下的提案，恕我们不能同意。\n
-安彼西奥：随你们便吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲王与地方贵族产生了嫌隙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：一模一样的笔记。不如说就是她的字迹。把这封信寄出去，应该可以唬住主教吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉帕兹真的死了吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：五年等来的，是遗书吗……至少，至少让我主持她的葬礼，我得见她最后一面。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔将去主持葬礼，此时家中不会有人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：葬礼结束了。在今后的一年里，我仍会日日为你祷告。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葬礼完成，佩尔返回家中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：杂念不再萦绕在我的心上。嘉帕兹应该也宽恕我了吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔恢复了平静，我们错失了机会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：为了权力而舍弃自己的女儿，我没有资格穿上那件红衣。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔的情绪有些不稳定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：你到底在哪儿，你还活着吗？这只是对我的考验对吧？来吧，什么我都接受！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔的心智已经有些不正常了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：做了一个梦。我差点入魔了，是这些猫咪把拉了回来。猫，应该是有神性的生物吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔开始亲近猫咪，控制他的时机已经成熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：这些猫确实在盯着我。无论我在哪里，都有一双猫注视着我。这值得留意一下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对猫咪感兴趣，是他迈入深渊的开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：这些活动记录表明，猫咪们在进行有组织的行动。这是否是某种不详的预兆？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来，他会去调查古代文献</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：一些旧典籍中教义的解释，与现在有着一些差异。猫的部分也有着截然不同的论述。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>他得出了猫咪与众不同的结论</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔：我需要表表示出对猫的敬重。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩尔相信猫咪了，控制他的时机已经成熟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：金子怎么不见了。不应该这样，我练习过很多次的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为被猫咪拿了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：你是我唯一的学生。如果我哪天被害了，希望你能继续研究下去。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>他好像真的相信炼金术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>茵菲尔：这就是你的成果么？看来也没有资助下去的必要了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔表演未成功，空手而归</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">茵菲尔：看起来还不错。这笔钱你拿去吧，三个月之内我希望能看到最终的结果。 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔完成了表演，拿到了赞助</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：材料又用完了，可是没钱买新的啊。看看能不能找些纯度高的替代品……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得了少量人类货币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：三份贤者之石，两份铅……嗯，材料用完了，再去买点吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得了一些人类货币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙：门提尔家里还有不少金子和文献。不过我们不能拿太多，容易引起注意。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得大量人类货币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：啊，我明白了！触媒也是有具有物质属性。这下，最大的难题解决了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔揭开了炼金术的秘密</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门提尔：金子好像少了一点，是我记错了吗?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺：哎哟，死猫还敢抓我。跑得还挺快的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们救下了猫咪，但也十分引人注目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺：哼，不够解气。再去找个酒馆喝一壶好了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺对猫咪失去了兴趣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺：他一定是被我吓到了，所以才不敢接受我的挑战。哼哼，骑士可是很厉害的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚无视了他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺：你就如同你的外表一样无能。哈哈，侍卫能赢骑士当然只是侥幸而已。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺在决斗中胜利，信心大增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚：已经够了。你的能力远不足以支撑你的虚荣，还是先去锻炼一下自己吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班诺在决斗中胜利，信心受挫，心防下降</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘密任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥：塞达那小子最近失踪了，所以才把信交给你。注意这事是机密，不要被人看见。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>到时候跟踪他，就能弄明白信里是什么</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：我最近要盯着他点，看看他会不会露出什么马脚。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们有“同伴”了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚：你哥哥好像很讨厌我。\n
-费琳娜：没关系的，我们可以慢慢说服他。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只靠说服，可能会有点难</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女人：他应该多次跟你强调了，要……\n
-瓦林提亚：要保守秘密。我知道的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们可以尝试跟踪那个女人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然没有看清面容，但从这个她身上带有皇室的挂饰。这个人，恐怕是茵菲尔王后.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王后和亲王之间有书信来往</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚：我不认识她，我只是在执行工作。\n
-依斯皮柯：你的工作就是约女人吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们争吵了起来，但我们也做不了什么</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">瓦林提亚：我无法说明。\n
-费琳娜：那我们的关系也到此为止了吧。 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚与费琳娜的关系破裂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚：唉。我就如实说了吧。这是殿下指派给我的任务。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林提亚吐露了实情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神的启明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫神贝斯特：现在的人类还遵奉我们为神吗？\n
+  </si>
+  <si>
+    <t>主教：教廷会调查此事，只要你说了实话。我个人只能承诺到这一步。</t>
+  </si>
+  <si>
+    <t>国王：猫，魔鬼的使徒。而我现在别无他法，只能求助于它们了吗？</t>
+  </si>
+  <si>
+    <t>国王-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>王后-能见度增加</t>
+  </si>
+  <si>
+    <t>亲王-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>亲王-能见度增加</t>
+  </si>
+  <si>
+    <t>亲王-心防减少</t>
+  </si>
+  <si>
+    <t>亲王-收养猫咪，猫咪隐匿度极大幅提升</t>
+  </si>
+  <si>
+    <t>主教-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>主教-心防减少</t>
+  </si>
+  <si>
+    <t>主教-收养猫咪，猫咪隐匿度极大幅提升</t>
+  </si>
+  <si>
+    <t>女仆-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>女仆-能见度增加</t>
+  </si>
+  <si>
+    <t>女仆-心防减少</t>
+  </si>
+  <si>
+    <t>炼金术士-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>炼金术士-心防减少</t>
+  </si>
+  <si>
+    <t>炼金术士-收养猫咪，猫咪隐匿度提升</t>
+  </si>
+  <si>
+    <t>炼金术士-受到洗脑控制，猫咪影响大幅提升</t>
+  </si>
+  <si>
+    <t>骑士-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>骑士-心防减少</t>
+  </si>
+  <si>
+    <t>骑士-收养猫咪，猫咪隐匿度提升</t>
+  </si>
+  <si>
+    <t>骑士-受到洗脑控制，猫咪影响大幅提升</t>
+  </si>
+  <si>
+    <t>侍从-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>侍从-心防减少</t>
+  </si>
+  <si>
+    <t>侍从-收养猫咪，猫咪隐匿度提升</t>
+  </si>
+  <si>
+    <t>侍从-受到洗脑控制，猫咪影响大幅提升</t>
+  </si>
+  <si>
+    <t>医生-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>医生-能见度增加</t>
+  </si>
+  <si>
+    <t>医生-心防减少</t>
+  </si>
+  <si>
+    <t>医生-收养猫咪，猫咪隐匿度提升</t>
+  </si>
+  <si>
+    <t>医生-受到洗脑控制，猫咪影响大幅提升</t>
+  </si>
+  <si>
+    <t>厨师-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>厨师-心防减少</t>
+  </si>
+  <si>
+    <t>厨师-收养猫咪，猫咪隐匿度提升</t>
+  </si>
+  <si>
+    <t>厨师-受到洗脑控制，猫咪影响大幅提升</t>
+  </si>
+  <si>
+    <t>侯爵-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>侯爵-能见度增加</t>
+  </si>
+  <si>
+    <t>侯爵-心防减少</t>
+  </si>
+  <si>
+    <t>侯爵-收养猫咪，猫咪隐匿度提升</t>
+  </si>
+  <si>
+    <t>侯爵-受到洗脑控制，猫咪影响大幅提升</t>
+  </si>
+  <si>
+    <t>乞丐-能见度增加，相关事件被揭露</t>
+  </si>
+  <si>
+    <t>乞丐-心防减少</t>
+  </si>
+  <si>
+    <t>乞丐-收养猫咪，猫咪隐匿度提升</t>
+  </si>
+  <si>
+    <t>乞丐-受到洗脑控制，猫咪影响大幅提升</t>
+  </si>
+  <si>
+    <t>乞丐挖出了他藏的宝物，猫咪圣杯就在其中！</t>
+  </si>
+  <si>
+    <t>王后：别谈正事了，浪费我们相处的时间。
+亲王：再忍耐几天亲爱的，就快结束了。</t>
+  </si>
+  <si>
+    <t>国王：毒药、书信……啊，这个字迹。不可能的，她是唯一不可能背叛我的人，为什么……</t>
+  </si>
+  <si>
+    <t>国王：即便你背叛了我，我也依然爱你，因菲尔。所以，我也必须承受杀死心上人的痛苦。</t>
+  </si>
+  <si>
+    <t>侯爵：所有路线的武器都突然被盘查了！
+亲王：到底是谁走漏的风声？</t>
+  </si>
+  <si>
+    <t>侯爵：士兵们突然上吐下泻，都病倒了。 
+亲王：这不可能是巧合，有人在帮国王。</t>
+  </si>
+  <si>
+    <t>侯爵：那些贵族已经一脸恼怒地回去了。
+亲王：唉，希望他们到时候不要出手吧。</t>
+  </si>
+  <si>
+    <t>侯爵：主教拒绝了，还说会关注我们。
+亲王：只能再找教廷的朋友想办法了。</t>
+  </si>
+  <si>
+    <t>地方侯爵：殿下的提案，恕我们不能同意。
+亲王：随你们便吧。</t>
+  </si>
+  <si>
+    <t>女仆嘉帕兹真的死了吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教：五年等来的，是遗书吗……至少，至少让我主持她的葬礼，我得见她最后一面。</t>
+  </si>
+  <si>
+    <t>主教将去主持葬礼，此时家中不会有人</t>
+  </si>
+  <si>
+    <t>主教：葬礼结束了。在今后的一年里，我仍会日日为你祷告。</t>
+  </si>
+  <si>
+    <t>葬礼完成，主教返回家中</t>
+  </si>
+  <si>
+    <t>主教：杂念不再萦绕在我的心上。嘉帕兹应该也宽恕我了吧。</t>
+  </si>
+  <si>
+    <t>主教恢复了平静，我们错失了机会</t>
+  </si>
+  <si>
+    <t>主教：为了权力而舍弃自己的女儿，我没有资格穿上那件红衣。</t>
+  </si>
+  <si>
+    <t>主教的情绪有些不稳定</t>
+  </si>
+  <si>
+    <t>主教：你到底在哪儿，你还活着吗？这只是对我的考验对吧？来吧，什么我都接受！</t>
+  </si>
+  <si>
+    <t>主教的心智已经有些不正常了</t>
+  </si>
+  <si>
+    <t>主教：做了一个梦。我差点入魔了，是这些猫咪把拉了回来。猫，应该是有神性的生物吧。</t>
+  </si>
+  <si>
+    <t>主教开始亲近猫咪，控制他的时机已经成熟</t>
+  </si>
+  <si>
+    <t>主教：这些猫确实在盯着我。无论我在哪里，都有一双猫注视着我。这值得留意一下。</t>
+  </si>
+  <si>
+    <t>主教：这些活动记录表明，猫咪们在进行有组织的行动。这是否是某种不详的预兆？</t>
+  </si>
+  <si>
+    <t>主教：一些旧典籍中教义的解释，与现在有着一些差异。猫的部分也有着截然不同的论述。</t>
+  </si>
+  <si>
+    <t>主教：我需要表表示出对猫的敬重。</t>
+  </si>
+  <si>
+    <t>主教相信猫咪了，控制他的时机已经成熟</t>
+  </si>
+  <si>
+    <t>炼金术士：金子怎么不见了。不应该这样，我练习过很多次的。</t>
+  </si>
+  <si>
+    <t>炼金术士：你是我唯一的学生。如果我哪天被害了，希望你能继续研究下去。</t>
+  </si>
+  <si>
+    <t>王后：这就是你的成果么？看来也没有资助下去的必要了。</t>
+  </si>
+  <si>
+    <t>炼金术士表演未成功，空手而归</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王后：看起来还不错。这笔钱你拿去吧，三个月之内我希望能看到最终的结果。 </t>
+  </si>
+  <si>
+    <t>炼金术士完成了表演，拿到了赞助</t>
+  </si>
+  <si>
+    <t>炼金术士：材料又用完了，可是没钱买新的啊。看看能不能找些纯度高的替代品……</t>
+  </si>
+  <si>
+    <t>炼金术士：三份贤者之石，两份铅……嗯，材料用完了，再去买点吧。</t>
+  </si>
+  <si>
+    <t>西蒙：炼金术士家里还有不少金子和文献。不过我们不能拿太多，容易引起注意。</t>
+  </si>
+  <si>
+    <t>炼金术士：啊，我明白了！触媒也是有具有物质属性。这下，最大的难题解决了。</t>
+  </si>
+  <si>
+    <t>炼金术士揭开了炼金术的秘密</t>
+  </si>
+  <si>
+    <t>炼金术士：金子好像比预想用起来要快，应该是我花钱有点太过于随意了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士：哎哟，死猫还敢抓我。跑得还挺快的。</t>
+  </si>
+  <si>
+    <t>骑士：哼，不够解气。再去找个酒馆喝一壶好了。</t>
+  </si>
+  <si>
+    <t>骑士对猫咪失去了兴趣</t>
+  </si>
+  <si>
+    <t>骑士：他一定是被我吓到了，所以才不敢接受我的挑战。哼哼，骑士可是很厉害的。</t>
+  </si>
+  <si>
+    <t>侍从无视了他</t>
+  </si>
+  <si>
+    <t>骑士：你就如同你的外表一样无能。哈哈，侍卫能赢骑士当然只是侥幸而已。</t>
+  </si>
+  <si>
+    <t>骑士在决斗中胜利，信心大增</t>
+  </si>
+  <si>
+    <t>侍从：已经够了。你的能力远不足以支撑你的虚荣，还是先去锻炼一下自己吧。</t>
+  </si>
+  <si>
+    <t>骑士在决斗中失败，信心受挫，心防下降</t>
+  </si>
+  <si>
+    <t>亲王：平时的联络人最近失踪了，所以才把信交给你。注意这事是机密，不要被人看见。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师：我最近要盯着他点，看看他会不会露出什么马脚。</t>
+  </si>
+  <si>
+    <t>侍从：你哥哥好像很讨厌我。
+医生：没关系的，我们可以慢慢说服他。</t>
+  </si>
+  <si>
+    <t>女人：他应该多次跟你强调了，要……
+侍从：要保守秘密。我知道的。</t>
+  </si>
+  <si>
+    <t>侍从：我不认识她，我只是在执行工作。
+厨师：你的工作就是约女人吗？</t>
+  </si>
+  <si>
+    <t>坦白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">侍从：我无法说明。
+医生：那我们的关系也到此为止了吧。 </t>
+  </si>
+  <si>
+    <t>侍从与医生的关系破裂</t>
+  </si>
+  <si>
+    <t>侍从：唉。我就如实说了吧。这是殿下指派给我的任务。刚才那个人其实是…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍从吐露了实情</t>
+  </si>
+  <si>
+    <t>猫神贝斯特：现在的人类还遵奉我们为神吗？
 科恩：已经大不如前了，我的主。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩见到了猫神，获得了”神启“</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水的启明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩发现自己浸在水下，周围还有许多笼子，每个笼子中都装了一只已经溺亡的猫咪。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩看到了一些过去的片段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火的启明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩看到了地狱般的火焰，无数的猫在火焰中挣扎翻滚，以及周遭狂热地呐喊着的人类。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪做了一场好梦，身心的疲劳都得到了缓解</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪影响力提升5点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：夹子都收起来了，却没有抓到老鼠。这些老鼠有点聪明，看来还得想想办法。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨师会继续寻找解决鼠患的办法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：这个捕鼠夹还挺好用的，这下老鼠应该消停了吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠患解决了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：老鼠药不见了，但没有老鼠尸体。难道这些老鼠胃都是铁做的吗？</t>
-  </si>
-  <si>
-    <t>依斯皮柯：成果不错，应该不用担心老鼠的问题了。只是为什么老鼠突然变多了？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">依斯皮柯：猫也不管用。现在满大街都是老鼠了，这么下去王城就要变成老鼠城了。 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老鼠将泛滥成灾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>依斯皮柯：果然是天意，不然猫怎么会平白无故地爬上祷告台呢？总算是把老鼠消灭掉了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨师对猫咪心防降低，猫咪影响力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>茵菲尔：这些野猫还挺能干的嘛。随便打赏点剩的食物给它们吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鼠做出贡献，猫咪影响力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：虽然猫也令人厌恶，但终归还是比老鼠好。抓完老鼠就把它们赶出去吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢谢了小家伙们，回头我替你们向费琳娜讨些猫薄荷吃，就当是感谢吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥：调兵。为了大业，必须冒些风险。\n
-尼奥塔德：我这就去办。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们要想办法阻止士兵返回王都</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>他似乎在暗中与国外势力通信，看来他对亲王也不忠诚。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们可以尝试拦截这封信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安彼西奥：境外势力虎视眈眈。如果随意调兵，马上国境就会失守吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵源减少，兵变难度提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAN</t>
-  </si>
-  <si>
-    <t>尼奥塔德：后续还需要一些手续，但现在塞达已经恢复自由了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达告别债务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：下次还没钱，就当心你的手指吧！\n
-塞达：我会想办法还的，不要打我了…...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>借了高利贷，被讨债的盯上了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：好像守备挺松懈。这些看不懂的东西拿了不少，不知道换了钱能不能把债还清。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达从主教家拿了不少值钱的东西</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：东西拿到一半，主教就突然回来了。只带走了这么点东西，应该不够还债吧……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达没拿到太多的东西</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：下次要借钱，还可以来找我。\n
-塞达：我永远不会再来找你这个吸血鬼。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉帕兹：这点钱你拿着吧，以后小心一些。\n
-塞达：呜，这个世上还是有好人的啊。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉帕兹保护了塞达，还给了他一笔钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：再坏的猫咪，也比人类善良……也不全对。至少，当时救我的那个女人是个好人。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实塞达人也挺好的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：总有一种在吃最后的晚餐的感觉啊。赌博输光家产沦落至此，也是我自作自受吧。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪们大快朵颐，影响力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：下次他们再来，就叫他们有来无回！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防卫设施准备就绪，等待讨债的人前来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼奥塔德：逃得了一时，你躲得了一辈子么？
-塞达：还敢再来，还有更多的猫粪等着你。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们应该不敢再来了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞达：我以后不会再去赌了，提心吊胆的日子真不好受。还是跟你们一起吃吃喝喝更开心。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平息了一次狂热的游行，但猫咪们也受了不少的损伤。以后我们需要更谨慎的行动。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐匿度提升。通过“猫咪入住”可以维持隐匿度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯修：致卡莉——这就来。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪凯修参与行动，获得“猫咪入住”能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩：致卡莉——如果在有生之年可以见证到审判之日的降临，这将是我的荣幸。</t>
-  </si>
-  <si>
-    <t>猫咪科恩参与行动，获得“猫咪洗脑”能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了一些进展，但暂时没有成果。还需要继续寻找知情的猫咪。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以开展1次特训，提升猫咪能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们在巡游中遇到了被骑士虐待的猫咪，它告诉了我们一条关键的传言。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现”圣杯的传言“</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了一些进展，但暂时没有成果。如果有猫咪能获得“神启“，应当可以取得突破。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以开展1次特训，提升猫咪能力</t>
-  </si>
-  <si>
-    <t>科恩在仪式中感受到了神启，察觉到了圣杯的痕迹。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现”圣杯的痕迹“</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了一些进展，但暂时没有成果。需要更多的猫咪影响力来协助我们。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让大量学者猫咪参与，查阅大量文献后，我们终于找到了圣杯的线索。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现”圣杯的线索“</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯修：注意技巧，看我示范。左右左右右左。身体摆动要与栏杆样子结合，速度才能更快。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪全员探查能力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩：如果不是身负使命，我也想整天缩在罐子冥想啊。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪全员密谋能力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡莉：控制好与人交流的频率。过于亲近会显得很廉价，而过于疏远会显得冷漠，明白吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪全员交际能力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪共济会遭到人类的剿杀。猫被视为危险生物，从此在世界上被抹去。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500031,550000,500034,500035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500040,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500070,550000, 500074,500075,500076,500077</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>512030,510030,510031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>512020,512040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>513020,513040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>512030,513030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550010,514030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550010,515030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550010,516030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550010,517030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550010,518030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550010,519030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550010,520030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550010,521030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510100,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>512100,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>515110,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>515120,515121,515122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>515130,515131,515132</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>515180,515181</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>516100,550000</t>
-  </si>
-  <si>
-    <t>516121,550000,516122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>517140,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>517141,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>521180,521181</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500030,550000,500032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>518113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>518114</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>518116</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>518115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>门中已经空无一物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>519120,550000,519121</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550000,519122,519123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>540030,518113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>540020,540021,517140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动事件类型</t>
+  </si>
+  <si>
+    <t>科恩看见自己被浸在水下，周围还有许多笼子，每个笼子中都装了一只已经溺亡的猫咪。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨师：夹子都收起来了，却没有抓到老鼠。这些老鼠有点聪明，看来还得想想办法。</t>
+  </si>
+  <si>
+    <t>厨师：这个捕鼠夹还挺好用的，这下老鼠应该消停了吧。</t>
+  </si>
+  <si>
+    <t>厨师：老鼠药不见了，但没有老鼠尸体。难道这些老鼠胃都是铁做的吗？</t>
+  </si>
+  <si>
+    <t>厨师：成果不错，应该不用担心老鼠的问题了。只是为什么老鼠突然变多了？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厨师：猫也不管用。现在满大街都是老鼠了，这么下去王城就要变成老鼠城了。 </t>
+  </si>
+  <si>
+    <t>厨师：果然是天意，不然猫怎么会平白无故地爬上祷告台呢？总算是把老鼠消灭掉了。</t>
+  </si>
+  <si>
+    <t>王后：这些野猫还挺能干的嘛。随便打赏点剩的食物给它们吧。</t>
+  </si>
+  <si>
+    <t>侯爵：虽然猫也令人厌恶，但终归还是比老鼠好。抓完老鼠就把它们赶出去吧。</t>
+  </si>
+  <si>
+    <t>亲王：调兵。为了大业，必须冒些风险。
+侯爵：我这就去办。</t>
+  </si>
+  <si>
+    <t>亲王：境外势力虎视眈眈。如果随意调兵，马上国境就会失守吧。</t>
+  </si>
+  <si>
+    <t>侯爵：后续还需要一些手续，但现在那个乞丐已经恢复自由了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乞丐塞达告别债务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯爵：下次还没钱，就当心你的手指吧！
+乞丐：我会想办法还的，不要打我了…...</t>
+  </si>
+  <si>
+    <t>乞丐：好像守备挺松懈。这些看不懂的东西拿了不少，不知道换了钱能不能把债还清。</t>
+  </si>
+  <si>
+    <t>乞丐从主教家拿了不少值钱的东西</t>
+  </si>
+  <si>
+    <t>乞丐：东西拿到一半，主教就突然回来了。只带走了这么点东西，应该不够还债吧……</t>
+  </si>
+  <si>
+    <t>乞丐没拿到太多的东西</t>
+  </si>
+  <si>
+    <t>侯爵：下次要借钱，还可以来找我。
+乞丐：我永远不会再来找你这个吸血鬼。</t>
+  </si>
+  <si>
+    <t>女仆：这点钱你拿着吧，以后小心一些。
+乞丐：呜，这个世上还是有好人的啊。</t>
+  </si>
+  <si>
+    <t>女仆保护了乞丐，还给了他一笔钱</t>
+  </si>
+  <si>
+    <t>乞丐：再坏的猫咪，也比人类善良……也不全对。至少，当时救我的那个女人是个好人。</t>
+  </si>
+  <si>
+    <t>其实乞丐人也挺好的</t>
+  </si>
+  <si>
+    <t>乞丐：总有一种在吃最后的晚餐的感觉啊。赌博输光家产沦落至此，也是我自作自受吧。</t>
+  </si>
+  <si>
+    <t>乞丐：下次他们再来，就叫他们有来无回！</t>
+  </si>
+  <si>
+    <t>侯爵：逃得了一时，你躲得了一辈子么？
+乞丐：还敢再来，还有更多的猫粪等着你。</t>
+  </si>
+  <si>
+    <t>乞丐：我以后不会再去赌了，提心吊胆的日子真不好受。还是跟你们一起吃吃喝喝更开心。</t>
   </si>
 </sst>
 </file>
@@ -2469,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E193" workbookViewId="0">
-      <selection activeCell="L207" sqref="L207"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2510,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>476</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2521,11 +2399,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2533,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H2" s="2">
         <v>10000</v>
@@ -2550,10 +2428,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2571,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>300020</v>
       </c>
@@ -2579,10 +2457,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2608,10 +2486,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -2620,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>466</v>
+        <v>334</v>
       </c>
       <c r="H5" s="2">
         <v>10007</v>
@@ -2637,10 +2515,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -2649,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>439</v>
+        <v>307</v>
       </c>
       <c r="H6" s="2">
         <v>10007</v>
@@ -2663,13 +2541,13 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -2678,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>440</v>
+        <v>308</v>
       </c>
       <c r="H7" s="2">
         <v>11310</v>
@@ -2695,10 +2573,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -2724,10 +2602,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -2753,10 +2631,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2765,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>441</v>
+        <v>309</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2785,10 +2663,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2814,10 +2692,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2843,10 +2721,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2872,10 +2750,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2901,10 +2779,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2930,10 +2808,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -2942,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>442</v>
+        <v>310</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2959,10 +2837,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2988,10 +2866,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -3017,10 +2895,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -3046,10 +2924,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -3058,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="H21" s="2">
         <v>11003</v>
@@ -3075,10 +2953,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -3087,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="H22" s="2">
         <v>11004</v>
@@ -3104,10 +2982,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3116,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3133,10 +3011,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3162,10 +3040,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3191,10 +3069,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3220,10 +3098,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3249,10 +3127,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3261,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="H28" s="2">
         <v>11004</v>
@@ -3278,10 +3156,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3290,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="H29" s="2">
         <v>11005</v>
@@ -3307,10 +3185,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3336,10 +3214,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3365,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3394,10 +3272,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>228</v>
+        <v>356</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3423,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3435,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>445</v>
+        <v>313</v>
       </c>
       <c r="H34" s="2">
         <v>11004</v>
@@ -3452,10 +3330,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3464,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>446</v>
+        <v>314</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3481,10 +3359,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3510,10 +3388,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3539,10 +3417,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3568,10 +3446,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3597,10 +3475,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3626,10 +3504,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3638,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>447</v>
+        <v>315</v>
       </c>
       <c r="H41" s="2">
         <v>11005</v>
@@ -3655,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3684,10 +3562,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3713,10 +3591,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3742,10 +3620,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3771,10 +3649,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3800,10 +3678,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3812,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>448</v>
+        <v>316</v>
       </c>
       <c r="H47" s="2">
         <v>11005</v>
@@ -3829,10 +3707,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3858,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3887,10 +3765,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3916,10 +3794,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3945,10 +3823,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3974,10 +3852,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3986,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>449</v>
+        <v>317</v>
       </c>
       <c r="H53" s="2">
         <v>11005</v>
@@ -4003,10 +3881,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -4032,10 +3910,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -4061,10 +3939,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -4090,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>244</v>
+        <v>370</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -4119,10 +3997,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4148,10 +4026,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4160,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>450</v>
+        <v>318</v>
       </c>
       <c r="H59" s="2">
         <v>11005</v>
@@ -4177,10 +4055,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4206,10 +4084,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4235,10 +4113,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4264,10 +4142,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4293,10 +4171,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4322,10 +4200,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4334,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>451</v>
+        <v>319</v>
       </c>
       <c r="H65" s="2">
         <v>11005</v>
@@ -4351,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4380,10 +4258,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4409,10 +4287,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4438,10 +4316,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4467,10 +4345,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4496,10 +4374,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>255</v>
+        <v>381</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4508,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="H71" s="2">
         <v>11005</v>
@@ -4525,10 +4403,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4554,10 +4432,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4583,10 +4461,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4612,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>258</v>
+        <v>384</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4641,10 +4519,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>259</v>
+        <v>385</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4670,10 +4548,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4682,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>453</v>
+        <v>321</v>
       </c>
       <c r="H77" s="2">
         <v>11005</v>
@@ -4699,10 +4577,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>261</v>
+        <v>387</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4728,10 +4606,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>261</v>
+        <v>387</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4757,10 +4635,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>261</v>
+        <v>387</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4786,10 +4664,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4815,10 +4693,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4844,10 +4722,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4856,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>454</v>
+        <v>322</v>
       </c>
       <c r="H83" s="2">
         <v>11005</v>
@@ -4882,10 +4760,10 @@
         <v>44</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4911,10 +4789,10 @@
         <v>45</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4940,10 +4818,10 @@
         <v>46</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4969,10 +4847,10 @@
         <v>47</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4998,10 +4876,10 @@
         <v>48</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -5027,10 +4905,10 @@
         <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
@@ -5039,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -5058,7 +4936,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>302000</v>
       </c>
@@ -5066,10 +4944,10 @@
         <v>50</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
@@ -5078,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -5092,13 +4970,13 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>278</v>
+        <v>393</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
@@ -5107,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H93" s="2">
         <v>10200</v>
@@ -5124,10 +5002,10 @@
         <v>51</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>280</v>
+        <v>394</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -5153,10 +5031,10 @@
         <v>52</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
@@ -5165,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H95" s="2">
         <v>10200</v>
@@ -5190,10 +5068,10 @@
         <v>53</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -5202,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>455</v>
+        <v>323</v>
       </c>
       <c r="H97" s="2">
         <v>11010</v>
@@ -5219,10 +5097,10 @@
         <v>53</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -5248,10 +5126,10 @@
         <v>53</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -5277,10 +5155,10 @@
         <v>53</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
@@ -5289,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>455</v>
+        <v>323</v>
       </c>
       <c r="H100" s="2">
         <v>11010</v>
@@ -5306,10 +5184,10 @@
         <v>53</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -5335,10 +5213,10 @@
         <v>53</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5374,7 +5252,7 @@
         <v>56</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>57</v>
@@ -5405,7 +5283,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>312100</v>
       </c>
@@ -5413,10 +5291,10 @@
         <v>59</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
@@ -5425,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>456</v>
+        <v>324</v>
       </c>
       <c r="H106" s="2">
         <v>11210</v>
@@ -5434,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>312110</v>
       </c>
@@ -5442,10 +5320,10 @@
         <v>60</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5463,7 +5341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>312120</v>
       </c>
@@ -5471,10 +5349,10 @@
         <v>62</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>291</v>
+        <v>397</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5500,10 +5378,10 @@
         <v>64</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5529,10 +5407,10 @@
         <v>66</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>295</v>
+        <v>399</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5568,10 +5446,10 @@
         <v>68</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -5597,10 +5475,10 @@
         <v>70</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5626,10 +5504,10 @@
         <v>72</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5655,10 +5533,10 @@
         <v>74</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5684,10 +5562,10 @@
         <v>76</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5713,10 +5591,10 @@
         <v>78</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>308</v>
+        <v>410</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5742,10 +5620,10 @@
         <v>80</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5771,10 +5649,10 @@
         <v>82</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5800,10 +5678,10 @@
         <v>84</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -5829,10 +5707,10 @@
         <v>86</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -5858,10 +5736,10 @@
         <v>88</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5907,10 +5785,10 @@
         <v>90</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -5936,10 +5814,10 @@
         <v>90</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -5965,10 +5843,10 @@
         <v>92</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>323</v>
+        <v>420</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>324</v>
+        <v>421</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
@@ -5977,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>457</v>
+        <v>325</v>
       </c>
       <c r="H127" s="2">
         <v>11510</v>
@@ -5994,10 +5872,10 @@
         <v>92</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>325</v>
+        <v>422</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>326</v>
+        <v>423</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -6023,10 +5901,10 @@
         <v>94</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>327</v>
+        <v>424</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
@@ -6035,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>458</v>
+        <v>326</v>
       </c>
       <c r="H129" s="2">
         <v>11510</v>
@@ -6052,10 +5930,10 @@
         <v>95</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
@@ -6064,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>459</v>
+        <v>327</v>
       </c>
       <c r="H130" s="2">
         <v>11510</v>
@@ -6081,10 +5959,10 @@
         <v>96</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>331</v>
+        <v>426</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -6110,10 +5988,10 @@
         <v>98</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -6139,10 +6017,10 @@
         <v>100</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
@@ -6168,10 +6046,10 @@
         <v>102</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -6197,10 +6075,10 @@
         <v>104</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>335</v>
+        <v>429</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -6209,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>460</v>
+        <v>328</v>
       </c>
       <c r="H135" s="2">
         <v>11510</v>
@@ -6236,10 +6114,10 @@
         <v>105</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
@@ -6248,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>461</v>
+        <v>329</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6265,10 +6143,10 @@
         <v>105</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -6277,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>461</v>
+        <v>329</v>
       </c>
       <c r="H138" s="2">
         <v>11610</v>
@@ -6294,10 +6172,10 @@
         <v>106</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -6323,10 +6201,10 @@
         <v>108</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -6352,10 +6230,10 @@
         <v>110</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>344</v>
+        <v>437</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>345</v>
+        <v>438</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
@@ -6364,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>462</v>
+        <v>330</v>
       </c>
       <c r="H141" s="2">
         <v>11610</v>
@@ -6381,10 +6259,10 @@
         <v>111</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -6417,13 +6295,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>348</v>
+        <v>252</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6449,10 +6327,10 @@
         <v>114</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>349</v>
+        <v>440</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -6478,10 +6356,10 @@
         <v>116</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>351</v>
+        <v>441</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -6507,10 +6385,10 @@
         <v>118</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -6536,10 +6414,10 @@
         <v>120</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
@@ -6548,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>463</v>
+        <v>331</v>
       </c>
       <c r="H148" s="2">
         <v>11710</v>
@@ -6557,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>317141</v>
       </c>
@@ -6565,10 +6443,10 @@
         <v>120</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
@@ -6577,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="H149" s="2">
         <v>11710</v>
@@ -6591,22 +6469,22 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" s="3">
-        <v>0</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="H150" s="2">
         <v>11710</v>
@@ -6620,13 +6498,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>121</v>
+        <v>444</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6635,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H151" s="2">
         <v>11710</v>
@@ -6659,13 +6537,13 @@
         <v>318100</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6683,18 +6561,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>363</v>
+        <v>259</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
@@ -6703,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>467</v>
+        <v>335</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6717,13 +6595,13 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>368</v>
+        <v>262</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
@@ -6732,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>468</v>
+        <v>336</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6746,13 +6624,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>368</v>
+        <v>262</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6761,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>470</v>
+        <v>338</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6775,13 +6653,13 @@
         <v>318113</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
@@ -6790,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>469</v>
+        <v>337</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6804,13 +6682,13 @@
         <v>318114</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6819,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>469</v>
+        <v>337</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6851,22 +6729,22 @@
         <v>319100</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" s="3">
-        <v>0</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="H160" s="2">
         <v>11913</v>
@@ -6880,13 +6758,13 @@
         <v>319101</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6895,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -6909,22 +6787,22 @@
         <v>319110</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="H162" s="2">
         <v>11913</v>
@@ -6938,13 +6816,13 @@
         <v>319111</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6953,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H163" s="2">
         <v>11913</v>
@@ -6967,13 +6845,13 @@
         <v>319120</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>379</v>
+        <v>455</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6982,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6996,13 +6874,13 @@
         <v>319121</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>381</v>
+        <v>456</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -7011,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>473</v>
+        <v>341</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -7025,22 +6903,22 @@
         <v>319130</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" s="3">
-        <v>0</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="H166" s="2">
         <v>11913</v>
@@ -7054,13 +6932,13 @@
         <v>319140</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -7069,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H167" s="2">
         <v>11913</v>
@@ -7083,13 +6961,13 @@
         <v>319150</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -7098,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H168" s="2">
         <v>11913</v>
@@ -7117,27 +6995,27 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
     </row>
-    <row r="170" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>320100</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" s="3">
-        <v>0</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H170" s="2">
         <v>12010</v>
@@ -7151,22 +7029,22 @@
         <v>320110</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="H171" s="2">
         <v>12010</v>
@@ -7180,22 +7058,22 @@
         <v>320120</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" s="3">
-        <v>0</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H172" s="2">
         <v>12010</v>
@@ -7209,22 +7087,22 @@
         <v>320130</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F173" s="3">
-        <v>0</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H173" s="2">
         <v>12010</v>
@@ -7238,22 +7116,22 @@
         <v>320140</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" s="3">
-        <v>0</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="H174" s="2">
         <v>12010</v>
@@ -7267,22 +7145,22 @@
         <v>320150</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" s="3">
-        <v>0</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="H175" s="2">
         <v>12010</v>
@@ -7296,13 +7174,13 @@
         <v>320160</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7330,18 +7208,18 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
     </row>
-    <row r="178" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>321100</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
@@ -7350,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H178" s="2">
         <v>12113</v>
@@ -7364,13 +7242,13 @@
         <v>321110</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -7379,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7393,13 +7271,13 @@
         <v>321111</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -7408,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7422,13 +7300,13 @@
         <v>321120</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7437,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H181" s="2">
         <v>12113</v>
@@ -7451,13 +7329,13 @@
         <v>321130</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7466,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H182" s="2">
         <v>12113</v>
@@ -7480,13 +7358,13 @@
         <v>321140</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7495,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H183" s="2">
         <v>12113</v>
@@ -7509,13 +7387,13 @@
         <v>321150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>408</v>
+        <v>279</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -7524,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H184" s="2">
         <v>12113</v>
@@ -7538,13 +7416,13 @@
         <v>321160</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
@@ -7553,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H185" s="2">
         <v>12113</v>
@@ -7567,13 +7445,13 @@
         <v>321170</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>412</v>
+        <v>281</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7582,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H186" s="2">
         <v>12113</v>
@@ -7596,13 +7474,13 @@
         <v>321180</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>408</v>
+        <v>279</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7611,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>465</v>
+        <v>333</v>
       </c>
       <c r="H187" s="2">
         <v>12113</v>
@@ -7634,13 +7512,13 @@
         <v>330000</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>414</v>
+        <v>282</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7666,10 +7544,10 @@
         <v>56</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>416</v>
+        <v>284</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>417</v>
+        <v>285</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7678,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7695,10 +7573,10 @@
         <v>56</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>418</v>
+        <v>286</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>419</v>
+        <v>287</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7707,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H191" s="2">
         <v>13001</v>
@@ -7721,13 +7599,13 @@
         <v>330030</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>420</v>
+        <v>288</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>421</v>
+        <v>289</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7750,13 +7628,13 @@
         <v>330040</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>420</v>
+        <v>288</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>421</v>
+        <v>289</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7779,13 +7657,13 @@
         <v>330050</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>422</v>
+        <v>290</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>423</v>
+        <v>291</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7808,13 +7686,13 @@
         <v>330060</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>424</v>
+        <v>292</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>425</v>
+        <v>293</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7837,13 +7715,13 @@
         <v>330070</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>424</v>
+        <v>292</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>425</v>
+        <v>293</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7866,13 +7744,13 @@
         <v>330080</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>426</v>
+        <v>294</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>427</v>
+        <v>295</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7895,13 +7773,13 @@
         <v>330090</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>428</v>
+        <v>296</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>425</v>
+        <v>293</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7924,13 +7802,13 @@
         <v>330100</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>428</v>
+        <v>296</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>425</v>
+        <v>293</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7953,13 +7831,13 @@
         <v>330110</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>429</v>
+        <v>297</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>430</v>
+        <v>298</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7982,22 +7860,22 @@
         <v>330120</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" s="3">
-        <v>0</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -8011,22 +7889,22 @@
         <v>330130</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" s="3">
-        <v>0</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -8040,22 +7918,22 @@
         <v>330140</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0</v>
+      </c>
+      <c r="G203" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F203" s="3">
-        <v>0</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -8069,13 +7947,13 @@
         <v>330150</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>431</v>
+        <v>299</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>432</v>
+        <v>300</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8084,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -8098,13 +7976,13 @@
         <v>330160</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>433</v>
+        <v>301</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -8113,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8127,13 +8005,13 @@
         <v>330170</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>435</v>
+        <v>303</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>436</v>
+        <v>304</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8142,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8156,13 +8034,13 @@
         <v>330180</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>438</v>
+        <v>306</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -8185,18 +8063,18 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H209" s="2">
         <v>10000</v>
@@ -8210,18 +8088,18 @@
         <v>340010</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H210" s="2">
         <v>10000</v>
@@ -8235,18 +8113,18 @@
         <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>475</v>
+        <v>343</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8260,18 +8138,18 @@
         <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>474</v>
+        <v>342</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8285,18 +8163,18 @@
         <v>340040</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF8D52-AFC2-48DC-9A0C-7C793A4502E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB49A73B-E3D5-4374-B126-ED48809E8B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="5730" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3285" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1347,10 +1347,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500070,550000, 500074,500075,500076,500077</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>512030,510030,510031</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1909,6 +1905,10 @@
   </si>
   <si>
     <t>乞丐：我以后不会再去赌了，提心吊胆的日子真不好受。还是跟你们一起吃吃喝喝更开心。</t>
+  </si>
+  <si>
+    <t>500070,550000, 500074,500075,500076,500077,500078</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2388,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>198</v>
@@ -2457,7 +2457,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>199</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H5" s="2">
         <v>10007</v>
@@ -2544,7 +2544,7 @@
         <v>204</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>205</v>
@@ -2573,7 +2573,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>206</v>
@@ -2602,7 +2602,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>206</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>309</v>
+        <v>476</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2666,7 +2666,7 @@
         <v>209</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2695,7 +2695,7 @@
         <v>209</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2724,7 +2724,7 @@
         <v>209</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2840,7 +2840,7 @@
         <v>209</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2869,7 +2869,7 @@
         <v>209</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2898,7 +2898,7 @@
         <v>209</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H21" s="2">
         <v>11003</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H22" s="2">
         <v>11004</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3014,7 +3014,7 @@
         <v>209</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3043,7 +3043,7 @@
         <v>209</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3072,7 +3072,7 @@
         <v>209</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3101,7 +3101,7 @@
         <v>210</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3130,7 +3130,7 @@
         <v>212</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H28" s="2">
         <v>11004</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H29" s="2">
         <v>11005</v>
@@ -3188,7 +3188,7 @@
         <v>209</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3217,7 +3217,7 @@
         <v>209</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3246,7 +3246,7 @@
         <v>209</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3275,7 +3275,7 @@
         <v>210</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3304,7 +3304,7 @@
         <v>212</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H34" s="2">
         <v>11004</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3362,7 +3362,7 @@
         <v>209</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3391,7 +3391,7 @@
         <v>209</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3420,7 +3420,7 @@
         <v>209</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3449,7 +3449,7 @@
         <v>210</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H41" s="2">
         <v>11005</v>
@@ -3536,7 +3536,7 @@
         <v>209</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3565,7 +3565,7 @@
         <v>209</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3594,7 +3594,7 @@
         <v>209</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3623,7 +3623,7 @@
         <v>210</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3652,7 +3652,7 @@
         <v>212</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3681,7 +3681,7 @@
         <v>215</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H47" s="2">
         <v>11005</v>
@@ -3710,7 +3710,7 @@
         <v>209</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3739,7 +3739,7 @@
         <v>209</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3768,7 +3768,7 @@
         <v>209</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3797,7 +3797,7 @@
         <v>210</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3826,7 +3826,7 @@
         <v>212</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3855,7 +3855,7 @@
         <v>215</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H53" s="2">
         <v>11005</v>
@@ -3884,7 +3884,7 @@
         <v>209</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3913,7 +3913,7 @@
         <v>209</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3942,7 +3942,7 @@
         <v>209</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3971,7 +3971,7 @@
         <v>210</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -4000,7 +4000,7 @@
         <v>212</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4029,7 +4029,7 @@
         <v>215</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H59" s="2">
         <v>11005</v>
@@ -4058,7 +4058,7 @@
         <v>209</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4087,7 +4087,7 @@
         <v>209</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4116,7 +4116,7 @@
         <v>209</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4145,7 +4145,7 @@
         <v>210</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4174,7 +4174,7 @@
         <v>212</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4203,7 +4203,7 @@
         <v>215</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H65" s="2">
         <v>11005</v>
@@ -4232,7 +4232,7 @@
         <v>209</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4261,7 +4261,7 @@
         <v>209</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4290,7 +4290,7 @@
         <v>209</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4319,7 +4319,7 @@
         <v>210</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4348,7 +4348,7 @@
         <v>212</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4377,7 +4377,7 @@
         <v>215</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H71" s="2">
         <v>11005</v>
@@ -4406,7 +4406,7 @@
         <v>209</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4435,7 +4435,7 @@
         <v>209</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4464,7 +4464,7 @@
         <v>209</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4493,7 +4493,7 @@
         <v>210</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4522,7 +4522,7 @@
         <v>212</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4551,7 +4551,7 @@
         <v>215</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H77" s="2">
         <v>11005</v>
@@ -4580,7 +4580,7 @@
         <v>209</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4609,7 +4609,7 @@
         <v>209</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4638,7 +4638,7 @@
         <v>209</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4667,7 +4667,7 @@
         <v>210</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4696,7 +4696,7 @@
         <v>212</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4725,7 +4725,7 @@
         <v>215</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H83" s="2">
         <v>11005</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>224</v>
@@ -4944,7 +4944,7 @@
         <v>50</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>227</v>
@@ -4973,7 +4973,7 @@
         <v>228</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>229</v>
@@ -5002,7 +5002,7 @@
         <v>51</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>230</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H97" s="2">
         <v>11010</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H100" s="2">
         <v>11010</v>
@@ -5291,7 +5291,7 @@
         <v>59</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>236</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H106" s="2">
         <v>11210</v>
@@ -5320,7 +5320,7 @@
         <v>60</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>237</v>
@@ -5349,7 +5349,7 @@
         <v>62</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>238</v>
@@ -5378,7 +5378,7 @@
         <v>64</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>239</v>
@@ -5407,7 +5407,7 @@
         <v>66</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>240</v>
@@ -5449,7 +5449,7 @@
         <v>241</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -5475,10 +5475,10 @@
         <v>70</v>
       </c>
       <c r="C113" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5504,10 +5504,10 @@
         <v>72</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5533,10 +5533,10 @@
         <v>74</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5562,10 +5562,10 @@
         <v>76</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5591,10 +5591,10 @@
         <v>78</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5620,10 +5620,10 @@
         <v>80</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5649,7 +5649,7 @@
         <v>82</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>242</v>
@@ -5678,7 +5678,7 @@
         <v>84</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>243</v>
@@ -5707,7 +5707,7 @@
         <v>86</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>244</v>
@@ -5736,10 +5736,10 @@
         <v>88</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5785,7 +5785,7 @@
         <v>90</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>245</v>
@@ -5814,7 +5814,7 @@
         <v>90</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>246</v>
@@ -5843,11 +5843,11 @@
         <v>92</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H127" s="2">
         <v>11510</v>
@@ -5872,10 +5872,10 @@
         <v>92</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5901,7 +5901,7 @@
         <v>94</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>247</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H129" s="2">
         <v>11510</v>
@@ -5930,7 +5930,7 @@
         <v>95</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>248</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H130" s="2">
         <v>11510</v>
@@ -5959,7 +5959,7 @@
         <v>96</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>249</v>
@@ -6046,10 +6046,10 @@
         <v>102</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -6075,7 +6075,7 @@
         <v>104</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>249</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H135" s="2">
         <v>11510</v>
@@ -6114,7 +6114,7 @@
         <v>105</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>250</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6143,11 +6143,11 @@
         <v>105</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H138" s="2">
         <v>11610</v>
@@ -6172,10 +6172,10 @@
         <v>106</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -6201,10 +6201,10 @@
         <v>108</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -6230,11 +6230,11 @@
         <v>110</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H141" s="2">
         <v>11610</v>
@@ -6298,7 +6298,7 @@
         <v>251</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>252</v>
@@ -6327,7 +6327,7 @@
         <v>114</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>253</v>
@@ -6356,7 +6356,7 @@
         <v>116</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>254</v>
@@ -6385,7 +6385,7 @@
         <v>118</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>255</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H148" s="2">
         <v>11710</v>
@@ -6443,7 +6443,7 @@
         <v>120</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>258</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H149" s="2">
         <v>11710</v>
@@ -6469,13 +6469,13 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="D150" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6498,13 +6498,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6569,7 +6569,7 @@
         <v>259</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>260</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6598,7 +6598,7 @@
         <v>261</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>262</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6685,7 +6685,7 @@
         <v>124</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>266</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6732,7 +6732,7 @@
         <v>125</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>267</v>
@@ -6761,7 +6761,7 @@
         <v>125</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>268</v>
@@ -6790,7 +6790,7 @@
         <v>128</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>267</v>
@@ -6819,7 +6819,7 @@
         <v>128</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>268</v>
@@ -6848,7 +6848,7 @@
         <v>131</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>269</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6877,7 +6877,7 @@
         <v>131</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>270</v>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -6906,7 +6906,7 @@
         <v>132</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>271</v>
@@ -6935,7 +6935,7 @@
         <v>132</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>271</v>
@@ -7003,7 +7003,7 @@
         <v>136</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>273</v>
@@ -7061,7 +7061,7 @@
         <v>140</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>276</v>
@@ -7177,10 +7177,10 @@
         <v>148</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7216,7 +7216,7 @@
         <v>149</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>278</v>
@@ -7245,10 +7245,10 @@
         <v>150</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -7274,10 +7274,10 @@
         <v>150</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -7303,10 +7303,10 @@
         <v>151</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7332,10 +7332,10 @@
         <v>152</v>
       </c>
       <c r="C182" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7361,10 +7361,10 @@
         <v>153</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7390,7 +7390,7 @@
         <v>154</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>279</v>
@@ -7419,7 +7419,7 @@
         <v>155</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>280</v>
@@ -7448,7 +7448,7 @@
         <v>156</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>281</v>
@@ -7477,7 +7477,7 @@
         <v>157</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>279</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H187" s="2">
         <v>12113</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8186,6 +8186,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB49A73B-E3D5-4374-B126-ED48809E8B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A441C8-3836-430E-8F85-9D790256BF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3285" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="4005" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -774,38 +774,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>530120,530121,530122,530123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冥想特训</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>530130,530131,530132,530133</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>怜爱特训</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>530140,530141,530142,530143</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530150,530151,530152,530153</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530160,530161,530162,530163</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530170,530171,530172,530173</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>人类警觉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -830,10 +806,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540040</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1475,10 +1447,6 @@
   </si>
   <si>
     <t>540030,518113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>540020,540021,517140</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1908,6 +1876,38 @@
   </si>
   <si>
     <t>500070,550000, 500074,500075,500076,500077,500078</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540040,540041</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540020,500070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530120,530121,530122,530123,530124</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530130,530131,530132,530133,530134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530140,530141,530142,530143,530144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530150,530151,530152,530153,530154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530160,530161,530162,530163,530164</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530170,530171,530172,530173,530174</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2388,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2399,10 +2399,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2">
         <v>10000</v>
@@ -2428,10 +2428,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2457,10 +2457,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2486,10 +2486,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H5" s="2">
         <v>10007</v>
@@ -2515,10 +2515,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H6" s="2">
         <v>10007</v>
@@ -2541,13 +2541,13 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H7" s="2">
         <v>11310</v>
@@ -2573,10 +2573,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -2602,10 +2602,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -2631,10 +2631,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2663,10 +2663,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2692,10 +2692,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2721,10 +2721,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2750,10 +2750,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2779,10 +2779,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2808,10 +2808,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2837,10 +2837,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2866,10 +2866,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2895,10 +2895,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2924,10 +2924,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H21" s="2">
         <v>11003</v>
@@ -2953,10 +2953,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H22" s="2">
         <v>11004</v>
@@ -2982,10 +2982,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3011,10 +3011,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3040,10 +3040,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3069,10 +3069,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3098,10 +3098,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3127,10 +3127,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H28" s="2">
         <v>11004</v>
@@ -3156,10 +3156,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H29" s="2">
         <v>11005</v>
@@ -3185,10 +3185,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3214,10 +3214,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3272,10 +3272,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3301,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H34" s="2">
         <v>11004</v>
@@ -3330,10 +3330,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3359,10 +3359,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3388,10 +3388,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3417,10 +3417,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3446,10 +3446,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3475,10 +3475,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3504,10 +3504,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H41" s="2">
         <v>11005</v>
@@ -3533,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3562,10 +3562,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3591,10 +3591,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3620,10 +3620,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3649,10 +3649,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3678,10 +3678,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H47" s="2">
         <v>11005</v>
@@ -3707,10 +3707,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3765,10 +3765,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3794,10 +3794,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3823,10 +3823,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3852,10 +3852,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H53" s="2">
         <v>11005</v>
@@ -3881,10 +3881,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3910,10 +3910,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3939,10 +3939,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3968,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3997,10 +3997,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4026,10 +4026,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H59" s="2">
         <v>11005</v>
@@ -4055,10 +4055,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4084,10 +4084,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4113,10 +4113,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4142,10 +4142,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4171,10 +4171,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4200,10 +4200,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H65" s="2">
         <v>11005</v>
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4258,10 +4258,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4287,10 +4287,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4316,10 +4316,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4345,10 +4345,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4374,10 +4374,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H71" s="2">
         <v>11005</v>
@@ -4403,10 +4403,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4432,10 +4432,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4461,10 +4461,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4490,10 +4490,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4519,10 +4519,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4548,10 +4548,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H77" s="2">
         <v>11005</v>
@@ -4577,10 +4577,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4606,10 +4606,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4635,10 +4635,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4664,10 +4664,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4693,10 +4693,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4722,10 +4722,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="H83" s="2">
         <v>11005</v>
@@ -4760,10 +4760,10 @@
         <v>44</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4789,10 +4789,10 @@
         <v>45</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4818,10 +4818,10 @@
         <v>46</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4847,10 +4847,10 @@
         <v>47</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4876,10 +4876,10 @@
         <v>48</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4905,10 +4905,10 @@
         <v>49</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -4944,10 +4944,10 @@
         <v>50</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -4970,13 +4970,13 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H93" s="2">
         <v>10200</v>
@@ -5002,10 +5002,10 @@
         <v>51</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -5031,10 +5031,10 @@
         <v>52</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H95" s="2">
         <v>10200</v>
@@ -5068,10 +5068,10 @@
         <v>53</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H97" s="2">
         <v>11010</v>
@@ -5097,10 +5097,10 @@
         <v>53</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -5126,10 +5126,10 @@
         <v>53</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -5155,10 +5155,10 @@
         <v>53</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H100" s="2">
         <v>11010</v>
@@ -5184,10 +5184,10 @@
         <v>53</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -5213,10 +5213,10 @@
         <v>53</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5252,7 +5252,7 @@
         <v>56</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>57</v>
@@ -5291,10 +5291,10 @@
         <v>59</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H106" s="2">
         <v>11210</v>
@@ -5320,10 +5320,10 @@
         <v>60</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5349,10 +5349,10 @@
         <v>62</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5378,10 +5378,10 @@
         <v>64</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5407,10 +5407,10 @@
         <v>66</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5446,10 +5446,10 @@
         <v>68</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -5475,10 +5475,10 @@
         <v>70</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5504,10 +5504,10 @@
         <v>72</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5533,10 +5533,10 @@
         <v>74</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5562,10 +5562,10 @@
         <v>76</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5591,10 +5591,10 @@
         <v>78</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5620,10 +5620,10 @@
         <v>80</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5649,10 +5649,10 @@
         <v>82</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5678,10 +5678,10 @@
         <v>84</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -5707,10 +5707,10 @@
         <v>86</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -5736,10 +5736,10 @@
         <v>88</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5785,10 +5785,10 @@
         <v>90</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -5814,10 +5814,10 @@
         <v>90</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -5843,10 +5843,10 @@
         <v>92</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H127" s="2">
         <v>11510</v>
@@ -5872,10 +5872,10 @@
         <v>92</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5901,10 +5901,10 @@
         <v>94</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H129" s="2">
         <v>11510</v>
@@ -5930,10 +5930,10 @@
         <v>95</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H130" s="2">
         <v>11510</v>
@@ -5959,10 +5959,10 @@
         <v>96</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -5988,10 +5988,10 @@
         <v>98</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -6017,10 +6017,10 @@
         <v>100</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
@@ -6046,10 +6046,10 @@
         <v>102</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -6075,10 +6075,10 @@
         <v>104</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H135" s="2">
         <v>11510</v>
@@ -6114,10 +6114,10 @@
         <v>105</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6143,10 +6143,10 @@
         <v>105</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H138" s="2">
         <v>11610</v>
@@ -6172,10 +6172,10 @@
         <v>106</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -6201,10 +6201,10 @@
         <v>108</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -6230,10 +6230,10 @@
         <v>110</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H141" s="2">
         <v>11610</v>
@@ -6259,10 +6259,10 @@
         <v>111</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -6295,13 +6295,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6327,10 +6327,10 @@
         <v>114</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -6356,10 +6356,10 @@
         <v>116</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -6385,10 +6385,10 @@
         <v>118</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -6414,10 +6414,10 @@
         <v>120</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H148" s="2">
         <v>11710</v>
@@ -6443,10 +6443,10 @@
         <v>120</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H149" s="2">
         <v>11710</v>
@@ -6469,13 +6469,13 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6498,13 +6498,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6540,10 +6540,10 @@
         <v>123</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6566,13 +6566,13 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6595,13 +6595,13 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6624,13 +6624,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6656,10 +6656,10 @@
         <v>124</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6685,10 +6685,10 @@
         <v>124</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6732,10 +6732,10 @@
         <v>125</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6761,10 +6761,10 @@
         <v>125</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6790,10 +6790,10 @@
         <v>128</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6819,10 +6819,10 @@
         <v>128</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6848,10 +6848,10 @@
         <v>131</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6877,10 +6877,10 @@
         <v>131</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -6889,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -6906,10 +6906,10 @@
         <v>132</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -6935,10 +6935,10 @@
         <v>132</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -6964,10 +6964,10 @@
         <v>132</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -7003,10 +7003,10 @@
         <v>136</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
@@ -7032,10 +7032,10 @@
         <v>138</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -7061,10 +7061,10 @@
         <v>140</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -7090,10 +7090,10 @@
         <v>142</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
@@ -7119,10 +7119,10 @@
         <v>144</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
@@ -7148,10 +7148,10 @@
         <v>146</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -7177,10 +7177,10 @@
         <v>148</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7216,10 +7216,10 @@
         <v>149</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H178" s="2">
         <v>12113</v>
@@ -7245,10 +7245,10 @@
         <v>150</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7274,10 +7274,10 @@
         <v>150</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7303,10 +7303,10 @@
         <v>151</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H181" s="2">
         <v>12113</v>
@@ -7332,10 +7332,10 @@
         <v>152</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H182" s="2">
         <v>12113</v>
@@ -7361,10 +7361,10 @@
         <v>153</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H183" s="2">
         <v>12113</v>
@@ -7390,10 +7390,10 @@
         <v>154</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -7402,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H184" s="2">
         <v>12113</v>
@@ -7419,10 +7419,10 @@
         <v>155</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H185" s="2">
         <v>12113</v>
@@ -7448,10 +7448,10 @@
         <v>156</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H186" s="2">
         <v>12113</v>
@@ -7477,10 +7477,10 @@
         <v>157</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="H187" s="2">
         <v>12113</v>
@@ -7515,10 +7515,10 @@
         <v>158</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7544,10 +7544,10 @@
         <v>56</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7573,10 +7573,10 @@
         <v>56</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7602,10 +7602,10 @@
         <v>161</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7631,10 +7631,10 @@
         <v>161</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7660,10 +7660,10 @@
         <v>161</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7689,10 +7689,10 @@
         <v>162</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7718,10 +7718,10 @@
         <v>162</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7747,10 +7747,10 @@
         <v>162</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7776,10 +7776,10 @@
         <v>163</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7805,10 +7805,10 @@
         <v>163</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7834,10 +7834,10 @@
         <v>163</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7863,10 +7863,10 @@
         <v>164</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>165</v>
+        <v>471</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -7889,13 +7889,13 @@
         <v>330130</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -7918,13 +7918,13 @@
         <v>330140</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>169</v>
+        <v>473</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -7950,10 +7950,10 @@
         <v>164</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>170</v>
+        <v>474</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -7976,13 +7976,13 @@
         <v>330160</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8005,13 +8005,13 @@
         <v>330170</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>172</v>
+        <v>476</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8034,13 +8034,13 @@
         <v>330180</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -8063,18 +8063,18 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H209" s="2">
         <v>10000</v>
@@ -8088,18 +8088,18 @@
         <v>340010</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H210" s="2">
         <v>10000</v>
@@ -8113,18 +8113,18 @@
         <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>342</v>
+        <v>470</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8138,18 +8138,18 @@
         <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8163,18 +8163,18 @@
         <v>340040</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>179</v>
+        <v>469</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A441C8-3836-430E-8F85-9D790256BF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE350C47-2518-4126-81CC-E93F19EE81B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="4005" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11235" yWindow="5130" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="487">
   <si>
     <t>事件编号</t>
   </si>
@@ -326,10 +326,6 @@
     <t>520020,510040</t>
   </si>
   <si>
-    <t>521000,521001,521002,521003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>521020,510040</t>
   </si>
   <si>
@@ -387,9 +383,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>511060,511061</t>
-  </si>
-  <si>
     <t>武器置备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -635,9 +628,6 @@
     <t>519100,550000</t>
   </si>
   <si>
-    <t>519101,550000</t>
-  </si>
-  <si>
     <t>不惜代价</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -752,9 +742,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>530010,530011</t>
-  </si>
-  <si>
     <t>530020,530021</t>
   </si>
   <si>
@@ -818,10 +805,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>501050,501051</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>502000,550000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -838,14 +821,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521110,521112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>521110,521111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>521120</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -982,18 +957,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>取得了猫咪圣杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在场的猫咪都感受到了，整个世界在一瞬间出现了微小变化。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣杯发挥力量，猫咪影响力与隐匿度均提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>王后是叛徒，我们要尽快将此事禀告国王</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1236,10 +1199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>取得了一些进展，但暂时没有成果。还需要继续寻找知情的猫咪。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可以开展1次特训，提升猫咪能力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1252,29 +1211,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>取得了一些进展，但暂时没有成果。如果有猫咪能获得“神启“，应当可以取得突破。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可以开展1次特训，提升猫咪能力</t>
   </si>
   <si>
-    <t>科恩在仪式中感受到了神启，察觉到了圣杯的痕迹。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发现”圣杯的痕迹“</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>取得了一些进展，但暂时没有成果。需要更多的猫咪影响力来协助我们。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让大量学者猫咪参与，查阅大量文献后，我们终于找到了圣杯的线索。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发现”圣杯的线索“</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1283,26 +1226,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪全员探查能力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩：如果不是身负使命，我也想整天缩在罐子冥想啊。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪全员密谋能力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>卡莉：控制好与人交流的频率。过于亲近会显得很廉价，而过于疏远会显得冷漠，明白吗？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪全员交际能力提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>猫咪共济会遭到人类的剿杀。猫被视为危险生物，从此在世界上被抹去。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1316,10 +1243,6 @@
   </si>
   <si>
     <t>500040,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>512030,510030,510031</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1875,10 +1798,6 @@
     <t>乞丐：我以后不会再去赌了，提心吊胆的日子真不好受。还是跟你们一起吃吃喝喝更开心。</t>
   </si>
   <si>
-    <t>500070,550000, 500074,500075,500076,500077,500078</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>540040,540041</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1909,6 +1828,127 @@
   <si>
     <t>530170,530171,530172,530173,530174</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500070,550000,500074,500075,500076,500077,500078</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512030,510030,550023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511000,511005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>514000,514003,514004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>514000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521000,521001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了猫咪圣杯，即将达成圣杯胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪式结束的瞬间，整个世界发生了巨大的变化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得圣杯胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511060,511061</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵变解决</t>
+  </si>
+  <si>
+    <t>国王设宴款待了猫咪，并回应他将兑现承诺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谋达成，获得胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550022</t>
+  </si>
+  <si>
+    <t>516100,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519101,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521110,521111,521112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521110,521113,521114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530010,530011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果能让知情的猫咪感谢我们的话…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果有猫咪能获得“神启“的话…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩通过圣草得到的神启，在仪式上指引了方向。我们察觉到了圣杯的痕迹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果能在宗教人士家中取得关键文献的话…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果能在宗教人士家中取得关键文献的话……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合分析主教家与手头的文献，我们终于找到了圣杯的线索。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员探查能力提升，探查事件执行加快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩：冥想，可以让我们更靠近世界的真实，也更接近于神。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员密谋能力提升，密谋事件执行加快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员交际能力提升，交流事件执行加快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550021</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="G208" sqref="G208"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2388,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2399,10 +2439,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2411,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H2" s="2">
         <v>10000</v>
@@ -2428,10 +2468,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2457,10 +2497,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2486,10 +2526,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -2498,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="H5" s="2">
         <v>10007</v>
@@ -2515,10 +2555,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -2527,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="H6" s="2">
         <v>10007</v>
@@ -2541,13 +2581,13 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -2556,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="H7" s="2">
         <v>11310</v>
@@ -2573,10 +2613,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -2602,10 +2642,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -2631,10 +2671,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2643,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2653,7 +2693,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="4"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2663,10 +2703,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2692,10 +2732,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2721,10 +2761,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2750,10 +2790,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2779,10 +2819,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2808,10 +2848,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -2820,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>302</v>
+        <v>457</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2837,10 +2877,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2866,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2895,10 +2935,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2906,8 +2946,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="6">
-        <v>511000</v>
+      <c r="G20" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -2924,10 +2964,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -2936,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="H21" s="2">
         <v>11003</v>
@@ -2953,10 +2993,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -2965,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="H22" s="2">
         <v>11004</v>
@@ -2982,10 +3022,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -2994,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3011,10 +3051,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3040,10 +3080,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3069,10 +3109,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3098,10 +3138,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3127,10 +3167,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3139,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="H28" s="2">
         <v>11004</v>
@@ -3156,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3168,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="H29" s="2">
         <v>11005</v>
@@ -3185,10 +3225,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3214,10 +3254,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3243,10 +3283,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3272,10 +3312,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3301,10 +3341,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3313,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="H34" s="2">
         <v>11004</v>
@@ -3330,10 +3370,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3342,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3359,10 +3399,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3388,10 +3428,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3399,8 +3439,8 @@
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="6">
-        <v>514000</v>
+      <c r="G37" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3417,10 +3457,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3428,8 +3468,8 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="6">
-        <v>514000</v>
+      <c r="G38" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -3446,10 +3486,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3475,10 +3515,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3504,10 +3544,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3516,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="H41" s="2">
         <v>11005</v>
@@ -3533,10 +3573,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3562,10 +3602,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3591,10 +3631,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3620,10 +3660,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3649,10 +3689,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3678,10 +3718,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3690,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="H47" s="2">
         <v>11005</v>
@@ -3707,10 +3747,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3736,10 +3776,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3765,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3794,10 +3834,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3823,10 +3863,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3852,10 +3892,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3864,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H53" s="2">
         <v>11005</v>
@@ -3881,10 +3921,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3910,10 +3950,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3939,10 +3979,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -3968,10 +4008,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -3997,10 +4037,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4026,10 +4066,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4038,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="H59" s="2">
         <v>11005</v>
@@ -4055,10 +4095,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4084,10 +4124,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4113,10 +4153,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4142,10 +4182,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4171,10 +4211,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4200,10 +4240,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4212,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="H65" s="2">
         <v>11005</v>
@@ -4229,10 +4269,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4258,10 +4298,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4287,10 +4327,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4316,10 +4356,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4345,10 +4385,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4374,10 +4414,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4386,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="H71" s="2">
         <v>11005</v>
@@ -4403,10 +4443,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4432,10 +4472,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4461,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4490,10 +4530,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4519,10 +4559,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4548,10 +4588,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4560,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="H77" s="2">
         <v>11005</v>
@@ -4577,10 +4617,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4589,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>42</v>
+        <v>461</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4606,10 +4646,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4635,10 +4675,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4664,10 +4704,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4693,10 +4733,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4705,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82" s="2">
         <v>11004</v>
@@ -4722,10 +4762,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4734,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="H83" s="2">
         <v>11005</v>
@@ -4757,13 +4797,13 @@
         <v>301000</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4786,13 +4826,13 @@
         <v>301010</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4815,13 +4855,13 @@
         <v>301020</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4844,13 +4884,13 @@
         <v>301030</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4873,13 +4913,13 @@
         <v>301040</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4902,13 +4942,13 @@
         <v>301050</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>218</v>
+        <v>463</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
@@ -4917,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -4933,6 +4973,7 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
+      <c r="G91" s="12"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
@@ -4941,13 +4982,13 @@
         <v>302000</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
@@ -4956,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -4970,13 +5011,13 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
@@ -4985,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H93" s="2">
         <v>10200</v>
@@ -4999,13 +5040,13 @@
         <v>302020</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -5028,13 +5069,13 @@
         <v>302030</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
@@ -5043,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H95" s="2">
         <v>10200</v>
@@ -5065,13 +5106,13 @@
         <v>310100</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -5080,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="H97" s="2">
         <v>11010</v>
@@ -5094,22 +5135,22 @@
         <v>310110</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H98" s="2">
         <v>11010</v>
@@ -5123,13 +5164,13 @@
         <v>310120</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -5138,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H99" s="2">
         <v>11010</v>
@@ -5152,13 +5193,13 @@
         <v>310130</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
@@ -5167,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="H100" s="2">
         <v>11010</v>
@@ -5181,22 +5222,22 @@
         <v>310140</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H101" s="2">
         <v>11010</v>
@@ -5210,13 +5251,13 @@
         <v>310150</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5225,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H102" s="2">
         <v>11010</v>
@@ -5241,6 +5282,7 @@
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
+      <c r="G103" s="12"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
@@ -5249,14 +5291,14 @@
         <v>311060</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E104" s="3" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>58</v>
+        <v>466</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5280,6 +5322,7 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
@@ -5288,13 +5331,13 @@
         <v>312100</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
@@ -5303,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="H106" s="2">
         <v>11210</v>
@@ -5317,13 +5360,13 @@
         <v>312110</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5332,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H107" s="2">
         <v>11210</v>
@@ -5346,13 +5389,13 @@
         <v>312120</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5361,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H108" s="2">
         <v>11210</v>
@@ -5375,13 +5418,13 @@
         <v>312130</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5390,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H109" s="2">
         <v>11210</v>
@@ -5404,13 +5447,13 @@
         <v>312140</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5419,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H110" s="2">
         <v>11210</v>
@@ -5429,56 +5472,57 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
+      <c r="A111" s="2">
+        <v>312160</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H111" s="2">
+        <v>11210</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
         <v>313100</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H112" s="2">
-        <v>11310</v>
-      </c>
-      <c r="I112" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>313110</v>
-      </c>
       <c r="B113" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>392</v>
+        <v>66</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5487,27 +5531,27 @@
         <v>0</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H113" s="2">
         <v>11310</v>
       </c>
       <c r="I113" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>313120</v>
+        <v>313110</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>394</v>
+        <v>68</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>372</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5516,27 +5560,27 @@
         <v>0</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H114" s="2">
         <v>11310</v>
       </c>
       <c r="I114" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>313130</v>
+        <v>313120</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5545,27 +5589,27 @@
         <v>0</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H115" s="2">
         <v>11310</v>
       </c>
       <c r="I115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>313140</v>
+        <v>313130</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5574,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H116" s="2">
         <v>11310</v>
@@ -5585,16 +5629,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>313150</v>
+        <v>313140</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5603,27 +5647,27 @@
         <v>0</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H117" s="2">
         <v>11310</v>
       </c>
       <c r="I117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>313160</v>
+        <v>313150</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5632,27 +5676,27 @@
         <v>0</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H118" s="2">
         <v>11310</v>
       </c>
       <c r="I118" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>313200</v>
+        <v>313160</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>235</v>
+        <v>383</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5661,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H119" s="2">
         <v>11310</v>
@@ -5672,16 +5716,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>313210</v>
+        <v>313200</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -5690,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H120" s="2">
         <v>11310</v>
@@ -5701,16 +5745,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>313220</v>
+        <v>313210</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -5719,27 +5763,27 @@
         <v>0</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H121" s="2">
         <v>11310</v>
       </c>
       <c r="I121" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>313230</v>
+        <v>313220</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>408</v>
+        <v>227</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5748,24 +5792,43 @@
         <v>0</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H122" s="2">
         <v>11310</v>
       </c>
       <c r="I122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>313230</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H123" s="2">
+        <v>11310</v>
+      </c>
+      <c r="I123" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
@@ -5782,13 +5845,13 @@
         <v>315100</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -5797,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H125" s="2">
         <v>11510</v>
@@ -5811,13 +5874,13 @@
         <v>315101</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -5826,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H126" s="2">
         <v>11510</v>
@@ -5840,13 +5903,13 @@
         <v>315110</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
@@ -5855,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="H127" s="2">
         <v>11510</v>
@@ -5869,13 +5932,13 @@
         <v>315111</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5884,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H128" s="2">
         <v>11510</v>
@@ -5898,13 +5961,13 @@
         <v>315120</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
@@ -5913,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="H129" s="2">
         <v>11510</v>
@@ -5927,13 +5990,13 @@
         <v>315130</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
@@ -5942,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="H130" s="2">
         <v>11510</v>
@@ -5956,13 +6019,13 @@
         <v>315140</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -5971,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H131" s="2">
         <v>11510</v>
@@ -5985,13 +6048,13 @@
         <v>315150</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -6000,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H132" s="2">
         <v>11510</v>
@@ -6014,13 +6077,13 @@
         <v>315160</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
@@ -6029,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H133" s="2">
         <v>11510</v>
@@ -6043,13 +6106,13 @@
         <v>315170</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -6058,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H134" s="2">
         <v>11510</v>
@@ -6072,13 +6135,13 @@
         <v>315180</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -6087,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H135" s="2">
         <v>11510</v>
@@ -6103,6 +6166,7 @@
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
+      <c r="G136" s="12"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
@@ -6111,13 +6175,13 @@
         <v>316100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
@@ -6126,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6140,13 +6204,13 @@
         <v>316101</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -6155,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H138" s="2">
         <v>11610</v>
@@ -6169,13 +6233,13 @@
         <v>316110</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -6184,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H139" s="2">
         <v>11610</v>
@@ -6198,13 +6262,13 @@
         <v>316120</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -6213,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H140" s="2">
         <v>11610</v>
@@ -6227,13 +6291,13 @@
         <v>316121</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
@@ -6242,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="H141" s="2">
         <v>11610</v>
@@ -6256,13 +6320,13 @@
         <v>316130</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -6271,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H142" s="2">
         <v>11610</v>
@@ -6287,6 +6351,7 @@
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
+      <c r="G143" s="12"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
     </row>
@@ -6295,13 +6360,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6310,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H144" s="2">
         <v>11710</v>
@@ -6324,13 +6389,13 @@
         <v>317110</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -6339,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H145" s="2">
         <v>11710</v>
@@ -6353,13 +6418,13 @@
         <v>317120</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -6368,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H146" s="2">
         <v>11710</v>
@@ -6382,13 +6447,13 @@
         <v>317130</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -6397,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H147" s="2">
         <v>11710</v>
@@ -6411,13 +6476,13 @@
         <v>317140</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
@@ -6426,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="H148" s="2">
         <v>11710</v>
@@ -6440,13 +6505,13 @@
         <v>317141</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
@@ -6455,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="H149" s="2">
         <v>11710</v>
@@ -6469,13 +6534,13 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6484,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H150" s="2">
         <v>11710</v>
@@ -6498,13 +6563,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6513,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H151" s="2">
         <v>11710</v>
@@ -6537,13 +6602,13 @@
         <v>318100</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6566,13 +6631,13 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
@@ -6581,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6595,13 +6660,13 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
@@ -6610,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6624,13 +6689,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6639,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6653,13 +6718,13 @@
         <v>318113</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
@@ -6668,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6682,13 +6747,13 @@
         <v>318114</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6697,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6722,20 +6787,22 @@
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="H159"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>319100</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6744,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H160" s="2">
         <v>11913</v>
@@ -6758,13 +6825,13 @@
         <v>319101</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6773,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>127</v>
+        <v>472</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -6787,13 +6854,13 @@
         <v>319110</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6802,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H162" s="2">
         <v>11913</v>
@@ -6816,13 +6883,13 @@
         <v>319111</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6831,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H163" s="2">
         <v>11913</v>
@@ -6845,13 +6912,13 @@
         <v>319120</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6860,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6874,13 +6941,13 @@
         <v>319121</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -6889,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -6903,13 +6970,13 @@
         <v>319130</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -6918,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H166" s="2">
         <v>11913</v>
@@ -6932,13 +6999,13 @@
         <v>319140</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -6947,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H167" s="2">
         <v>11913</v>
@@ -6961,22 +7028,22 @@
         <v>319150</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F168" s="3">
-        <v>0</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H168" s="2">
         <v>11913</v>
@@ -7000,13 +7067,13 @@
         <v>320100</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
@@ -7015,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H170" s="2">
         <v>12010</v>
@@ -7029,13 +7096,13 @@
         <v>320110</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -7044,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H171" s="2">
         <v>12010</v>
@@ -7058,13 +7125,13 @@
         <v>320120</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -7073,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H172" s="2">
         <v>12010</v>
@@ -7087,13 +7154,13 @@
         <v>320130</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
@@ -7102,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H173" s="2">
         <v>12010</v>
@@ -7116,13 +7183,13 @@
         <v>320140</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
@@ -7131,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H174" s="2">
         <v>12010</v>
@@ -7145,13 +7212,13 @@
         <v>320150</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -7160,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H175" s="2">
         <v>12010</v>
@@ -7174,13 +7241,13 @@
         <v>320160</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7205,6 +7272,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
+      <c r="G177" s="12"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
     </row>
@@ -7213,13 +7281,13 @@
         <v>321100</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
@@ -7228,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H178" s="2">
         <v>12113</v>
@@ -7242,13 +7310,13 @@
         <v>321110</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -7257,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>181</v>
+        <v>473</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7271,13 +7339,13 @@
         <v>321111</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -7286,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7300,13 +7368,13 @@
         <v>321120</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7315,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H181" s="2">
         <v>12113</v>
@@ -7329,13 +7397,13 @@
         <v>321130</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7344,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H182" s="2">
         <v>12113</v>
@@ -7358,13 +7426,13 @@
         <v>321140</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7373,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H183" s="2">
         <v>12113</v>
@@ -7387,13 +7455,13 @@
         <v>321150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -7402,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H184" s="2">
         <v>12113</v>
@@ -7416,13 +7484,13 @@
         <v>321160</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
@@ -7431,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H185" s="2">
         <v>12113</v>
@@ -7445,13 +7513,13 @@
         <v>321170</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7460,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H186" s="2">
         <v>12113</v>
@@ -7474,13 +7542,13 @@
         <v>321180</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7489,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="H187" s="2">
         <v>12113</v>
@@ -7512,13 +7580,13 @@
         <v>330000</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7541,13 +7609,13 @@
         <v>330010</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7556,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>159</v>
+        <v>475</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7570,13 +7638,13 @@
         <v>330020</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7585,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H191" s="2">
         <v>13001</v>
@@ -7599,13 +7667,13 @@
         <v>330030</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7628,13 +7696,13 @@
         <v>330040</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7657,13 +7725,13 @@
         <v>330050</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7686,13 +7754,13 @@
         <v>330060</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>285</v>
+        <v>477</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7715,13 +7783,13 @@
         <v>330070</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>285</v>
+        <v>477</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7744,13 +7812,13 @@
         <v>330080</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>287</v>
+        <v>478</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7773,13 +7841,13 @@
         <v>330090</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>289</v>
+        <v>479</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7802,13 +7870,13 @@
         <v>330100</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>289</v>
+        <v>480</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7831,13 +7899,13 @@
         <v>330110</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>290</v>
+        <v>481</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7860,13 +7928,13 @@
         <v>330120</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>293</v>
+        <v>482</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7875,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -7889,13 +7957,13 @@
         <v>330130</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>294</v>
+        <v>483</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>295</v>
+        <v>484</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7904,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -7918,13 +7986,13 @@
         <v>330140</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>297</v>
+        <v>485</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -7933,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -7947,13 +8015,13 @@
         <v>330150</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>293</v>
+        <v>482</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -7962,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -7976,13 +8044,13 @@
         <v>330160</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>294</v>
+        <v>483</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>295</v>
+        <v>484</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -7991,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8005,13 +8073,13 @@
         <v>330170</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>297</v>
+        <v>485</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8020,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8034,13 +8102,13 @@
         <v>330180</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -8048,8 +8116,8 @@
       <c r="F207" s="3">
         <v>0</v>
       </c>
-      <c r="G207" s="6">
-        <v>530180</v>
+      <c r="G207" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8063,18 +8131,18 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H209" s="2">
         <v>10000</v>
@@ -8088,18 +8156,18 @@
         <v>340010</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H210" s="2">
         <v>10000</v>
@@ -8113,18 +8181,18 @@
         <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8138,18 +8206,18 @@
         <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8163,18 +8231,18 @@
         <v>340040</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE350C47-2518-4126-81CC-E93F19EE81B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056D42EA-B4E6-44B6-893C-EDF222B059D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11235" yWindow="5130" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="4515" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1802,153 +1802,153 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>530120,530121,530122,530123,530124</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530130,530131,530132,530133,530134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530140,530141,530142,530143,530144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530150,530151,530152,530153,530154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530160,530161,530162,530163,530164</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530170,530171,530172,530173,530174</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500070,550000,500074,500075,500076,500077,500078</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>512030,510030,550023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511000,511005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>514000,514003,514004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>514000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521000,521001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了猫咪圣杯，即将达成圣杯胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪式结束的瞬间，整个世界发生了巨大的变化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得圣杯胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511060,511061</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵变解决</t>
+  </si>
+  <si>
+    <t>国王设宴款待了猫咪，并回应他将兑现承诺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谋达成，获得胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550022</t>
+  </si>
+  <si>
+    <t>516100,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519101,550000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521110,521111,521112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521110,521113,521114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530010,530011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果能让知情的猫咪感谢我们的话…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果有猫咪能获得“神启“的话…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩通过圣草得到的神启，在仪式上指引了方向。我们察觉到了圣杯的痕迹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果能在宗教人士家中取得关键文献的话…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得了一些进展，但暂时没有成果。如果能在宗教人士家中取得关键文献的话……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合分析主教家与手头的文献，我们终于找到了圣杯的线索。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员探查能力提升，探查事件执行加快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科恩：冥想，可以让我们更靠近世界的真实，也更接近于神。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员密谋能力提升，密谋事件执行加快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪全员交际能力提升，交流事件执行加快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550021</t>
+  </si>
+  <si>
     <t>540020,500070</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530120,530121,530122,530123,530124</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530130,530131,530132,530133,530134</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530140,530141,530142,530143,530144</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530150,530151,530152,530153,530154</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530160,530161,530162,530163,530164</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530170,530171,530172,530173,530174</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500070,550000,500074,500075,500076,500077,500078</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>512030,510030,550023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>511000,511005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>514000,514003,514004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>514000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>521000,521001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了猫咪圣杯，即将达成圣杯胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仪式结束的瞬间，整个世界发生了巨大的变化。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得圣杯胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>511060,511061</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵变解决</t>
-  </si>
-  <si>
-    <t>国王设宴款待了猫咪，并回应他将兑现承诺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴谋达成，获得胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550022</t>
-  </si>
-  <si>
-    <t>516100,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>519101,550000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>521110,521111,521112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>521110,521113,521114</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530010,530011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了一些进展，但暂时没有成果。如果能让知情的猫咪感谢我们的话…...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了一些进展，但暂时没有成果。如果有猫咪能获得“神启“的话…...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩通过圣草得到的神启，在仪式上指引了方向。我们察觉到了圣杯的痕迹。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了一些进展，但暂时没有成果。如果能在宗教人士家中取得关键文献的话…...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取得了一些进展，但暂时没有成果。如果能在宗教人士家中取得关键文献的话……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合分析主教家与手头的文献，我们终于找到了圣杯的线索。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪全员探查能力提升，探查事件执行加快</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科恩：冥想，可以让我们更靠近世界的真实，也更接近于神。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪全员密谋能力提升，密谋事件执行加快</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫咪全员交际能力提升，交流事件执行加快</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>550021</t>
   </si>
 </sst>
 </file>
@@ -2387,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4919,7 +4919,7 @@
         <v>362</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4945,19 +4945,19 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5476,22 +5476,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7670,7 +7670,7 @@
         <v>157</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>271</v>
@@ -7699,7 +7699,7 @@
         <v>157</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>271</v>
@@ -7757,7 +7757,7 @@
         <v>158</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>274</v>
@@ -7786,7 +7786,7 @@
         <v>158</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>274</v>
@@ -7815,7 +7815,7 @@
         <v>158</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>275</v>
@@ -7844,7 +7844,7 @@
         <v>159</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>274</v>
@@ -7873,7 +7873,7 @@
         <v>159</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>274</v>
@@ -7902,7 +7902,7 @@
         <v>159</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>276</v>
@@ -7934,7 +7934,7 @@
         <v>277</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -7960,11 +7960,11 @@
         <v>161</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -7992,7 +7992,7 @@
         <v>278</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -8021,7 +8021,7 @@
         <v>277</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -8047,11 +8047,11 @@
         <v>161</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8079,7 +8079,7 @@
         <v>278</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056D42EA-B4E6-44B6-893C-EDF222B059D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49679C5-3B5B-4C3D-9DE9-D89C51DE530F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="4515" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13395" yWindow="3585" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="488">
   <si>
     <t>事件编号</t>
   </si>
@@ -1947,7 +1947,11 @@
     <t>550021</t>
   </si>
   <si>
-    <t>540020,500070</t>
+    <t>资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540020,500070,540100,540101,540102,540103,540104,540105,540106,540107,540108,540109,540110,540111,540120,540121,540122,540123,540124,540125,540126,540127,540128,540129,540130,540131,540132,540133,540134,540135,540136,540137,540138</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2387,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8131,7 +8135,7 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>162</v>
+        <v>486</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8192,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49679C5-3B5B-4C3D-9DE9-D89C51DE530F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E207C-E373-4471-8E2A-9ED3DA83DF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="3585" windowWidth="21105" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="4815" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1826,10 +1826,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500070,550000,500074,500075,500076,500077,500078</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>512030,510030,550023</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1951,7 +1947,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540020,500070,540100,540101,540102,540103,540104,540105,540106,540107,540108,540109,540110,540111,540120,540121,540122,540123,540124,540125,540126,540127,540128,540129,540130,540131,540132,540133,540134,540135,540136,540137,540138</t>
+    <t>500070,550000,500074,500075,500076,500077,500078,500079</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540020,500070,540100,540101,540102,540103,540104,540105,540106,540107,540108,540109,540110,540111,540120,540121,540122,540123,540124,540125,540126,540127,540128,540129,540130,540131,540132,540133,540134,540135,540136,540137,540138,,500079</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2391,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4923,7 +4923,7 @@
         <v>362</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4949,19 +4949,19 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5480,22 +5480,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7674,7 +7674,7 @@
         <v>157</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>271</v>
@@ -7703,7 +7703,7 @@
         <v>157</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>271</v>
@@ -7761,7 +7761,7 @@
         <v>158</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>274</v>
@@ -7790,7 +7790,7 @@
         <v>158</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>274</v>
@@ -7819,7 +7819,7 @@
         <v>158</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>275</v>
@@ -7848,7 +7848,7 @@
         <v>159</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>274</v>
@@ -7877,7 +7877,7 @@
         <v>159</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>274</v>
@@ -7906,7 +7906,7 @@
         <v>159</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>276</v>
@@ -7938,7 +7938,7 @@
         <v>277</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7964,10 +7964,10 @@
         <v>161</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7996,7 +7996,7 @@
         <v>278</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8025,7 +8025,7 @@
         <v>277</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8051,10 +8051,10 @@
         <v>161</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -8083,7 +8083,7 @@
         <v>278</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8135,7 +8135,7 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E207C-E373-4471-8E2A-9ED3DA83DF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C6082-A388-451D-8B99-BC0811FEFE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="4815" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="1755" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540020,500070,540100,540101,540102,540103,540104,540105,540106,540107,540108,540109,540110,540111,540120,540121,540122,540123,540124,540125,540126,540127,540128,540129,540130,540131,540132,540133,540134,540135,540136,540137,540138,,500079</t>
+    <t>540020,500070,540139,500079</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2391,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C6082-A388-451D-8B99-BC0811FEFE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E207C-E373-4471-8E2A-9ED3DA83DF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1755" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="4815" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540020,500070,540139,500079</t>
+    <t>540020,500070,540100,540101,540102,540103,540104,540105,540106,540107,540108,540109,540110,540111,540120,540121,540122,540123,540124,540125,540126,540127,540128,540129,540130,540131,540132,540133,540134,540135,540136,540137,540138,,500079</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2391,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E207C-E373-4471-8E2A-9ED3DA83DF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D3160-CEA3-48A6-9BD1-0FBA784D0056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="4815" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3315" yWindow="2115" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540020,500070,540100,540101,540102,540103,540104,540105,540106,540107,540108,540109,540110,540111,540120,540121,540122,540123,540124,540125,540126,540127,540128,540129,540130,540131,540132,540133,540134,540135,540136,540137,540138,,500079</t>
+    <t>540020,500070,500079,540021</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2391,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D3160-CEA3-48A6-9BD1-0FBA784D0056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758C432-4900-4F58-ACA3-A7390C2451BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3315" yWindow="2115" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="3375" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="489">
   <si>
     <t>事件编号</t>
   </si>
@@ -1953,6 +1953,9 @@
   <si>
     <t>540020,500070,500079,540021</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511030</t>
   </si>
 </sst>
 </file>
@@ -2392,7 +2395,7 @@
   <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>283</v>
+        <v>488</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758C432-4900-4F58-ACA3-A7390C2451BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D789D8-56C7-4E8D-AA4C-18A615CF17B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="3375" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="3060" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1951,11 +1951,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>540020,500070,500079,540021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>511030</t>
+  </si>
+  <si>
+    <t>540020,500070,500079,540021,500078</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2394,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D789D8-56C7-4E8D-AA4C-18A615CF17B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA610D-2251-436F-A9CA-590A96A78035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3060" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11745" yWindow="3990" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -447,9 +447,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>513140,550000</t>
-  </si>
-  <si>
     <t>哀怨之影</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -802,10 +799,6 @@
   </si>
   <si>
     <t>3号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>502000,550000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1574,9 +1567,6 @@
     <t>主教：为了权力而舍弃自己的女儿，我没有资格穿上那件红衣。</t>
   </si>
   <si>
-    <t>主教的情绪有些不稳定</t>
-  </si>
-  <si>
     <t>主教：你到底在哪儿，你还活着吗？这只是对我的考验对吧？来吧，什么我都接受！</t>
   </si>
   <si>
@@ -1955,6 +1945,18 @@
   </si>
   <si>
     <t>540020,500070,500079,540021,500078</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>502000,550000,502001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来女仆是主教的女儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>513140,550000,513141</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2394,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="H219" sqref="H219"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2435,7 +2437,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2446,10 +2448,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -2458,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H2" s="2">
         <v>10000</v>
@@ -2475,10 +2477,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -2504,10 +2506,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -2533,10 +2535,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -2545,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H5" s="2">
         <v>10007</v>
@@ -2562,10 +2564,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -2574,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H6" s="2">
         <v>10007</v>
@@ -2588,13 +2590,13 @@
         <v>300040</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H7" s="2">
         <v>11310</v>
@@ -2620,10 +2622,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -2649,10 +2651,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -2678,10 +2680,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2690,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2710,10 +2712,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2739,10 +2741,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2768,10 +2770,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2797,10 +2799,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2826,10 +2828,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2855,10 +2857,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -2867,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2884,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2913,10 +2915,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2942,10 +2944,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2954,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -2971,10 +2973,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -2983,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H21" s="2">
         <v>11003</v>
@@ -3000,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -3012,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H22" s="2">
         <v>11004</v>
@@ -3029,10 +3031,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3058,10 +3060,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3087,10 +3089,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3116,10 +3118,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3145,10 +3147,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3174,10 +3176,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3186,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H28" s="2">
         <v>11004</v>
@@ -3203,10 +3205,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3215,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H29" s="2">
         <v>11005</v>
@@ -3232,10 +3234,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3261,10 +3263,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3290,10 +3292,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3319,10 +3321,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3348,10 +3350,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H34" s="2">
         <v>11004</v>
@@ -3377,10 +3379,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
@@ -3389,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3406,10 +3408,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3435,10 +3437,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3447,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3464,10 +3466,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3476,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -3493,10 +3495,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3522,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3551,10 +3553,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H41" s="2">
         <v>11005</v>
@@ -3580,10 +3582,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3609,10 +3611,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3638,10 +3640,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3667,10 +3669,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3696,10 +3698,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3725,10 +3727,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3737,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H47" s="2">
         <v>11005</v>
@@ -3754,10 +3756,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3783,10 +3785,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3812,10 +3814,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3841,10 +3843,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3870,10 +3872,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3899,10 +3901,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3911,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H53" s="2">
         <v>11005</v>
@@ -3928,10 +3930,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3957,10 +3959,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3986,10 +3988,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -4015,10 +4017,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -4044,10 +4046,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4073,10 +4075,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4085,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H59" s="2">
         <v>11005</v>
@@ -4102,10 +4104,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4131,10 +4133,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4160,10 +4162,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4189,10 +4191,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4218,10 +4220,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4247,10 +4249,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4259,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H65" s="2">
         <v>11005</v>
@@ -4276,10 +4278,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4305,10 +4307,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4334,10 +4336,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4363,10 +4365,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4392,10 +4394,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4421,10 +4423,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4433,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H71" s="2">
         <v>11005</v>
@@ -4450,10 +4452,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4479,10 +4481,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4508,10 +4510,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4537,10 +4539,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4566,10 +4568,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4595,10 +4597,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4607,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H77" s="2">
         <v>11005</v>
@@ -4624,10 +4626,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4636,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4653,10 +4655,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4682,10 +4684,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4711,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4740,10 +4742,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4769,10 +4771,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4781,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H83" s="2">
         <v>11005</v>
@@ -4807,10 +4809,10 @@
         <v>43</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4836,10 +4838,10 @@
         <v>44</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4865,10 +4867,10 @@
         <v>45</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4894,10 +4896,10 @@
         <v>46</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4923,10 +4925,10 @@
         <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4952,10 +4954,10 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
@@ -4964,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -4992,10 +4994,10 @@
         <v>49</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
@@ -5004,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>172</v>
+        <v>486</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -5018,13 +5020,13 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
@@ -5033,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H93" s="2">
         <v>10200</v>
@@ -5050,10 +5052,10 @@
         <v>50</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -5079,10 +5081,10 @@
         <v>51</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
@@ -5091,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H95" s="2">
         <v>10200</v>
@@ -5116,10 +5118,10 @@
         <v>52</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -5128,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H97" s="2">
         <v>11010</v>
@@ -5145,10 +5147,10 @@
         <v>52</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -5174,10 +5176,10 @@
         <v>52</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -5203,10 +5205,10 @@
         <v>52</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
@@ -5215,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H100" s="2">
         <v>11010</v>
@@ -5232,10 +5234,10 @@
         <v>52</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -5261,10 +5263,10 @@
         <v>52</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5301,7 +5303,7 @@
         <v>55</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>56</v>
@@ -5313,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5341,10 +5343,10 @@
         <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
@@ -5353,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H106" s="2">
         <v>11210</v>
@@ -5370,10 +5372,10 @@
         <v>58</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5399,10 +5401,10 @@
         <v>60</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5428,10 +5430,10 @@
         <v>62</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5457,10 +5459,10 @@
         <v>64</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5483,22 +5485,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -5526,10 +5528,10 @@
         <v>66</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5555,10 +5557,10 @@
         <v>68</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5584,10 +5586,10 @@
         <v>70</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5613,10 +5615,10 @@
         <v>72</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5642,10 +5644,10 @@
         <v>74</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>379</v>
+        <v>487</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5654,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>75</v>
+        <v>488</v>
       </c>
       <c r="H117" s="2">
         <v>11310</v>
@@ -5668,22 +5670,22 @@
         <v>313150</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="H118" s="2">
         <v>11310</v>
@@ -5697,22 +5699,22 @@
         <v>313160</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="H119" s="2">
         <v>11310</v>
@@ -5726,22 +5728,22 @@
         <v>313200</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="H120" s="2">
         <v>11310</v>
@@ -5755,22 +5757,22 @@
         <v>313210</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H121" s="2">
         <v>11310</v>
@@ -5784,22 +5786,22 @@
         <v>313220</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="H122" s="2">
         <v>11310</v>
@@ -5813,22 +5815,22 @@
         <v>313230</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="3">
-        <v>0</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="H123" s="2">
         <v>11310</v>
@@ -5852,22 +5854,22 @@
         <v>315100</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" s="3">
-        <v>0</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H125" s="2">
         <v>11510</v>
@@ -5881,22 +5883,22 @@
         <v>315101</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H126" s="2">
         <v>11510</v>
@@ -5910,13 +5912,13 @@
         <v>315110</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
@@ -5925,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H127" s="2">
         <v>11510</v>
@@ -5939,22 +5941,22 @@
         <v>315111</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="H128" s="2">
         <v>11510</v>
@@ -5968,13 +5970,13 @@
         <v>315120</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
@@ -5983,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H129" s="2">
         <v>11510</v>
@@ -5997,13 +5999,13 @@
         <v>315130</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
@@ -6012,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H130" s="2">
         <v>11510</v>
@@ -6026,22 +6028,22 @@
         <v>315140</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H131" s="2">
         <v>11510</v>
@@ -6055,22 +6057,22 @@
         <v>315150</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H132" s="2">
         <v>11510</v>
@@ -6084,22 +6086,22 @@
         <v>315160</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" s="3">
-        <v>0</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="H133" s="2">
         <v>11510</v>
@@ -6113,22 +6115,22 @@
         <v>315170</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" s="3">
-        <v>0</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H134" s="2">
         <v>11510</v>
@@ -6142,13 +6144,13 @@
         <v>315180</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -6157,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H135" s="2">
         <v>11510</v>
@@ -6182,13 +6184,13 @@
         <v>316100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
@@ -6197,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6211,13 +6213,13 @@
         <v>316101</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -6226,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H138" s="2">
         <v>11610</v>
@@ -6240,22 +6242,22 @@
         <v>316110</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="H139" s="2">
         <v>11610</v>
@@ -6269,22 +6271,22 @@
         <v>316120</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="H140" s="2">
         <v>11610</v>
@@ -6298,13 +6300,13 @@
         <v>316121</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
@@ -6313,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H141" s="2">
         <v>11610</v>
@@ -6327,22 +6329,22 @@
         <v>316130</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H142" s="2">
         <v>11610</v>
@@ -6367,13 +6369,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6382,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H144" s="2">
         <v>11710</v>
@@ -6396,22 +6398,22 @@
         <v>317110</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0</v>
+      </c>
+      <c r="G145" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H145" s="2">
         <v>11710</v>
@@ -6425,22 +6427,22 @@
         <v>317120</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="H146" s="2">
         <v>11710</v>
@@ -6454,22 +6456,22 @@
         <v>317130</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="H147" s="2">
         <v>11710</v>
@@ -6483,13 +6485,13 @@
         <v>317140</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
@@ -6498,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H148" s="2">
         <v>11710</v>
@@ -6512,13 +6514,13 @@
         <v>317141</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
@@ -6527,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H149" s="2">
         <v>11710</v>
@@ -6541,13 +6543,13 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6556,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H150" s="2">
         <v>11710</v>
@@ -6570,13 +6572,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="D151" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6585,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H151" s="2">
         <v>11710</v>
@@ -6609,13 +6611,13 @@
         <v>318100</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6638,13 +6640,13 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
@@ -6653,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6667,13 +6669,13 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
@@ -6682,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6696,13 +6698,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6711,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6725,13 +6727,13 @@
         <v>318113</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
@@ -6740,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6754,13 +6756,13 @@
         <v>318114</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6769,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6803,22 +6805,22 @@
         <v>319100</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" s="3">
-        <v>0</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="H160" s="2">
         <v>11913</v>
@@ -6832,13 +6834,13 @@
         <v>319101</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6847,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -6861,22 +6863,22 @@
         <v>319110</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="H162" s="2">
         <v>11913</v>
@@ -6890,13 +6892,13 @@
         <v>319111</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6905,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H163" s="2">
         <v>11913</v>
@@ -6919,13 +6921,13 @@
         <v>319120</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6934,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6948,13 +6950,13 @@
         <v>319121</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -6963,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -6977,22 +6979,22 @@
         <v>319130</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" s="3">
-        <v>0</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="H166" s="2">
         <v>11913</v>
@@ -7006,13 +7008,13 @@
         <v>319140</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -7021,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H167" s="2">
         <v>11913</v>
@@ -7035,13 +7037,13 @@
         <v>319150</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -7050,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H168" s="2">
         <v>11913</v>
@@ -7074,22 +7076,22 @@
         <v>320100</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" s="3">
-        <v>0</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="H170" s="2">
         <v>12010</v>
@@ -7103,22 +7105,22 @@
         <v>320110</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="H171" s="2">
         <v>12010</v>
@@ -7132,22 +7134,22 @@
         <v>320120</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" s="3">
-        <v>0</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H172" s="2">
         <v>12010</v>
@@ -7161,22 +7163,22 @@
         <v>320130</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F173" s="3">
-        <v>0</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="H173" s="2">
         <v>12010</v>
@@ -7190,22 +7192,22 @@
         <v>320140</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" s="3">
-        <v>0</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H174" s="2">
         <v>12010</v>
@@ -7219,22 +7221,22 @@
         <v>320150</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" s="3">
-        <v>0</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H175" s="2">
         <v>12010</v>
@@ -7248,13 +7250,13 @@
         <v>320160</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7288,13 +7290,13 @@
         <v>321100</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
@@ -7303,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H178" s="2">
         <v>12113</v>
@@ -7317,13 +7319,13 @@
         <v>321110</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -7332,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7346,13 +7348,13 @@
         <v>321111</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -7361,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7375,13 +7377,13 @@
         <v>321120</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7390,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H181" s="2">
         <v>12113</v>
@@ -7404,13 +7406,13 @@
         <v>321130</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7419,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H182" s="2">
         <v>12113</v>
@@ -7433,13 +7435,13 @@
         <v>321140</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7448,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H183" s="2">
         <v>12113</v>
@@ -7462,13 +7464,13 @@
         <v>321150</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -7477,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H184" s="2">
         <v>12113</v>
@@ -7491,13 +7493,13 @@
         <v>321160</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
@@ -7506,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H185" s="2">
         <v>12113</v>
@@ -7520,13 +7522,13 @@
         <v>321170</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7535,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H186" s="2">
         <v>12113</v>
@@ -7549,13 +7551,13 @@
         <v>321180</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7564,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H187" s="2">
         <v>12113</v>
@@ -7587,13 +7589,13 @@
         <v>330000</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7619,10 +7621,10 @@
         <v>55</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7631,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7648,10 +7650,10 @@
         <v>55</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7660,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H191" s="2">
         <v>13001</v>
@@ -7674,13 +7676,13 @@
         <v>330030</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7703,13 +7705,13 @@
         <v>330040</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7732,13 +7734,13 @@
         <v>330050</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7761,13 +7763,13 @@
         <v>330060</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7790,13 +7792,13 @@
         <v>330070</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7819,13 +7821,13 @@
         <v>330080</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7848,13 +7850,13 @@
         <v>330090</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7877,13 +7879,13 @@
         <v>330100</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7906,13 +7908,13 @@
         <v>330110</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7935,13 +7937,13 @@
         <v>330120</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7950,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -7964,13 +7966,13 @@
         <v>330130</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7979,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -7993,13 +7995,13 @@
         <v>330140</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8008,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -8022,13 +8024,13 @@
         <v>330150</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8037,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -8051,13 +8053,13 @@
         <v>330160</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -8066,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8080,13 +8082,13 @@
         <v>330170</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8095,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8109,13 +8111,13 @@
         <v>330180</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -8124,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8138,18 +8140,18 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H209" s="2">
         <v>10000</v>
@@ -8163,18 +8165,18 @@
         <v>340010</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H210" s="2">
         <v>10000</v>
@@ -8188,18 +8190,18 @@
         <v>340020</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8213,18 +8215,18 @@
         <v>340030</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8238,18 +8240,18 @@
         <v>340040</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA610D-2251-436F-A9CA-590A96A78035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72AC42-9ECB-4C22-A198-D25DF4EAAC85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="3990" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14580" yWindow="4200" windowWidth="25800" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1251,10 +1251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>512030,513030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>550010,514030</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1816,10 +1812,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>512030,510030,550023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>511000,511005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1958,6 +1950,13 @@
   <si>
     <t>513140,550000,513141</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510030,510030,550023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550010,513030</t>
   </si>
 </sst>
 </file>
@@ -2396,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2437,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2477,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>182</v>
@@ -2506,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>183</v>
@@ -2547,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H5" s="2">
         <v>10007</v>
@@ -2593,7 +2592,7 @@
         <v>188</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>189</v>
@@ -2622,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>190</v>
@@ -2651,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>190</v>
@@ -2692,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2715,7 +2714,7 @@
         <v>193</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2744,7 +2743,7 @@
         <v>193</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2773,7 +2772,7 @@
         <v>193</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2869,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2889,7 +2888,7 @@
         <v>193</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2918,7 +2917,7 @@
         <v>193</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2947,7 +2946,7 @@
         <v>193</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2956,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -3043,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3063,7 +3062,7 @@
         <v>193</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3092,7 +3091,7 @@
         <v>193</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3121,7 +3120,7 @@
         <v>193</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3150,7 +3149,7 @@
         <v>194</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3179,7 +3178,7 @@
         <v>196</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3237,7 +3236,7 @@
         <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3266,7 +3265,7 @@
         <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3295,7 +3294,7 @@
         <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3324,7 +3323,7 @@
         <v>194</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3353,7 +3352,7 @@
         <v>196</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3391,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>284</v>
+        <v>488</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3411,7 +3410,7 @@
         <v>193</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3440,7 +3439,7 @@
         <v>193</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3449,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3469,7 +3468,7 @@
         <v>193</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3478,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -3498,7 +3497,7 @@
         <v>194</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3565,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H41" s="2">
         <v>11005</v>
@@ -3585,7 +3584,7 @@
         <v>193</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3614,7 +3613,7 @@
         <v>193</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3643,7 +3642,7 @@
         <v>193</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3672,7 +3671,7 @@
         <v>194</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3701,7 +3700,7 @@
         <v>196</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3730,7 +3729,7 @@
         <v>199</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3739,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H47" s="2">
         <v>11005</v>
@@ -3759,7 +3758,7 @@
         <v>193</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3788,7 +3787,7 @@
         <v>193</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3817,7 +3816,7 @@
         <v>193</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3846,7 +3845,7 @@
         <v>194</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3875,7 +3874,7 @@
         <v>196</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3904,7 +3903,7 @@
         <v>199</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3913,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H53" s="2">
         <v>11005</v>
@@ -3933,7 +3932,7 @@
         <v>193</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3962,7 +3961,7 @@
         <v>193</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3991,7 +3990,7 @@
         <v>193</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -4020,7 +4019,7 @@
         <v>194</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -4049,7 +4048,7 @@
         <v>196</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4078,7 +4077,7 @@
         <v>199</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4087,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H59" s="2">
         <v>11005</v>
@@ -4107,7 +4106,7 @@
         <v>193</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4136,7 +4135,7 @@
         <v>193</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4165,7 +4164,7 @@
         <v>193</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4194,7 +4193,7 @@
         <v>194</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4223,7 +4222,7 @@
         <v>196</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4252,7 +4251,7 @@
         <v>199</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4261,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H65" s="2">
         <v>11005</v>
@@ -4281,7 +4280,7 @@
         <v>193</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4310,7 +4309,7 @@
         <v>193</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4339,7 +4338,7 @@
         <v>193</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4368,7 +4367,7 @@
         <v>194</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4397,7 +4396,7 @@
         <v>196</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4426,7 +4425,7 @@
         <v>199</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4435,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H71" s="2">
         <v>11005</v>
@@ -4455,7 +4454,7 @@
         <v>193</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4484,7 +4483,7 @@
         <v>193</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4513,7 +4512,7 @@
         <v>193</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4542,7 +4541,7 @@
         <v>194</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4571,7 +4570,7 @@
         <v>196</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4600,7 +4599,7 @@
         <v>199</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4609,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H77" s="2">
         <v>11005</v>
@@ -4629,7 +4628,7 @@
         <v>193</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4638,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4658,7 +4657,7 @@
         <v>193</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4687,7 +4686,7 @@
         <v>193</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4716,7 +4715,7 @@
         <v>194</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4745,7 +4744,7 @@
         <v>196</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4774,7 +4773,7 @@
         <v>199</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4783,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H83" s="2">
         <v>11005</v>
@@ -4925,10 +4924,10 @@
         <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4954,19 +4953,19 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -4994,7 +4993,7 @@
         <v>49</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>208</v>
@@ -5006,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -5023,7 +5022,7 @@
         <v>209</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>210</v>
@@ -5052,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>211</v>
@@ -5130,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H97" s="2">
         <v>11010</v>
@@ -5217,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H100" s="2">
         <v>11010</v>
@@ -5315,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5343,7 +5342,7 @@
         <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>217</v>
@@ -5355,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H106" s="2">
         <v>11210</v>
@@ -5372,7 +5371,7 @@
         <v>58</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>218</v>
@@ -5401,7 +5400,7 @@
         <v>60</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>219</v>
@@ -5430,7 +5429,7 @@
         <v>62</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>220</v>
@@ -5459,7 +5458,7 @@
         <v>64</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>221</v>
@@ -5485,22 +5484,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -5531,7 +5530,7 @@
         <v>222</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5557,10 +5556,10 @@
         <v>68</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5586,10 +5585,10 @@
         <v>70</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5615,10 +5614,10 @@
         <v>72</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5644,10 +5643,10 @@
         <v>74</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5656,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H117" s="2">
         <v>11310</v>
@@ -5673,10 +5672,10 @@
         <v>75</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5702,10 +5701,10 @@
         <v>77</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5731,7 +5730,7 @@
         <v>79</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>223</v>
@@ -5760,7 +5759,7 @@
         <v>81</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>224</v>
@@ -5789,7 +5788,7 @@
         <v>83</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>225</v>
@@ -5818,10 +5817,10 @@
         <v>85</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>7</v>
@@ -5857,7 +5856,7 @@
         <v>87</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>226</v>
@@ -5886,7 +5885,7 @@
         <v>87</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>227</v>
@@ -5915,11 +5914,11 @@
         <v>89</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H127" s="2">
         <v>11510</v>
@@ -5944,10 +5943,10 @@
         <v>89</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5973,7 +5972,7 @@
         <v>91</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>228</v>
@@ -5985,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H129" s="2">
         <v>11510</v>
@@ -6002,7 +6001,7 @@
         <v>92</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>229</v>
@@ -6014,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H130" s="2">
         <v>11510</v>
@@ -6031,7 +6030,7 @@
         <v>93</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>230</v>
@@ -6118,10 +6117,10 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -6147,7 +6146,7 @@
         <v>101</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>230</v>
@@ -6159,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H135" s="2">
         <v>11510</v>
@@ -6187,7 +6186,7 @@
         <v>102</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>231</v>
@@ -6199,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6216,11 +6215,11 @@
         <v>102</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H138" s="2">
         <v>11610</v>
@@ -6245,10 +6244,10 @@
         <v>103</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -6274,10 +6273,10 @@
         <v>105</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -6303,11 +6302,11 @@
         <v>107</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>406</v>
-      </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H141" s="2">
         <v>11610</v>
@@ -6372,7 +6371,7 @@
         <v>232</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>233</v>
@@ -6401,7 +6400,7 @@
         <v>111</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>234</v>
@@ -6430,7 +6429,7 @@
         <v>113</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>235</v>
@@ -6459,7 +6458,7 @@
         <v>115</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>236</v>
@@ -6500,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H148" s="2">
         <v>11710</v>
@@ -6517,7 +6516,7 @@
         <v>117</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>239</v>
@@ -6529,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H149" s="2">
         <v>11710</v>
@@ -6543,13 +6542,13 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="D150" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6572,13 +6571,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6643,7 +6642,7 @@
         <v>240</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>241</v>
@@ -6655,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6672,7 +6671,7 @@
         <v>242</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>243</v>
@@ -6684,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6713,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6742,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6759,7 +6758,7 @@
         <v>121</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>247</v>
@@ -6771,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6808,7 +6807,7 @@
         <v>122</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>248</v>
@@ -6837,7 +6836,7 @@
         <v>122</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>249</v>
@@ -6849,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -6866,7 +6865,7 @@
         <v>124</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>248</v>
@@ -6895,7 +6894,7 @@
         <v>124</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>249</v>
@@ -6924,7 +6923,7 @@
         <v>127</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>250</v>
@@ -6936,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6953,7 +6952,7 @@
         <v>127</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>251</v>
@@ -6965,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -6982,7 +6981,7 @@
         <v>128</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>252</v>
@@ -7011,7 +7010,7 @@
         <v>128</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>252</v>
@@ -7079,7 +7078,7 @@
         <v>132</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>254</v>
@@ -7137,7 +7136,7 @@
         <v>136</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>257</v>
@@ -7253,10 +7252,10 @@
         <v>144</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7293,7 +7292,7 @@
         <v>145</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>259</v>
@@ -7322,11 +7321,11 @@
         <v>146</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7351,11 +7350,11 @@
         <v>146</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7380,10 +7379,10 @@
         <v>147</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7409,10 +7408,10 @@
         <v>148</v>
       </c>
       <c r="C182" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7438,10 +7437,10 @@
         <v>149</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7467,7 +7466,7 @@
         <v>150</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>260</v>
@@ -7496,7 +7495,7 @@
         <v>151</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>261</v>
@@ -7525,7 +7524,7 @@
         <v>152</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>262</v>
@@ -7554,7 +7553,7 @@
         <v>153</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>260</v>
@@ -7566,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H187" s="2">
         <v>12113</v>
@@ -7633,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7679,7 +7678,7 @@
         <v>156</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>269</v>
@@ -7708,7 +7707,7 @@
         <v>156</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>269</v>
@@ -7766,7 +7765,7 @@
         <v>157</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>272</v>
@@ -7795,7 +7794,7 @@
         <v>157</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>272</v>
@@ -7824,7 +7823,7 @@
         <v>157</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>273</v>
@@ -7853,7 +7852,7 @@
         <v>158</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>272</v>
@@ -7882,7 +7881,7 @@
         <v>158</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>272</v>
@@ -7911,7 +7910,7 @@
         <v>158</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>274</v>
@@ -7943,7 +7942,7 @@
         <v>275</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7952,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -7969,10 +7968,10 @@
         <v>160</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7981,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -8001,7 +8000,7 @@
         <v>276</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8010,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -8030,7 +8029,7 @@
         <v>275</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8039,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -8056,10 +8055,10 @@
         <v>160</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -8068,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8088,7 +8087,7 @@
         <v>276</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8097,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8126,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8140,7 +8139,7 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8201,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8226,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8251,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72AC42-9ECB-4C22-A198-D25DF4EAAC85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E031AE3-8A12-483A-9FEF-9E33CDEDC01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="4200" windowWidth="25800" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="3150" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1330,10 +1330,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>518113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>518114</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1957,6 +1953,10 @@
   </si>
   <si>
     <t>550010,513030</t>
+  </si>
+  <si>
+    <t>518113,518117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2436,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>182</v>
@@ -2505,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>183</v>
@@ -2592,7 +2592,7 @@
         <v>188</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>189</v>
@@ -2621,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>190</v>
@@ -2650,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>190</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2714,7 +2714,7 @@
         <v>193</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2743,7 +2743,7 @@
         <v>193</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2772,7 +2772,7 @@
         <v>193</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2888,7 +2888,7 @@
         <v>193</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2917,7 +2917,7 @@
         <v>193</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2946,7 +2946,7 @@
         <v>193</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3062,7 +3062,7 @@
         <v>193</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3091,7 +3091,7 @@
         <v>193</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3120,7 +3120,7 @@
         <v>193</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3149,7 +3149,7 @@
         <v>194</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3178,7 +3178,7 @@
         <v>196</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3236,7 +3236,7 @@
         <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3265,7 +3265,7 @@
         <v>193</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3294,7 +3294,7 @@
         <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3323,7 +3323,7 @@
         <v>194</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3352,7 +3352,7 @@
         <v>196</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3410,7 +3410,7 @@
         <v>193</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3439,7 +3439,7 @@
         <v>193</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3468,7 +3468,7 @@
         <v>193</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -3497,7 +3497,7 @@
         <v>194</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3584,7 +3584,7 @@
         <v>193</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3613,7 +3613,7 @@
         <v>193</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3642,7 +3642,7 @@
         <v>193</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3671,7 +3671,7 @@
         <v>194</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3700,7 +3700,7 @@
         <v>196</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3729,7 +3729,7 @@
         <v>199</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3758,7 +3758,7 @@
         <v>193</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3787,7 +3787,7 @@
         <v>193</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3816,7 +3816,7 @@
         <v>193</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3845,7 +3845,7 @@
         <v>194</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3874,7 +3874,7 @@
         <v>196</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3903,7 +3903,7 @@
         <v>199</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3932,7 +3932,7 @@
         <v>193</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3961,7 +3961,7 @@
         <v>193</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3990,7 +3990,7 @@
         <v>193</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -4019,7 +4019,7 @@
         <v>194</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -4048,7 +4048,7 @@
         <v>196</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4077,7 +4077,7 @@
         <v>199</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4106,7 +4106,7 @@
         <v>193</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4135,7 +4135,7 @@
         <v>193</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4164,7 +4164,7 @@
         <v>193</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4193,7 +4193,7 @@
         <v>194</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4222,7 +4222,7 @@
         <v>196</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4251,7 +4251,7 @@
         <v>199</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4280,7 +4280,7 @@
         <v>193</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4309,7 +4309,7 @@
         <v>193</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4338,7 +4338,7 @@
         <v>193</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4367,7 +4367,7 @@
         <v>194</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4396,7 +4396,7 @@
         <v>196</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4425,7 +4425,7 @@
         <v>199</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4454,7 +4454,7 @@
         <v>193</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4483,7 +4483,7 @@
         <v>193</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4512,7 +4512,7 @@
         <v>193</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4541,7 +4541,7 @@
         <v>194</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4570,7 +4570,7 @@
         <v>196</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4599,7 +4599,7 @@
         <v>199</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4628,7 +4628,7 @@
         <v>193</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4657,7 +4657,7 @@
         <v>193</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4686,7 +4686,7 @@
         <v>193</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4715,7 +4715,7 @@
         <v>194</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4744,7 +4744,7 @@
         <v>196</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4773,7 +4773,7 @@
         <v>199</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4924,10 +4924,10 @@
         <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4953,19 +4953,19 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -4993,7 +4993,7 @@
         <v>49</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>208</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -5022,7 +5022,7 @@
         <v>209</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>210</v>
@@ -5051,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>211</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5342,7 +5342,7 @@
         <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>217</v>
@@ -5371,7 +5371,7 @@
         <v>58</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>218</v>
@@ -5400,7 +5400,7 @@
         <v>60</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>219</v>
@@ -5429,7 +5429,7 @@
         <v>62</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>220</v>
@@ -5458,7 +5458,7 @@
         <v>64</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>221</v>
@@ -5484,22 +5484,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -5530,7 +5530,7 @@
         <v>222</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5556,10 +5556,10 @@
         <v>68</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5585,10 +5585,10 @@
         <v>70</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5614,10 +5614,10 @@
         <v>72</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5643,19 +5643,19 @@
         <v>74</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="H117" s="2">
         <v>11310</v>
@@ -5672,10 +5672,10 @@
         <v>75</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5701,10 +5701,10 @@
         <v>77</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5730,7 +5730,7 @@
         <v>79</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>223</v>
@@ -5759,7 +5759,7 @@
         <v>81</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>224</v>
@@ -5788,7 +5788,7 @@
         <v>83</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>225</v>
@@ -5817,10 +5817,10 @@
         <v>85</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>7</v>
@@ -5856,7 +5856,7 @@
         <v>87</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>226</v>
@@ -5885,7 +5885,7 @@
         <v>87</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>227</v>
@@ -5914,10 +5914,10 @@
         <v>89</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
@@ -5943,10 +5943,10 @@
         <v>89</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5972,7 +5972,7 @@
         <v>91</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>228</v>
@@ -6001,7 +6001,7 @@
         <v>92</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>229</v>
@@ -6030,7 +6030,7 @@
         <v>93</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>230</v>
@@ -6117,10 +6117,10 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -6146,7 +6146,7 @@
         <v>101</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>230</v>
@@ -6186,7 +6186,7 @@
         <v>102</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>231</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6215,10 +6215,10 @@
         <v>102</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -6244,10 +6244,10 @@
         <v>103</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -6273,10 +6273,10 @@
         <v>105</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -6302,10 +6302,10 @@
         <v>107</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
@@ -6371,7 +6371,7 @@
         <v>232</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>233</v>
@@ -6400,7 +6400,7 @@
         <v>111</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>234</v>
@@ -6429,7 +6429,7 @@
         <v>113</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>235</v>
@@ -6458,7 +6458,7 @@
         <v>115</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>236</v>
@@ -6516,7 +6516,7 @@
         <v>117</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>239</v>
@@ -6542,13 +6542,13 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="D150" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6571,13 +6571,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6642,7 +6642,7 @@
         <v>240</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>241</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>304</v>
+        <v>488</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6671,7 +6671,7 @@
         <v>242</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>243</v>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6758,7 +6758,7 @@
         <v>121</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>247</v>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6807,7 +6807,7 @@
         <v>122</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>248</v>
@@ -6836,7 +6836,7 @@
         <v>122</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>249</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -6865,7 +6865,7 @@
         <v>124</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>248</v>
@@ -6894,7 +6894,7 @@
         <v>124</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>249</v>
@@ -6923,7 +6923,7 @@
         <v>127</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>250</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6952,7 +6952,7 @@
         <v>127</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>251</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -6981,7 +6981,7 @@
         <v>128</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>252</v>
@@ -7010,7 +7010,7 @@
         <v>128</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>252</v>
@@ -7078,7 +7078,7 @@
         <v>132</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>254</v>
@@ -7136,7 +7136,7 @@
         <v>136</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>257</v>
@@ -7252,10 +7252,10 @@
         <v>144</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7292,7 +7292,7 @@
         <v>145</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>259</v>
@@ -7321,11 +7321,11 @@
         <v>146</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7350,11 +7350,11 @@
         <v>146</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7379,10 +7379,10 @@
         <v>147</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7408,10 +7408,10 @@
         <v>148</v>
       </c>
       <c r="C182" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7437,10 +7437,10 @@
         <v>149</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7466,7 +7466,7 @@
         <v>150</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>260</v>
@@ -7495,7 +7495,7 @@
         <v>151</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>261</v>
@@ -7524,7 +7524,7 @@
         <v>152</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>262</v>
@@ -7553,7 +7553,7 @@
         <v>153</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>260</v>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7678,7 +7678,7 @@
         <v>156</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>269</v>
@@ -7707,7 +7707,7 @@
         <v>156</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>269</v>
@@ -7765,7 +7765,7 @@
         <v>157</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>272</v>
@@ -7794,7 +7794,7 @@
         <v>157</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>272</v>
@@ -7823,7 +7823,7 @@
         <v>157</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>273</v>
@@ -7852,7 +7852,7 @@
         <v>158</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>272</v>
@@ -7881,7 +7881,7 @@
         <v>158</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>272</v>
@@ -7910,7 +7910,7 @@
         <v>158</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>274</v>
@@ -7942,7 +7942,7 @@
         <v>275</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -7968,11 +7968,11 @@
         <v>160</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -8000,7 +8000,7 @@
         <v>276</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -8029,7 +8029,7 @@
         <v>275</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -8055,11 +8055,11 @@
         <v>160</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8087,7 +8087,7 @@
         <v>276</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8139,7 +8139,7 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E031AE3-8A12-483A-9FEF-9E33CDEDC01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA58937-ED26-4308-B5F4-DA202ED466CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="3150" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3975" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -886,10 +886,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7月15日，亲王将发起兵变。在此之前挫败其计划。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>人类的一举一动，都不会逃出猫咪的眼睛。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1173,10 +1169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>隐匿度提升。通过“猫咪入住”可以维持隐匿度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>凯修：致卡莉——这就来。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1351,10 +1343,6 @@
   </si>
   <si>
     <t>550000,519122,519123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>540030,518113</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1956,6 +1944,18 @@
   </si>
   <si>
     <t>518113,518117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐匿度提升。进行“猫咪入住”以维持隐匿度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月18日，亲王将发起兵变。在此之前挫败其计划。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540030,518113,550023</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="L158" sqref="L158"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2436,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>182</v>
@@ -2505,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>183</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H5" s="2">
         <v>10007</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H6" s="2">
         <v>10007</v>
@@ -2592,7 +2592,7 @@
         <v>188</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>189</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H7" s="2">
         <v>11310</v>
@@ -2621,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>190</v>
@@ -2650,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>190</v>
@@ -2682,7 +2682,7 @@
         <v>191</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2711,10 +2711,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2740,10 +2740,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2769,10 +2769,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2798,10 +2798,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -2827,10 +2827,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -2856,11 +2856,11 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2885,10 +2885,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2914,10 +2914,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2943,10 +2943,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -2972,11 +2972,11 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H21" s="2">
         <v>11003</v>
@@ -3001,10 +3001,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H22" s="2">
         <v>11004</v>
@@ -3030,10 +3030,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3059,10 +3059,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3088,10 +3088,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3117,10 +3117,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3146,10 +3146,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3175,10 +3175,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H28" s="2">
         <v>11004</v>
@@ -3204,10 +3204,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>7</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H29" s="2">
         <v>11005</v>
@@ -3233,10 +3233,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3262,10 +3262,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3291,10 +3291,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3320,10 +3320,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3349,10 +3349,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H34" s="2">
         <v>11004</v>
@@ -3378,11 +3378,11 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E35" s="3" t="s">
         <v>7</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3407,10 +3407,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3436,10 +3436,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3465,10 +3465,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -3494,10 +3494,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3523,10 +3523,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>7</v>
@@ -3552,11 +3552,11 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E41" s="3" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H41" s="2">
         <v>11005</v>
@@ -3581,10 +3581,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3610,10 +3610,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3639,10 +3639,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3697,10 +3697,10 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3726,10 +3726,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H47" s="2">
         <v>11005</v>
@@ -3755,10 +3755,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3784,10 +3784,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3813,10 +3813,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3842,10 +3842,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3871,10 +3871,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3900,10 +3900,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H53" s="2">
         <v>11005</v>
@@ -3929,10 +3929,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3958,10 +3958,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3987,10 +3987,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -4016,10 +4016,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -4045,10 +4045,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4074,10 +4074,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H59" s="2">
         <v>11005</v>
@@ -4103,10 +4103,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4132,10 +4132,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4190,10 +4190,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4219,10 +4219,10 @@
         <v>9</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4248,10 +4248,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H65" s="2">
         <v>11005</v>
@@ -4277,10 +4277,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4306,10 +4306,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4335,10 +4335,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4364,10 +4364,10 @@
         <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4393,10 +4393,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4422,10 +4422,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H71" s="2">
         <v>11005</v>
@@ -4451,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4480,10 +4480,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4509,10 +4509,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4538,10 +4538,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4567,10 +4567,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4596,10 +4596,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H77" s="2">
         <v>11005</v>
@@ -4625,10 +4625,10 @@
         <v>6</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4654,10 +4654,10 @@
         <v>6</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4683,10 +4683,10 @@
         <v>6</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4712,10 +4712,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4741,10 +4741,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4770,10 +4770,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H83" s="2">
         <v>11005</v>
@@ -4808,10 +4808,10 @@
         <v>43</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>7</v>
@@ -4837,10 +4837,10 @@
         <v>44</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>7</v>
@@ -4866,10 +4866,10 @@
         <v>45</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -4895,10 +4895,10 @@
         <v>46</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -4924,10 +4924,10 @@
         <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4953,10 +4953,10 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -4993,10 +4993,10 @@
         <v>49</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -5019,13 +5019,13 @@
         <v>302010</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
@@ -5051,10 +5051,10 @@
         <v>50</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -5080,10 +5080,10 @@
         <v>51</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
@@ -5117,11 +5117,11 @@
         <v>52</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H97" s="2">
         <v>11010</v>
@@ -5146,10 +5146,10 @@
         <v>52</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -5175,10 +5175,10 @@
         <v>52</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -5204,11 +5204,11 @@
         <v>52</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H100" s="2">
         <v>11010</v>
@@ -5233,10 +5233,10 @@
         <v>52</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -5262,10 +5262,10 @@
         <v>52</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -5302,7 +5302,7 @@
         <v>55</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>56</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5342,10 +5342,10 @@
         <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H106" s="2">
         <v>11210</v>
@@ -5371,10 +5371,10 @@
         <v>58</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -5400,10 +5400,10 @@
         <v>60</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -5429,10 +5429,10 @@
         <v>62</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -5458,10 +5458,10 @@
         <v>64</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -5484,22 +5484,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -5527,10 +5527,10 @@
         <v>66</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5556,10 +5556,10 @@
         <v>68</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5585,10 +5585,10 @@
         <v>70</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5614,10 +5614,10 @@
         <v>72</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5643,10 +5643,10 @@
         <v>74</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H117" s="2">
         <v>11310</v>
@@ -5672,10 +5672,10 @@
         <v>75</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5701,10 +5701,10 @@
         <v>77</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5730,10 +5730,10 @@
         <v>79</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -5759,10 +5759,10 @@
         <v>81</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -5788,10 +5788,10 @@
         <v>83</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>7</v>
@@ -5817,10 +5817,10 @@
         <v>85</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>7</v>
@@ -5856,10 +5856,10 @@
         <v>87</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>7</v>
@@ -5885,10 +5885,10 @@
         <v>87</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>7</v>
@@ -5914,10 +5914,10 @@
         <v>89</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H127" s="2">
         <v>11510</v>
@@ -5943,10 +5943,10 @@
         <v>89</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5972,10 +5972,10 @@
         <v>91</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>7</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H129" s="2">
         <v>11510</v>
@@ -6001,10 +6001,10 @@
         <v>92</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>7</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H130" s="2">
         <v>11510</v>
@@ -6030,10 +6030,10 @@
         <v>93</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>7</v>
@@ -6059,10 +6059,10 @@
         <v>95</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>7</v>
@@ -6088,10 +6088,10 @@
         <v>97</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>7</v>
@@ -6117,10 +6117,10 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -6146,10 +6146,10 @@
         <v>101</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>7</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H135" s="2">
         <v>11510</v>
@@ -6186,10 +6186,10 @@
         <v>102</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>7</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6215,10 +6215,10 @@
         <v>102</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H138" s="2">
         <v>11610</v>
@@ -6244,10 +6244,10 @@
         <v>103</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -6273,10 +6273,10 @@
         <v>105</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -6302,10 +6302,10 @@
         <v>107</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H141" s="2">
         <v>11610</v>
@@ -6331,10 +6331,10 @@
         <v>108</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>7</v>
@@ -6368,13 +6368,13 @@
         <v>317100</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>7</v>
@@ -6400,10 +6400,10 @@
         <v>111</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>7</v>
@@ -6429,10 +6429,10 @@
         <v>113</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>7</v>
@@ -6458,10 +6458,10 @@
         <v>115</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>7</v>
@@ -6487,11 +6487,11 @@
         <v>117</v>
       </c>
       <c r="C148" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="E148" s="3" t="s">
         <v>7</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H148" s="2">
         <v>11710</v>
@@ -6516,10 +6516,10 @@
         <v>117</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>7</v>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H149" s="2">
         <v>11710</v>
@@ -6542,13 +6542,13 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6571,13 +6571,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="D151" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6613,10 +6613,10 @@
         <v>120</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>7</v>
@@ -6639,14 +6639,14 @@
         <v>318110</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C154" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6668,14 +6668,14 @@
         <v>318111</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="E155" s="3" t="s">
         <v>7</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6697,13 +6697,13 @@
         <v>318112</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>7</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6729,11 +6729,11 @@
         <v>121</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6758,10 +6758,10 @@
         <v>121</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6807,10 +6807,10 @@
         <v>122</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6836,10 +6836,10 @@
         <v>122</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -6865,10 +6865,10 @@
         <v>124</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6894,10 +6894,10 @@
         <v>124</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6923,10 +6923,10 @@
         <v>127</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6952,10 +6952,10 @@
         <v>127</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -6981,10 +6981,10 @@
         <v>128</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -7010,10 +7010,10 @@
         <v>128</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -7039,10 +7039,10 @@
         <v>128</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -7078,10 +7078,10 @@
         <v>132</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
@@ -7107,10 +7107,10 @@
         <v>134</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -7136,10 +7136,10 @@
         <v>136</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -7165,10 +7165,10 @@
         <v>138</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
@@ -7194,10 +7194,10 @@
         <v>140</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
@@ -7223,10 +7223,10 @@
         <v>142</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -7252,10 +7252,10 @@
         <v>144</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7292,10 +7292,10 @@
         <v>145</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
@@ -7321,10 +7321,10 @@
         <v>146</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7350,10 +7350,10 @@
         <v>146</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7379,10 +7379,10 @@
         <v>147</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7408,10 +7408,10 @@
         <v>148</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7437,10 +7437,10 @@
         <v>149</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7466,10 +7466,10 @@
         <v>150</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -7495,10 +7495,10 @@
         <v>151</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
@@ -7524,10 +7524,10 @@
         <v>152</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7553,10 +7553,10 @@
         <v>153</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H187" s="2">
         <v>12113</v>
@@ -7591,10 +7591,10 @@
         <v>154</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7620,10 +7620,10 @@
         <v>55</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7649,10 +7649,10 @@
         <v>55</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7678,10 +7678,10 @@
         <v>156</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7707,10 +7707,10 @@
         <v>156</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7736,10 +7736,10 @@
         <v>156</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7765,10 +7765,10 @@
         <v>157</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7794,10 +7794,10 @@
         <v>157</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7823,10 +7823,10 @@
         <v>157</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7852,10 +7852,10 @@
         <v>158</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7881,10 +7881,10 @@
         <v>158</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7910,10 +7910,10 @@
         <v>158</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7939,10 +7939,10 @@
         <v>159</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -7968,10 +7968,10 @@
         <v>160</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -7997,10 +7997,10 @@
         <v>161</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -8026,10 +8026,10 @@
         <v>159</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -8055,10 +8055,10 @@
         <v>160</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8084,10 +8084,10 @@
         <v>161</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8113,10 +8113,10 @@
         <v>162</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8139,7 +8139,7 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8224,8 +8224,8 @@
       <c r="F212" s="3">
         <v>0</v>
       </c>
-      <c r="G212" s="6" t="s">
-        <v>310</v>
+      <c r="G212" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA58937-ED26-4308-B5F4-DA202ED466CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5954794-A73F-4539-A83C-8DB5F3E6EDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3975" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="4680" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1808,10 +1808,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>521000,521001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>取得了猫咪圣杯，即将达成圣杯胜利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1956,6 +1952,10 @@
   </si>
   <si>
     <t>540030,518113,550023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>521000,521001,521002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="G212" sqref="G212"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2682,7 +2682,7 @@
         <v>191</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4927,7 +4927,7 @@
         <v>355</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4953,19 +4953,19 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5484,22 +5484,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>459</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -5646,16 +5646,16 @@
         <v>371</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="H117" s="2">
         <v>11310</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7594,7 +7594,7 @@
         <v>262</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7678,7 +7678,7 @@
         <v>156</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>267</v>
@@ -7707,7 +7707,7 @@
         <v>156</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>267</v>
@@ -7765,7 +7765,7 @@
         <v>157</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>270</v>
@@ -7794,7 +7794,7 @@
         <v>157</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>270</v>
@@ -7823,7 +7823,7 @@
         <v>157</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>271</v>
@@ -7852,7 +7852,7 @@
         <v>158</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>270</v>
@@ -7881,7 +7881,7 @@
         <v>158</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>270</v>
@@ -7910,7 +7910,7 @@
         <v>158</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>272</v>
@@ -7942,7 +7942,7 @@
         <v>273</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7968,10 +7968,10 @@
         <v>160</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -8000,7 +8000,7 @@
         <v>274</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8029,7 +8029,7 @@
         <v>273</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8055,10 +8055,10 @@
         <v>160</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         <v>274</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8139,7 +8139,7 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5954794-A73F-4539-A83C-8DB5F3E6EDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAA1DCA-E4BB-4E2C-AD5F-8D0F20E89688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="4680" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="4155" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1796,10 +1796,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>511000,511005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>514000,514003,514004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1956,6 +1952,10 @@
   </si>
   <si>
     <t>521000,521001,521002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>511000,511005,511006</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2682,7 +2682,7 @@
         <v>191</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4927,7 +4927,7 @@
         <v>355</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4953,19 +4953,19 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5484,22 +5484,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -5646,16 +5646,16 @@
         <v>371</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="H117" s="2">
         <v>11310</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7594,7 +7594,7 @@
         <v>262</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7678,7 +7678,7 @@
         <v>156</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>267</v>
@@ -7707,7 +7707,7 @@
         <v>156</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>267</v>
@@ -7765,7 +7765,7 @@
         <v>157</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>270</v>
@@ -7794,7 +7794,7 @@
         <v>157</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>270</v>
@@ -7823,7 +7823,7 @@
         <v>157</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>271</v>
@@ -7852,7 +7852,7 @@
         <v>158</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>270</v>
@@ -7881,7 +7881,7 @@
         <v>158</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>270</v>
@@ -7910,7 +7910,7 @@
         <v>158</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>272</v>
@@ -7942,7 +7942,7 @@
         <v>273</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7968,10 +7968,10 @@
         <v>160</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
@@ -8000,7 +8000,7 @@
         <v>274</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8029,7 +8029,7 @@
         <v>273</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8055,10 +8055,10 @@
         <v>160</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
@@ -8087,7 +8087,7 @@
         <v>274</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8139,7 +8139,7 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>

--- a/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
+++ b/ExcelConfig/pbjson/excel/结果事件配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAA1DCA-E4BB-4E2C-AD5F-8D0F20E89688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63705EB2-8E2C-4A1B-97EF-26555FA7E067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="4155" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#结果事件配置" sheetId="1" r:id="rId1"/>
@@ -1102,10 +1102,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪影响力提升5点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>厨师会继续寻找解决鼠患的办法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1956,6 +1952,10 @@
   </si>
   <si>
     <t>511000,511005,511006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪影响力提升</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2436,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>182</v>
@@ -2505,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>183</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H5" s="2">
         <v>10007</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H6" s="2">
         <v>10007</v>
@@ -2592,7 +2592,7 @@
         <v>188</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>189</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H7" s="2">
         <v>11310</v>
@@ -2621,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>190</v>
@@ -2650,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>190</v>
@@ -2682,7 +2682,7 @@
         <v>191</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H10" s="2">
         <v>10007</v>
@@ -2714,7 +2714,7 @@
         <v>192</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -2743,7 +2743,7 @@
         <v>192</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -2772,7 +2772,7 @@
         <v>192</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H17" s="2">
         <v>11005</v>
@@ -2888,7 +2888,7 @@
         <v>192</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -2917,7 +2917,7 @@
         <v>192</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -2946,7 +2946,7 @@
         <v>192</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H20" s="2">
         <v>11000</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H21" s="2">
         <v>11003</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H22" s="2">
         <v>11004</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H23" s="2">
         <v>11005</v>
@@ -3062,7 +3062,7 @@
         <v>192</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -3091,7 +3091,7 @@
         <v>192</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>7</v>
@@ -3120,7 +3120,7 @@
         <v>192</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>7</v>
@@ -3149,7 +3149,7 @@
         <v>193</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
@@ -3178,7 +3178,7 @@
         <v>195</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>7</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H28" s="2">
         <v>11004</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H29" s="2">
         <v>11005</v>
@@ -3236,7 +3236,7 @@
         <v>192</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>7</v>
@@ -3265,7 +3265,7 @@
         <v>192</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -3294,7 +3294,7 @@
         <v>192</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -3323,7 +3323,7 @@
         <v>193</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>7</v>
@@ -3352,7 +3352,7 @@
         <v>195</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>7</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H34" s="2">
         <v>11004</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H35" s="2">
         <v>11005</v>
@@ -3410,7 +3410,7 @@
         <v>192</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>7</v>
@@ -3439,7 +3439,7 @@
         <v>192</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H37" s="2">
         <v>11000</v>
@@ -3468,7 +3468,7 @@
         <v>192</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>7</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H38" s="2">
         <v>11000</v>
@@ -3497,7 +3497,7 @@
         <v>193</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H41" s="2">
         <v>11005</v>
@@ -3584,7 +3584,7 @@
         <v>192</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>7</v>
@@ -3613,7 +3613,7 @@
         <v>192</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>7</v>
@@ -3642,7 +3642,7 @@
         <v>192</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>7</v>
@@ -3671,7 +3671,7 @@
         <v>193</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>7</v>
@@ -3700,7 +3700,7 @@
         <v>195</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>7</v>
@@ -3729,7 +3729,7 @@
         <v>198</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H47" s="2">
         <v>11005</v>
@@ -3758,7 +3758,7 @@
         <v>192</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>7</v>
@@ -3787,7 +3787,7 @@
         <v>192</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
@@ -3816,7 +3816,7 @@
         <v>192</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>7</v>
@@ -3845,7 +3845,7 @@
         <v>193</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>7</v>
@@ -3874,7 +3874,7 @@
         <v>195</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>7</v>
@@ -3903,7 +3903,7 @@
         <v>198</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>7</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H53" s="2">
         <v>11005</v>
@@ -3932,7 +3932,7 @@
         <v>192</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>7</v>
@@ -3961,7 +3961,7 @@
         <v>192</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3990,7 +3990,7 @@
         <v>192</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>7</v>
@@ -4019,7 +4019,7 @@
         <v>193</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>7</v>
@@ -4048,7 +4048,7 @@
         <v>195</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>7</v>
@@ -4077,7 +4077,7 @@
         <v>198</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>7</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H59" s="2">
         <v>11005</v>
@@ -4106,7 +4106,7 @@
         <v>192</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
@@ -4135,7 +4135,7 @@
         <v>192</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>7</v>
@@ -4164,7 +4164,7 @@
         <v>192</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>7</v>
@@ -4193,7 +4193,7 @@
         <v>193</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -4222,7 +4222,7 @@
         <v>195</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>7</v>
@@ -4251,7 +4251,7 @@
         <v>198</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>7</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H65" s="2">
         <v>11005</v>
@@ -4280,7 +4280,7 @@
         <v>192</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>7</v>
@@ -4309,7 +4309,7 @@
         <v>192</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>7</v>
@@ -4338,7 +4338,7 @@
         <v>192</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
@@ -4367,7 +4367,7 @@
         <v>193</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>7</v>
@@ -4396,7 +4396,7 @@
         <v>195</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>7</v>
@@ -4425,7 +4425,7 @@
         <v>198</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H71" s="2">
         <v>11005</v>
@@ -4454,7 +4454,7 @@
         <v>192</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>7</v>
@@ -4483,7 +4483,7 @@
         <v>192</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>7</v>
@@ -4512,7 +4512,7 @@
         <v>192</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>7</v>
@@ -4541,7 +4541,7 @@
         <v>193</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>7</v>
@@ -4570,7 +4570,7 @@
         <v>195</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>7</v>
@@ -4599,7 +4599,7 @@
         <v>198</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>7</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H77" s="2">
         <v>11005</v>
@@ -4628,7 +4628,7 @@
         <v>192</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>7</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H78" s="2">
         <v>11000</v>
@@ -4657,7 +4657,7 @@
         <v>192</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -4686,7 +4686,7 @@
         <v>192</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>7</v>
@@ -4715,7 +4715,7 @@
         <v>193</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>7</v>
@@ -4744,7 +4744,7 @@
         <v>195</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>7</v>
@@ -4773,7 +4773,7 @@
         <v>198</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>7</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H83" s="2">
         <v>11005</v>
@@ -4924,10 +4924,10 @@
         <v>47</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -4953,19 +4953,19 @@
         <v>48</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="H90" s="2">
         <v>10105</v>
@@ -4993,7 +4993,7 @@
         <v>49</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>207</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H92" s="2">
         <v>10200</v>
@@ -5022,7 +5022,7 @@
         <v>208</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>209</v>
@@ -5051,7 +5051,7 @@
         <v>50</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>210</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H97" s="2">
         <v>11010</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H100" s="2">
         <v>11010</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H104" s="2">
         <v>13001</v>
@@ -5342,7 +5342,7 @@
         <v>57</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>216</v>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H106" s="2">
         <v>11210</v>
@@ -5371,7 +5371,7 @@
         <v>58</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>217</v>
@@ -5400,7 +5400,7 @@
         <v>60</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>218</v>
@@ -5429,7 +5429,7 @@
         <v>62</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>219</v>
@@ -5458,7 +5458,7 @@
         <v>64</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>220</v>
@@ -5484,22 +5484,22 @@
         <v>312160</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="H111" s="2">
         <v>11210</v>
@@ -5530,7 +5530,7 @@
         <v>221</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -5556,10 +5556,10 @@
         <v>68</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -5585,10 +5585,10 @@
         <v>70</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -5614,10 +5614,10 @@
         <v>72</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -5643,19 +5643,19 @@
         <v>74</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="H117" s="2">
         <v>11310</v>
@@ -5672,10 +5672,10 @@
         <v>75</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -5701,10 +5701,10 @@
         <v>77</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -5730,7 +5730,7 @@
         <v>79</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>222</v>
@@ -5759,7 +5759,7 @@
         <v>81</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>223</v>
@@ -5788,7 +5788,7 @@
         <v>83</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>224</v>
@@ -5817,10 +5817,10 @@
         <v>85</v>
       </c>
       <c r="C123" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>7</v>
@@ -5856,7 +5856,7 @@
         <v>87</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>225</v>
@@ -5885,7 +5885,7 @@
         <v>87</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>226</v>
@@ -5914,11 +5914,11 @@
         <v>89</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H127" s="2">
         <v>11510</v>
@@ -5943,10 +5943,10 @@
         <v>89</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>7</v>
@@ -5972,7 +5972,7 @@
         <v>91</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>227</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H129" s="2">
         <v>11510</v>
@@ -6001,7 +6001,7 @@
         <v>92</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>228</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H130" s="2">
         <v>11510</v>
@@ -6030,7 +6030,7 @@
         <v>93</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>229</v>
@@ -6117,10 +6117,10 @@
         <v>99</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>7</v>
@@ -6146,7 +6146,7 @@
         <v>101</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>229</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H135" s="2">
         <v>11510</v>
@@ -6186,7 +6186,7 @@
         <v>102</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>230</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H137" s="2">
         <v>11610</v>
@@ -6215,11 +6215,11 @@
         <v>102</v>
       </c>
       <c r="C138" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="E138" s="3" t="s">
         <v>7</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H138" s="2">
         <v>11610</v>
@@ -6244,10 +6244,10 @@
         <v>103</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>7</v>
@@ -6273,10 +6273,10 @@
         <v>105</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>7</v>
@@ -6302,11 +6302,11 @@
         <v>107</v>
       </c>
       <c r="C141" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="E141" s="3" t="s">
         <v>7</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H141" s="2">
         <v>11610</v>
@@ -6371,7 +6371,7 @@
         <v>231</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>232</v>
@@ -6400,7 +6400,7 @@
         <v>111</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>233</v>
@@ -6429,7 +6429,7 @@
         <v>113</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>234</v>
@@ -6458,7 +6458,7 @@
         <v>115</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>235</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H148" s="2">
         <v>11710</v>
@@ -6516,7 +6516,7 @@
         <v>117</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>238</v>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H149" s="2">
         <v>11710</v>
@@ -6542,13 +6542,13 @@
         <v>317150</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="D150" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>7</v>
@@ -6571,13 +6571,13 @@
         <v>317151</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>7</v>
@@ -6642,7 +6642,7 @@
         <v>239</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>240</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H154" s="2">
         <v>11811</v>
@@ -6671,7 +6671,7 @@
         <v>241</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>242</v>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H155" s="2">
         <v>11811</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H156" s="2">
         <v>11811</v>
@@ -6732,7 +6732,7 @@
         <v>245</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>246</v>
+        <v>488</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>7</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H157" s="2">
         <v>11811</v>
@@ -6758,10 +6758,10 @@
         <v>121</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>246</v>
+        <v>488</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>7</v>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H158" s="2">
         <v>11811</v>
@@ -6807,10 +6807,10 @@
         <v>122</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>7</v>
@@ -6836,10 +6836,10 @@
         <v>122</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>7</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H161" s="2">
         <v>11913</v>
@@ -6865,10 +6865,10 @@
         <v>124</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>7</v>
@@ -6894,10 +6894,10 @@
         <v>124</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>7</v>
@@ -6923,10 +6923,10 @@
         <v>127</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>7</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H164" s="2">
         <v>11913</v>
@@ -6952,10 +6952,10 @@
         <v>127</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>7</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H165" s="2">
         <v>11913</v>
@@ -6981,10 +6981,10 @@
         <v>128</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>7</v>
@@ -7010,10 +7010,10 @@
         <v>128</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>7</v>
@@ -7039,10 +7039,10 @@
         <v>128</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>7</v>
@@ -7078,10 +7078,10 @@
         <v>132</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>7</v>
@@ -7107,10 +7107,10 @@
         <v>134</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>7</v>
@@ -7136,10 +7136,10 @@
         <v>136</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>7</v>
@@ -7165,10 +7165,10 @@
         <v>138</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>7</v>
@@ -7197,7 +7197,7 @@
         <v>194</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>7</v>
@@ -7226,7 +7226,7 @@
         <v>194</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>7</v>
@@ -7252,10 +7252,10 @@
         <v>144</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>7</v>
@@ -7292,10 +7292,10 @@
         <v>145</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>7</v>
@@ -7321,11 +7321,11 @@
         <v>146</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="E179" s="3" t="s">
         <v>7</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H179" s="2">
         <v>12113</v>
@@ -7350,11 +7350,11 @@
         <v>146</v>
       </c>
       <c r="C180" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>430</v>
-      </c>
       <c r="E180" s="3" t="s">
         <v>7</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H180" s="2">
         <v>12113</v>
@@ -7379,10 +7379,10 @@
         <v>147</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>7</v>
@@ -7408,10 +7408,10 @@
         <v>148</v>
       </c>
       <c r="C182" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>7</v>
@@ -7437,10 +7437,10 @@
         <v>149</v>
       </c>
       <c r="C183" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>7</v>
@@ -7466,10 +7466,10 @@
         <v>150</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
@@ -7495,10 +7495,10 @@
         <v>151</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
@@ -7524,10 +7524,10 @@
         <v>152</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
@@ -7553,10 +7553,10 @@
         <v>153</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
@@ -7565,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H187" s="2">
         <v>12113</v>
@@ -7591,10 +7591,10 @@
         <v>154</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
@@ -7620,11 +7620,11 @@
         <v>55</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="E190" s="3" t="s">
         <v>7</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H190" s="2">
         <v>13001</v>
@@ -7649,10 +7649,10 @@
         <v>55</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>7</v>
@@ -7678,10 +7678,10 @@
         <v>156</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>7</v>
@@ -7707,10 +7707,10 @@
         <v>156</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>7</v>
@@ -7736,10 +7736,10 @@
         <v>156</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>7</v>
@@ -7765,10 +7765,10 @@
         <v>157</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>7</v>
@@ -7794,10 +7794,10 @@
         <v>157</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>7</v>
@@ -7823,10 +7823,10 @@
         <v>157</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>7</v>
@@ -7852,10 +7852,10 @@
         <v>158</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>7</v>
@@ -7881,10 +7881,10 @@
         <v>158</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>7</v>
@@ -7910,10 +7910,10 @@
         <v>158</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>7</v>
@@ -7939,10 +7939,10 @@
         <v>159</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>7</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H201" s="2">
         <v>13003</v>
@@ -7968,11 +7968,11 @@
         <v>160</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="E202" s="3" t="s">
         <v>7</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H202" s="2">
         <v>13006</v>
@@ -7997,10 +7997,10 @@
         <v>161</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>7</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H203" s="2">
         <v>13009</v>
@@ -8026,10 +8026,10 @@
         <v>159</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>7</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H204" s="2">
         <v>13003</v>
@@ -8055,11 +8055,11 @@
         <v>160</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="E205" s="3" t="s">
         <v>7</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H205" s="2">
         <v>13006</v>
@@ -8084,10 +8084,10 @@
         <v>161</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>7</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H206" s="2">
         <v>13009</v>
@@ -8113,11 +8113,11 @@
         <v>162</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D207" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="E207" s="3" t="s">
         <v>7</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H207" s="2">
         <v>13000</v>
@@ -8139,7 +8139,7 @@
         <v>340000</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H211" s="2">
         <v>10000</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H212" s="2">
         <v>10000</v>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H213" s="2">
         <v>10000</v>
